--- a/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
+++ b/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>dx</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>cfast pressure</t>
+  </si>
+  <si>
+    <t>you can edit quantities in bold - non-bold items are computed by spreadsheet</t>
+  </si>
+  <si>
+    <t>calc temperature</t>
+  </si>
+  <si>
+    <t>calc pressure</t>
   </si>
 </sst>
 </file>
@@ -453,402 +462,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1">
         <v>6000000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F4" s="1">
         <v>1.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G4" s="1">
         <v>1012</v>
       </c>
-      <c r="H2">
-        <f>G2/F2</f>
+      <c r="H4">
+        <f>G4/F4</f>
         <v>722.85714285714289</v>
       </c>
-      <c r="I2">
-        <f>G2-H2</f>
+      <c r="I4">
+        <f>G4-H4</f>
         <v>289.14285714285711</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J4" s="1">
         <v>101300</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K4" s="1">
         <v>293</v>
       </c>
-      <c r="L2">
-        <f>J2/I2/K2</f>
+      <c r="L4">
+        <f>J4/I4/K4</f>
         <v>1.195719623898879</v>
       </c>
-      <c r="M2">
-        <f>A4*L2</f>
+      <c r="M4">
+        <f>A6*L4</f>
         <v>1195.719623898879</v>
       </c>
-      <c r="N2">
-        <f>H2*M2*K2</f>
+      <c r="N4">
+        <f>H4*M4*K4</f>
         <v>253250000.00000003</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>A2*B2*C2</f>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A4*B4*C4</f>
         <v>1000</v>
       </c>
-      <c r="D4">
-        <f>E2*D2</f>
+      <c r="D6">
+        <f>E4*D4</f>
         <v>0</v>
       </c>
-      <c r="E4">
-        <f>(1-E2)*D2</f>
+      <c r="E6">
+        <f>(1-E4)*D4</f>
         <v>6000000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F6" s="1">
         <v>50000</v>
       </c>
-      <c r="G4">
-        <f>D2/F4/1000</f>
+      <c r="G6">
+        <f>D4/F6/1000</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f>N2</f>
-        <v>253250000.00000003</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>$M$2</f>
-        <v>1195.719623898879</v>
-      </c>
-      <c r="E8">
-        <f>B8/$H$2/D8-273</f>
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
-        <f>F8-E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <f>G8/E8*100</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f>J8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="e">
-        <f>K8/C8*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+10</f>
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <f>B8+(A9-A8)*$E$4</f>
-        <v>313250000</v>
-      </c>
-      <c r="C9">
-        <f>($F$2-1)/$A$4*$E$4*A9</f>
-        <v>23999.999999999996</v>
-      </c>
-      <c r="D9">
-        <f>$M$2+$G$4*A9</f>
-        <v>1196.9196238988791</v>
-      </c>
-      <c r="E9">
-        <f>B9/$H$2/D9-273</f>
-        <v>89.054221285081667</v>
-      </c>
-      <c r="F9" s="3">
-        <v>89.499300000000005</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G68" si="0">F9-E9</f>
-        <v>0.44507871491833839</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" ref="H9:H68" si="1">G9/E9*100</f>
-        <v>0.4997839613840942</v>
-      </c>
-      <c r="J9" s="3">
-        <v>24139.9</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9:K68" si="2">J9-C9</f>
-        <v>139.90000000000509</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" ref="L9:L68" si="3">K9/C9*100</f>
-        <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A72" si="4">A9+10</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>N4</f>
+        <v>253250000.00000003</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>$M$4</f>
+        <v>1195.719623898879</v>
+      </c>
+      <c r="E10">
+        <f>B10/$H$4/D10-273</f>
         <v>20</v>
       </c>
-      <c r="B10">
-        <f t="shared" ref="B10:B72" si="5">B9+(A10-A9)*$E$4</f>
-        <v>373250000</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C72" si="6">($F$2-1)/$A$4*$E$4*A10</f>
-        <v>47999.999999999993</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D68" si="7">$M$2+$G$4*A10</f>
-        <v>1198.1196238988791</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="E10:E68" si="8">B10/$H$2/D10-273</f>
-        <v>157.97011737476686</v>
-      </c>
       <c r="F10" s="3">
-        <v>158.86000000000001</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.88988262523315598</v>
+        <f>F10-E10</f>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56332339307060619</v>
+        <f>G10/E10*100</f>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>48279.8</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>279.80000000001019</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="3"/>
-        <v>0.58291666666668795</v>
+        <f>J10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="e">
+        <f>K10/C10*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>A10+10</f>
+        <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="5"/>
-        <v>433250000</v>
+        <f>B10+(A11-A10)*$E$6</f>
+        <v>313250000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="6"/>
-        <v>71999.999999999985</v>
+        <f>($F$4-1)/$A$6*$E$6*A11</f>
+        <v>23999.999999999996</v>
       </c>
       <c r="D11">
-        <f t="shared" si="7"/>
-        <v>1199.3196238988789</v>
+        <f>$M$4+$G$6*A11</f>
+        <v>1196.9196238988791</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
-        <v>226.74810348005815</v>
+        <f>B11/$H$4/D11-273</f>
+        <v>89.054221285081667</v>
       </c>
       <c r="F11" s="3">
-        <v>228.083</v>
+        <v>89.499300000000005</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3348965199418501</v>
+        <f t="shared" ref="G11:G70" si="0">F11-E11</f>
+        <v>0.44507871491833839</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58871342227532697</v>
+        <f t="shared" ref="H11:H70" si="1">G11/E11*100</f>
+        <v>0.4997839613840942</v>
       </c>
       <c r="J11" s="3">
-        <v>72419.7</v>
+        <v>24139.9</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>419.70000000001164</v>
+        <f t="shared" ref="K11:K70" si="2">J11-C11</f>
+        <v>139.90000000000509</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="3"/>
-        <v>0.58291666666668296</v>
+        <f t="shared" ref="L11:L70" si="3">K11/C11*100</f>
+        <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" ref="A12:A70" si="4">A11+10</f>
+        <v>20</v>
       </c>
       <c r="B12">
-        <f t="shared" si="5"/>
-        <v>493250000</v>
+        <f>B11+(A12-A11)*$E$6</f>
+        <v>373250000</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
-        <v>95999.999999999985</v>
+        <f>($F$4-1)/$A$6*$E$6*A12</f>
+        <v>47999.999999999993</v>
       </c>
       <c r="D12">
-        <f t="shared" si="7"/>
-        <v>1200.519623898879</v>
+        <f t="shared" ref="D12:D70" si="5">$M$4+$G$6*A12</f>
+        <v>1198.1196238988791</v>
       </c>
       <c r="E12">
-        <f t="shared" si="8"/>
-        <v>295.38859315183288</v>
+        <f t="shared" ref="E12:E70" si="6">B12/$H$4/D12-273</f>
+        <v>157.97011737476686</v>
       </c>
       <c r="F12" s="3">
-        <v>297.16800000000001</v>
+        <v>158.86000000000001</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7794068481671275</v>
+        <v>0.88988262523315598</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>0.6023952479615533</v>
+        <v>0.56332339307060619</v>
       </c>
       <c r="J12" s="3">
-        <v>96559.6</v>
+        <v>48279.8</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="2"/>
-        <v>559.60000000002037</v>
+        <v>279.80000000001019</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="3"/>
@@ -858,2463 +791,2551 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <f t="shared" si="5"/>
-        <v>553250000</v>
+        <f>B12+(A13-A12)*$E$6</f>
+        <v>433250000</v>
       </c>
       <c r="C13">
-        <f t="shared" si="6"/>
-        <v>119999.99999999997</v>
+        <f>($F$4-1)/$A$6*$E$6*A13</f>
+        <v>71999.999999999985</v>
       </c>
       <c r="D13">
-        <f t="shared" si="7"/>
-        <v>1201.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1199.3196238988789</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
-        <v>363.89199828913206</v>
+        <f t="shared" si="6"/>
+        <v>226.74810348005815</v>
       </c>
       <c r="F13" s="3">
-        <v>366.11599999999999</v>
+        <v>228.083</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>2.224001710867924</v>
+        <v>1.3348965199418501</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>0.61117082027751357</v>
+        <v>0.58871342227532697</v>
       </c>
       <c r="J13" s="3">
-        <v>120699</v>
+        <v>72419.7</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="2"/>
-        <v>699.0000000000291</v>
+        <v>419.70000000001164</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="3"/>
-        <v>0.58250000000002444</v>
+        <v>0.58291666666668296</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <f t="shared" si="5"/>
-        <v>613250000</v>
+        <f>B13+(A14-A13)*$E$6</f>
+        <v>493250000</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
-        <v>143999.99999999997</v>
+        <f>($F$4-1)/$A$6*$E$6*A14</f>
+        <v>95999.999999999985</v>
       </c>
       <c r="D14">
-        <f t="shared" si="7"/>
-        <v>1202.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1200.519623898879</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
-        <v>432.25872914739955</v>
+        <f t="shared" si="6"/>
+        <v>295.38859315183288</v>
       </c>
       <c r="F14" s="3">
-        <v>434.92700000000002</v>
+        <v>297.16800000000001</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>2.6682708526004717</v>
+        <v>1.7794068481671275</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>0.6172855914011155</v>
+        <v>0.6023952479615533</v>
       </c>
       <c r="J14" s="3">
-        <v>144839</v>
+        <v>96559.6</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>839.0000000000291</v>
+        <v>559.60000000002037</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>0.58263888888890925</v>
+        <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B15">
-        <f t="shared" si="5"/>
-        <v>673250000</v>
+        <f>B14+(A15-A14)*$E$6</f>
+        <v>553250000</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
-        <v>167999.99999999997</v>
+        <f>($F$4-1)/$A$6*$E$6*A15</f>
+        <v>119999.99999999997</v>
       </c>
       <c r="D15">
-        <f t="shared" si="7"/>
-        <v>1204.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1201.719623898879</v>
       </c>
       <c r="E15">
-        <f t="shared" si="8"/>
-        <v>500.48919434667164</v>
+        <f t="shared" si="6"/>
+        <v>363.89199828913206</v>
       </c>
       <c r="F15" s="3">
-        <v>503.6</v>
+        <v>366.11599999999999</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>3.1108056533283843</v>
+        <v>2.224001710867924</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
-        <v>0.62155301022815612</v>
+        <v>0.61117082027751357</v>
       </c>
       <c r="J15" s="3">
-        <v>168979</v>
+        <v>120699</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="2"/>
-        <v>979.0000000000291</v>
+        <v>699.0000000000291</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="3"/>
-        <v>0.5827380952381126</v>
+        <v>0.58250000000002444</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <f t="shared" si="5"/>
-        <v>733250000</v>
+        <f>B15+(A16-A15)*$E$6</f>
+        <v>613250000</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
-        <v>191999.99999999997</v>
+        <f>($F$4-1)/$A$6*$E$6*A16</f>
+        <v>143999.99999999997</v>
       </c>
       <c r="D16">
-        <f t="shared" si="7"/>
-        <v>1205.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1202.9196238988791</v>
       </c>
       <c r="E16">
-        <f t="shared" si="8"/>
-        <v>568.58380087971841</v>
+        <f t="shared" si="6"/>
+        <v>432.25872914739955</v>
       </c>
       <c r="F16" s="3">
-        <v>572.13800000000003</v>
+        <v>434.92700000000002</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>3.5541991202816234</v>
+        <v>2.6682708526004717</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>0.62509679571991528</v>
+        <v>0.6172855914011155</v>
       </c>
       <c r="J16" s="3">
-        <v>193119</v>
+        <v>144839</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="2"/>
-        <v>1119.0000000000291</v>
+        <v>839.0000000000291</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="3"/>
-        <v>0.58281250000001528</v>
+        <v>0.58263888888890925</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <f t="shared" si="5"/>
-        <v>793250000</v>
+        <f>B16+(A17-A16)*$E$6</f>
+        <v>673250000</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
-        <v>215999.99999999997</v>
+        <f>($F$4-1)/$A$6*$E$6*A17</f>
+        <v>167999.99999999997</v>
       </c>
       <c r="D17">
-        <f t="shared" si="7"/>
-        <v>1206.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1204.1196238988791</v>
       </c>
       <c r="E17">
-        <f t="shared" si="8"/>
-        <v>636.54295412013539</v>
+        <f t="shared" si="6"/>
+        <v>500.48919434667164</v>
       </c>
       <c r="F17" s="3">
-        <v>640.53899999999999</v>
+        <v>503.6</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>3.9960458798645959</v>
+        <v>3.1108056533283843</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="1"/>
-        <v>0.6277731697443969</v>
+        <v>0.62155301022815612</v>
       </c>
       <c r="J17" s="3">
-        <v>217259</v>
+        <v>168979</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="2"/>
-        <v>1259.0000000000291</v>
+        <v>979.0000000000291</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="3"/>
-        <v>0.58287037037038392</v>
+        <v>0.5827380952381126</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <f t="shared" si="5"/>
-        <v>853250000</v>
+        <f>B17+(A18-A17)*$E$6</f>
+        <v>733250000</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
-        <v>239999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A18</f>
+        <v>191999.99999999997</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
-        <v>1207.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1205.3196238988789</v>
       </c>
       <c r="E18">
-        <f t="shared" si="8"/>
-        <v>704.36705783038872</v>
+        <f t="shared" si="6"/>
+        <v>568.58380087971841</v>
       </c>
       <c r="F18" s="3">
-        <v>708.80499999999995</v>
+        <v>572.13800000000003</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>4.4379421696112331</v>
+        <v>3.5541991202816234</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="1"/>
-        <v>0.63006100587399816</v>
+        <v>0.62509679571991528</v>
       </c>
       <c r="J18" s="3">
-        <v>241399</v>
+        <v>193119</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="2"/>
-        <v>1399.0000000000582</v>
+        <v>1119.0000000000291</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="3"/>
-        <v>0.58291666666669106</v>
+        <v>0.58281250000001528</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B19">
-        <f t="shared" si="5"/>
-        <v>913250000</v>
+        <f>B18+(A19-A18)*$E$6</f>
+        <v>793250000</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
-        <v>263999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A19</f>
+        <v>215999.99999999997</v>
       </c>
       <c r="D19">
-        <f t="shared" si="7"/>
-        <v>1208.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1206.519623898879</v>
       </c>
       <c r="E19">
-        <f t="shared" si="8"/>
-        <v>772.0565141698105</v>
+        <f t="shared" si="6"/>
+        <v>636.54295412013539</v>
       </c>
       <c r="F19" s="3">
-        <v>776.93499999999995</v>
+        <v>640.53899999999999</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>4.8784858301894474</v>
+        <v>3.9960458798645959</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="1"/>
-        <v>0.63188195950075821</v>
+        <v>0.6277731697443969</v>
       </c>
       <c r="J19" s="3">
-        <v>265539</v>
+        <v>217259</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" si="2"/>
-        <v>1539.0000000000582</v>
+        <v>1259.0000000000291</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="3"/>
-        <v>0.5829545454545676</v>
+        <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B20">
-        <f t="shared" si="5"/>
-        <v>973250000</v>
+        <f>B19+(A20-A19)*$E$6</f>
+        <v>853250000</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
-        <v>287999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A20</f>
+        <v>239999.99999999994</v>
       </c>
       <c r="D20">
-        <f t="shared" si="7"/>
-        <v>1210.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1207.719623898879</v>
       </c>
       <c r="E20">
-        <f t="shared" si="8"/>
-        <v>839.61172370254781</v>
+        <f t="shared" si="6"/>
+        <v>704.36705783038872</v>
       </c>
       <c r="F20" s="3">
-        <v>844.93100000000004</v>
+        <v>708.80499999999995</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>5.3192762974522338</v>
+        <v>4.4379421696112331</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="1"/>
-        <v>0.63354002180854641</v>
+        <v>0.63006100587399816</v>
       </c>
       <c r="J20" s="3">
-        <v>289679</v>
+        <v>241399</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="2"/>
-        <v>1679.0000000000582</v>
+        <v>1399.0000000000582</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="3"/>
-        <v>0.58298611111113141</v>
+        <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
-        <v>1033250000</v>
+        <f>B20+(A21-A20)*$E$6</f>
+        <v>913250000</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
-        <v>311999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A21</f>
+        <v>263999.99999999994</v>
       </c>
       <c r="D21">
-        <f t="shared" si="7"/>
-        <v>1211.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1208.9196238988791</v>
       </c>
       <c r="E21">
-        <f t="shared" si="8"/>
-        <v>907.03308540546459</v>
+        <f t="shared" si="6"/>
+        <v>772.0565141698105</v>
       </c>
       <c r="F21" s="3">
-        <v>912.79200000000003</v>
+        <v>776.93499999999995</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>5.7589145945354403</v>
+        <v>4.8784858301894474</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>0.63491780919557894</v>
+        <v>0.63188195950075821</v>
       </c>
       <c r="J21" s="3">
-        <v>313819</v>
+        <v>265539</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="2"/>
-        <v>1819.0000000000582</v>
+        <v>1539.0000000000582</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="3"/>
-        <v>0.58301282051283931</v>
+        <v>0.5829545454545676</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
-        <v>1093250000</v>
+        <f>B21+(A22-A21)*$E$6</f>
+        <v>973250000</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
-        <v>335999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A22</f>
+        <v>287999.99999999994</v>
       </c>
       <c r="D22">
-        <f t="shared" si="7"/>
-        <v>1212.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1210.1196238988791</v>
       </c>
       <c r="E22">
-        <f t="shared" si="8"/>
-        <v>974.32099667599391</v>
+        <f t="shared" si="6"/>
+        <v>839.61172370254781</v>
       </c>
       <c r="F22" s="3">
-        <v>980.51900000000001</v>
+        <v>844.93100000000004</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>6.1980033240060948</v>
+        <v>5.3192762974522338</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>0.63613566218436046</v>
+        <v>0.63354002180854641</v>
       </c>
       <c r="J22" s="3">
-        <v>337959</v>
+        <v>289679</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="2"/>
-        <v>1959.0000000000582</v>
+        <v>1679.0000000000582</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="3"/>
-        <v>0.58303571428573164</v>
+        <v>0.58298611111113141</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
-        <v>1153250000</v>
+        <f>B22+(A23-A22)*$E$6</f>
+        <v>1033250000</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
-        <v>359999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A23</f>
+        <v>311999.99999999994</v>
       </c>
       <c r="D23">
-        <f t="shared" si="7"/>
-        <v>1213.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1211.3196238988789</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
-        <v>1041.475853339949</v>
+        <f t="shared" si="6"/>
+        <v>907.03308540546459</v>
       </c>
       <c r="F23" s="3">
-        <v>1048.1099999999999</v>
+        <v>912.79200000000003</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>6.6341466600508738</v>
+        <v>5.7589145945354403</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="1"/>
-        <v>0.63699476457140825</v>
+        <v>0.63491780919557894</v>
       </c>
       <c r="J23" s="3">
-        <v>362098</v>
+        <v>313819</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="2"/>
-        <v>2098.0000000000582</v>
+        <v>1819.0000000000582</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="3"/>
-        <v>0.58277777777779405</v>
+        <v>0.58301282051283931</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
-        <v>1213250000</v>
+        <f>B23+(A24-A23)*$E$6</f>
+        <v>1093250000</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
-        <v>383999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A24</f>
+        <v>335999.99999999994</v>
       </c>
       <c r="D24">
-        <f t="shared" si="7"/>
-        <v>1214.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1212.519623898879</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
-        <v>1108.4980496592827</v>
+        <f t="shared" si="6"/>
+        <v>974.32099667599391</v>
       </c>
       <c r="F24" s="3">
-        <v>1115.57</v>
+        <v>980.51900000000001</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>7.0719503407171942</v>
+        <v>6.1980033240060948</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="1"/>
-        <v>0.637975893858441</v>
+        <v>0.63613566218436046</v>
       </c>
       <c r="J24" s="3">
-        <v>386238</v>
+        <v>337959</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="2"/>
-        <v>2238.0000000000582</v>
+        <v>1959.0000000000582</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="3"/>
-        <v>0.58281250000001528</v>
+        <v>0.58303571428573164</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
-        <v>1273250000</v>
+        <f>B24+(A25-A24)*$E$6</f>
+        <v>1153250000</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
-        <v>407999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A25</f>
+        <v>359999.99999999994</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
-        <v>1216.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1213.719623898879</v>
       </c>
       <c r="E25">
-        <f t="shared" si="8"/>
-        <v>1175.3879783398042</v>
+        <f t="shared" si="6"/>
+        <v>1041.475853339949</v>
       </c>
       <c r="F25" s="3">
-        <v>1182.9000000000001</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>7.5120216601958418</v>
+        <v>6.6341466600508738</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
-        <v>0.63910996187031943</v>
+        <v>0.63699476457140825</v>
       </c>
       <c r="J25" s="3">
-        <v>410378</v>
+        <v>362098</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="2"/>
-        <v>2378.0000000000582</v>
+        <v>2098.0000000000582</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="3"/>
-        <v>0.58284313725491632</v>
+        <v>0.58277777777779405</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
-        <v>1333250000</v>
+        <f>B25+(A26-A25)*$E$6</f>
+        <v>1213250000</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
-        <v>431999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A26</f>
+        <v>383999.99999999994</v>
       </c>
       <c r="D26">
-        <f t="shared" si="7"/>
-        <v>1217.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1214.9196238988791</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
-        <v>1242.1460305388487</v>
+        <f t="shared" si="6"/>
+        <v>1108.4980496592827</v>
       </c>
       <c r="F26" s="3">
-        <v>1250.0899999999999</v>
+        <v>1115.57</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>7.943969461151255</v>
+        <v>7.0719503407171942</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="1"/>
-        <v>0.63953587306519222</v>
+        <v>0.637975893858441</v>
       </c>
       <c r="J26" s="3">
-        <v>434518</v>
+        <v>386238</v>
       </c>
       <c r="K26" s="2">
         <f t="shared" si="2"/>
-        <v>2518.0000000000582</v>
+        <v>2238.0000000000582</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="3"/>
-        <v>0.58287037037038392</v>
+        <v>0.58281250000001528</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
-        <v>1393250000</v>
+        <f>B26+(A27-A26)*$E$6</f>
+        <v>1273250000</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
-        <v>455999.99999999994</v>
+        <f>($F$4-1)/$A$6*$E$6*A27</f>
+        <v>407999.99999999994</v>
       </c>
       <c r="D27">
-        <f t="shared" si="7"/>
-        <v>1218.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1216.1196238988791</v>
       </c>
       <c r="E27">
-        <f t="shared" si="8"/>
-        <v>1308.7725958729009</v>
+        <f t="shared" si="6"/>
+        <v>1175.3879783398042</v>
       </c>
       <c r="F27" s="3">
-        <v>1317.15</v>
+        <v>1182.9000000000001</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
-        <v>8.3774041270992257</v>
+        <v>7.5120216601958418</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="1"/>
-        <v>0.64009623623818468</v>
+        <v>0.63910996187031943</v>
       </c>
       <c r="J27" s="3">
-        <v>458658</v>
+        <v>410378</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" si="2"/>
-        <v>2658.0000000000582</v>
+        <v>2378.0000000000582</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="3"/>
-        <v>0.58289473684211812</v>
+        <v>0.58284313725491632</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
-        <v>1453250000</v>
+        <f>B27+(A28-A27)*$E$6</f>
+        <v>1333250000</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
-        <v>479999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A28</f>
+        <v>431999.99999999994</v>
       </c>
       <c r="D28">
-        <f t="shared" si="7"/>
-        <v>1219.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1217.3196238988789</v>
       </c>
       <c r="E28">
-        <f t="shared" si="8"/>
-        <v>1375.2680624251768</v>
+        <f t="shared" si="6"/>
+        <v>1242.1460305388487</v>
       </c>
       <c r="F28" s="3">
-        <v>1384.08</v>
+        <v>1250.0899999999999</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
-        <v>8.811937574823105</v>
+        <v>7.943969461151255</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="1"/>
-        <v>0.64074327148148469</v>
+        <v>0.63953587306519222</v>
       </c>
       <c r="J28" s="3">
-        <v>482798</v>
+        <v>434518</v>
       </c>
       <c r="K28" s="2">
         <f t="shared" si="2"/>
-        <v>2798.0000000001164</v>
+        <v>2518.0000000000582</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="3"/>
-        <v>0.58291666666669106</v>
+        <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
-        <v>1513250000</v>
+        <f>B28+(A29-A28)*$E$6</f>
+        <v>1393250000</v>
       </c>
       <c r="C29">
-        <f t="shared" si="6"/>
-        <v>503999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A29</f>
+        <v>455999.99999999994</v>
       </c>
       <c r="D29">
-        <f t="shared" si="7"/>
-        <v>1220.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1218.519623898879</v>
       </c>
       <c r="E29">
-        <f t="shared" si="8"/>
-        <v>1441.6328167531574</v>
+        <f t="shared" si="6"/>
+        <v>1308.7725958729009</v>
       </c>
       <c r="F29" s="3">
-        <v>1450.88</v>
+        <v>1317.15</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
-        <v>9.2471832468427237</v>
+        <v>8.3774041270992257</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="1"/>
-        <v>0.64143817616951948</v>
+        <v>0.64009623623818468</v>
       </c>
       <c r="J29" s="3">
-        <v>506938</v>
+        <v>458658</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>2938.0000000001164</v>
+        <v>2658.0000000000582</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="3"/>
-        <v>0.58293650793653118</v>
+        <v>0.58289473684211812</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
-        <v>1573250000</v>
+        <f>B29+(A30-A29)*$E$6</f>
+        <v>1453250000</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
-        <v>527999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A30</f>
+        <v>479999.99999999988</v>
       </c>
       <c r="D30">
-        <f t="shared" si="7"/>
-        <v>1222.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1219.719623898879</v>
       </c>
       <c r="E30">
-        <f t="shared" si="8"/>
-        <v>1507.8672438960798</v>
+        <f t="shared" si="6"/>
+        <v>1375.2680624251768</v>
       </c>
       <c r="F30" s="3">
-        <v>1517.55</v>
+        <v>1384.08</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="0"/>
-        <v>9.6827561039201555</v>
+        <v>8.811937574823105</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="1"/>
-        <v>0.64214911114465978</v>
+        <v>0.64074327148148469</v>
       </c>
       <c r="J30" s="3">
-        <v>531078</v>
+        <v>482798</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>3078.0000000001164</v>
+        <v>2798.0000000001164</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>0.5829545454545676</v>
+        <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
-        <v>1633250000</v>
+        <f>B30+(A31-A30)*$E$6</f>
+        <v>1513250000</v>
       </c>
       <c r="C31">
-        <f t="shared" si="6"/>
-        <v>551999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A31</f>
+        <v>503999.99999999988</v>
       </c>
       <c r="D31">
-        <f t="shared" si="7"/>
-        <v>1223.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1220.9196238988791</v>
       </c>
       <c r="E31">
-        <f t="shared" si="8"/>
-        <v>1573.971727382384</v>
+        <f t="shared" si="6"/>
+        <v>1441.6328167531574</v>
       </c>
       <c r="F31" s="3">
-        <v>1584.09</v>
+        <v>1450.88</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
-        <v>10.118272617615958</v>
+        <v>9.2471832468427237</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="1"/>
-        <v>0.64284970572141686</v>
+        <v>0.64143817616951948</v>
       </c>
       <c r="J31" s="3">
-        <v>555218</v>
+        <v>506938</v>
       </c>
       <c r="K31" s="2">
         <f t="shared" si="2"/>
-        <v>3218.0000000001164</v>
+        <v>2938.0000000001164</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="3"/>
-        <v>0.58297101449277489</v>
+        <v>0.58293650793653118</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
-        <v>1693250000</v>
+        <f>B31+(A32-A31)*$E$6</f>
+        <v>1573250000</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
-        <v>575999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A32</f>
+        <v>527999.99999999988</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
-        <v>1224.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1222.1196238988791</v>
       </c>
       <c r="E32">
-        <f t="shared" si="8"/>
-        <v>1639.9466492371132</v>
+        <f t="shared" si="6"/>
+        <v>1507.8672438960798</v>
       </c>
       <c r="F32" s="3">
-        <v>1650.49</v>
+        <v>1517.55</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="0"/>
-        <v>10.543350762886803</v>
+        <v>9.6827561039201555</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="1"/>
-        <v>0.64290815605443408</v>
+        <v>0.64214911114465978</v>
       </c>
       <c r="J32" s="3">
-        <v>579358</v>
+        <v>531078</v>
       </c>
       <c r="K32" s="2">
         <f t="shared" si="2"/>
-        <v>3358.0000000001164</v>
+        <v>3078.0000000001164</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="3"/>
-        <v>0.58298611111113141</v>
+        <v>0.5829545454545676</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
-        <v>1753250000</v>
+        <f>B32+(A33-A32)*$E$6</f>
+        <v>1633250000</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
-        <v>599999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A33</f>
+        <v>551999.99999999988</v>
       </c>
       <c r="D33">
-        <f t="shared" si="7"/>
-        <v>1225.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1223.3196238988789</v>
       </c>
       <c r="E33">
-        <f t="shared" si="8"/>
-        <v>1705.7923899892771</v>
+        <f t="shared" si="6"/>
+        <v>1573.971727382384</v>
       </c>
       <c r="F33" s="3">
-        <v>1716.77</v>
+        <v>1584.09</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="0"/>
-        <v>10.977610010722856</v>
+        <v>10.118272617615958</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="1"/>
-        <v>0.64354900837562434</v>
+        <v>0.64284970572141686</v>
       </c>
       <c r="J33" s="3">
-        <v>603497</v>
+        <v>555218</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" si="2"/>
-        <v>3497.0000000001164</v>
+        <v>3218.0000000001164</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="3"/>
-        <v>0.58283333333335285</v>
+        <v>0.58297101449277489</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
-        <v>1813250000</v>
+        <f>B33+(A34-A33)*$E$6</f>
+        <v>1693250000</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
-        <v>623999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A34</f>
+        <v>575999.99999999988</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
-        <v>1226.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1224.519623898879</v>
       </c>
       <c r="E34">
-        <f t="shared" si="8"/>
-        <v>1771.5093286791648</v>
+        <f t="shared" si="6"/>
+        <v>1639.9466492371132</v>
       </c>
       <c r="F34" s="3">
-        <v>1782.92</v>
+        <v>1650.49</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>11.410671320835263</v>
+        <v>10.543350762886803</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="1"/>
-        <v>0.64412143566543034</v>
+        <v>0.64290815605443408</v>
       </c>
       <c r="J34" s="3">
-        <v>627637</v>
+        <v>579358</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>3637.0000000001164</v>
+        <v>3358.0000000001164</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="3"/>
-        <v>0.5828525641025829</v>
+        <v>0.58298611111113141</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
-        <v>1873250000</v>
+        <f>B34+(A35-A34)*$E$6</f>
+        <v>1753250000</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
-        <v>647999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A35</f>
+        <v>599999.99999999988</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
-        <v>1228.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1225.719623898879</v>
       </c>
       <c r="E35">
-        <f t="shared" si="8"/>
-        <v>1837.0978428656194</v>
+        <f t="shared" si="6"/>
+        <v>1705.7923899892771</v>
       </c>
       <c r="F35" s="3">
-        <v>1848.94</v>
+        <v>1716.77</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>11.842157134380614</v>
+        <v>10.977610010722856</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="1"/>
-        <v>0.64461221705581451</v>
+        <v>0.64354900837562434</v>
       </c>
       <c r="J35" s="3">
-        <v>651777</v>
+        <v>603497</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>3777.0000000001164</v>
+        <v>3497.0000000001164</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="3"/>
-        <v>0.58287037037038847</v>
+        <v>0.58283333333335285</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
-        <v>1933250000</v>
+        <f>B35+(A36-A35)*$E$6</f>
+        <v>1813250000</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
-        <v>671999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A36</f>
+        <v>623999.99999999988</v>
       </c>
       <c r="D36">
-        <f t="shared" si="7"/>
-        <v>1229.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1226.9196238988791</v>
       </c>
       <c r="E36">
-        <f t="shared" si="8"/>
-        <v>1902.5583086332681</v>
+        <f t="shared" si="6"/>
+        <v>1771.5093286791648</v>
       </c>
       <c r="F36" s="3">
-        <v>1914.82</v>
+        <v>1782.92</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="0"/>
-        <v>12.261691366731839</v>
+        <v>11.410671320835263</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="1"/>
-        <v>0.64448439299293869</v>
+        <v>0.64412143566543034</v>
       </c>
       <c r="J36" s="3">
-        <v>675917</v>
+        <v>627637</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>3917.0000000001164</v>
+        <v>3637.0000000001164</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="3"/>
-        <v>0.58288690476192218</v>
+        <v>0.5828525641025829</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
-        <v>1993250000</v>
+        <f>B36+(A37-A36)*$E$6</f>
+        <v>1873250000</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
-        <v>695999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A37</f>
+        <v>647999.99999999988</v>
       </c>
       <c r="D37">
-        <f t="shared" si="7"/>
-        <v>1230.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1228.1196238988791</v>
       </c>
       <c r="E37">
-        <f t="shared" si="8"/>
-        <v>1967.8911005997102</v>
+        <f t="shared" si="6"/>
+        <v>1837.0978428656194</v>
       </c>
       <c r="F37" s="3">
-        <v>1980.58</v>
+        <v>1848.94</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="0"/>
-        <v>12.688899400289756</v>
+        <v>11.842157134380614</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="1"/>
-        <v>0.6447968282606108</v>
+        <v>0.64461221705581451</v>
       </c>
       <c r="J37" s="3">
-        <v>700057</v>
+        <v>651777</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>4057.0000000001164</v>
+        <v>3777.0000000001164</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="3"/>
-        <v>0.58290229885059153</v>
+        <v>0.58287037037038847</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
-        <v>2053250000</v>
+        <f>B37+(A38-A37)*$E$6</f>
+        <v>1933250000</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
-        <v>719999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A38</f>
+        <v>671999.99999999988</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
-        <v>1231.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1229.3196238988789</v>
       </c>
       <c r="E38">
-        <f t="shared" si="8"/>
-        <v>2033.0965919226637</v>
+        <f t="shared" si="6"/>
+        <v>1902.5583086332681</v>
       </c>
       <c r="F38" s="3">
-        <v>2046.22</v>
+        <v>1914.82</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="0"/>
-        <v>13.123408077336308</v>
+        <v>12.261691366731839</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="1"/>
-        <v>0.64548866637594093</v>
+        <v>0.64448439299293869</v>
       </c>
       <c r="J38" s="3">
-        <v>724197</v>
+        <v>675917</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>4197.0000000001164</v>
+        <v>3917.0000000001164</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
-        <v>0.58291666666668296</v>
+        <v>0.58288690476192218</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
-        <v>2113250000</v>
+        <f>B38+(A39-A38)*$E$6</f>
+        <v>1993250000</v>
       </c>
       <c r="C39">
-        <f t="shared" si="6"/>
-        <v>743999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A39</f>
+        <v>695999.99999999988</v>
       </c>
       <c r="D39">
-        <f t="shared" si="7"/>
-        <v>1232.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1230.519623898879</v>
       </c>
       <c r="E39">
-        <f t="shared" si="8"/>
-        <v>2098.1751543070709</v>
+        <f t="shared" si="6"/>
+        <v>1967.8911005997102</v>
       </c>
       <c r="F39" s="3">
-        <v>2111.7199999999998</v>
+        <v>1980.58</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="0"/>
-        <v>13.544845692928902</v>
+        <v>12.688899400289756</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" si="1"/>
-        <v>0.64555362144692496</v>
+        <v>0.6447968282606108</v>
       </c>
       <c r="J39" s="3">
-        <v>748337</v>
+        <v>700057</v>
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>4337.0000000001164</v>
+        <v>4057.0000000001164</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="3"/>
-        <v>0.58293010752689745</v>
+        <v>0.58290229885059153</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="4"/>
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
-        <v>2173250000</v>
+        <f>B39+(A40-A39)*$E$6</f>
+        <v>2053250000</v>
       </c>
       <c r="C40">
-        <f t="shared" si="6"/>
-        <v>767999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A40</f>
+        <v>719999.99999999988</v>
       </c>
       <c r="D40">
-        <f t="shared" si="7"/>
-        <v>1234.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1231.719623898879</v>
       </c>
       <c r="E40">
-        <f t="shared" si="8"/>
-        <v>2163.1271580121584</v>
+        <f t="shared" si="6"/>
+        <v>2033.0965919226637</v>
       </c>
       <c r="F40" s="3">
-        <v>2177.1</v>
+        <v>2046.22</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="0"/>
-        <v>13.972841987841548</v>
+        <v>13.123408077336308</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" si="1"/>
-        <v>0.64595564509865078</v>
+        <v>0.64548866637594093</v>
       </c>
       <c r="J40" s="3">
-        <v>772477</v>
+        <v>724197</v>
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>4477.0000000001164</v>
+        <v>4197.0000000001164</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="3"/>
-        <v>0.5829427083333486</v>
+        <v>0.58291666666668296</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
-        <v>2233250000</v>
+        <f>B40+(A41-A40)*$E$6</f>
+        <v>2113250000</v>
       </c>
       <c r="C41">
-        <f t="shared" si="6"/>
-        <v>791999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A41</f>
+        <v>743999.99999999988</v>
       </c>
       <c r="D41">
-        <f t="shared" si="7"/>
-        <v>1235.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1232.9196238988791</v>
       </c>
       <c r="E41">
-        <f t="shared" si="8"/>
-        <v>2227.9529718584631</v>
+        <f t="shared" si="6"/>
+        <v>2098.1751543070709</v>
       </c>
       <c r="F41" s="3">
-        <v>2242.35</v>
+        <v>2111.7199999999998</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="0"/>
-        <v>14.397028141536794</v>
+        <v>13.544845692928902</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" si="1"/>
-        <v>0.64619982214110239</v>
+        <v>0.64555362144692496</v>
       </c>
       <c r="J41" s="3">
-        <v>796617</v>
+        <v>748337</v>
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>4617.0000000001164</v>
+        <v>4337.0000000001164</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="3"/>
-        <v>0.58295454545456027</v>
+        <v>0.58293010752689745</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="4"/>
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
-        <v>2293250000</v>
+        <f>B41+(A42-A41)*$E$6</f>
+        <v>2173250000</v>
       </c>
       <c r="C42">
-        <f t="shared" si="6"/>
-        <v>815999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A42</f>
+        <v>767999.99999999988</v>
       </c>
       <c r="D42">
-        <f t="shared" si="7"/>
-        <v>1236.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1234.1196238988791</v>
       </c>
       <c r="E42">
-        <f t="shared" si="8"/>
-        <v>2292.6529632348088</v>
+        <f t="shared" si="6"/>
+        <v>2163.1271580121584</v>
       </c>
       <c r="F42" s="3">
-        <v>2307.4699999999998</v>
+        <v>2177.1</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="0"/>
-        <v>14.817036765191006</v>
+        <v>13.972841987841548</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="1"/>
-        <v>0.64628345426884726</v>
+        <v>0.64595564509865078</v>
       </c>
       <c r="J42" s="3">
-        <v>820757</v>
+        <v>772477</v>
       </c>
       <c r="K42" s="2">
         <f t="shared" si="2"/>
-        <v>4757.0000000001164</v>
+        <v>4477.0000000001164</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="3"/>
-        <v>0.58296568627452416</v>
+        <v>0.5829427083333486</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
-        <v>2353250000</v>
+        <f>B42+(A43-A42)*$E$6</f>
+        <v>2233250000</v>
       </c>
       <c r="C43">
-        <f t="shared" si="6"/>
-        <v>839999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A43</f>
+        <v>791999.99999999988</v>
       </c>
       <c r="D43">
-        <f t="shared" si="7"/>
-        <v>1237.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1235.3196238988789</v>
       </c>
       <c r="E43">
-        <f t="shared" si="8"/>
-        <v>2357.2274981052501</v>
+        <f t="shared" si="6"/>
+        <v>2227.9529718584631</v>
       </c>
       <c r="F43" s="3">
-        <v>2372.4699999999998</v>
+        <v>2242.35</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="0"/>
-        <v>15.242501894749694</v>
+        <v>14.397028141536794</v>
       </c>
       <c r="H43" s="2">
         <f t="shared" si="1"/>
-        <v>0.64662837621747093</v>
+        <v>0.64619982214110239</v>
       </c>
       <c r="J43" s="3">
-        <v>844896</v>
+        <v>796617</v>
       </c>
       <c r="K43" s="2">
         <f t="shared" si="2"/>
-        <v>4896.0000000001164</v>
+        <v>4617.0000000001164</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="3"/>
-        <v>0.58285714285715684</v>
+        <v>0.58295454545456027</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="4"/>
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
-        <v>2413250000</v>
+        <f>B43+(A44-A43)*$E$6</f>
+        <v>2293250000</v>
       </c>
       <c r="C44">
-        <f t="shared" si="6"/>
-        <v>863999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A44</f>
+        <v>815999.99999999988</v>
       </c>
       <c r="D44">
-        <f t="shared" si="7"/>
-        <v>1238.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1236.519623898879</v>
       </c>
       <c r="E44">
-        <f t="shared" si="8"/>
-        <v>2421.6769410159718</v>
+        <f t="shared" si="6"/>
+        <v>2292.6529632348088</v>
       </c>
       <c r="F44" s="3">
-        <v>2437.34</v>
+        <v>2307.4699999999998</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="0"/>
-        <v>15.663058984028339</v>
+        <v>14.817036765191006</v>
       </c>
       <c r="H44" s="2">
         <f t="shared" si="1"/>
-        <v>0.64678565165910118</v>
+        <v>0.64628345426884726</v>
       </c>
       <c r="J44" s="3">
-        <v>869036</v>
+        <v>820757</v>
       </c>
       <c r="K44" s="2">
         <f t="shared" si="2"/>
-        <v>5036.0000000001164</v>
+        <v>4757.0000000001164</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="3"/>
-        <v>0.58287037037038392</v>
+        <v>0.58296568627452416</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="4"/>
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
-        <v>2473250000</v>
+        <f>B44+(A45-A44)*$E$6</f>
+        <v>2353250000</v>
       </c>
       <c r="C45">
-        <f t="shared" si="6"/>
-        <v>887999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A45</f>
+        <v>839999.99999999988</v>
       </c>
       <c r="D45">
-        <f t="shared" si="7"/>
-        <v>1240.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1237.719623898879</v>
       </c>
       <c r="E45">
-        <f t="shared" si="8"/>
-        <v>2486.0016551021477</v>
+        <f t="shared" si="6"/>
+        <v>2357.2274981052501</v>
       </c>
       <c r="F45" s="3">
-        <v>2502.09</v>
+        <v>2372.4699999999998</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" si="0"/>
-        <v>16.088344897852494</v>
+        <v>15.242501894749694</v>
       </c>
       <c r="H45" s="2">
         <f t="shared" si="1"/>
-        <v>0.6471574491848614</v>
+        <v>0.64662837621747093</v>
       </c>
       <c r="J45" s="3">
-        <v>893176</v>
+        <v>844896</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="2"/>
-        <v>5176.0000000001164</v>
+        <v>4896.0000000001164</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="3"/>
-        <v>0.58288288288289603</v>
+        <v>0.58285714285715684</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="4"/>
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
-        <v>2533250000</v>
+        <f>B45+(A46-A45)*$E$6</f>
+        <v>2413250000</v>
       </c>
       <c r="C46">
-        <f t="shared" si="6"/>
-        <v>911999.99999999988</v>
+        <f>($F$4-1)/$A$6*$E$6*A46</f>
+        <v>863999.99999999988</v>
       </c>
       <c r="D46">
-        <f t="shared" si="7"/>
-        <v>1241.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1238.9196238988791</v>
       </c>
       <c r="E46">
-        <f t="shared" si="8"/>
-        <v>2550.2020020947602</v>
+        <f t="shared" si="6"/>
+        <v>2421.6769410159718</v>
       </c>
       <c r="F46" s="3">
-        <v>2566.71</v>
+        <v>2437.34</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" si="0"/>
-        <v>16.50799790523979</v>
+        <v>15.663058984028339</v>
       </c>
       <c r="H46" s="2">
         <f t="shared" si="1"/>
-        <v>0.64732118834821573</v>
+        <v>0.64678565165910118</v>
       </c>
       <c r="J46" s="3">
-        <v>917316</v>
+        <v>869036</v>
       </c>
       <c r="K46" s="2">
         <f t="shared" si="2"/>
-        <v>5316.0000000001164</v>
+        <v>5036.0000000001164</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="3"/>
-        <v>0.58289473684211812</v>
+        <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="4"/>
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
-        <v>2593250000</v>
+        <f>B46+(A47-A46)*$E$6</f>
+        <v>2473250000</v>
       </c>
       <c r="C47">
-        <f t="shared" si="6"/>
-        <v>935999.99999999977</v>
+        <f>($F$4-1)/$A$6*$E$6*A47</f>
+        <v>887999.99999999988</v>
       </c>
       <c r="D47">
-        <f t="shared" si="7"/>
-        <v>1242.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1240.1196238988791</v>
       </c>
       <c r="E47">
-        <f t="shared" si="8"/>
-        <v>2614.2783423273841</v>
+        <f t="shared" si="6"/>
+        <v>2486.0016551021477</v>
       </c>
       <c r="F47" s="3">
-        <v>2631.21</v>
+        <v>2502.09</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" si="0"/>
-        <v>16.931657672615984</v>
+        <v>16.088344897852494</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" si="1"/>
-        <v>0.64766086297996972</v>
+        <v>0.6471574491848614</v>
       </c>
       <c r="J47" s="3">
-        <v>941456</v>
+        <v>893176</v>
       </c>
       <c r="K47" s="2">
         <f t="shared" si="2"/>
-        <v>5456.0000000002328</v>
+        <v>5176.0000000001164</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="3"/>
-        <v>0.58290598290600792</v>
+        <v>0.58288288288289603</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
-        <v>2653250000</v>
+        <f>B47+(A48-A47)*$E$6</f>
+        <v>2533250000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="6"/>
-        <v>959999.99999999977</v>
+        <f>($F$4-1)/$A$6*$E$6*A48</f>
+        <v>911999.99999999988</v>
       </c>
       <c r="D48">
-        <f t="shared" si="7"/>
-        <v>1243.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1241.3196238988789</v>
       </c>
       <c r="E48">
-        <f t="shared" si="8"/>
-        <v>2678.2310347429247</v>
+        <f t="shared" si="6"/>
+        <v>2550.2020020947602</v>
       </c>
       <c r="F48" s="3">
-        <v>2695.58</v>
+        <v>2566.71</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" si="0"/>
-        <v>17.348965257075179</v>
+        <v>16.50799790523979</v>
       </c>
       <c r="H48" s="2">
         <f t="shared" si="1"/>
-        <v>0.64777702266975834</v>
+        <v>0.64732118834821573</v>
       </c>
       <c r="J48" s="3">
-        <v>965596</v>
+        <v>917316</v>
       </c>
       <c r="K48" s="2">
         <f t="shared" si="2"/>
-        <v>5596.0000000002328</v>
+        <v>5316.0000000001164</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="3"/>
-        <v>0.58291666666669106</v>
+        <v>0.58289473684211812</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="4"/>
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
-        <v>2713250000</v>
+        <f>B48+(A49-A48)*$E$6</f>
+        <v>2593250000</v>
       </c>
       <c r="C49">
-        <f t="shared" si="6"/>
-        <v>983999.99999999977</v>
+        <f>($F$4-1)/$A$6*$E$6*A49</f>
+        <v>935999.99999999977</v>
       </c>
       <c r="D49">
-        <f t="shared" si="7"/>
-        <v>1244.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1242.519623898879</v>
       </c>
       <c r="E49">
-        <f t="shared" si="8"/>
-        <v>2742.0604369003227</v>
+        <f t="shared" si="6"/>
+        <v>2614.2783423273841</v>
       </c>
       <c r="F49" s="3">
-        <v>2759.82</v>
+        <v>2631.21</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
-        <v>17.759563099677507</v>
+        <v>16.931657672615984</v>
       </c>
       <c r="H49" s="2">
         <f t="shared" si="1"/>
-        <v>0.64767219790943975</v>
+        <v>0.64766086297996972</v>
       </c>
       <c r="J49" s="3">
-        <v>989736</v>
+        <v>941456</v>
       </c>
       <c r="K49" s="2">
         <f t="shared" si="2"/>
-        <v>5736.0000000002328</v>
+        <v>5456.0000000002328</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="3"/>
-        <v>0.5829268292683164</v>
+        <v>0.58290598290600792</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="4"/>
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
-        <v>2773250000</v>
+        <f>B49+(A50-A49)*$E$6</f>
+        <v>2653250000</v>
       </c>
       <c r="C50">
-        <f t="shared" si="6"/>
-        <v>1007999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A50</f>
+        <v>959999.99999999977</v>
       </c>
       <c r="D50">
-        <f t="shared" si="7"/>
-        <v>1246.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1243.719623898879</v>
       </c>
       <c r="E50">
-        <f t="shared" si="8"/>
-        <v>2805.7669049812166</v>
+        <f t="shared" si="6"/>
+        <v>2678.2310347429247</v>
       </c>
       <c r="F50" s="3">
-        <v>2823.95</v>
+        <v>2695.58</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" si="0"/>
-        <v>18.183095018783206</v>
+        <v>17.348965257075179</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" si="1"/>
-        <v>0.64806149742880848</v>
+        <v>0.64777702266975834</v>
       </c>
       <c r="J50" s="3">
-        <v>1013880</v>
+        <v>965596</v>
       </c>
       <c r="K50" s="2">
         <f t="shared" si="2"/>
-        <v>5880.0000000002328</v>
+        <v>5596.0000000002328</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335657</v>
+        <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="4"/>
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
-        <v>2833250000</v>
+        <f>B50+(A51-A50)*$E$6</f>
+        <v>2713250000</v>
       </c>
       <c r="C51">
-        <f t="shared" si="6"/>
-        <v>1031999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A51</f>
+        <v>983999.99999999977</v>
       </c>
       <c r="D51">
-        <f t="shared" si="7"/>
-        <v>1247.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1244.9196238988791</v>
       </c>
       <c r="E51">
-        <f t="shared" si="8"/>
-        <v>2869.3507937965687</v>
+        <f t="shared" si="6"/>
+        <v>2742.0604369003227</v>
       </c>
       <c r="F51" s="3">
-        <v>2887.95</v>
+        <v>2759.82</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" si="0"/>
-        <v>18.599206203431095</v>
+        <v>17.759563099677507</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" si="1"/>
-        <v>0.64820259145873338</v>
+        <v>0.64767219790943975</v>
       </c>
       <c r="J51" s="3">
-        <v>1038020</v>
+        <v>989736</v>
       </c>
       <c r="K51" s="2">
         <f t="shared" si="2"/>
-        <v>6020.0000000002328</v>
+        <v>5736.0000000002328</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335602</v>
+        <v>0.5829268292683164</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="4"/>
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
-        <v>2893250000</v>
+        <f>B51+(A52-A51)*$E$6</f>
+        <v>2773250000</v>
       </c>
       <c r="C52">
-        <f t="shared" si="6"/>
-        <v>1055999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A52</f>
+        <v>1007999.9999999998</v>
       </c>
       <c r="D52">
-        <f t="shared" si="7"/>
-        <v>1248.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1246.1196238988791</v>
       </c>
       <c r="E52">
-        <f t="shared" si="8"/>
-        <v>2932.81245679325</v>
+        <f t="shared" si="6"/>
+        <v>2805.7669049812166</v>
       </c>
       <c r="F52" s="3">
-        <v>2951.83</v>
+        <v>2823.95</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" si="0"/>
-        <v>19.017543206749906</v>
+        <v>18.183095018783206</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" si="1"/>
-        <v>0.6484404811736163</v>
+        <v>0.64806149742880848</v>
       </c>
       <c r="J52" s="3">
-        <v>1062160</v>
+        <v>1013880</v>
       </c>
       <c r="K52" s="2">
         <f t="shared" si="2"/>
-        <v>6160.0000000002328</v>
+        <v>5880.0000000002328</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335546</v>
+        <v>0.58333333333335657</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
-        <v>2953250000</v>
+        <f>B52+(A53-A52)*$E$6</f>
+        <v>2833250000</v>
       </c>
       <c r="C53">
-        <f t="shared" si="6"/>
-        <v>1079999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A53</f>
+        <v>1031999.9999999998</v>
       </c>
       <c r="D53">
-        <f t="shared" si="7"/>
-        <v>1249.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1247.3196238988789</v>
       </c>
       <c r="E53">
-        <f t="shared" si="8"/>
-        <v>2996.1522460605925</v>
+        <f t="shared" si="6"/>
+        <v>2869.3507937965687</v>
       </c>
       <c r="F53" s="3">
-        <v>3015.58</v>
+        <v>2887.95</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" si="0"/>
-        <v>19.427753939407467</v>
+        <v>18.599206203431095</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" si="1"/>
-        <v>0.64842345594925987</v>
+        <v>0.64820259145873338</v>
       </c>
       <c r="J53" s="3">
-        <v>1086300</v>
+        <v>1038020</v>
       </c>
       <c r="K53" s="2">
         <f t="shared" si="2"/>
-        <v>6300.0000000002328</v>
+        <v>6020.0000000002328</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335502</v>
+        <v>0.58333333333335602</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="4"/>
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
-        <v>3013250000</v>
+        <f>B53+(A54-A53)*$E$6</f>
+        <v>2893250000</v>
       </c>
       <c r="C54">
-        <f t="shared" si="6"/>
-        <v>1103999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A54</f>
+        <v>1055999.9999999998</v>
       </c>
       <c r="D54">
-        <f t="shared" si="7"/>
-        <v>1250.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1248.519623898879</v>
       </c>
       <c r="E54">
-        <f t="shared" si="8"/>
-        <v>3059.3705123368995</v>
+        <f t="shared" si="6"/>
+        <v>2932.81245679325</v>
       </c>
       <c r="F54" s="3">
-        <v>3079.21</v>
+        <v>2951.83</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" si="0"/>
-        <v>19.839487663100499</v>
+        <v>19.017543206749906</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" si="1"/>
-        <v>0.64848267259875336</v>
+        <v>0.6484404811736163</v>
       </c>
       <c r="J54" s="3">
-        <v>1110440</v>
+        <v>1062160</v>
       </c>
       <c r="K54" s="2">
         <f t="shared" si="2"/>
-        <v>6440.0000000002328</v>
+        <v>6160.0000000002328</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335458</v>
+        <v>0.58333333333335546</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="4"/>
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
-        <v>3073250000</v>
+        <f>B54+(A55-A54)*$E$6</f>
+        <v>2953250000</v>
       </c>
       <c r="C55">
-        <f t="shared" si="6"/>
-        <v>1127999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A55</f>
+        <v>1079999.9999999998</v>
       </c>
       <c r="D55">
-        <f t="shared" si="7"/>
-        <v>1252.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1249.719623898879</v>
       </c>
       <c r="E55">
-        <f t="shared" si="8"/>
-        <v>3122.4676050159183</v>
+        <f t="shared" si="6"/>
+        <v>2996.1522460605925</v>
       </c>
       <c r="F55" s="3">
-        <v>3142.72</v>
+        <v>3015.58</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" si="0"/>
-        <v>20.252394984081548</v>
+        <v>19.427753939407467</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" si="1"/>
-        <v>0.64860224495358065</v>
+        <v>0.64842345594925987</v>
       </c>
       <c r="J55" s="3">
-        <v>1134580</v>
+        <v>1086300</v>
       </c>
       <c r="K55" s="2">
         <f t="shared" si="2"/>
-        <v>6580.0000000002328</v>
+        <v>6300.0000000002328</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335413</v>
+        <v>0.58333333333335502</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="4"/>
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
-        <v>3133250000</v>
+        <f>B55+(A56-A55)*$E$6</f>
+        <v>3013250000</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
-        <v>1151999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A56</f>
+        <v>1103999.9999999998</v>
       </c>
       <c r="D56">
-        <f t="shared" si="7"/>
-        <v>1253.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1250.9196238988791</v>
       </c>
       <c r="E56">
-        <f t="shared" si="8"/>
-        <v>3185.4438721532783</v>
+        <f t="shared" si="6"/>
+        <v>3059.3705123368995</v>
       </c>
       <c r="F56" s="3">
-        <v>3206.11</v>
+        <v>3079.21</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" si="0"/>
-        <v>20.666127846721793</v>
+        <v>19.839487663100499</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" si="1"/>
-        <v>0.64876760276275147</v>
+        <v>0.64848267259875336</v>
       </c>
       <c r="J56" s="3">
-        <v>1158720</v>
+        <v>1110440</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="2"/>
-        <v>6720.0000000002328</v>
+        <v>6440.0000000002328</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335369</v>
+        <v>0.58333333333335458</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="4"/>
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
-        <v>3193250000</v>
+        <f>B56+(A57-A56)*$E$6</f>
+        <v>3073250000</v>
       </c>
       <c r="C57">
-        <f t="shared" si="6"/>
-        <v>1175999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A57</f>
+        <v>1127999.9999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" si="7"/>
-        <v>1254.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1252.1196238988791</v>
       </c>
       <c r="E57">
-        <f t="shared" si="8"/>
-        <v>3248.2996604728892</v>
+        <f t="shared" si="6"/>
+        <v>3122.4676050159183</v>
       </c>
       <c r="F57" s="3">
-        <v>3269.38</v>
+        <v>3142.72</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" si="0"/>
-        <v>21.080339527110937</v>
+        <v>20.252394984081548</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" si="1"/>
-        <v>0.64896535820349932</v>
+        <v>0.64860224495358065</v>
       </c>
       <c r="J57" s="3">
-        <v>1182860</v>
+        <v>1134580</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="2"/>
-        <v>6860.0000000002328</v>
+        <v>6580.0000000002328</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="3"/>
-        <v>0.58333333333335324</v>
+        <v>0.58333333333335413</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>3253250000</v>
+        <f>B57+(A58-A57)*$E$6</f>
+        <v>3133250000</v>
       </c>
       <c r="C58">
-        <f t="shared" si="6"/>
-        <v>1199999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A58</f>
+        <v>1151999.9999999998</v>
       </c>
       <c r="D58">
-        <f t="shared" si="7"/>
-        <v>1255.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1253.3196238988789</v>
       </c>
       <c r="E58">
-        <f t="shared" si="8"/>
-        <v>3311.0353153733067</v>
+        <f t="shared" si="6"/>
+        <v>3185.4438721532783</v>
       </c>
       <c r="F58" s="3">
-        <v>3332.53</v>
+        <v>3206.11</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" si="0"/>
-        <v>21.49468462669347</v>
+        <v>20.666127846721793</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" si="1"/>
-        <v>0.64918318831854638</v>
+        <v>0.64876760276275147</v>
       </c>
       <c r="J58" s="3">
-        <v>1206990</v>
+        <v>1158720</v>
       </c>
       <c r="K58" s="2">
         <f t="shared" si="2"/>
-        <v>6990.0000000002328</v>
+        <v>6720.0000000002328</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="3"/>
-        <v>0.58250000000001956</v>
+        <v>0.58333333333335369</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="4"/>
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
-        <v>3313250000</v>
+        <f>B58+(A59-A58)*$E$6</f>
+        <v>3193250000</v>
       </c>
       <c r="C59">
-        <f t="shared" si="6"/>
-        <v>1223999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A59</f>
+        <v>1175999.9999999998</v>
       </c>
       <c r="D59">
-        <f t="shared" si="7"/>
-        <v>1256.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1254.519623898879</v>
       </c>
       <c r="E59">
-        <f t="shared" si="8"/>
-        <v>3373.6511809340577</v>
+        <f t="shared" si="6"/>
+        <v>3248.2996604728892</v>
       </c>
       <c r="F59" s="3">
-        <v>3395.55</v>
+        <v>3269.38</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" si="0"/>
-        <v>21.898819065942462</v>
+        <v>21.080339527110937</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" si="1"/>
-        <v>0.64911331644783055</v>
+        <v>0.64896535820349932</v>
       </c>
       <c r="J59" s="3">
-        <v>1231130</v>
+        <v>1182860</v>
       </c>
       <c r="K59" s="2">
         <f t="shared" si="2"/>
-        <v>7130.0000000002328</v>
+        <v>6860.0000000002328</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="3"/>
-        <v>0.58251633986930018</v>
+        <v>0.58333333333335324</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="4"/>
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
-        <v>3373250000</v>
+        <f>B59+(A60-A59)*$E$6</f>
+        <v>3253250000</v>
       </c>
       <c r="C60">
-        <f t="shared" si="6"/>
-        <v>1247999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A60</f>
+        <v>1199999.9999999998</v>
       </c>
       <c r="D60">
-        <f t="shared" si="7"/>
-        <v>1258.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1255.719623898879</v>
       </c>
       <c r="E60">
-        <f t="shared" si="8"/>
-        <v>3436.1475999219301</v>
+        <f t="shared" si="6"/>
+        <v>3311.0353153733067</v>
       </c>
       <c r="F60" s="3">
-        <v>3458.46</v>
+        <v>3332.53</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" si="0"/>
-        <v>22.312400078069913</v>
+        <v>21.49468462669347</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" si="1"/>
-        <v>0.64934347053592389</v>
+        <v>0.64918318831854638</v>
       </c>
       <c r="J60" s="3">
-        <v>1255270</v>
+        <v>1206990</v>
       </c>
       <c r="K60" s="2">
         <f t="shared" si="2"/>
-        <v>7270.0000000002328</v>
+        <v>6990.0000000002328</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="3"/>
-        <v>0.58253205128206997</v>
+        <v>0.58250000000001956</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="4"/>
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
-        <v>3433250000</v>
+        <f>B60+(A61-A60)*$E$6</f>
+        <v>3313250000</v>
       </c>
       <c r="C61">
-        <f t="shared" si="6"/>
-        <v>1271999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A61</f>
+        <v>1223999.9999999998</v>
       </c>
       <c r="D61">
-        <f t="shared" si="7"/>
-        <v>1259.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1256.9196238988791</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
-        <v>3498.5249137972296</v>
+        <f t="shared" si="6"/>
+        <v>3373.6511809340577</v>
       </c>
       <c r="F61" s="3">
-        <v>3521.24</v>
+        <v>3395.55</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" si="0"/>
-        <v>22.715086202770181</v>
+        <v>21.898819065942462</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" si="1"/>
-        <v>0.64927610242785661</v>
+        <v>0.64911331644783055</v>
       </c>
       <c r="J61" s="3">
-        <v>1279410</v>
+        <v>1231130</v>
       </c>
       <c r="K61" s="2">
         <f t="shared" si="2"/>
-        <v>7410.0000000002328</v>
+        <v>7130.0000000002328</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="3"/>
-        <v>0.58254716981133914</v>
+        <v>0.58251633986930018</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
-        <v>3493250000</v>
+        <f>B61+(A62-A61)*$E$6</f>
+        <v>3373250000</v>
       </c>
       <c r="C62">
-        <f t="shared" si="6"/>
-        <v>1295999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A62</f>
+        <v>1247999.9999999998</v>
       </c>
       <c r="D62">
-        <f t="shared" si="7"/>
-        <v>1260.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1258.1196238988791</v>
       </c>
       <c r="E62">
-        <f t="shared" si="8"/>
-        <v>3560.7834627199941</v>
+        <f t="shared" si="6"/>
+        <v>3436.1475999219301</v>
       </c>
       <c r="F62" s="3">
-        <v>3583.91</v>
+        <v>3458.46</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" si="0"/>
-        <v>23.126537280005778</v>
+        <v>22.312400078069913</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" si="1"/>
-        <v>0.6494789004198529</v>
+        <v>0.64934347053592389</v>
       </c>
       <c r="J62" s="3">
-        <v>1303550</v>
+        <v>1255270</v>
       </c>
       <c r="K62" s="2">
         <f t="shared" si="2"/>
-        <v>7550.0000000002328</v>
+        <v>7270.0000000002328</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="3"/>
-        <v>0.5825617283950798</v>
+        <v>0.58253205128206997</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="4"/>
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
-        <v>3553250000</v>
+        <f>B62+(A63-A62)*$E$6</f>
+        <v>3433250000</v>
       </c>
       <c r="C63">
-        <f t="shared" si="6"/>
-        <v>1319999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A63</f>
+        <v>1271999.9999999998</v>
       </c>
       <c r="D63">
-        <f t="shared" si="7"/>
-        <v>1261.719623898879</v>
+        <f t="shared" si="5"/>
+        <v>1259.3196238988789</v>
       </c>
       <c r="E63">
-        <f t="shared" si="8"/>
-        <v>3622.9235855561824</v>
+        <f t="shared" si="6"/>
+        <v>3498.5249137972296</v>
       </c>
       <c r="F63" s="3">
-        <v>3646.46</v>
+        <v>3521.24</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" si="0"/>
-        <v>23.536414443817648</v>
+        <v>22.715086202770181</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" si="1"/>
-        <v>0.64965252200328694</v>
+        <v>0.64927610242785661</v>
       </c>
       <c r="J63" s="3">
-        <v>1327690</v>
+        <v>1279410</v>
       </c>
       <c r="K63" s="2">
         <f t="shared" si="2"/>
-        <v>7690.0000000002328</v>
+        <v>7410.0000000002328</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="3"/>
-        <v>0.58257575757577529</v>
+        <v>0.58254716981133914</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
-        <v>3613250000</v>
+        <f>B63+(A64-A63)*$E$6</f>
+        <v>3493250000</v>
       </c>
       <c r="C64">
-        <f t="shared" si="6"/>
-        <v>1343999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A64</f>
+        <v>1295999.9999999998</v>
       </c>
       <c r="D64">
-        <f t="shared" si="7"/>
-        <v>1262.9196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1260.519623898879</v>
       </c>
       <c r="E64">
-        <f t="shared" si="8"/>
-        <v>3684.9456198838193</v>
+        <f t="shared" si="6"/>
+        <v>3560.7834627199941</v>
       </c>
       <c r="F64" s="3">
-        <v>3708.89</v>
+        <v>3583.91</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" si="0"/>
-        <v>23.944380116180582</v>
+        <v>23.126537280005778</v>
       </c>
       <c r="H64" s="2">
         <f t="shared" si="1"/>
-        <v>0.64978923941177491</v>
+        <v>0.6494789004198529</v>
       </c>
       <c r="J64" s="3">
-        <v>1351830</v>
+        <v>1303550</v>
       </c>
       <c r="K64" s="2">
         <f t="shared" si="2"/>
-        <v>7830.0000000002328</v>
+        <v>7550.0000000002328</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="3"/>
-        <v>0.58258928571430313</v>
+        <v>0.5825617283950798</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="4"/>
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
-        <v>3673250000</v>
+        <f>B64+(A65-A64)*$E$6</f>
+        <v>3553250000</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
-        <v>1367999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A65</f>
+        <v>1319999.9999999998</v>
       </c>
       <c r="D65">
-        <f t="shared" si="7"/>
-        <v>1264.1196238988791</v>
+        <f t="shared" si="5"/>
+        <v>1261.719623898879</v>
       </c>
       <c r="E65">
-        <f t="shared" si="8"/>
-        <v>3746.8499019991082</v>
+        <f t="shared" si="6"/>
+        <v>3622.9235855561824</v>
       </c>
       <c r="F65" s="3">
-        <v>3771.2</v>
+        <v>3646.46</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" si="0"/>
-        <v>24.350098000891649</v>
+        <v>23.536414443817648</v>
       </c>
       <c r="H65" s="2">
         <f t="shared" si="1"/>
-        <v>0.64988186444030782</v>
+        <v>0.64965252200328694</v>
       </c>
       <c r="J65" s="3">
-        <v>1375970</v>
+        <v>1327690</v>
       </c>
       <c r="K65" s="2">
         <f t="shared" si="2"/>
-        <v>7970.0000000002328</v>
+        <v>7690.0000000002328</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="3"/>
-        <v>0.58260233918130366</v>
+        <v>0.58257575757577529</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="4"/>
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
-        <v>3733250000</v>
+        <f>B65+(A66-A65)*$E$6</f>
+        <v>3613250000</v>
       </c>
       <c r="C66">
-        <f t="shared" si="6"/>
-        <v>1391999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A66</f>
+        <v>1343999.9999999998</v>
       </c>
       <c r="D66">
-        <f t="shared" si="7"/>
-        <v>1265.3196238988789</v>
+        <f t="shared" si="5"/>
+        <v>1262.9196238988791</v>
       </c>
       <c r="E66">
-        <f t="shared" si="8"/>
-        <v>3808.6367669225124</v>
+        <f t="shared" si="6"/>
+        <v>3684.9456198838193</v>
       </c>
       <c r="F66" s="3">
-        <v>3833.08</v>
+        <v>3708.89</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" si="0"/>
-        <v>24.443233077487548</v>
+        <v>23.944380116180582</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" si="1"/>
-        <v>0.64178430691458088</v>
+        <v>0.64978923941177491</v>
       </c>
       <c r="J66" s="3">
-        <v>1400000</v>
+        <v>1351830</v>
       </c>
       <c r="K66" s="2">
         <f t="shared" si="2"/>
-        <v>8000.0000000002328</v>
+        <v>7830.0000000002328</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="3"/>
-        <v>0.57471264367817776</v>
+        <v>0.58258928571430313</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
-        <v>3793250000</v>
+        <f>B66+(A67-A66)*$E$6</f>
+        <v>3673250000</v>
       </c>
       <c r="C67">
-        <f t="shared" si="6"/>
-        <v>1415999.9999999998</v>
+        <f>($F$4-1)/$A$6*$E$6*A67</f>
+        <v>1367999.9999999998</v>
       </c>
       <c r="D67">
-        <f t="shared" si="7"/>
-        <v>1266.519623898879</v>
+        <f t="shared" si="5"/>
+        <v>1264.1196238988791</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
-        <v>3870.306548404792</v>
+        <f t="shared" si="6"/>
+        <v>3746.8499019991082</v>
       </c>
       <c r="F67" s="3">
-        <v>3855.77</v>
+        <v>3771.2</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" si="0"/>
-        <v>-14.536548404792029</v>
+        <v>24.350098000891649</v>
       </c>
       <c r="H67" s="2">
         <f t="shared" si="1"/>
-        <v>-0.37559165463995342</v>
+        <v>0.64988186444030782</v>
       </c>
       <c r="J67" s="3">
-        <v>1409730</v>
+        <v>1375970</v>
       </c>
       <c r="K67" s="2">
         <f t="shared" si="2"/>
-        <v>-6269.9999999997672</v>
+        <v>7970.0000000002328</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" si="3"/>
-        <v>-0.44279661016947519</v>
+        <v>0.58260233918130366</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="B68">
+        <f>B67+(A68-A67)*$E$6</f>
+        <v>3733250000</v>
+      </c>
+      <c r="C68">
+        <f>($F$4-1)/$A$6*$E$6*A68</f>
+        <v>1391999.9999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>1265.3196238988789</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>3808.6367669225124</v>
+      </c>
+      <c r="F68" s="3">
+        <v>3833.08</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="0"/>
+        <v>24.443233077487548</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64178430691458088</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="2"/>
+        <v>8000.0000000002328</v>
+      </c>
+      <c r="L68" s="4">
+        <f t="shared" si="3"/>
+        <v>0.57471264367817776</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+      <c r="B69">
+        <f>B68+(A69-A68)*$E$6</f>
+        <v>3793250000</v>
+      </c>
+      <c r="C69">
+        <f>($F$4-1)/$A$6*$E$6*A69</f>
+        <v>1415999.9999999998</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>1266.519623898879</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>3870.306548404792</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3855.77</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="0"/>
+        <v>-14.536548404792029</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.37559165463995342</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1409730</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="2"/>
+        <v>-6269.9999999997672</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.44279661016947519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="5"/>
+      <c r="B70">
+        <f>B69+(A70-A69)*$E$6</f>
         <v>3853250000</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="6"/>
+      <c r="C70">
+        <f>($F$4-1)/$A$6*$E$6*A70</f>
         <v>1439999.9999999998</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="7"/>
+      <c r="D70">
+        <f t="shared" si="5"/>
         <v>1267.719623898879</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="8"/>
+      <c r="E70">
+        <f t="shared" si="6"/>
         <v>3931.859578933022</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F70" s="3">
         <v>3860.15</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G70" s="2">
         <f t="shared" si="0"/>
         <v>-71.70957893302193</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H70" s="2">
         <f t="shared" si="1"/>
         <v>-1.8238082386574335</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J70" s="3">
         <v>1412770</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K70" s="2">
         <f t="shared" si="2"/>
         <v>-27229.999999999767</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L70" s="4">
         <f t="shared" si="3"/>
         <v>-1.8909722222222065</v>
       </c>

--- a/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
+++ b/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
@@ -87,9 +87,6 @@
     <t>E0</t>
   </si>
   <si>
-    <t>T=E/(CV*M)-273</t>
-  </si>
-  <si>
     <t>abs error</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>calc pressure</t>
+  </si>
+  <si>
+    <t>T=E/(CV*M)-273.3</t>
   </si>
 </sst>
 </file>
@@ -465,19 +465,28 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>6000000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -535,6 +544,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
+        <f>D2*E2</f>
         <v>6000000</v>
       </c>
       <c r="E4" s="1">
@@ -558,15 +568,15 @@
         <v>101300</v>
       </c>
       <c r="K4" s="1">
-        <v>293</v>
+        <v>293.3</v>
       </c>
       <c r="L4">
         <f>J4/I4/K4</f>
-        <v>1.195719623898879</v>
+        <v>1.1944965898478404</v>
       </c>
       <c r="M4">
         <f>A6*L4</f>
-        <v>1195.719623898879</v>
+        <v>1194.4965898478404</v>
       </c>
       <c r="N4">
         <f>H4*M4*K4</f>
@@ -613,16 +623,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -639,23 +649,23 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -671,10 +681,10 @@
       </c>
       <c r="D10">
         <f>$M$4</f>
-        <v>1195.719623898879</v>
+        <v>1194.4965898478404</v>
       </c>
       <c r="E10">
-        <f>B10/$H$4/D10-273</f>
+        <f>B10/$H$4/D10-273.3</f>
         <v>20</v>
       </c>
       <c r="F10" s="3">
@@ -706,2637 +716,2637 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>B10+(A11-A10)*$E$6</f>
+        <f t="shared" ref="B11:B42" si="0">B10+(A11-A10)*$E$6</f>
         <v>313250000</v>
       </c>
       <c r="C11">
-        <f>($F$4-1)/$A$6*$E$6*A11</f>
+        <f t="shared" ref="C11:C42" si="1">($F$4-1)/$A$6*$E$6*A11</f>
         <v>23999.999999999996</v>
       </c>
       <c r="D11">
         <f>$M$4+$G$6*A11</f>
-        <v>1196.9196238988791</v>
+        <v>1195.6965898478404</v>
       </c>
       <c r="E11">
-        <f>B11/$H$4/D11-273</f>
-        <v>89.054221285081667</v>
+        <f t="shared" ref="E11:E70" si="2">B11/$H$4/D11-273.3</f>
+        <v>89.124553227744741</v>
       </c>
       <c r="F11" s="3">
         <v>89.499300000000005</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:G70" si="0">F11-E11</f>
-        <v>0.44507871491833839</v>
+        <f t="shared" ref="G11:G70" si="3">F11-E11</f>
+        <v>0.3747467722552642</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:H70" si="1">G11/E11*100</f>
-        <v>0.4997839613840942</v>
+        <f t="shared" ref="H11:H70" si="4">G11/E11*100</f>
+        <v>0.42047534454131147</v>
       </c>
       <c r="J11" s="3">
         <v>24139.9</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:K70" si="2">J11-C11</f>
+        <f t="shared" ref="K11:K70" si="5">J11-C11</f>
         <v>139.90000000000509</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" ref="L11:L70" si="3">K11/C11*100</f>
+        <f t="shared" ref="L11:L70" si="6">K11/C11*100</f>
         <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A70" si="4">A11+10</f>
+        <f t="shared" ref="A12:A70" si="7">A11+10</f>
         <v>20</v>
       </c>
       <c r="B12">
-        <f>B11+(A12-A11)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>373250000</v>
       </c>
       <c r="C12">
-        <f>($F$4-1)/$A$6*$E$6*A12</f>
+        <f t="shared" si="1"/>
         <v>47999.999999999993</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D70" si="5">$M$4+$G$6*A12</f>
-        <v>1198.1196238988791</v>
+        <f t="shared" ref="D12:D70" si="8">$M$4+$G$6*A12</f>
+        <v>1196.8965898478405</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E70" si="6">B12/$H$4/D12-273</f>
-        <v>157.97011737476686</v>
+        <f t="shared" si="2"/>
+        <v>158.11049888558426</v>
       </c>
       <c r="F12" s="3">
         <v>158.86000000000001</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.88988262523315598</v>
+        <f t="shared" si="3"/>
+        <v>0.74950111441575018</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56332339307060619</v>
+        <f t="shared" si="4"/>
+        <v>0.47403627191014197</v>
       </c>
       <c r="J12" s="3">
         <v>48279.8</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>279.80000000001019</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="B13">
-        <f>B12+(A13-A12)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>433250000</v>
       </c>
       <c r="C13">
-        <f>($F$4-1)/$A$6*$E$6*A13</f>
+        <f t="shared" si="1"/>
         <v>71999.999999999985</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
-        <v>1199.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1198.0965898478403</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
-        <v>226.74810348005815</v>
+        <f t="shared" si="2"/>
+        <v>226.95825345684398</v>
       </c>
       <c r="F13" s="3">
         <v>228.083</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3348965199418501</v>
+        <f t="shared" si="3"/>
+        <v>1.1247465431560215</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58871342227532697</v>
+        <f t="shared" si="4"/>
+        <v>0.49557419746794606</v>
       </c>
       <c r="J13" s="3">
         <v>72419.7</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>419.70000000001164</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666668296</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="B14">
-        <f>B13+(A14-A13)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>493250000</v>
       </c>
       <c r="C14">
-        <f>($F$4-1)/$A$6*$E$6*A14</f>
+        <f t="shared" si="1"/>
         <v>95999.999999999985</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
-        <v>1200.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1199.2965898478403</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
-        <v>295.38859315183288</v>
+        <f t="shared" si="2"/>
+        <v>295.6682317579386</v>
       </c>
       <c r="F14" s="3">
         <v>297.16800000000001</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7794068481671275</v>
+        <f t="shared" si="3"/>
+        <v>1.4997682420614069</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6023952479615533</v>
+        <f t="shared" si="4"/>
+        <v>0.50724700220389463</v>
       </c>
       <c r="J14" s="3">
         <v>96559.6</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>559.60000000002037</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666668795</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="B15">
-        <f>B14+(A15-A14)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>553250000</v>
       </c>
       <c r="C15">
-        <f>($F$4-1)/$A$6*$E$6*A15</f>
+        <f t="shared" si="1"/>
         <v>119999.99999999997</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
-        <v>1201.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1200.4965898478404</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
-        <v>363.89199828913206</v>
+        <f t="shared" si="2"/>
+        <v>364.24084694670336</v>
       </c>
       <c r="F15" s="3">
         <v>366.11599999999999</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.224001710867924</v>
+        <f t="shared" si="3"/>
+        <v>1.8751530532966285</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.61117082027751357</v>
+        <f t="shared" si="4"/>
+        <v>0.514811303843417</v>
       </c>
       <c r="J15" s="3">
         <v>120699</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>699.0000000000291</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58250000000002444</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="B16">
-        <f>B15+(A16-A15)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>613250000</v>
       </c>
       <c r="C16">
-        <f>($F$4-1)/$A$6*$E$6*A16</f>
+        <f t="shared" si="1"/>
         <v>143999.99999999997</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
-        <v>1202.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1201.6965898478404</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
-        <v>432.25872914739955</v>
+        <f t="shared" si="2"/>
+        <v>432.6765105306759</v>
       </c>
       <c r="F16" s="3">
         <v>434.92700000000002</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6682708526004717</v>
+        <f t="shared" si="3"/>
+        <v>2.2504894693241226</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6172855914011155</v>
+        <f t="shared" si="4"/>
+        <v>0.52013211130040471</v>
       </c>
       <c r="J16" s="3">
         <v>144839</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>839.0000000000291</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58263888888890925</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="B17">
-        <f>B16+(A17-A16)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>673250000</v>
       </c>
       <c r="C17">
-        <f>($F$4-1)/$A$6*$E$6*A17</f>
+        <f t="shared" si="1"/>
         <v>167999.99999999997</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
-        <v>1204.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1202.8965898478405</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
-        <v>500.48919434667164</v>
+        <f t="shared" si="2"/>
+        <v>500.97563237532717</v>
       </c>
       <c r="F17" s="3">
         <v>503.6</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1108056533283843</v>
+        <f t="shared" si="3"/>
+        <v>2.6243676246728569</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.62155301022815612</v>
+        <f t="shared" si="4"/>
+        <v>0.52385135225633095</v>
       </c>
       <c r="J17" s="3">
         <v>168979</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>979.0000000000291</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5827380952381126</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="B18">
-        <f>B17+(A18-A17)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>733250000</v>
       </c>
       <c r="C18">
-        <f>($F$4-1)/$A$6*$E$6*A18</f>
+        <f t="shared" si="1"/>
         <v>191999.99999999997</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
-        <v>1205.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1204.0965898478403</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
-        <v>568.58380087971841</v>
+        <f t="shared" si="2"/>
+        <v>569.13862071224412</v>
       </c>
       <c r="F18" s="3">
         <v>572.13800000000003</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5541991202816234</v>
+        <f t="shared" si="3"/>
+        <v>2.9993792877559144</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.62509679571991528</v>
+        <f t="shared" si="4"/>
+        <v>0.52700329561229997</v>
       </c>
       <c r="J18" s="3">
         <v>193119</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1119.0000000000291</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58281250000001528</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="B19">
-        <f>B18+(A19-A18)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>793250000</v>
       </c>
       <c r="C19">
-        <f>($F$4-1)/$A$6*$E$6*A19</f>
+        <f t="shared" si="1"/>
         <v>215999.99999999997</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
-        <v>1206.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1205.2965898478403</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
-        <v>636.54295412013539</v>
+        <f t="shared" si="2"/>
+        <v>637.16588214726244</v>
       </c>
       <c r="F19" s="3">
         <v>640.53899999999999</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9960458798645959</v>
+        <f t="shared" si="3"/>
+        <v>3.3731178527375505</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6277731697443969</v>
+        <f t="shared" si="4"/>
+        <v>0.52939398471400756</v>
       </c>
       <c r="J19" s="3">
         <v>217259</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1259.0000000000291</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="B20">
-        <f>B19+(A20-A19)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>853250000</v>
       </c>
       <c r="C20">
-        <f>($F$4-1)/$A$6*$E$6*A20</f>
+        <f t="shared" si="1"/>
         <v>239999.99999999994</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
-        <v>1207.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1206.4965898478404</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
-        <v>704.36705783038872</v>
+        <f t="shared" si="2"/>
+        <v>705.05782166855329</v>
       </c>
       <c r="F20" s="3">
         <v>708.80499999999995</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>4.4379421696112331</v>
+        <f t="shared" si="3"/>
+        <v>3.747178331446662</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63006100587399816</v>
+        <f t="shared" si="4"/>
+        <v>0.53147106751880069</v>
       </c>
       <c r="J20" s="3">
         <v>241399</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1399.0000000000582</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="B21">
-        <f>B20+(A21-A20)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>913250000</v>
       </c>
       <c r="C21">
-        <f>($F$4-1)/$A$6*$E$6*A21</f>
+        <f t="shared" si="1"/>
         <v>263999.99999999994</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
-        <v>1208.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1207.6965898478404</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
-        <v>772.0565141698105</v>
+        <f t="shared" si="2"/>
+        <v>772.81484265465838</v>
       </c>
       <c r="F21" s="3">
         <v>776.93499999999995</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.8784858301894474</v>
+        <f t="shared" si="3"/>
+        <v>4.1201573453415676</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63188195950075821</v>
+        <f t="shared" si="4"/>
+        <v>0.53313641482203122</v>
       </c>
       <c r="J21" s="3">
         <v>265539</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1539.0000000000582</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5829545454545676</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="B22">
-        <f>B21+(A22-A21)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>973250000</v>
       </c>
       <c r="C22">
-        <f>($F$4-1)/$A$6*$E$6*A22</f>
+        <f t="shared" si="1"/>
         <v>287999.99999999994</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
-        <v>1210.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1208.8965898478405</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
-        <v>839.61172370254781</v>
+        <f t="shared" si="2"/>
+        <v>840.43734688247969</v>
       </c>
       <c r="F22" s="3">
         <v>844.93100000000004</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.3192762974522338</v>
+        <f t="shared" si="3"/>
+        <v>4.4936531175203527</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63354002180854641</v>
+        <f t="shared" si="4"/>
+        <v>0.53468032259502996</v>
       </c>
       <c r="J22" s="3">
         <v>289679</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1679.0000000000582</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58298611111113141</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="B23">
-        <f>B22+(A23-A22)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1033250000</v>
       </c>
       <c r="C23">
-        <f>($F$4-1)/$A$6*$E$6*A23</f>
+        <f t="shared" si="1"/>
         <v>311999.99999999994</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
-        <v>1211.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1210.0965898478403</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
-        <v>907.03308540546459</v>
+        <f t="shared" si="2"/>
+        <v>907.92573453522095</v>
       </c>
       <c r="F23" s="3">
         <v>912.79200000000003</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>5.7589145945354403</v>
+        <f t="shared" si="3"/>
+        <v>4.866265464779076</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63491780919557894</v>
+        <f t="shared" si="4"/>
+        <v>0.53597615748497107</v>
       </c>
       <c r="J23" s="3">
         <v>313819</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1819.0000000000582</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58301282051283931</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B24">
-        <f>B23+(A24-A23)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1093250000</v>
       </c>
       <c r="C24">
-        <f>($F$4-1)/$A$6*$E$6*A24</f>
+        <f t="shared" si="1"/>
         <v>335999.99999999994</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
-        <v>1212.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1211.2965898478403</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
-        <v>974.32099667599391</v>
+        <f t="shared" si="2"/>
+        <v>975.28040421028072</v>
       </c>
       <c r="F24" s="3">
         <v>980.51900000000001</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1980033240060948</v>
+        <f t="shared" si="3"/>
+        <v>5.2385957897192839</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63613566218436046</v>
+        <f t="shared" si="4"/>
+        <v>0.5371373983424963</v>
       </c>
       <c r="J24" s="3">
         <v>337959</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1959.0000000000582</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58303571428573164</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="B25">
-        <f>B24+(A25-A24)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1153250000</v>
       </c>
       <c r="C25">
-        <f>($F$4-1)/$A$6*$E$6*A25</f>
+        <f t="shared" si="1"/>
         <v>359999.99999999994</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
-        <v>1213.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1212.4965898478404</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
-        <v>1041.475853339949</v>
+        <f t="shared" si="2"/>
+        <v>1042.5017529271013</v>
       </c>
       <c r="F25" s="3">
         <v>1048.1099999999999</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6341466600508738</v>
+        <f t="shared" si="3"/>
+        <v>5.6082470728986209</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63699476457140825</v>
+        <f t="shared" si="4"/>
+        <v>0.53796044535675591</v>
       </c>
       <c r="J25" s="3">
         <v>362098</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2098.0000000000582</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58277777777779405</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="B26">
-        <f>B25+(A26-A25)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1213250000</v>
       </c>
       <c r="C26">
-        <f>($F$4-1)/$A$6*$E$6*A26</f>
+        <f t="shared" si="1"/>
         <v>383999.99999999994</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
-        <v>1214.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1213.6965898478404</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
-        <v>1108.4980496592827</v>
+        <f t="shared" si="2"/>
+        <v>1109.5901761349687</v>
       </c>
       <c r="F26" s="3">
         <v>1115.57</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>7.0719503407171942</v>
+        <f t="shared" si="3"/>
+        <v>5.9798238650312214</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.637975893858441</v>
+        <f t="shared" si="4"/>
+        <v>0.53892184642988816</v>
       </c>
       <c r="J26" s="3">
         <v>386238</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2238.0000000000582</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58281250000001528</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="B27">
-        <f>B26+(A27-A26)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1273250000</v>
       </c>
       <c r="C27">
-        <f>($F$4-1)/$A$6*$E$6*A27</f>
+        <f t="shared" si="1"/>
         <v>407999.99999999994</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
-        <v>1216.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1214.8965898478405</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
-        <v>1175.3879783398042</v>
+        <f t="shared" si="2"/>
+        <v>1176.5460677207668</v>
       </c>
       <c r="F27" s="3">
         <v>1182.9000000000001</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>7.5120216601958418</v>
+        <f t="shared" si="3"/>
+        <v>6.3539322792332769</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63910996187031943</v>
+        <f t="shared" si="4"/>
+        <v>0.54004959546907216</v>
       </c>
       <c r="J27" s="3">
         <v>410378</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2378.0000000000582</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58284313725491632</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="B28">
-        <f>B27+(A28-A27)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1333250000</v>
       </c>
       <c r="C28">
-        <f>($F$4-1)/$A$6*$E$6*A28</f>
+        <f t="shared" si="1"/>
         <v>431999.99999999994</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
-        <v>1217.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1216.0965898478403</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
-        <v>1242.1460305388487</v>
+        <f t="shared" si="2"/>
+        <v>1243.3698200166871</v>
       </c>
       <c r="F28" s="3">
         <v>1250.0899999999999</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
-        <v>7.943969461151255</v>
+        <f t="shared" si="3"/>
+        <v>6.7201799833128462</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63953587306519222</v>
+        <f t="shared" si="4"/>
+        <v>0.54048118871203221</v>
       </c>
       <c r="J28" s="3">
         <v>434518</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2518.0000000000582</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="B29">
-        <f>B28+(A29-A28)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1393250000</v>
       </c>
       <c r="C29">
-        <f>($F$4-1)/$A$6*$E$6*A29</f>
+        <f t="shared" si="1"/>
         <v>455999.99999999994</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
-        <v>1218.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1217.2965898478403</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
-        <v>1308.7725958729009</v>
+        <f t="shared" si="2"/>
+        <v>1310.0618238078894</v>
       </c>
       <c r="F29" s="3">
         <v>1317.15</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3774041270992257</v>
+        <f t="shared" si="3"/>
+        <v>7.0881761921107227</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64009623623818468</v>
+        <f t="shared" si="4"/>
+        <v>0.54105661758067913</v>
       </c>
       <c r="J29" s="3">
         <v>458658</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2658.0000000000582</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58289473684211812</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="B30">
-        <f>B29+(A30-A29)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1453250000</v>
       </c>
       <c r="C30">
-        <f>($F$4-1)/$A$6*$E$6*A30</f>
+        <f t="shared" si="1"/>
         <v>479999.99999999988</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
-        <v>1219.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1218.4965898478404</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
-        <v>1375.2680624251768</v>
+        <f t="shared" si="2"/>
+        <v>1376.6224683401226</v>
       </c>
       <c r="F30" s="3">
         <v>1384.08</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>8.811937574823105</v>
+        <f t="shared" si="3"/>
+        <v>7.4575316598773043</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64074327148148469</v>
+        <f t="shared" si="4"/>
+        <v>0.54172671385127857</v>
       </c>
       <c r="J30" s="3">
         <v>482798</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2798.0000000001164</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="B31">
-        <f>B30+(A31-A30)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1513250000</v>
       </c>
       <c r="C31">
-        <f>($F$4-1)/$A$6*$E$6*A31</f>
+        <f t="shared" si="1"/>
         <v>503999.99999999988</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
-        <v>1220.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1219.6965898478404</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
-        <v>1441.6328167531574</v>
+        <f t="shared" si="2"/>
+        <v>1443.0521413272952</v>
       </c>
       <c r="F31" s="3">
         <v>1450.88</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2471832468427237</v>
+        <f t="shared" si="3"/>
+        <v>7.827858672704906</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64143817616951948</v>
+        <f t="shared" si="4"/>
+        <v>0.54245154755842517</v>
       </c>
       <c r="J31" s="3">
         <v>506938</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2938.0000000001164</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58293650793653118</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="B32">
-        <f>B31+(A32-A31)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1573250000</v>
       </c>
       <c r="C32">
-        <f>($F$4-1)/$A$6*$E$6*A32</f>
+        <f t="shared" si="1"/>
         <v>527999.99999999988</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
-        <v>1222.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1220.8965898478405</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
-        <v>1507.8672438960798</v>
+        <f t="shared" si="2"/>
+        <v>1509.3512289590044</v>
       </c>
       <c r="F32" s="3">
         <v>1517.55</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6827561039201555</v>
+        <f t="shared" si="3"/>
+        <v>8.1987710409955525</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64214911114465978</v>
+        <f t="shared" si="4"/>
+        <v>0.54319835461029331</v>
       </c>
       <c r="J32" s="3">
         <v>531078</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3078.0000000001164</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5829545454545676</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="B33">
-        <f>B32+(A33-A32)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1633250000</v>
       </c>
       <c r="C33">
-        <f>($F$4-1)/$A$6*$E$6*A33</f>
+        <f t="shared" si="1"/>
         <v>551999.99999999988</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
-        <v>1223.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1222.0965898478403</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
-        <v>1573.971727382384</v>
+        <f t="shared" si="2"/>
+        <v>1575.5201159080207</v>
       </c>
       <c r="F33" s="3">
         <v>1584.09</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
-        <v>10.118272617615958</v>
+        <f t="shared" si="3"/>
+        <v>8.5698840919792474</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64284970572141686</v>
+        <f t="shared" si="4"/>
+        <v>0.54393999831859707</v>
       </c>
       <c r="J33" s="3">
         <v>555218</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3218.0000000001164</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58297101449277489</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="B34">
-        <f>B33+(A34-A33)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1693250000</v>
       </c>
       <c r="C34">
-        <f>($F$4-1)/$A$6*$E$6*A34</f>
+        <f t="shared" si="1"/>
         <v>575999.99999999988</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
-        <v>1224.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1223.2965898478403</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
-        <v>1639.9466492371132</v>
+        <f t="shared" si="2"/>
+        <v>1641.5591853377234</v>
       </c>
       <c r="F34" s="3">
         <v>1650.49</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
-        <v>10.543350762886803</v>
+        <f t="shared" si="3"/>
+        <v>8.9308146622765889</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64290815605443408</v>
+        <f t="shared" si="4"/>
+        <v>0.54404463403122583</v>
       </c>
       <c r="J34" s="3">
         <v>579358</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3358.0000000001164</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58298611111113141</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
       <c r="B35">
-        <f>B34+(A35-A34)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1753250000</v>
       </c>
       <c r="C35">
-        <f>($F$4-1)/$A$6*$E$6*A35</f>
+        <f t="shared" si="1"/>
         <v>599999.99999999988</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
-        <v>1225.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1224.4965898478404</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
-        <v>1705.7923899892771</v>
+        <f t="shared" si="2"/>
+        <v>1707.4688189095027</v>
       </c>
       <c r="F35" s="3">
         <v>1716.77</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>10.977610010722856</v>
+        <f t="shared" si="3"/>
+        <v>9.3011810904972663</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64354900837562434</v>
+        <f t="shared" si="4"/>
+        <v>0.54473504801320982</v>
       </c>
       <c r="J35" s="3">
         <v>603497</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3497.0000000001164</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58283333333335285</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>260</v>
       </c>
       <c r="B36">
-        <f>B35+(A36-A35)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1813250000</v>
       </c>
       <c r="C36">
-        <f>($F$4-1)/$A$6*$E$6*A36</f>
+        <f t="shared" si="1"/>
         <v>623999.99999999988</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
-        <v>1226.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1225.6965898478404</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
-        <v>1771.5093286791648</v>
+        <f t="shared" si="2"/>
+        <v>1773.2493967901082</v>
       </c>
       <c r="F36" s="3">
         <v>1782.92</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
-        <v>11.410671320835263</v>
+        <f t="shared" si="3"/>
+        <v>9.6706032098918513</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64412143566543034</v>
+        <f t="shared" si="4"/>
+        <v>0.54536058082959649</v>
       </c>
       <c r="J36" s="3">
         <v>627637</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3637.0000000001164</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5828525641025829</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="B37">
-        <f>B36+(A37-A36)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1873250000</v>
       </c>
       <c r="C37">
-        <f>($F$4-1)/$A$6*$E$6*A37</f>
+        <f t="shared" si="1"/>
         <v>647999.99999999988</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
-        <v>1228.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1226.8965898478405</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
-        <v>1837.0978428656194</v>
+        <f t="shared" si="2"/>
+        <v>1838.901297658959</v>
       </c>
       <c r="F37" s="3">
         <v>1848.94</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
-        <v>11.842157134380614</v>
+        <f t="shared" si="3"/>
+        <v>10.038702341041017</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64461221705581451</v>
+        <f t="shared" si="4"/>
+        <v>0.54590762178595109</v>
       </c>
       <c r="J37" s="3">
         <v>651777</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3777.0000000001164</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58287037037038847</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>280</v>
       </c>
       <c r="B38">
-        <f>B37+(A38-A37)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1933250000</v>
       </c>
       <c r="C38">
-        <f>($F$4-1)/$A$6*$E$6*A38</f>
+        <f t="shared" si="1"/>
         <v>671999.99999999988</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
-        <v>1229.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1228.0965898478403</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
-        <v>1902.5583086332681</v>
+        <f t="shared" si="2"/>
+        <v>1904.4248987154117</v>
       </c>
       <c r="F38" s="3">
         <v>1914.82</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
-        <v>12.261691366731839</v>
+        <f t="shared" si="3"/>
+        <v>10.395101284588236</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64448439299293869</v>
+        <f t="shared" si="4"/>
+        <v>0.54583939180799534</v>
       </c>
       <c r="J38" s="3">
         <v>675917</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3917.0000000001164</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58288690476192218</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="B39">
-        <f>B38+(A39-A38)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>1993250000</v>
       </c>
       <c r="C39">
-        <f>($F$4-1)/$A$6*$E$6*A39</f>
+        <f t="shared" si="1"/>
         <v>695999.99999999988</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
-        <v>1230.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1229.2965898478403</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
-        <v>1967.8911005997102</v>
+        <f t="shared" si="2"/>
+        <v>1969.8205756859804</v>
       </c>
       <c r="F39" s="3">
         <v>1980.58</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
-        <v>12.688899400289756</v>
+        <f t="shared" si="3"/>
+        <v>10.759424314019498</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6447968282606108</v>
+        <f t="shared" si="4"/>
+        <v>0.54621341896952114</v>
       </c>
       <c r="J39" s="3">
         <v>700057</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4057.0000000001164</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58290229885059153</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="B40">
-        <f>B39+(A40-A39)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>2053250000</v>
       </c>
       <c r="C40">
-        <f>($F$4-1)/$A$6*$E$6*A40</f>
+        <f t="shared" si="1"/>
         <v>719999.99999999988</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
-        <v>1231.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1230.4965898478404</v>
       </c>
       <c r="E40">
-        <f t="shared" si="6"/>
-        <v>2033.0965919226637</v>
+        <f t="shared" si="2"/>
+        <v>2035.088702831524</v>
       </c>
       <c r="F40" s="3">
         <v>2046.22</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
-        <v>13.123408077336308</v>
+        <f t="shared" si="3"/>
+        <v>11.131297168476067</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64548866637594093</v>
+        <f t="shared" si="4"/>
+        <v>0.54696864824557856</v>
       </c>
       <c r="J40" s="3">
         <v>724197</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4197.0000000001164</v>
       </c>
       <c r="L40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666668296</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="B41">
-        <f>B40+(A41-A40)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>2113250000</v>
       </c>
       <c r="C41">
-        <f>($F$4-1)/$A$6*$E$6*A41</f>
+        <f t="shared" si="1"/>
         <v>743999.99999999988</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
-        <v>1232.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1231.6965898478404</v>
       </c>
       <c r="E41">
-        <f t="shared" si="6"/>
-        <v>2098.1751543070709</v>
+        <f t="shared" si="2"/>
+        <v>2100.2296529543814</v>
       </c>
       <c r="F41" s="3">
         <v>2111.7199999999998</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
-        <v>13.544845692928902</v>
+        <f t="shared" si="3"/>
+        <v>11.490347045618364</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64555362144692496</v>
+        <f t="shared" si="4"/>
+        <v>0.54709955311101122</v>
       </c>
       <c r="J41" s="3">
         <v>748337</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4337.0000000001164</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58293010752689745</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
       <c r="B42">
-        <f>B41+(A42-A41)*$E$6</f>
+        <f t="shared" si="0"/>
         <v>2173250000</v>
       </c>
       <c r="C42">
-        <f>($F$4-1)/$A$6*$E$6*A42</f>
+        <f t="shared" si="1"/>
         <v>767999.99999999988</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
-        <v>1234.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1232.8965898478405</v>
       </c>
       <c r="E42">
-        <f t="shared" si="6"/>
-        <v>2163.1271580121584</v>
+        <f t="shared" si="2"/>
+        <v>2165.2437974054724</v>
       </c>
       <c r="F42" s="3">
         <v>2177.1</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
-        <v>13.972841987841548</v>
+        <f t="shared" si="3"/>
+        <v>11.856202594527531</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64595564509865078</v>
+        <f t="shared" si="4"/>
+        <v>0.54756894390988942</v>
       </c>
       <c r="J42" s="3">
         <v>772477</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4477.0000000001164</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5829427083333486</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="B43">
-        <f>B42+(A43-A42)*$E$6</f>
+        <f t="shared" ref="B43:B74" si="9">B42+(A43-A42)*$E$6</f>
         <v>2233250000</v>
       </c>
       <c r="C43">
-        <f>($F$4-1)/$A$6*$E$6*A43</f>
+        <f t="shared" ref="C43:C70" si="10">($F$4-1)/$A$6*$E$6*A43</f>
         <v>791999.99999999988</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
-        <v>1235.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1234.0965898478403</v>
       </c>
       <c r="E43">
-        <f t="shared" si="6"/>
-        <v>2227.9529718584631</v>
+        <f t="shared" si="2"/>
+        <v>2230.1315060913516</v>
       </c>
       <c r="F43" s="3">
         <v>2242.35</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
-        <v>14.397028141536794</v>
+        <f t="shared" si="3"/>
+        <v>12.21849390864827</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64619982214110239</v>
+        <f t="shared" si="4"/>
+        <v>0.54788221570229545</v>
       </c>
       <c r="J43" s="3">
         <v>796617</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4617.0000000001164</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58295454545456027</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="B44">
-        <f>B43+(A44-A43)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2293250000</v>
       </c>
       <c r="C44">
-        <f>($F$4-1)/$A$6*$E$6*A44</f>
+        <f t="shared" si="10"/>
         <v>815999.99999999988</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
-        <v>1236.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1235.2965898478403</v>
       </c>
       <c r="E44">
-        <f t="shared" si="6"/>
-        <v>2292.6529632348088</v>
+        <f t="shared" si="2"/>
+        <v>2294.8931474812257</v>
       </c>
       <c r="F44" s="3">
         <v>2307.4699999999998</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
-        <v>14.817036765191006</v>
+        <f t="shared" si="3"/>
+        <v>12.576852518774103</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64628345426884726</v>
+        <f t="shared" si="4"/>
+        <v>0.5480365189367491</v>
       </c>
       <c r="J44" s="3">
         <v>820757</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4757.0000000001164</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58296568627452416</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="B45">
-        <f>B44+(A45-A44)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2353250000</v>
       </c>
       <c r="C45">
-        <f>($F$4-1)/$A$6*$E$6*A45</f>
+        <f t="shared" si="10"/>
         <v>839999.99999999988</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
-        <v>1237.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1236.4965898478404</v>
       </c>
       <c r="E45">
-        <f t="shared" si="6"/>
-        <v>2357.2274981052501</v>
+        <f t="shared" si="2"/>
+        <v>2359.5290886139283</v>
       </c>
       <c r="F45" s="3">
         <v>2372.4699999999998</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>15.242501894749694</v>
+        <f t="shared" si="3"/>
+        <v>12.940911386071548</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64662837621747093</v>
+        <f t="shared" si="4"/>
+        <v>0.54845314043886195</v>
       </c>
       <c r="J45" s="3">
         <v>844896</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4896.0000000001164</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58285714285715684</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="B46">
-        <f>B45+(A46-A45)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2413250000</v>
       </c>
       <c r="C46">
-        <f>($F$4-1)/$A$6*$E$6*A46</f>
+        <f t="shared" si="10"/>
         <v>863999.99999999988</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
-        <v>1238.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1237.6965898478404</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
-        <v>2421.6769410159718</v>
+        <f t="shared" si="2"/>
+        <v>2424.0396951048524</v>
       </c>
       <c r="F46" s="3">
         <v>2437.34</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>15.663058984028339</v>
+        <f t="shared" si="3"/>
+        <v>13.300304895147747</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64678565165910118</v>
+        <f t="shared" si="4"/>
+        <v>0.54868346100134469</v>
       </c>
       <c r="J46" s="3">
         <v>869036</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5036.0000000001164</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58287037037038392</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="B47">
-        <f>B46+(A47-A46)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2473250000</v>
       </c>
       <c r="C47">
-        <f>($F$4-1)/$A$6*$E$6*A47</f>
+        <f t="shared" si="10"/>
         <v>887999.99999999988</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
-        <v>1240.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1238.8965898478405</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
-        <v>2486.0016551021477</v>
+        <f t="shared" si="2"/>
+        <v>2488.4253311528469</v>
       </c>
       <c r="F47" s="3">
         <v>2502.09</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>16.088344897852494</v>
+        <f t="shared" si="3"/>
+        <v>13.66466884715328</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6471574491848614</v>
+        <f t="shared" si="4"/>
+        <v>0.54912914910822985</v>
       </c>
       <c r="J47" s="3">
         <v>893176</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5176.0000000001164</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58288288288289603</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="B48">
-        <f>B47+(A48-A47)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2533250000</v>
       </c>
       <c r="C48">
-        <f>($F$4-1)/$A$6*$E$6*A48</f>
+        <f t="shared" si="10"/>
         <v>911999.99999999988</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
-        <v>1241.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1240.0965898478403</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
-        <v>2550.2020020947602</v>
+        <f t="shared" si="2"/>
+        <v>2552.6863595470663</v>
       </c>
       <c r="F48" s="3">
         <v>2566.71</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
-        <v>16.50799790523979</v>
+        <f t="shared" si="3"/>
+        <v>14.023640452933705</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64732118834821573</v>
+        <f t="shared" si="4"/>
+        <v>0.54936793940568462</v>
       </c>
       <c r="J48" s="3">
         <v>917316</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5316.0000000001164</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58289473684211812</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="B49">
-        <f>B48+(A49-A48)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2593250000</v>
       </c>
       <c r="C49">
-        <f>($F$4-1)/$A$6*$E$6*A49</f>
+        <f t="shared" si="10"/>
         <v>935999.99999999977</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
-        <v>1242.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1241.2965898478403</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
-        <v>2614.2783423273841</v>
+        <f t="shared" si="2"/>
+        <v>2616.8231416737881</v>
       </c>
       <c r="F49" s="3">
         <v>2631.21</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
-        <v>16.931657672615984</v>
+        <f t="shared" si="3"/>
+        <v>14.38685832621195</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64766086297996972</v>
+        <f t="shared" si="4"/>
+        <v>0.54978336506951486</v>
       </c>
       <c r="J49" s="3">
         <v>941456</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5456.0000000002328</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58290598290600792</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B50">
-        <f>B49+(A50-A49)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2653250000</v>
       </c>
       <c r="C50">
-        <f>($F$4-1)/$A$6*$E$6*A50</f>
+        <f t="shared" si="10"/>
         <v>959999.99999999977</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
-        <v>1243.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1242.4965898478404</v>
       </c>
       <c r="E50">
-        <f t="shared" si="6"/>
-        <v>2678.2310347429247</v>
+        <f t="shared" si="2"/>
+        <v>2680.8360375231855</v>
       </c>
       <c r="F50" s="3">
         <v>2695.58</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
-        <v>17.348965257075179</v>
+        <f t="shared" si="3"/>
+        <v>14.743962476814431</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64777702266975834</v>
+        <f t="shared" si="4"/>
+        <v>0.54997628614528482</v>
       </c>
       <c r="J50" s="3">
         <v>965596</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5596.0000000002328</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58291666666669106</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="B51">
-        <f>B50+(A51-A50)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2713250000</v>
       </c>
       <c r="C51">
-        <f>($F$4-1)/$A$6*$E$6*A51</f>
+        <f t="shared" si="10"/>
         <v>983999.99999999977</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
-        <v>1244.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1243.6965898478404</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
-        <v>2742.0604369003227</v>
+        <f t="shared" si="2"/>
+        <v>2744.7254056960637</v>
       </c>
       <c r="F51" s="3">
         <v>2759.82</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
-        <v>17.759563099677507</v>
+        <f t="shared" si="3"/>
+        <v>15.094594303936447</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64767219790943975</v>
+        <f t="shared" si="4"/>
+        <v>0.54994915967225699</v>
       </c>
       <c r="J51" s="3">
         <v>989736</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5736.0000000002328</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5829268292683164</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="B52">
-        <f>B51+(A52-A51)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2773250000</v>
       </c>
       <c r="C52">
-        <f>($F$4-1)/$A$6*$E$6*A52</f>
+        <f t="shared" si="10"/>
         <v>1007999.9999999998</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
-        <v>1246.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1244.8965898478405</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
-        <v>2805.7669049812166</v>
+        <f t="shared" si="2"/>
+        <v>2808.4916034105559</v>
       </c>
       <c r="F52" s="3">
         <v>2823.95</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
-        <v>18.183095018783206</v>
+        <f t="shared" si="3"/>
+        <v>15.458396589443964</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64806149742880848</v>
+        <f t="shared" si="4"/>
+        <v>0.55041633632344522</v>
       </c>
       <c r="J52" s="3">
         <v>1013880</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5880.0000000002328</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335657</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="B53">
-        <f>B52+(A53-A52)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2833250000</v>
       </c>
       <c r="C53">
-        <f>($F$4-1)/$A$6*$E$6*A53</f>
+        <f t="shared" si="10"/>
         <v>1031999.9999999998</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
-        <v>1247.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1246.0965898478403</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
-        <v>2869.3507937965687</v>
+        <f t="shared" si="2"/>
+        <v>2872.1349865087809</v>
       </c>
       <c r="F53" s="3">
         <v>2887.95</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
-        <v>18.599206203431095</v>
+        <f t="shared" si="3"/>
+        <v>15.815013491218906</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64820259145873338</v>
+        <f t="shared" si="4"/>
+        <v>0.55063614925852844</v>
       </c>
       <c r="J53" s="3">
         <v>1038020</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6020.0000000002328</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335602</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="B54">
-        <f>B53+(A54-A53)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2893250000</v>
       </c>
       <c r="C54">
-        <f>($F$4-1)/$A$6*$E$6*A54</f>
+        <f t="shared" si="10"/>
         <v>1055999.9999999998</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
-        <v>1248.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1247.2965898478403</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
-        <v>2932.81245679325</v>
+        <f t="shared" si="2"/>
+        <v>2935.6559094634604</v>
       </c>
       <c r="F54" s="3">
         <v>2951.83</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>19.017543206749906</v>
+        <f t="shared" si="3"/>
+        <v>16.174090536539552</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6484404811736163</v>
+        <f t="shared" si="4"/>
+        <v>0.55095321234346006</v>
       </c>
       <c r="J54" s="3">
         <v>1062160</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6160.0000000002328</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335546</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="B55">
-        <f>B54+(A55-A54)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>2953250000</v>
       </c>
       <c r="C55">
-        <f>($F$4-1)/$A$6*$E$6*A55</f>
+        <f t="shared" si="10"/>
         <v>1079999.9999999998</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
-        <v>1249.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1248.4965898478404</v>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
-        <v>2996.1522460605925</v>
+        <f t="shared" si="2"/>
+        <v>2999.0547253845039</v>
       </c>
       <c r="F55" s="3">
         <v>3015.58</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
-        <v>19.427753939407467</v>
+        <f t="shared" si="3"/>
+        <v>16.525274615496073</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64842345594925987</v>
+        <f t="shared" si="4"/>
+        <v>0.55101610769631404</v>
       </c>
       <c r="J55" s="3">
         <v>1086300</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6300.0000000002328</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335502</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="B56">
-        <f>B55+(A56-A55)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3013250000</v>
       </c>
       <c r="C56">
-        <f>($F$4-1)/$A$6*$E$6*A56</f>
+        <f t="shared" si="10"/>
         <v>1103999.9999999998</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
-        <v>1250.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1249.6965898478404</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
-        <v>3059.3705123368995</v>
+        <f t="shared" si="2"/>
+        <v>3062.3317860255484</v>
       </c>
       <c r="F56" s="3">
         <v>3079.21</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
-        <v>19.839487663100499</v>
+        <f t="shared" si="3"/>
+        <v>16.878213974451683</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64848267259875336</v>
+        <f t="shared" si="4"/>
+        <v>0.55115562759961734</v>
       </c>
       <c r="J56" s="3">
         <v>1110440</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6440.0000000002328</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335458</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="B57">
-        <f>B56+(A57-A56)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3073250000</v>
       </c>
       <c r="C57">
-        <f>($F$4-1)/$A$6*$E$6*A57</f>
+        <f t="shared" si="10"/>
         <v>1127999.9999999998</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
-        <v>1252.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1250.8965898478405</v>
       </c>
       <c r="E57">
-        <f t="shared" si="6"/>
-        <v>3122.4676050159183</v>
+        <f t="shared" si="2"/>
+        <v>3125.4874417904657</v>
       </c>
       <c r="F57" s="3">
         <v>3142.72</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
-        <v>20.252394984081548</v>
+        <f t="shared" si="3"/>
+        <v>17.232558209534091</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64860224495358065</v>
+        <f t="shared" si="4"/>
+        <v>0.55135586146083682</v>
       </c>
       <c r="J57" s="3">
         <v>1134580</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6580.0000000002328</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335413</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="B58">
-        <f>B57+(A58-A57)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3133250000</v>
       </c>
       <c r="C58">
-        <f>($F$4-1)/$A$6*$E$6*A58</f>
+        <f t="shared" si="10"/>
         <v>1151999.9999999998</v>
       </c>
       <c r="D58">
-        <f t="shared" si="5"/>
-        <v>1253.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1252.0965898478403</v>
       </c>
       <c r="E58">
-        <f t="shared" si="6"/>
-        <v>3185.4438721532783</v>
+        <f t="shared" si="2"/>
+        <v>3188.52204173983</v>
       </c>
       <c r="F58" s="3">
         <v>3206.11</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
-        <v>20.666127846721793</v>
+        <f t="shared" si="3"/>
+        <v>17.587958260170126</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64876760276275147</v>
+        <f t="shared" si="4"/>
+        <v>0.55160221663618125</v>
       </c>
       <c r="J58" s="3">
         <v>1158720</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6720.0000000002328</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335369</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="B59">
-        <f>B58+(A59-A58)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3193250000</v>
       </c>
       <c r="C59">
-        <f>($F$4-1)/$A$6*$E$6*A59</f>
+        <f t="shared" si="10"/>
         <v>1175999.9999999998</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
-        <v>1254.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1253.2965898478403</v>
       </c>
       <c r="E59">
-        <f t="shared" si="6"/>
-        <v>3248.2996604728892</v>
+        <f t="shared" si="2"/>
+        <v>3251.4359335973472</v>
       </c>
       <c r="F59" s="3">
         <v>3269.38</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
-        <v>21.080339527110937</v>
+        <f t="shared" si="3"/>
+        <v>17.944066402652879</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64896535820349932</v>
+        <f t="shared" si="4"/>
+        <v>0.55188128473439713</v>
       </c>
       <c r="J59" s="3">
         <v>1182860</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6860.0000000002328</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58333333333335324</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="B60">
-        <f>B59+(A60-A59)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3253250000</v>
       </c>
       <c r="C60">
-        <f>($F$4-1)/$A$6*$E$6*A60</f>
+        <f t="shared" si="10"/>
         <v>1199999.9999999998</v>
       </c>
       <c r="D60">
-        <f t="shared" si="5"/>
-        <v>1255.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1254.4965898478404</v>
       </c>
       <c r="E60">
-        <f t="shared" si="6"/>
-        <v>3311.0353153733067</v>
+        <f t="shared" si="2"/>
+        <v>3314.2294637562513</v>
       </c>
       <c r="F60" s="3">
         <v>3332.53</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
-        <v>21.49468462669347</v>
+        <f t="shared" si="3"/>
+        <v>18.300536243748866</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64918318831854638</v>
+        <f t="shared" si="4"/>
+        <v>0.55218072387201489</v>
       </c>
       <c r="J60" s="3">
         <v>1206990</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6990.0000000002328</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58250000000001956</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="B61">
-        <f>B60+(A61-A60)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3313250000</v>
       </c>
       <c r="C61">
-        <f>($F$4-1)/$A$6*$E$6*A61</f>
+        <f t="shared" si="10"/>
         <v>1223999.9999999998</v>
       </c>
       <c r="D61">
-        <f t="shared" si="5"/>
-        <v>1256.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1255.6965898478404</v>
       </c>
       <c r="E61">
-        <f t="shared" si="6"/>
-        <v>3373.6511809340577</v>
+        <f t="shared" si="2"/>
+        <v>3376.9029772856611</v>
       </c>
       <c r="F61" s="3">
         <v>3395.55</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
-        <v>21.898819065942462</v>
+        <f t="shared" si="3"/>
+        <v>18.647022714339073</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64911331644783055</v>
+        <f t="shared" si="4"/>
+        <v>0.55219302537757431</v>
       </c>
       <c r="J61" s="3">
         <v>1231130</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7130.0000000002328</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58251633986930018</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="B62">
-        <f>B61+(A62-A61)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3373250000</v>
       </c>
       <c r="C62">
-        <f>($F$4-1)/$A$6*$E$6*A62</f>
+        <f t="shared" si="10"/>
         <v>1247999.9999999998</v>
       </c>
       <c r="D62">
-        <f t="shared" si="5"/>
-        <v>1258.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1256.8965898478405</v>
       </c>
       <c r="E62">
-        <f t="shared" si="6"/>
-        <v>3436.1475999219301</v>
+        <f t="shared" si="2"/>
+        <v>3439.4568179368998</v>
       </c>
       <c r="F62" s="3">
         <v>3458.46</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
-        <v>22.312400078069913</v>
+        <f t="shared" si="3"/>
+        <v>19.003182063100212</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64934347053592389</v>
+        <f t="shared" si="4"/>
+        <v>0.55250532479424908</v>
       </c>
       <c r="J62" s="3">
         <v>1255270</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7270.0000000002328</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58253205128206997</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>530</v>
       </c>
       <c r="B63">
-        <f>B62+(A63-A62)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3433250000</v>
       </c>
       <c r="C63">
-        <f>($F$4-1)/$A$6*$E$6*A63</f>
+        <f t="shared" si="10"/>
         <v>1271999.9999999998</v>
       </c>
       <c r="D63">
-        <f t="shared" si="5"/>
-        <v>1259.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1258.0965898478403</v>
       </c>
       <c r="E63">
-        <f t="shared" si="6"/>
-        <v>3498.5249137972296</v>
+        <f t="shared" si="2"/>
+        <v>3501.8913281497812</v>
       </c>
       <c r="F63" s="3">
         <v>3521.24</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
-        <v>22.715086202770181</v>
+        <f t="shared" si="3"/>
+        <v>19.348671850218579</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64927610242785661</v>
+        <f t="shared" si="4"/>
+        <v>0.55252062491731924</v>
       </c>
       <c r="J63" s="3">
         <v>1279410</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7410.0000000002328</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58254716981133914</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="B64">
-        <f>B63+(A64-A63)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3493250000</v>
       </c>
       <c r="C64">
-        <f>($F$4-1)/$A$6*$E$6*A64</f>
+        <f t="shared" si="10"/>
         <v>1295999.9999999998</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
-        <v>1260.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1259.2965898478403</v>
       </c>
       <c r="E64">
-        <f t="shared" si="6"/>
-        <v>3560.7834627199941</v>
+        <f t="shared" si="2"/>
+        <v>3564.2068490588563</v>
       </c>
       <c r="F64" s="3">
         <v>3583.91</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
-        <v>23.126537280005778</v>
+        <f t="shared" si="3"/>
+        <v>19.703150941143576</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6494789004198529</v>
+        <f t="shared" si="4"/>
+        <v>0.55280604565210001</v>
       </c>
       <c r="J64" s="3">
         <v>1303550</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7550.0000000002328</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5825617283950798</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="B65">
-        <f>B64+(A65-A64)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3553250000</v>
       </c>
       <c r="C65">
-        <f>($F$4-1)/$A$6*$E$6*A65</f>
+        <f t="shared" si="10"/>
         <v>1319999.9999999998</v>
       </c>
       <c r="D65">
-        <f t="shared" si="5"/>
-        <v>1261.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1260.4965898478404</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
-        <v>3622.9235855561824</v>
+        <f t="shared" si="2"/>
+        <v>3626.4037204996293</v>
       </c>
       <c r="F65" s="3">
         <v>3646.46</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
-        <v>23.536414443817648</v>
+        <f t="shared" si="3"/>
+        <v>20.056279500370692</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64965252200328694</v>
+        <f t="shared" si="4"/>
+        <v>0.55306251168326703</v>
       </c>
       <c r="J65" s="3">
         <v>1327690</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7690.0000000002328</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58257575757577529</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>560</v>
       </c>
       <c r="B66">
-        <f>B65+(A66-A65)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3613250000</v>
       </c>
       <c r="C66">
-        <f>($F$4-1)/$A$6*$E$6*A66</f>
+        <f t="shared" si="10"/>
         <v>1343999.9999999998</v>
       </c>
       <c r="D66">
-        <f t="shared" si="5"/>
-        <v>1262.9196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1261.6965898478404</v>
       </c>
       <c r="E66">
-        <f t="shared" si="6"/>
-        <v>3684.9456198838193</v>
+        <f t="shared" si="2"/>
+        <v>3688.4822810147339</v>
       </c>
       <c r="F66" s="3">
         <v>3708.89</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
-        <v>23.944380116180582</v>
+        <f t="shared" si="3"/>
+        <v>20.407718985266001</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64978923941177491</v>
+        <f t="shared" si="4"/>
+        <v>0.55328228334749263</v>
       </c>
       <c r="J66" s="3">
         <v>1351830</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7830.0000000002328</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58258928571430313</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>570</v>
       </c>
       <c r="B67">
-        <f>B66+(A67-A66)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3673250000</v>
       </c>
       <c r="C67">
-        <f>($F$4-1)/$A$6*$E$6*A67</f>
+        <f t="shared" si="10"/>
         <v>1367999.9999999998</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
-        <v>1264.1196238988791</v>
+        <f t="shared" si="8"/>
+        <v>1262.8965898478405</v>
       </c>
       <c r="E67">
-        <f t="shared" si="6"/>
-        <v>3746.8499019991082</v>
+        <f t="shared" si="2"/>
+        <v>3750.4428678600748</v>
       </c>
       <c r="F67" s="3">
         <v>3771.2</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="0"/>
-        <v>24.350098000891649</v>
+        <f t="shared" si="3"/>
+        <v>20.757132139925034</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64988186444030782</v>
+        <f t="shared" si="4"/>
+        <v>0.55345816137624904</v>
       </c>
       <c r="J67" s="3">
         <v>1375970</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7970.0000000002328</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.58260233918130366</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="B68">
-        <f>B67+(A68-A67)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3733250000</v>
       </c>
       <c r="C68">
-        <f>($F$4-1)/$A$6*$E$6*A68</f>
+        <f t="shared" si="10"/>
         <v>1391999.9999999998</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
-        <v>1265.3196238988789</v>
+        <f t="shared" si="8"/>
+        <v>1264.0965898478403</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
-        <v>3808.6367669225124</v>
+        <f t="shared" si="2"/>
+        <v>3812.285817010938</v>
       </c>
       <c r="F68" s="3">
         <v>3833.08</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="0"/>
-        <v>24.443233077487548</v>
+        <f t="shared" si="3"/>
+        <v>20.794182989061937</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64178430691458088</v>
+        <f t="shared" si="4"/>
+        <v>0.54545183617333892</v>
       </c>
       <c r="J68" s="3">
         <v>1400000</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8000.0000000002328</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.57471264367817776</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>590</v>
       </c>
       <c r="B69">
-        <f>B68+(A69-A68)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3793250000</v>
       </c>
       <c r="C69">
-        <f>($F$4-1)/$A$6*$E$6*A69</f>
+        <f t="shared" si="10"/>
         <v>1415999.9999999998</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
-        <v>1266.519623898879</v>
+        <f t="shared" si="8"/>
+        <v>1265.2965898478403</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
-        <v>3870.306548404792</v>
+        <f t="shared" si="2"/>
+        <v>3874.0114631680563</v>
       </c>
       <c r="F69" s="3">
         <v>3855.77</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="0"/>
-        <v>-14.536548404792029</v>
+        <f t="shared" si="3"/>
+        <v>-18.241463168056271</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.37559165463995342</v>
+        <f t="shared" si="4"/>
+        <v>-0.47086755786568896</v>
       </c>
       <c r="J69" s="3">
         <v>1409730</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-6269.9999999997672</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.44279661016947519</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="B70">
-        <f>B69+(A70-A69)*$E$6</f>
+        <f t="shared" si="9"/>
         <v>3853250000</v>
       </c>
       <c r="C70">
-        <f>($F$4-1)/$A$6*$E$6*A70</f>
+        <f t="shared" si="10"/>
         <v>1439999.9999999998</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
-        <v>1267.719623898879</v>
+        <f t="shared" si="8"/>
+        <v>1266.4965898478404</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
-        <v>3931.859578933022</v>
+        <f t="shared" si="2"/>
+        <v>3935.6201397636587</v>
       </c>
       <c r="F70" s="3">
         <v>3860.15</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="0"/>
-        <v>-71.70957893302193</v>
+        <f t="shared" si="3"/>
+        <v>-75.470139763658608</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.8238082386574335</v>
+        <f t="shared" si="4"/>
+        <v>-1.9176174804357702</v>
       </c>
       <c r="J70" s="3">
         <v>1412770</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-27229.999999999767</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.8909722222222065</v>
       </c>
     </row>

--- a/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
+++ b/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>dx</t>
   </si>
@@ -39,9 +39,6 @@
     <t>qconv</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>cp</t>
   </si>
   <si>
@@ -108,17 +102,44 @@
     <t>calc temperature</t>
   </si>
   <si>
-    <t>calc pressure</t>
-  </si>
-  <si>
     <t>T=E/(CV*M)-273.3</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>cfast temperature and pressur columns are copied from a CFAST run</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>calculated pressure</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>DP=(gamma-1)*qtotal*Time/Volume</t>
+  </si>
+  <si>
+    <t>M=M0+mfire*Time</t>
+  </si>
+  <si>
+    <t>E=E0+qconvec*Time</t>
+  </si>
+  <si>
+    <t>T=E/(cv*M)-273.3</t>
+  </si>
+  <si>
+    <t>Formulas (assuming constant fire)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -155,12 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,20 +506,12 @@
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>6000000</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,34 +528,34 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
       <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -544,7 +566,6 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <f>D2*E2</f>
         <v>6000000</v>
       </c>
       <c r="E4" s="1">
@@ -583,9 +604,9 @@
         <v>253250000.00000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -594,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A4*B4*C4</f>
         <v>1000</v>
@@ -621,54 +642,71 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -709,8 +747,14 @@
         <f>K10/C10*100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+10</f>
         <v>10</v>
@@ -753,8 +797,14 @@
         <f t="shared" ref="L11:L70" si="6">K11/C11*100</f>
         <v>0.58291666666668795</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A70" si="7">A11+10</f>
         <v>20</v>
@@ -797,8 +847,14 @@
         <f t="shared" si="6"/>
         <v>0.58291666666668795</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="7"/>
         <v>30</v>
@@ -841,8 +897,14 @@
         <f t="shared" si="6"/>
         <v>0.58291666666668296</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -886,7 +948,7 @@
         <v>0.58291666666668795</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="7"/>
         <v>50</v>
@@ -930,7 +992,7 @@
         <v>0.58250000000002444</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -2124,7 +2186,7 @@
         <v>330</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43:B74" si="9">B42+(A43-A42)*$E$6</f>
+        <f t="shared" ref="B43:B70" si="9">B42+(A43-A42)*$E$6</f>
         <v>2233250000</v>
       </c>
       <c r="C43">
@@ -3352,7 +3414,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
+++ b/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="2400" windowWidth="19635" windowHeight="10995"/>
+    <workbookView xWindow="840" yWindow="3600" windowWidth="19635" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,38 +139,16 @@
     <t>M=M0+mfire*Time</t>
   </si>
   <si>
-    <t>E=E0+qconvec*Time</t>
-  </si>
-  <si>
     <t>Formulas (assuming constant fire)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cfast temperature and pressure columns (in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bold</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) are copied from a CFAST run</t>
-    </r>
+    <t>T=E/(cv*M)-273.15</t>
+  </si>
+  <si>
+    <t>T=E/(CV*M)-273.15</t>
+  </si>
+  <si>
+    <t>(Note volume calculated in CFAST is (1-1e-4)*Actual_volume to allow for a non-disappearing second layer (pressure calculation though uses full compartment volume)</t>
   </si>
   <si>
     <r>
@@ -195,14 +173,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - non-bold items are computed by spreadsheet</t>
+      <t xml:space="preserve"> - non-bold items are computed by spreadsheet. CFAST temperature and pressure (in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bold)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are copied from a CFAST run</t>
     </r>
   </si>
   <si>
-    <t>T=E/(cv*M)-273.15</t>
-  </si>
-  <si>
-    <t>T=E/(CV*M)-273.15</t>
+    <t>E=E0+qconvec*Time+(M-M0)*cp*T (note actually we use T_i-1 to allow an analytical solution)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,15 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,7 +270,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +384,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13375262467191601"/>
+                  <c:y val="2.2731481481481481E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -709,280 +706,280 @@
             <c:numRef>
               <c:f>Sheet1!$K$11:$K$101</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>402.37799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800</c:v>
+                  <c:v>804.76499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1200</c:v>
+                  <c:v>1207.1600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600</c:v>
+                  <c:v>1609.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2011.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2400</c:v>
+                  <c:v>2414.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2800</c:v>
+                  <c:v>2816.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3200</c:v>
+                  <c:v>3219.29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3600</c:v>
+                  <c:v>3621.74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4000</c:v>
+                  <c:v>4024.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4400</c:v>
+                  <c:v>4426.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4800</c:v>
+                  <c:v>4829.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5200</c:v>
+                  <c:v>5231.6499999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5600</c:v>
+                  <c:v>5634.15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6000</c:v>
+                  <c:v>6036.66</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6400</c:v>
+                  <c:v>6439.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6800</c:v>
+                  <c:v>6841.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7200</c:v>
+                  <c:v>7244.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7600</c:v>
+                  <c:v>7646.79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8000</c:v>
+                  <c:v>8049.34</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8400</c:v>
+                  <c:v>8451.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8800</c:v>
+                  <c:v>8854.49</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9200</c:v>
+                  <c:v>9257.07</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9600</c:v>
+                  <c:v>9659.66</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10000</c:v>
+                  <c:v>10062.299999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10400</c:v>
+                  <c:v>10464.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10800</c:v>
+                  <c:v>10867.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11200</c:v>
+                  <c:v>11270.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11600</c:v>
+                  <c:v>11672.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12000</c:v>
+                  <c:v>12075.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12400</c:v>
+                  <c:v>12478.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12800</c:v>
+                  <c:v>12880.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13200</c:v>
+                  <c:v>13283.4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13600</c:v>
+                  <c:v>13686.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14000</c:v>
+                  <c:v>14088.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14400</c:v>
+                  <c:v>14491.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14800</c:v>
+                  <c:v>14894.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15200</c:v>
+                  <c:v>15297</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15600</c:v>
+                  <c:v>15699.7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16000</c:v>
+                  <c:v>16102.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16400</c:v>
+                  <c:v>16505.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16800</c:v>
+                  <c:v>16908</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17200</c:v>
+                  <c:v>17310.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17600</c:v>
+                  <c:v>17713.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18000</c:v>
+                  <c:v>18116.3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18400</c:v>
+                  <c:v>18519.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18800</c:v>
+                  <c:v>18921.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19200</c:v>
+                  <c:v>19324.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19600</c:v>
+                  <c:v>19727.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20000</c:v>
+                  <c:v>20130.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20400</c:v>
+                  <c:v>20533.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>20800</c:v>
+                  <c:v>20936.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21200</c:v>
+                  <c:v>21339</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21600</c:v>
+                  <c:v>21741.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22000</c:v>
+                  <c:v>22144.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22400</c:v>
+                  <c:v>22547.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22800</c:v>
+                  <c:v>22950.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>23200</c:v>
+                  <c:v>23353.4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23600</c:v>
+                  <c:v>23756.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>24000</c:v>
+                  <c:v>24159.3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24400</c:v>
+                  <c:v>24562.2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24800</c:v>
+                  <c:v>24965.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25200</c:v>
+                  <c:v>25368.1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>25600</c:v>
+                  <c:v>25771.1</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26000</c:v>
+                  <c:v>26174.1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26400</c:v>
+                  <c:v>26577.1</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>26800</c:v>
+                  <c:v>26980.1</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>27200</c:v>
+                  <c:v>27383.1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>27600</c:v>
+                  <c:v>27786.1</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>28000</c:v>
+                  <c:v>28189.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>28400</c:v>
+                  <c:v>28592.2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>28800</c:v>
+                  <c:v>28995.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>29200</c:v>
+                  <c:v>29398.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>29600</c:v>
+                  <c:v>29801.3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>30000</c:v>
+                  <c:v>30204.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>30400</c:v>
+                  <c:v>30607.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>30800</c:v>
+                  <c:v>31010.6</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>31200</c:v>
+                  <c:v>31413.7</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>31600</c:v>
+                  <c:v>31816.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>32000</c:v>
+                  <c:v>32219.9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>32400</c:v>
+                  <c:v>32623</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>32800</c:v>
+                  <c:v>33026.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>33200</c:v>
+                  <c:v>33429.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>33600</c:v>
+                  <c:v>33832.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>34000</c:v>
+                  <c:v>34235.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34400</c:v>
+                  <c:v>34638.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>34800</c:v>
+                  <c:v>35042</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35200</c:v>
+                  <c:v>35445.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>35600</c:v>
+                  <c:v>35848.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>36000</c:v>
+                  <c:v>36251.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,11 +994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187216248"/>
-        <c:axId val="233762464"/>
+        <c:axId val="128312576"/>
+        <c:axId val="127830656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187216248"/>
+        <c:axId val="128312576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,12 +1055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233762464"/>
+        <c:crossAx val="127830656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="233762464"/>
+        <c:axId val="127830656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187216248"/>
+        <c:crossAx val="128312576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,10 +1268,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="20"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15449715660542432"/>
+                  <c:y val="4.2129629629629626E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1591,280 +1594,280 @@
             <c:numRef>
               <c:f>Sheet1!$G$11:$G$101</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.152699999999999</c:v>
+                  <c:v>21.159600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.305399999999999</c:v>
+                  <c:v>22.319199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.457999999999998</c:v>
+                  <c:v>23.4787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.610600000000002</c:v>
+                  <c:v>24.638300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.763200000000001</c:v>
+                  <c:v>25.797799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.915700000000001</c:v>
+                  <c:v>26.9574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.068200000000001</c:v>
+                  <c:v>28.116900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.220600000000001</c:v>
+                  <c:v>29.276399999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.373000000000001</c:v>
+                  <c:v>30.4359</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.525400000000001</c:v>
+                  <c:v>31.595400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.677700000000002</c:v>
+                  <c:v>32.754899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.83</c:v>
+                  <c:v>33.914299999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.982199999999999</c:v>
+                  <c:v>35.073799999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.134399999999999</c:v>
+                  <c:v>36.233199999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.2866</c:v>
+                  <c:v>37.392699999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.438800000000001</c:v>
+                  <c:v>38.552100000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.590899999999998</c:v>
+                  <c:v>39.711500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.742899999999999</c:v>
+                  <c:v>40.870899999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>41.8949</c:v>
+                  <c:v>42.030299999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43.046900000000001</c:v>
+                  <c:v>43.189700000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.198900000000002</c:v>
+                  <c:v>44.348999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.3508</c:v>
+                  <c:v>45.508400000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.502600000000001</c:v>
+                  <c:v>46.667700000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.654499999999999</c:v>
+                  <c:v>47.827100000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.806199999999997</c:v>
+                  <c:v>48.986400000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49.957999999999998</c:v>
+                  <c:v>50.145699999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.109699999999997</c:v>
+                  <c:v>51.305</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.261400000000002</c:v>
+                  <c:v>52.464300000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>53.412999999999997</c:v>
+                  <c:v>53.6235</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.564599999999999</c:v>
+                  <c:v>54.782800000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.716200000000001</c:v>
+                  <c:v>55.942100000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>56.867699999999999</c:v>
+                  <c:v>57.101300000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.019199999999998</c:v>
+                  <c:v>58.2605</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.1706</c:v>
+                  <c:v>59.419699999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60.322099999999999</c:v>
+                  <c:v>60.579000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.473399999999998</c:v>
+                  <c:v>61.738100000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.6248</c:v>
+                  <c:v>62.897300000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>63.7761</c:v>
+                  <c:v>64.0565</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>64.927300000000002</c:v>
+                  <c:v>65.215699999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66.078500000000005</c:v>
+                  <c:v>66.374799999999993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>67.229699999999994</c:v>
+                  <c:v>67.533900000000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68.380799999999994</c:v>
+                  <c:v>68.693100000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>69.531899999999993</c:v>
+                  <c:v>69.852199999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70.683000000000007</c:v>
+                  <c:v>71.011300000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>71.834000000000003</c:v>
+                  <c:v>72.170400000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>72.984999999999999</c:v>
+                  <c:v>73.329499999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>74.135999999999996</c:v>
+                  <c:v>74.488500000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75.286900000000003</c:v>
+                  <c:v>75.647599999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>76.437799999999996</c:v>
+                  <c:v>76.806600000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>77.5886</c:v>
+                  <c:v>77.965699999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>78.739400000000003</c:v>
+                  <c:v>79.124700000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>79.890199999999993</c:v>
+                  <c:v>80.283699999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>81.040899999999993</c:v>
+                  <c:v>81.442700000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>82.191599999999994</c:v>
+                  <c:v>82.601699999999994</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>83.342200000000005</c:v>
+                  <c:v>83.7607</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>84.492800000000003</c:v>
+                  <c:v>84.919700000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>85.6434</c:v>
+                  <c:v>86.078599999999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>86.793899999999994</c:v>
+                  <c:v>87.2376</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>87.944400000000002</c:v>
+                  <c:v>88.396500000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>89.094800000000006</c:v>
+                  <c:v>89.555400000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>90.2453</c:v>
+                  <c:v>90.714299999999994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>91.395600000000002</c:v>
+                  <c:v>91.873199999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.546000000000006</c:v>
+                  <c:v>93.0321</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>93.696299999999994</c:v>
+                  <c:v>94.191000000000003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>94.846500000000006</c:v>
+                  <c:v>95.349900000000005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>95.996799999999993</c:v>
+                  <c:v>96.508700000000005</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.147000000000006</c:v>
+                  <c:v>97.667500000000004</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>98.2971</c:v>
+                  <c:v>98.826400000000007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.447199999999995</c:v>
+                  <c:v>99.985200000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.59699999999999</c:v>
+                  <c:v>101.14400000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>101.747</c:v>
+                  <c:v>102.303</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>102.89700000000001</c:v>
+                  <c:v>103.462</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>104.047</c:v>
+                  <c:v>104.62</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>105.197</c:v>
+                  <c:v>105.779</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>106.34699999999999</c:v>
+                  <c:v>106.938</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>107.497</c:v>
+                  <c:v>108.09699999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>108.64700000000001</c:v>
+                  <c:v>109.255</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>109.79600000000001</c:v>
+                  <c:v>110.414</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>110.946</c:v>
+                  <c:v>111.57299999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>112.096</c:v>
+                  <c:v>112.73099999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>113.246</c:v>
+                  <c:v>113.89</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>114.395</c:v>
+                  <c:v>115.04900000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>115.545</c:v>
+                  <c:v>116.20699999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>116.694</c:v>
+                  <c:v>117.366</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>117.84399999999999</c:v>
+                  <c:v>118.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>118.99299999999999</c:v>
+                  <c:v>119.68300000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>120.143</c:v>
+                  <c:v>120.842</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>121.292</c:v>
+                  <c:v>122.001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>122.441</c:v>
+                  <c:v>123.15900000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>123.59099999999999</c:v>
+                  <c:v>124.318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,11 +1882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289592120"/>
-        <c:axId val="289591728"/>
+        <c:axId val="32720432"/>
+        <c:axId val="183920440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289592120"/>
+        <c:axId val="32720432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,12 +1943,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289591728"/>
+        <c:crossAx val="183920440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289591728"/>
+        <c:axId val="183920440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289592120"/>
+        <c:crossAx val="32720432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3518,7 +3521,7 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,7 +3532,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3663,13 +3666,20 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G8" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="I8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:18" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
@@ -3685,7 +3695,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -3705,7 +3715,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
@@ -3750,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="10">
+      <c r="G11" s="2">
         <v>20</v>
       </c>
       <c r="H11" s="2">
@@ -3762,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="10">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="4">
@@ -3770,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f>L11/(C11+P0)*100</f>
+        <f t="shared" ref="M11:M42" si="3">L11/(C11+P0)*100</f>
         <v>0</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -3786,44 +3796,44 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B43" si="3">E0+qconv*A12</f>
-        <v>254224675.00000003</v>
+        <f>E0+qconv*A12+(D12-M0)*cp*(E11+273.15)</f>
+        <v>254230608.35600004</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:C43" si="4">(gamma-1)*qconv*A12/Volume</f>
-        <v>400.04000400040002</v>
+        <f>(gamma-1)*qfire*A12/(Volume/(1-0.0001))</f>
+        <v>399.99999999999994</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D43" si="5">M0+mfire*A12</f>
+        <f t="shared" ref="D12:D43" si="4">M0+mfire*A12</f>
         <v>1195.0082831908285</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>21.152741975819595</v>
+        <v>21.159610714819507</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="10">
-        <v>21.152699999999999</v>
+      <c r="G12" s="2">
+        <v>21.159600000000001</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>-4.1975819595307939E-5</v>
+        <v>-1.0714819506318918E-5</v>
       </c>
       <c r="I12" s="9">
         <f>H12/(E12+273.15)*100</f>
-        <v>-1.4262802756610654E-5</v>
+        <v>-3.6406624575713832E-6</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="10">
-        <v>400</v>
+      <c r="K12" s="2">
+        <v>402.37799999999999</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>-4.0004000400017503E-2</v>
+        <v>2.3780000000000427</v>
       </c>
       <c r="M12" s="9">
-        <f>L12/(C12+P0)*100</f>
-        <v>-3.9335284822350054E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.3382497541789998E-3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>31</v>
@@ -3834,51 +3844,51 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:A76" si="6">A12+10</f>
+        <f t="shared" ref="A13:A76" si="5">A12+10</f>
         <v>20</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
-        <v>255224675.00000003</v>
+        <f>E0+qconv*A13+(D13-M0)*cp*(E12+273.15)</f>
+        <v>255236588.65304175</v>
       </c>
       <c r="C13" s="4">
+        <f>(gamma-1)*qfire*A13/(Volume/(1-0.0001))</f>
+        <v>799.99999999999989</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="4"/>
-        <v>800.08000800080004</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="5"/>
         <v>1195.0282831908285</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>22.3054453670469</v>
+        <v>22.319236955440147</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="10">
-        <v>22.305399999999999</v>
+      <c r="G13" s="2">
+        <v>22.319199999999999</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>-4.536704690139004E-5</v>
+        <v>-3.6955440148034313E-5</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:I76" si="7">H13/(E13+273.15)*100</f>
-        <v>-1.5354953720697264E-5</v>
+        <f t="shared" ref="I13:I76" si="6">H13/(E13+273.15)*100</f>
+        <v>-1.2507373196894804E-5</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="10">
-        <v>800</v>
+      <c r="K13" s="2">
+        <v>804.76499999999999</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>-8.0008000800035006E-2</v>
+        <v>4.7650000000001</v>
       </c>
       <c r="M13" s="9">
-        <f>L13/(C13+P0)*100</f>
-        <v>-7.8362329190893274E-5</v>
+        <f t="shared" si="3"/>
+        <v>4.6669931439765914E-3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3886,51 +3896,51 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
-        <v>256224675.00000003</v>
+        <f>E0+qconv*A14+(D14-M0)*cp*(E13+273.15)</f>
+        <v>256242615.89206794</v>
       </c>
       <c r="C14" s="4">
+        <f>(gamma-1)*qfire*A14/(Volume/(1-0.0001))</f>
+        <v>1199.9999999999998</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="4"/>
-        <v>1200.1200120011999</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="5"/>
         <v>1195.0482831908284</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>23.458110175619254</v>
+        <v>23.478878722173647</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="10">
-        <v>23.457999999999998</v>
+      <c r="G14" s="2">
+        <v>23.4787</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>-1.1017561925541486E-4</v>
+        <v>-1.7872217364711673E-4</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.7145180956171689E-5</v>
+        <f t="shared" si="6"/>
+        <v>-6.0251103809251894E-5</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="10">
-        <v>1200</v>
+      <c r="K14" s="2">
+        <v>1207.1600000000001</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
-        <v>-0.12001200119993882</v>
+        <v>7.1600000000003092</v>
       </c>
       <c r="M14" s="9">
-        <f>L14/(C14+P0)*100</f>
-        <v>-1.1708474213092361E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.9853658536588393E-3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3938,4007 +3948,4010 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
-        <v>257224675.00000003</v>
+        <f>E0+qconv*A15+(D15-M0)*cp*(E14+273.15)</f>
+        <v>257248690.07402137</v>
       </c>
       <c r="C15" s="4">
+        <f>(gamma-1)*qfire*A15/(Volume/(1-0.0001))</f>
+        <v>1599.9999999999998</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="4"/>
-        <v>1600.1600160016001</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="5"/>
         <v>1195.0682831908284</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>24.610736403473595</v>
+        <v>24.638536015331908</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="10">
-        <v>24.610600000000002</v>
+      <c r="G15" s="2">
+        <v>24.638300000000001</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3640347359356042E-4</v>
+        <v>-2.360153319074243E-4</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.5809758278112983E-5</v>
+        <f t="shared" si="6"/>
+        <v>-7.9256016724321731E-5</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="10">
-        <v>1600</v>
+      <c r="K15" s="2">
+        <v>1609.57</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
-        <v>-0.16001600160007001</v>
+        <v>9.5700000000001637</v>
       </c>
       <c r="M15" s="9">
-        <f>L15/(C15+P0)*100</f>
-        <v>-1.5550607654564051E-4</v>
+        <f t="shared" si="3"/>
+        <v>9.300291545189663E-3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
-        <v>258224675.00000003</v>
+        <f>E0+qconv*A16+(D16-M0)*cp*(E15+273.15)</f>
+        <v>258254811.19984475</v>
       </c>
       <c r="C16" s="4">
+        <f>(gamma-1)*qfire*A16/(Volume/(1-0.0001))</f>
+        <v>1999.9999999999995</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="4"/>
-        <v>2000.2000200019997</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="5"/>
         <v>1195.0882831908284</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>25.763324052547034</v>
+        <v>25.79820883522666</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="10">
-        <v>25.763200000000001</v>
+      <c r="G16" s="2">
+        <v>25.797799999999999</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>-1.2405254703296009E-4</v>
+        <v>-4.0883522666135264E-4</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.1501176779644811E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.3675787797969155E-4</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="10">
-        <v>2000</v>
+      <c r="K16" s="2">
+        <v>2011.98</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>-0.20002000199974646</v>
+        <v>11.980000000000473</v>
       </c>
       <c r="M16" s="9">
-        <f>L16/(C16+P0)*100</f>
-        <v>-1.9362983030140948E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.1597289448209558E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
-        <v>259224675.00000003</v>
+        <f>E0+qconv*A17+(D17-M0)*cp*(E16+273.15)</f>
+        <v>259260979.27048096</v>
       </c>
       <c r="C17" s="4">
+        <f>(gamma-1)*qfire*A17/(Volume/(1-0.0001))</f>
+        <v>2399.9999999999995</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="4"/>
-        <v>2400.2400240023999</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="5"/>
         <v>1195.1082831908284</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>26.91587312477634</v>
+        <v>26.957897182169859</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="10">
-        <v>26.915700000000001</v>
+      <c r="G17" s="2">
+        <v>26.9574</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
-        <v>-1.7312477633879553E-4</v>
+        <v>-4.9718216985894514E-4</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="7"/>
-        <v>-5.7695590150235147E-5</v>
+        <f t="shared" si="6"/>
+        <v>-1.6566780632138725E-4</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="10">
-        <v>2400</v>
+      <c r="K17" s="2">
+        <v>2414.41</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="2"/>
-        <v>-0.24002400239987765</v>
+        <v>14.410000000000309</v>
       </c>
       <c r="M17" s="9">
-        <f>L17/(C17+P0)*100</f>
-        <v>-2.314594472918499E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.3895853423336846E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
-        <v>260224675.00000003</v>
+        <f>E0+qconv*A18+(D18-M0)*cp*(E17+273.15)</f>
+        <v>260267194.28687283</v>
       </c>
       <c r="C18" s="4">
+        <f>(gamma-1)*qfire*A18/(Volume/(1-0.0001))</f>
+        <v>2799.9999999999995</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="4"/>
-        <v>2800.2800280028</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="5"/>
         <v>1195.1282831908286</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>28.068383622098111</v>
+        <v>28.117601056473234</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="10">
-        <v>28.068200000000001</v>
+      <c r="G18" s="2">
+        <v>28.116900000000001</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>-1.8362209810973695E-4</v>
+        <v>-7.0105647323259745E-4</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="7"/>
-        <v>-6.095979133202745E-5</v>
+        <f t="shared" si="6"/>
+        <v>-2.3270224570254503E-4</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="10">
-        <v>2800</v>
+      <c r="K18" s="2">
+        <v>2816.84</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
-        <v>-0.28002800280000884</v>
+        <v>16.8400000000006</v>
       </c>
       <c r="M18" s="9">
-        <f>L18/(C18+P0)*100</f>
-        <v>-2.6899831847203656E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.6176753121998656E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
-        <v>261224675.00000003</v>
+        <f>E0+qconv*A19+(D19-M0)*cp*(E18+273.15)</f>
+        <v>261273456.2499631</v>
       </c>
       <c r="C19" s="4">
+        <f>(gamma-1)*qfire*A19/(Volume/(1-0.0001))</f>
+        <v>3199.9999999999995</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="4"/>
-        <v>3200.3200320032001</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="5"/>
         <v>1195.1482831908286</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>29.220855546449116</v>
+        <v>29.277320458448571</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="10">
-        <v>29.220600000000001</v>
+      <c r="G19" s="2">
+        <v>29.276399999999999</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>-2.5554644911451874E-4</v>
+        <v>-9.2045844857224779E-4</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="7"/>
-        <v>-8.4514246140783439E-5</v>
+        <f t="shared" si="6"/>
+        <v>-3.043569103402854E-4</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="10">
-        <v>3200</v>
+      <c r="K19" s="2">
+        <v>3219.29</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="2"/>
-        <v>-0.32003200320014003</v>
+        <v>19.290000000000418</v>
       </c>
       <c r="M19" s="9">
-        <f>L19/(C19+P0)*100</f>
-        <v>-3.0624978287351686E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.8459330143541067E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
-        <v>262224675.00000003</v>
+        <f>E0+qconv*A20+(D20-M0)*cp*(E19+273.15)</f>
+        <v>262279765.16069475</v>
       </c>
       <c r="C20" s="4">
+        <f>(gamma-1)*qfire*A20/(Volume/(1-0.0001))</f>
+        <v>3599.9999999999995</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="4"/>
-        <v>3600.3600360035998</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="5"/>
         <v>1195.1682831908286</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>30.373288899765726</v>
+        <v>30.437055388407884</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="10">
-        <v>30.373000000000001</v>
+      <c r="G20" s="2">
+        <v>30.4359</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>-2.8889976572443743E-4</v>
+        <v>-1.1553884078843168E-3</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="7"/>
-        <v>-9.5182075408995235E-5</v>
+        <f t="shared" si="6"/>
+        <v>-3.8057894346190692E-4</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="10">
-        <v>3600</v>
+      <c r="K20" s="2">
+        <v>3621.74</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>-0.36003600359981647</v>
+        <v>21.740000000000236</v>
       </c>
       <c r="M20" s="9">
-        <f>L20/(C20+P0)*100</f>
-        <v>-3.432171285935014E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.07244995233558E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
-        <v>263224675.00000003</v>
+        <f>E0+qconv*A21+(D21-M0)*cp*(E20+273.15)</f>
+        <v>263286121.02001065</v>
       </c>
       <c r="C21" s="4">
+        <f>(gamma-1)*qfire*A21/(Volume/(1-0.0001))</f>
+        <v>3999.9999999999991</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="4"/>
-        <v>4000.4000400039995</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="5"/>
         <v>1195.1882831908285</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>31.525683683984198</v>
+        <v>31.596805846662903</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="10">
-        <v>31.525400000000001</v>
+      <c r="G21" s="2">
+        <v>31.595400000000001</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>-2.8368398419686969E-4</v>
+        <v>-1.4058466629016664E-3</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="7"/>
-        <v>-9.3110149378088371E-5</v>
+        <f t="shared" si="6"/>
+        <v>-4.6131629140324298E-4</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="10">
-        <v>4000</v>
+      <c r="K21" s="2">
+        <v>4024.2</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
-        <v>-0.40004000399949291</v>
+        <v>24.200000000000728</v>
       </c>
       <c r="M21" s="9">
-        <f>L21/(C21+P0)*100</f>
-        <v>-3.7990359376366693E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.298195631529034E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
-        <v>264224675.00000003</v>
+        <f>E0+qconv*A22+(D22-M0)*cp*(E21+273.15)</f>
+        <v>264292523.82885373</v>
       </c>
       <c r="C22" s="4">
+        <f>(gamma-1)*qfire*A22/(Volume/(1-0.0001))</f>
+        <v>4399.9999999999991</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="4"/>
-        <v>4400.4400440043992</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="5"/>
         <v>1195.2082831908285</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>32.67803990104079</v>
+        <v>32.756571833525584</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="10">
-        <v>32.677700000000002</v>
+      <c r="G22" s="2">
+        <v>32.754899999999999</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>-3.3990104078895911E-4</v>
+        <v>-1.6718335255845318E-3</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.1114122854756667E-4</v>
+        <f t="shared" si="6"/>
+        <v>-5.4651768857530262E-4</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="10">
-        <v>4400</v>
+      <c r="K22" s="2">
+        <v>4426.67</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>-0.44004400439916935</v>
+        <v>26.670000000000982</v>
       </c>
       <c r="M22" s="9">
-        <f>L22/(C22+P0)*100</f>
-        <v>-4.1631236749437711E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.5231788079471126E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
-        <v>265224675.00000003</v>
+        <f>E0+qconv*A23+(D23-M0)*cp*(E22+273.15)</f>
+        <v>265298973.58816695</v>
       </c>
       <c r="C23" s="4">
+        <f>(gamma-1)*qfire*A23/(Volume/(1-0.0001))</f>
+        <v>4799.9999999999991</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="4"/>
-        <v>4800.4800480047998</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="5"/>
         <v>1195.2282831908285</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>33.830357552871533</v>
+        <v>33.916353349307769</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="10">
-        <v>33.83</v>
+      <c r="G23" s="2">
+        <v>33.914299999999997</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>-3.5755287153449444E-4</v>
+        <v>-2.0533493077721232E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.1647418564000884E-4</v>
+        <f t="shared" si="6"/>
+        <v>-6.6869889370012032E-4</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="10">
-        <v>4800</v>
+      <c r="K23" s="2">
+        <v>4829.16</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="2"/>
-        <v>-0.48004800479975529</v>
+        <v>29.160000000000764</v>
       </c>
       <c r="M23" s="9">
-        <f>L23/(C23+P0)*100</f>
-        <v>-4.5244659080011631E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.7483506126296665E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
-        <v>266224675.00000003</v>
+        <f>E0+qconv*A24+(D24-M0)*cp*(E23+273.15)</f>
+        <v>266305470.2988933</v>
       </c>
       <c r="C24" s="4">
+        <f>(gamma-1)*qfire*A24/(Volume/(1-0.0001))</f>
+        <v>5199.9999999999991</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="4"/>
-        <v>5200.5200520051994</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="5"/>
         <v>1195.2482831908285</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>34.982636641412398</v>
+        <v>35.076150394321303</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="10">
-        <v>34.982199999999999</v>
+      <c r="G24" s="2">
+        <v>35.073799999999999</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="1"/>
-        <v>-4.3664141239929677E-4</v>
+        <v>-2.3503943213043499E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.4170566842857212E-4</v>
+        <f t="shared" si="6"/>
+        <v>-7.6255512982835265E-4</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="10">
-        <v>5200</v>
+      <c r="K24" s="2">
+        <v>5231.6499999999996</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="2"/>
-        <v>-0.52005200519943173</v>
+        <v>31.650000000000546</v>
       </c>
       <c r="M24" s="9">
-        <f>L24/(C24+P0)*100</f>
-        <v>-4.883093574993676E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.9718309859155443E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
-        <v>267224675.00000003</v>
+        <f>E0+qconv*A25+(D25-M0)*cp*(E24+273.15)</f>
+        <v>267312013.96197575</v>
       </c>
       <c r="C25" s="4">
+        <f>(gamma-1)*qfire*A25/(Volume/(1-0.0001))</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="4"/>
-        <v>5600.5600560056</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="5"/>
         <v>1195.2682831908285</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>36.134877168599076</v>
+        <v>36.235962968878141</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="10">
-        <v>36.134399999999999</v>
+      <c r="G25" s="2">
+        <v>36.233199999999997</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="1"/>
-        <v>-4.7716859907609432E-4</v>
+        <v>-2.7629688781445338E-3</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.5428125792777691E-4</v>
+        <f t="shared" si="6"/>
+        <v>-8.9304920353560702E-4</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="10">
-        <v>5600</v>
+      <c r="K25" s="2">
+        <v>5634.15</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>-0.56005600560001767</v>
+        <v>34.150000000000546</v>
       </c>
       <c r="M25" s="9">
-        <f>L25/(C25+P0)*100</f>
-        <v>-5.2390371510364605E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.1945743685688067E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
-        <v>268224675.00000003</v>
+        <f>E0+qconv*A26+(D26-M0)*cp*(E25+273.15)</f>
+        <v>268318604.57835737</v>
       </c>
       <c r="C26" s="4">
+        <f>(gamma-1)*qfire*A26/(Volume/(1-0.0001))</f>
+        <v>5999.9999999999991</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="4"/>
-        <v>6000.6000600059997</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="5"/>
         <v>1195.2882831908285</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>37.287079136367311</v>
+        <v>37.395791073290184</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="10">
-        <v>37.2866</v>
+      <c r="G26" s="2">
+        <v>37.392699999999998</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>-4.7913636731067299E-4</v>
+        <v>-3.0910732901858751E-3</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.5434250594150201E-4</v>
+        <f t="shared" si="6"/>
+        <v>-9.9536795507763572E-4</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="10">
-        <v>6000</v>
+      <c r="K26" s="2">
+        <v>6036.66</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>-0.60006000599969411</v>
+        <v>36.660000000000764</v>
       </c>
       <c r="M26" s="9">
-        <f>L26/(C26+P0)*100</f>
-        <v>-5.5923266567393004E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.4165890027959708E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
-        <v>269224675</v>
+        <f>E0+qconv*A27+(D27-M0)*cp*(E26+273.15)</f>
+        <v>269325242.14898115</v>
       </c>
       <c r="C27" s="4">
+        <f>(gamma-1)*qfire*A27/(Volume/(1-0.0001))</f>
+        <v>6399.9999999999991</v>
+      </c>
+      <c r="D27" s="4">
         <f t="shared" si="4"/>
-        <v>6400.6400640064003</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" si="5"/>
         <v>1195.3082831908284</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>38.439242546652622</v>
+        <v>38.555634707869331</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="10">
-        <v>38.438800000000001</v>
+      <c r="G27" s="2">
+        <v>38.552100000000003</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" si="1"/>
-        <v>-4.4254665262144499E-4</v>
+        <v>-3.5347078693277467E-3</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.4202886113925606E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.1339890832068138E-3</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="10">
-        <v>6400</v>
+      <c r="K27" s="2">
+        <v>6439.18</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>-0.64006400640028005</v>
+        <v>39.180000000001201</v>
       </c>
       <c r="M27" s="9">
-        <f>L27/(C27+P0)*100</f>
-        <v>-5.9429916667151704E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.6378830083566578E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
-        <v>270224675</v>
+        <f>E0+qconv*A28+(D28-M0)*cp*(E27+273.15)</f>
+        <v>270331926.67479026</v>
       </c>
       <c r="C28" s="4">
+        <f>(gamma-1)*qfire*A28/(Volume/(1-0.0001))</f>
+        <v>6799.9999999999991</v>
+      </c>
+      <c r="D28" s="4">
         <f t="shared" si="4"/>
-        <v>6800.6800680068</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" si="5"/>
         <v>1195.3282831908284</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>39.591367401390414</v>
+        <v>39.715493872927482</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="10">
-        <v>39.590899999999998</v>
+      <c r="G28" s="2">
+        <v>39.711500000000001</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>-4.6740139041645534E-4</v>
+        <v>-3.9938729274808793E-3</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.4945301106155404E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.2765463132546726E-3</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="10">
-        <v>6800</v>
+      <c r="K28" s="2">
+        <v>6841.7</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>-0.68006800679995649</v>
+        <v>41.700000000000728</v>
       </c>
       <c r="M28" s="9">
-        <f>L28/(C28+P0)*100</f>
-        <v>-6.291061317765268E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.8575393154487263E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
-        <v>271224675</v>
+        <f>E0+qconv*A29+(D29-M0)*cp*(E28+273.15)</f>
+        <v>271338658.15672773</v>
       </c>
       <c r="C29" s="4">
+        <f>(gamma-1)*qfire*A29/(Volume/(1-0.0001))</f>
+        <v>7199.9999999999991</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" si="4"/>
-        <v>7200.7200720071996</v>
-      </c>
-      <c r="D29" s="4">
-        <f t="shared" si="5"/>
         <v>1195.3482831908284</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>40.743453702516035</v>
+        <v>40.875368568776537</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="10">
-        <v>40.742899999999999</v>
+      <c r="G29" s="2">
+        <v>40.870899999999999</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="1"/>
-        <v>-5.5370251603648057E-4</v>
+        <v>-4.4685687765380067E-3</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.7639823625032879E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.4229961091692246E-3</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="10">
-        <v>7200</v>
+      <c r="K29" s="2">
+        <v>7244.24</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>-0.72007200719963294</v>
+        <v>44.240000000000691</v>
       </c>
       <c r="M29" s="9">
-        <f>L29/(C29+P0)*100</f>
-        <v>-6.6365643170087035E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.0774193548387738E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
-        <v>272224675</v>
+        <f>E0+qconv*A30+(D30-M0)*cp*(E29+273.15)</f>
+        <v>272345436.59573686</v>
       </c>
       <c r="C30" s="4">
+        <f>(gamma-1)*qfire*A30/(Volume/(1-0.0001))</f>
+        <v>7599.9999999999991</v>
+      </c>
+      <c r="D30" s="4">
         <f t="shared" si="4"/>
-        <v>7600.7600760076002</v>
-      </c>
-      <c r="D30" s="4">
-        <f t="shared" si="5"/>
         <v>1195.3682831908286</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>41.895501451964492</v>
+        <v>42.035258795728623</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="10">
-        <v>41.8949</v>
+      <c r="G30" s="2">
+        <v>42.030299999999997</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="1"/>
-        <v>-6.014519644921279E-4</v>
+        <v>-4.9587957286263418E-3</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.9090955488022809E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.5732955746639581E-3</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="10">
-        <v>7600</v>
+      <c r="K30" s="2">
+        <v>7646.79</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>-0.76007600760021887</v>
+        <v>46.790000000000873</v>
       </c>
       <c r="M30" s="9">
-        <f>L30/(C30+P0)*100</f>
-        <v>-6.9795289497494935E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.2966023875115583E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
-        <v>273224675</v>
+        <f>E0+qconv*A31+(D31-M0)*cp*(E30+273.15)</f>
+        <v>273352261.99276054</v>
       </c>
       <c r="C31" s="4">
+        <f>(gamma-1)*qfire*A31/(Volume/(1-0.0001))</f>
+        <v>7999.9999999999982</v>
+      </c>
+      <c r="D31" s="4">
         <f t="shared" si="4"/>
-        <v>8000.800080007999</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" si="5"/>
         <v>1195.3882831908286</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>43.047510651670905</v>
+        <v>43.195164554095413</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="10">
-        <v>43.046900000000001</v>
+      <c r="G31" s="2">
+        <v>43.189700000000002</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="1"/>
-        <v>-6.106516709039056E-4</v>
+        <v>-5.4645540954112448E-3</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.9312349096151202E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.7274024412902952E-3</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="10">
-        <v>8000</v>
+      <c r="K31" s="2">
+        <v>8049.34</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>-0.80008000799898582</v>
+        <v>49.340000000001965</v>
       </c>
       <c r="M31" s="9">
-        <f>L31/(C31+P0)*100</f>
-        <v>-7.3199830871624786E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.5141811527906646E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
-        <v>274224675</v>
+        <f>E0+qconv*A32+(D32-M0)*cp*(E31+273.15)</f>
+        <v>274359134.34874207</v>
       </c>
       <c r="C32" s="4">
+        <f>(gamma-1)*qfire*A32/(Volume/(1-0.0001))</f>
+        <v>8399.9999999999982</v>
+      </c>
+      <c r="D32" s="4">
         <f t="shared" si="4"/>
-        <v>8400.8400840083996</v>
-      </c>
-      <c r="D32" s="4">
-        <f t="shared" si="5"/>
         <v>1195.4082831908286</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>44.199481303570224</v>
+        <v>44.355085844188977</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="10">
-        <v>44.198900000000002</v>
+      <c r="G32" s="2">
+        <v>44.348999999999997</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="1"/>
-        <v>-5.8130357022179169E-4</v>
+        <v>-6.0858441889806159E-3</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.8317457707319465E-4</v>
+        <f t="shared" si="6"/>
+        <v>-1.9167706157523271E-3</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="10">
-        <v>8400</v>
+      <c r="K32" s="2">
+        <v>8451.91</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>-0.84008400839957176</v>
+        <v>51.910000000001673</v>
       </c>
       <c r="M32" s="9">
-        <f>L32/(C32+P0)*100</f>
-        <v>-7.6579541939354268E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.7319963536920397E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
-        <v>275224675</v>
+        <f>E0+qconv*A33+(D33-M0)*cp*(E32+273.15)</f>
+        <v>275366053.66462469</v>
       </c>
       <c r="C33" s="4">
+        <f>(gamma-1)*qfire*A33/(Volume/(1-0.0001))</f>
+        <v>8799.9999999999982</v>
+      </c>
+      <c r="D33" s="4">
         <f t="shared" si="4"/>
-        <v>8800.8800880087983</v>
-      </c>
-      <c r="D33" s="4">
-        <f t="shared" si="5"/>
         <v>1195.4282831908286</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>45.351413409597058</v>
+        <v>45.515022666321329</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="10">
-        <v>45.3508</v>
+      <c r="G33" s="2">
+        <v>45.508400000000002</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="1"/>
-        <v>-6.1340959705802334E-4</v>
+        <v>-6.6226663213271308E-3</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="7"/>
-        <v>-1.9259242541230749E-4</v>
+        <f t="shared" si="6"/>
+        <v>-2.0782532911564067E-3</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="10">
-        <v>8800</v>
+      <c r="K33" s="2">
+        <v>8854.49</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>-0.88008800879833871</v>
+        <v>54.490000000001601</v>
       </c>
       <c r="M33" s="9">
-        <f>L33/(C33+P0)*100</f>
-        <v>-7.9934693355297715E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.9491371480473743E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>276224675</v>
+        <f>E0+qconv*A34+(D34-M0)*cp*(E33+273.15)</f>
+        <v>276373019.94135165</v>
       </c>
       <c r="C34" s="4">
+        <f>(gamma-1)*qfire*A34/(Volume/(1-0.0001))</f>
+        <v>9199.9999999999982</v>
+      </c>
+      <c r="D34" s="4">
         <f t="shared" si="4"/>
-        <v>9200.9200920091989</v>
-      </c>
-      <c r="D34" s="4">
-        <f t="shared" si="5"/>
         <v>1195.4482831908285</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>46.503306971686186</v>
+        <v>46.674975020804425</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="10">
-        <v>46.502600000000001</v>
+      <c r="G34" s="2">
+        <v>46.667700000000004</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="1"/>
-        <v>-7.0697168618494288E-4</v>
+        <v>-7.2750208044212172E-3</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.2116826911087271E-4</v>
+        <f t="shared" si="6"/>
+        <v>-2.2746881490252543E-3</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="10">
-        <v>9200</v>
+      <c r="K34" s="2">
+        <v>9257.07</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>-0.92009200919892464</v>
+        <v>57.070000000001528</v>
       </c>
       <c r="M34" s="9">
-        <f>L34/(C34+P0)*100</f>
-        <v>-8.3265551855387721E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.1647058823530788E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
-        <v>277224675</v>
+        <f>E0+qconv*A35+(D35-M0)*cp*(E34+273.15)</f>
+        <v>277380033.17986614</v>
       </c>
       <c r="C35" s="4">
+        <f>(gamma-1)*qfire*A35/(Volume/(1-0.0001))</f>
+        <v>9599.9999999999982</v>
+      </c>
+      <c r="D35" s="4">
         <f t="shared" si="4"/>
-        <v>9600.9600960095995</v>
-      </c>
-      <c r="D35" s="4">
-        <f t="shared" si="5"/>
         <v>1195.4682831908285</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>47.65516199177199</v>
+        <v>47.834942907950165</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="10">
-        <v>47.654499999999999</v>
+      <c r="G35" s="2">
+        <v>47.827100000000002</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="1"/>
-        <v>-6.619917719916657E-4</v>
+        <v>-7.8429079501631804E-3</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.0635321697493275E-4</v>
+        <f t="shared" si="6"/>
+        <v>-2.4433881163118342E-3</v>
       </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="10">
-        <v>9600</v>
+      <c r="K35" s="2">
+        <v>9659.66</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>-0.96009600959951058</v>
+        <v>59.660000000001673</v>
       </c>
       <c r="M35" s="9">
-        <f>L35/(C35+P0)*100</f>
-        <v>-8.6572380326404089E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.3796212804329731E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
-        <v>278224675</v>
+        <f>E0+qconv*A36+(D36-M0)*cp*(E35+273.15)</f>
+        <v>278387093.38111144</v>
       </c>
       <c r="C36" s="4">
+        <f>(gamma-1)*qfire*A36/(Volume/(1-0.0001))</f>
+        <v>9999.9999999999982</v>
+      </c>
+      <c r="D36" s="4">
         <f t="shared" si="4"/>
-        <v>10001.00010001</v>
-      </c>
-      <c r="D36" s="4">
-        <f t="shared" si="5"/>
         <v>1195.4882831908285</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>48.806978471788909</v>
+        <v>48.994926328070619</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="10">
-        <v>48.806199999999997</v>
+      <c r="G36" s="2">
+        <v>48.986400000000003</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>-7.7847178891232716E-4</v>
+        <v>-8.5263280706158184E-3</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.4179373051873136E-4</v>
+        <f t="shared" si="6"/>
+        <v>-2.6467367243067034E-3</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="10">
-        <v>10000</v>
+      <c r="K36" s="2">
+        <v>10062.299999999999</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>-1.0001000100000965</v>
+        <v>62.300000000001091</v>
       </c>
       <c r="M36" s="9">
-        <f>L36/(C36+P0)*100</f>
-        <v>-8.9855437875800963E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.5974842767296584E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
-        <v>279224675</v>
+        <f>E0+qconv*A37+(D37-M0)*cp*(E36+273.15)</f>
+        <v>279394200.54603088</v>
       </c>
       <c r="C37" s="4">
+        <f>(gamma-1)*qfire*A37/(Volume/(1-0.0001))</f>
+        <v>10399.999999999998</v>
+      </c>
+      <c r="D37" s="4">
         <f t="shared" si="4"/>
-        <v>10401.040104010399</v>
-      </c>
-      <c r="D37" s="4">
-        <f t="shared" si="5"/>
         <v>1195.5082831908285</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>49.958756413671153</v>
+        <v>50.154925281477688</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="10">
-        <v>49.957999999999998</v>
+      <c r="G37" s="2">
+        <v>50.145699999999998</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>-7.5641367115508729E-4</v>
+        <v>-9.2252814776898617E-3</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.3410497429746612E-4</v>
+        <f t="shared" si="6"/>
+        <v>-2.8534305407373834E-3</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="10">
-        <v>10400</v>
+      <c r="K37" s="2">
+        <v>10464.9</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
-        <v>-1.0401040103988635</v>
+        <v>64.900000000001455</v>
       </c>
       <c r="M37" s="9">
-        <f>L37/(C37+P0)*100</f>
-        <v>-9.3114979899056505E-4</v>
+        <f t="shared" si="3"/>
+        <v>5.8102059086841053E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>280224675</v>
+        <f>E0+qconv*A38+(D38-M0)*cp*(E37+273.15)</f>
+        <v>280401354.67556781</v>
       </c>
       <c r="C38" s="4">
+        <f>(gamma-1)*qfire*A38/(Volume/(1-0.0001))</f>
+        <v>10799.999999999998</v>
+      </c>
+      <c r="D38" s="4">
         <f t="shared" si="4"/>
-        <v>10801.080108010799</v>
-      </c>
-      <c r="D38" s="4">
-        <f t="shared" si="5"/>
         <v>1195.5282831908285</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>51.110495819352877</v>
+        <v>51.314939768483441</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="10">
-        <v>51.109699999999997</v>
+      <c r="G38" s="2">
+        <v>51.305</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>-7.9581935288075556E-4</v>
+        <v>-9.939768483441469E-3</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.4542593474726274E-4</v>
+        <f t="shared" si="6"/>
+        <v>-3.0634337535925533E-3</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="10">
-        <v>10800</v>
+      <c r="K38" s="2">
+        <v>10867.5</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
-        <v>-1.0801080107994494</v>
+        <v>67.500000000001819</v>
       </c>
       <c r="M38" s="9">
-        <f>L38/(C38+P0)*100</f>
-        <v>-9.6351258146554143E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.0214094558431595E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>281224675</v>
+        <f>E0+qconv*A39+(D39-M0)*cp*(E38+273.15)</f>
+        <v>281408555.77066559</v>
       </c>
       <c r="C39" s="4">
+        <f>(gamma-1)*qfire*A39/(Volume/(1-0.0001))</f>
+        <v>11199.999999999998</v>
+      </c>
+      <c r="D39" s="4">
         <f t="shared" si="4"/>
-        <v>11201.1201120112</v>
-      </c>
-      <c r="D39" s="4">
-        <f t="shared" si="5"/>
         <v>1195.5482831908284</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>52.262196690768064</v>
+        <v>52.474969789399893</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="10">
-        <v>52.261400000000002</v>
+      <c r="G39" s="2">
+        <v>52.464300000000001</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="1"/>
-        <v>-7.9669076806254679E-4</v>
+        <v>-1.0669789399891272E-2</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.4482510986508117E-4</v>
+        <f t="shared" si="6"/>
+        <v>-3.2767110602089358E-3</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="10">
-        <v>11200</v>
+      <c r="K39" s="2">
+        <v>11270.1</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
-        <v>-1.1201120112000353</v>
+        <v>70.100000000002183</v>
       </c>
       <c r="M39" s="9">
-        <f>L39/(C39+P0)*100</f>
-        <v>-9.9564520787419819E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.2311111111113045E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
-        <v>282224675</v>
+        <f>E0+qconv*A40+(D40-M0)*cp*(E39+273.15)</f>
+        <v>282415803.83226758</v>
       </c>
       <c r="C40" s="4">
+        <f>(gamma-1)*qfire*A40/(Volume/(1-0.0001))</f>
+        <v>11599.999999999998</v>
+      </c>
+      <c r="D40" s="4">
         <f t="shared" si="4"/>
-        <v>11601.160116011599</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" si="5"/>
         <v>1195.5682831908284</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>53.413859029850585</v>
+        <v>53.635015344539113</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="10">
-        <v>53.412999999999997</v>
+      <c r="G40" s="2">
+        <v>53.6235</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="1"/>
-        <v>-8.5902985058794457E-4</v>
+        <v>-1.1515344539112959E-2</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.6305110833144043E-4</v>
+        <f t="shared" si="6"/>
+        <v>-3.5238288166218371E-3</v>
       </c>
       <c r="J40" s="2"/>
-      <c r="K40" s="10">
-        <v>11600</v>
+      <c r="K40" s="2">
+        <v>11672.8</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="2"/>
-        <v>-1.1601160115988023</v>
+        <v>72.800000000001091</v>
       </c>
       <c r="M40" s="9">
-        <f>L40/(C40+P0)*100</f>
-        <v>-1.0275501247345245E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.4481842338353496E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
-        <v>283224675</v>
+        <f>E0+qconv*A41+(D41-M0)*cp*(E40+273.15)</f>
+        <v>283423098.86131716</v>
       </c>
       <c r="C41" s="4">
+        <f>(gamma-1)*qfire*A41/(Volume/(1-0.0001))</f>
+        <v>11999.999999999998</v>
+      </c>
+      <c r="D41" s="4">
         <f t="shared" si="4"/>
-        <v>12001.200120011999</v>
-      </c>
-      <c r="D41" s="4">
-        <f t="shared" si="5"/>
         <v>1195.5882831908284</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>54.565482838534024</v>
+        <v>54.795076434212945</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="10">
-        <v>54.564599999999999</v>
+      <c r="G41" s="2">
+        <v>54.782800000000002</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="1"/>
-        <v>-8.8283853402515433E-4</v>
+        <v>-1.2276434212942888E-2</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.6939176824310445E-4</v>
+        <f t="shared" si="6"/>
+        <v>-3.7434421478212345E-3</v>
       </c>
       <c r="J41" s="2"/>
-      <c r="K41" s="10">
-        <v>12000</v>
+      <c r="K41" s="2">
+        <v>12075.4</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2001200119993882</v>
+        <v>75.400000000001455</v>
       </c>
       <c r="M41" s="9">
-        <f>L41/(C41+P0)*100</f>
-        <v>-1.0592297440169967E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.6548984995588215E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
-        <v>284224675</v>
+        <f>E0+qconv*A42+(D42-M0)*cp*(E41+273.15)</f>
+        <v>284430440.85875785</v>
       </c>
       <c r="C42" s="4">
+        <f>(gamma-1)*qfire*A42/(Volume/(1-0.0001))</f>
+        <v>12399.999999999998</v>
+      </c>
+      <c r="D42" s="4">
         <f t="shared" si="4"/>
-        <v>12401.2401240124</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" si="5"/>
         <v>1195.6082831908284</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>55.717068118752138</v>
+        <v>55.955153058733629</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="10">
-        <v>55.716200000000001</v>
+      <c r="G42" s="2">
+        <v>55.942100000000003</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="1"/>
-        <v>-8.6811875213754774E-4</v>
+        <v>-1.3053058733625278E-2</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.6397253975702874E-4</v>
+        <f t="shared" si="6"/>
+        <v>-3.9662273933753229E-3</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="10">
-        <v>12400</v>
+      <c r="K42" s="2">
+        <v>12478.1</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2401240123999742</v>
+        <v>78.100000000002183</v>
       </c>
       <c r="M42" s="9">
-        <f>L42/(C42+P0)*100</f>
-        <v>-1.0906864437427311E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.8689533861039737E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="B43">
+        <f>E0+qconv*A43+(D43-M0)*cp*(E42+273.15)</f>
+        <v>285437829.82553309</v>
+      </c>
+      <c r="C43" s="4">
+        <f>(gamma-1)*qfire*A43/(Volume/(1-0.0001))</f>
+        <v>12799.999999999998</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="4"/>
+        <v>1195.6282831908286</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" ref="E43:E74" si="7">B43/(cv*D43)-273.15</f>
+        <v>57.115245218413065</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2">
+        <v>57.101300000000002</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" ref="H43:H74" si="8">G43-E43</f>
+        <v>-1.3945218413063287E-2</v>
+      </c>
+      <c r="I43" s="9">
         <f t="shared" si="6"/>
-        <v>320</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="3"/>
-        <v>285224675</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="4"/>
-        <v>12801.280128012801</v>
-      </c>
-      <c r="D43" s="4">
-        <f t="shared" si="5"/>
-        <v>1195.6282831908286</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" ref="E43:E74" si="8">B43/(cv*D43)-273.15</f>
-        <v>56.868614872438286</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="10">
-        <v>56.867699999999999</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" ref="H43:H74" si="9">G43-E43</f>
-        <v>-9.1487243828680676E-4</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.7721843467539895E-4</v>
+        <v>-4.2224298847554943E-3</v>
       </c>
       <c r="J43" s="2"/>
-      <c r="K43" s="10">
-        <v>12800</v>
+      <c r="K43" s="2">
+        <v>12880.8</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" ref="L43:L74" si="10">K43-C43</f>
-        <v>-1.2801280128005601</v>
+        <f t="shared" ref="L43:L74" si="9">K43-C43</f>
+        <v>80.800000000001091</v>
       </c>
       <c r="M43" s="9">
-        <f>L43/(C43+P0)*100</f>
-        <v>-1.1219225685849936E-3</v>
+        <f t="shared" ref="M43:M74" si="10">L43/(C43+P0)*100</f>
+        <v>7.0815074496057048E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B44">
+        <f>E0+qconv*A44+(D44-M0)*cp*(E43+273.15)</f>
+        <v>286445265.7625863</v>
+      </c>
+      <c r="C44" s="4">
+        <f>(gamma-1)*qfire*A44/(Volume/(1-0.0001))</f>
+        <v>13199.999999999998</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44:D71" si="11">M0+mfire*A44</f>
+        <v>1195.6482831908286</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="7"/>
+        <v>58.275352913563438</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="2">
+        <v>58.2605</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.4852913563437653E-2</v>
+      </c>
+      <c r="I44" s="9">
         <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44:B101" si="11">E0+qconv*A44</f>
-        <v>286224675</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" ref="C44:C71" si="12">(gamma-1)*qconv*A44/Volume</f>
-        <v>13201.320132013199</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" ref="D44:D71" si="13">M0+mfire*A44</f>
-        <v>1195.6482831908286</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="8"/>
-        <v>58.020123101525883</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="10">
-        <v>58.019199999999998</v>
-      </c>
-      <c r="H44" s="4">
+        <v>-4.4815260609562752E-3</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>13283.4</v>
+      </c>
+      <c r="L44" s="4">
         <f t="shared" si="9"/>
-        <v>-9.2310152588481742E-4</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.787393733588174E-4</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="10">
-        <v>13200</v>
-      </c>
-      <c r="L44" s="4">
+        <v>83.400000000001455</v>
+      </c>
+      <c r="M44" s="9">
         <f t="shared" si="10"/>
-        <v>-1.320132013199327</v>
-      </c>
-      <c r="M44" s="9">
-        <f>L44/(C44+P0)*100</f>
-        <v>-1.152940430448569E-3</v>
+        <v>7.2838427947599524E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B45">
+        <f>E0+qconv*A45+(D45-M0)*cp*(E44+273.15)</f>
+        <v>287452748.67086101</v>
+      </c>
+      <c r="C45" s="4">
+        <f>(gamma-1)*qfire*A45/(Volume/(1-0.0001))</f>
+        <v>13599.999999999998</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.6682831908286</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="7"/>
+        <v>59.435476144496704</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2">
+        <v>59.419699999999999</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.5776144496705058E-2</v>
+      </c>
+      <c r="I45" s="9">
         <f t="shared" si="6"/>
-        <v>340</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="11"/>
-        <v>287224675</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="12"/>
-        <v>13601.3601360136</v>
-      </c>
-      <c r="D45" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.6682831908286</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="8"/>
-        <v>59.171592807948116</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="10">
-        <v>59.1706</v>
-      </c>
-      <c r="H45" s="4">
+        <v>-4.7434856986511573E-3</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>13686.1</v>
+      </c>
+      <c r="L45" s="4">
         <f t="shared" si="9"/>
-        <v>-9.92807948115626E-4</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.9874915431371909E-4</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="10">
-        <v>13600</v>
-      </c>
-      <c r="L45" s="4">
+        <v>86.100000000002183</v>
+      </c>
+      <c r="M45" s="9">
         <f t="shared" si="10"/>
-        <v>-1.360136013599913</v>
-      </c>
-      <c r="M45" s="9">
-        <f>L45/(C45+P0)*100</f>
-        <v>-1.1837423090465269E-3</v>
+        <v>7.4934725848565864E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B46">
+        <f>E0+qconv*A46+(D46-M0)*cp*(E45+273.15)</f>
+        <v>288460278.55130076</v>
+      </c>
+      <c r="C46" s="4">
+        <f>(gamma-1)*qfire*A46/(Volume/(1-0.0001))</f>
+        <v>13999.999999999998</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.6882831908285</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="7"/>
+        <v>60.59561491152499</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="2">
+        <v>60.579000000000001</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.6614911524989395E-2</v>
+      </c>
+      <c r="I46" s="9">
         <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="11"/>
-        <v>288224675</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="12"/>
-        <v>14001.400140014</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.6882831908285</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="8"/>
-        <v>60.323023993638117</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="10">
-        <v>60.322099999999999</v>
-      </c>
-      <c r="H46" s="4">
+        <v>-4.9783160534989986E-3</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>14088.8</v>
+      </c>
+      <c r="L46" s="4">
         <f t="shared" si="9"/>
-        <v>-9.2399363811779267E-4</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.7708197414355785E-4</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="10">
-        <v>14000</v>
-      </c>
-      <c r="L46" s="4">
+        <v>88.800000000001091</v>
+      </c>
+      <c r="M46" s="9">
         <f t="shared" si="10"/>
-        <v>-1.4001400140004989</v>
-      </c>
-      <c r="M46" s="9">
-        <f>L46/(C46+P0)*100</f>
-        <v>-1.214330452449204E-3</v>
+        <v>7.7016478751085068E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B47">
+        <f>E0+qconv*A47+(D47-M0)*cp*(E46+273.15)</f>
+        <v>289467855.40484917</v>
+      </c>
+      <c r="C47" s="4">
+        <f>(gamma-1)*qfire*A47/(Volume/(1-0.0001))</f>
+        <v>14399.999999999998</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.7082831908285</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="7"/>
+        <v>61.755769214960424</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="2">
+        <v>61.738100000000003</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.7669214960420732E-2</v>
+      </c>
+      <c r="I47" s="9">
         <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="11"/>
-        <v>289224675</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="12"/>
-        <v>14401.440144014399</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.7082831908285</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="8"/>
-        <v>61.474416660528732</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="10">
-        <v>61.473399999999998</v>
-      </c>
-      <c r="H47" s="4">
+        <v>-5.2758765553183665E-3</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>14491.5</v>
+      </c>
+      <c r="L47" s="4">
         <f t="shared" si="9"/>
-        <v>-1.0166605287338371E-3</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.0382138245614739E-4</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="10">
-        <v>14400</v>
-      </c>
-      <c r="L47" s="4">
+        <v>91.500000000001819</v>
+      </c>
+      <c r="M47" s="9">
         <f t="shared" si="10"/>
-        <v>-1.4401440143992659</v>
-      </c>
-      <c r="M47" s="9">
-        <f>L47/(C47+P0)*100</f>
-        <v>-1.2447070776359468E-3</v>
+        <v>7.9083837510805374E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B48">
+        <f>E0+qconv*A48+(D48-M0)*cp*(E47+273.15)</f>
+        <v>290475479.23244971</v>
+      </c>
+      <c r="C48" s="4">
+        <f>(gamma-1)*qfire*A48/(Volume/(1-0.0001))</f>
+        <v>14799.999999999998</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.7282831908285</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="7"/>
+        <v>62.915939055114961</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="2">
+        <v>62.897300000000001</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.8639055114960001E-2</v>
+      </c>
+      <c r="I48" s="9">
         <f t="shared" si="6"/>
-        <v>370</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="11"/>
-        <v>290224675</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="12"/>
-        <v>14801.4801480148</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.7282831908285</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="8"/>
-        <v>62.625770810552865</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="10">
-        <v>62.6248</v>
-      </c>
-      <c r="H48" s="4">
+        <v>-5.5462493959863007E-3</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <v>14894.2</v>
+      </c>
+      <c r="L48" s="4">
         <f t="shared" si="9"/>
-        <v>-9.7081055286452056E-4</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.8912465915006686E-4</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="10">
-        <v>14800</v>
-      </c>
-      <c r="L48" s="4">
+        <v>94.200000000002547</v>
+      </c>
+      <c r="M48" s="9">
         <f t="shared" si="10"/>
-        <v>-1.4801480147998518</v>
-      </c>
-      <c r="M48" s="9">
-        <f>L48/(C48+P0)*100</f>
-        <v>-1.2748743710354503E-3</v>
+        <v>8.1136950904394961E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B49">
+        <f>E0+qconv*A49+(D49-M0)*cp*(E48+273.15)</f>
+        <v>291483150.03504604</v>
+      </c>
+      <c r="C49" s="4">
+        <f>(gamma-1)*qfire*A49/(Volume/(1-0.0001))</f>
+        <v>15199.999999999998</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.7482831908285</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="7"/>
+        <v>64.076124432300674</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2">
+        <v>64.0565</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="8"/>
+        <v>-1.9624432300673789E-2</v>
+      </c>
+      <c r="I49" s="9">
         <f t="shared" si="6"/>
-        <v>380</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="11"/>
-        <v>291224675</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="12"/>
-        <v>15201.5201520152</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.7482831908285</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="8"/>
-        <v>63.777086445643135</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="10">
-        <v>63.7761</v>
-      </c>
-      <c r="H49" s="4">
+        <v>-5.8193689275142339E-3</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <v>15297</v>
+      </c>
+      <c r="L49" s="4">
         <f t="shared" si="9"/>
-        <v>-9.8644564313588035E-4</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="7"/>
-        <v>-2.9277718616874246E-4</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="10">
-        <v>15200</v>
-      </c>
-      <c r="L49" s="4">
+        <v>97.000000000001819</v>
+      </c>
+      <c r="M49" s="9">
         <f t="shared" si="10"/>
-        <v>-1.5201520152004377</v>
-      </c>
-      <c r="M49" s="9">
-        <f>L49/(C49+P0)*100</f>
-        <v>-1.3048344890409078E-3</v>
+        <v>8.3261802575108859E-2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="B50">
+        <f>E0+qconv*A50+(D50-M0)*cp*(E49+273.15)</f>
+        <v>292490867.81358188</v>
+      </c>
+      <c r="C50" s="4">
+        <f>(gamma-1)*qfire*A50/(Volume/(1-0.0001))</f>
+        <v>15599.999999999996</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.7682831908285</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="7"/>
+        <v>65.236325346829858</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="2">
+        <v>65.215699999999998</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.0625346829859836E-2</v>
+      </c>
+      <c r="I50" s="9">
         <f t="shared" si="6"/>
-        <v>390</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="11"/>
-        <v>292224675</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="12"/>
-        <v>15601.560156015597</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.7682831908285</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="8"/>
-        <v>64.928363567732163</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="10">
-        <v>64.927300000000002</v>
-      </c>
-      <c r="H50" s="4">
+        <v>-6.0952069527986513E-3</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <v>15699.7</v>
+      </c>
+      <c r="L50" s="4">
         <f t="shared" si="9"/>
-        <v>-1.0635677321602088E-3</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.1459207295504103E-4</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="10">
-        <v>15600</v>
-      </c>
-      <c r="L50" s="4">
+        <v>99.700000000004366</v>
+      </c>
+      <c r="M50" s="9">
         <f t="shared" si="10"/>
-        <v>-1.5601560155973857</v>
-      </c>
-      <c r="M50" s="9">
-        <f>L50/(C50+P0)*100</f>
-        <v>-1.3345895585270358E-3</v>
+        <v>8.5286569717711175E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="B51">
+        <f>E0+qconv*A51+(D51-M0)*cp*(E50+273.15)</f>
+        <v>293498632.56900078</v>
+      </c>
+      <c r="C51" s="4">
+        <f>(gamma-1)*qfire*A51/(Volume/(1-0.0001))</f>
+        <v>15999.999999999996</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.7882831908285</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="7"/>
+        <v>66.396541799014472</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="2">
+        <v>66.374799999999993</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.1741799014478147E-2</v>
+      </c>
+      <c r="I51" s="9">
         <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="11"/>
-        <v>293224675</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="12"/>
-        <v>16001.600160015998</v>
-      </c>
-      <c r="D51" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.7882831908285</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="8"/>
-        <v>66.079602178752339</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="10">
-        <v>66.078500000000005</v>
-      </c>
-      <c r="H51" s="4">
+        <v>-6.4031867028549001E-3</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2">
+        <v>16102.4</v>
+      </c>
+      <c r="L51" s="4">
         <f t="shared" si="9"/>
-        <v>-1.102178752333316E-3</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.2490641891344676E-4</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="10">
-        <v>16000</v>
-      </c>
-      <c r="L51" s="4">
+        <v>102.40000000000327</v>
+      </c>
+      <c r="M51" s="9">
         <f t="shared" si="10"/>
-        <v>-1.6001600159979716</v>
-      </c>
-      <c r="M51" s="9">
-        <f>L51/(C51+P0)*100</f>
-        <v>-1.3641416773642703E-3</v>
+        <v>8.7297527706737654E-2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="B52">
+        <f>E0+qconv*A52+(D52-M0)*cp*(E51+273.15)</f>
+        <v>294506444.30224645</v>
+      </c>
+      <c r="C52" s="4">
+        <f>(gamma-1)*qfire*A52/(Volume/(1-0.0001))</f>
+        <v>16399.999999999996</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.8082831908284</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="7"/>
+        <v>67.556773789166698</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="2">
+        <v>67.533900000000003</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.2873789166695246E-2</v>
+      </c>
+      <c r="I52" s="9">
         <f t="shared" si="6"/>
-        <v>410</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="11"/>
-        <v>294224675</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="12"/>
-        <v>16401.640164016397</v>
-      </c>
-      <c r="D52" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.8082831908284</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="8"/>
-        <v>67.230802280635999</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10">
-        <v>67.229699999999994</v>
-      </c>
-      <c r="H52" s="4">
+        <v>-6.7136291164113489E-3</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <v>16505.2</v>
+      </c>
+      <c r="L52" s="4">
         <f t="shared" si="9"/>
-        <v>-1.1022806360045934E-3</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.2383748690262173E-4</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" s="10">
-        <v>16400</v>
-      </c>
-      <c r="L52" s="4">
+        <v>105.20000000000437</v>
+      </c>
+      <c r="M52" s="9">
         <f t="shared" si="10"/>
-        <v>-1.6401640163967386</v>
-      </c>
-      <c r="M52" s="9">
-        <f>L52/(C52+P0)*100</f>
-        <v>-1.3934929148915697E-3</v>
+        <v>8.9379779099408974E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="B53">
+        <f>E0+qconv*A53+(D53-M0)*cp*(E52+273.15)</f>
+        <v>295514303.01426268</v>
+      </c>
+      <c r="C53" s="4">
+        <f>(gamma-1)*qfire*A53/(Volume/(1-0.0001))</f>
+        <v>16799.999999999996</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.8282831908284</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="7"/>
+        <v>68.717021317598665</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="2">
+        <v>68.693100000000001</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.392131759866345E-2</v>
+      </c>
+      <c r="I53" s="9">
         <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="11"/>
-        <v>295224675</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="12"/>
-        <v>16801.680168016799</v>
-      </c>
-      <c r="D53" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.8282831908284</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="8"/>
-        <v>68.38196387531525</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="10">
-        <v>68.380799999999994</v>
-      </c>
-      <c r="H53" s="4">
+        <v>-6.9972580292967934E-3</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>16908</v>
+      </c>
+      <c r="L53" s="4">
         <f t="shared" si="9"/>
-        <v>-1.163875315256746E-3</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.4078078726524345E-4</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="10">
-        <v>16800</v>
-      </c>
-      <c r="L53" s="4">
+        <v>108.00000000000364</v>
+      </c>
+      <c r="M53" s="9">
         <f t="shared" si="10"/>
-        <v>-1.6801680167991435</v>
-      </c>
-      <c r="M53" s="9">
-        <f>L53/(C53+P0)*100</f>
-        <v>-1.4226453124196543E-3</v>
+        <v>9.1447925486878606E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
+        <f t="shared" si="5"/>
+        <v>430</v>
+      </c>
+      <c r="B54">
+        <f>E0+qconv*A54+(D54-M0)*cp*(E53+273.15)</f>
+        <v>296522208.70599312</v>
+      </c>
+      <c r="C54" s="4">
+        <f>(gamma-1)*qfire*A54/(Volume/(1-0.0001))</f>
+        <v>17199.999999999996</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.8482831908284</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="7"/>
+        <v>69.877284384622442</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="2">
+        <v>69.852199999999996</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.5084384622445555E-2</v>
+      </c>
+      <c r="I54" s="9">
         <f t="shared" si="6"/>
-        <v>430</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="11"/>
-        <v>296224675</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="12"/>
-        <v>17201.720172017198</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.8482831908284</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="8"/>
-        <v>69.533086964722258</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="10">
-        <v>69.531899999999993</v>
-      </c>
-      <c r="H54" s="4">
+        <v>-7.3126499740234852E-3</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>17310.7</v>
+      </c>
+      <c r="L54" s="4">
         <f t="shared" si="9"/>
-        <v>-1.1869647222653157E-3</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.4637388520651115E-4</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="10">
-        <v>17200</v>
-      </c>
-      <c r="L54" s="4">
+        <v>110.70000000000437</v>
+      </c>
+      <c r="M54" s="9">
         <f t="shared" si="10"/>
-        <v>-1.7201720171979105</v>
-      </c>
-      <c r="M54" s="9">
-        <f>L54/(C54+P0)*100</f>
-        <v>-1.4516008836841416E-3</v>
+        <v>9.3417721518991026E-2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="B55">
+        <f>E0+qconv*A55+(D55-M0)*cp*(E54+273.15)</f>
+        <v>297530161.37838161</v>
+      </c>
+      <c r="C55" s="4">
+        <f>(gamma-1)*qfire*A55/(Volume/(1-0.0001))</f>
+        <v>17599.999999999996</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.8682831908286</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="7"/>
+        <v>71.037562990550271</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="2">
+        <v>71.011300000000006</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.6262990550264931E-2</v>
+      </c>
+      <c r="I55" s="9">
         <f t="shared" si="6"/>
-        <v>440</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="11"/>
-        <v>297224675</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="12"/>
-        <v>17601.760176017597</v>
-      </c>
-      <c r="D55" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.8682831908286</v>
-      </c>
-      <c r="E55" s="4">
-        <f t="shared" si="8"/>
-        <v>70.68417155078879</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="10">
-        <v>70.683000000000007</v>
-      </c>
-      <c r="H55" s="4">
+        <v>-7.6304298511175395E-3</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>17713.5</v>
+      </c>
+      <c r="L55" s="4">
         <f t="shared" si="9"/>
-        <v>-1.171550788782838E-3</v>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.4073134252445432E-4</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="10">
-        <v>17600</v>
-      </c>
-      <c r="L55" s="4">
+        <v>113.50000000000364</v>
+      </c>
+      <c r="M55" s="9">
         <f t="shared" si="10"/>
-        <v>-1.7601760175966774</v>
-      </c>
-      <c r="M55" s="9">
-        <f>L55/(C55+P0)*100</f>
-        <v>-1.4803616153293109E-3</v>
+        <v>9.5458368376790267E-2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="B56">
+        <f>E0+qconv*A56+(D56-M0)*cp*(E55+273.15)</f>
+        <v>298538161.03237182</v>
+      </c>
+      <c r="C56" s="4">
+        <f>(gamma-1)*qfire*A56/(Volume/(1-0.0001))</f>
+        <v>17999.999999999996</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.8882831908286</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="7"/>
+        <v>72.197857135694221</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="2">
+        <v>72.170400000000001</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.7457135694220369E-2</v>
+      </c>
+      <c r="I56" s="9">
         <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="11"/>
-        <v>298224675</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="12"/>
-        <v>18001.800180017999</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.8882831908286</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="8"/>
-        <v>71.835217635446782</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="10">
-        <v>71.834000000000003</v>
-      </c>
-      <c r="H56" s="4">
+        <v>-7.9505736395613143E-3</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>18116.3</v>
+      </c>
+      <c r="L56" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2176354467783312E-3</v>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.5295293378774062E-4</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="10">
-        <v>18000</v>
-      </c>
-      <c r="L56" s="4">
+        <v>116.30000000000291</v>
+      </c>
+      <c r="M56" s="9">
         <f t="shared" si="10"/>
-        <v>-1.8001800179990823</v>
-      </c>
-      <c r="M56" s="9">
-        <f>L56/(C56+P0)*100</f>
-        <v>-1.5089294673531644E-3</v>
+        <v>9.7485331098074529E-2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="B57">
+        <f>E0+qconv*A57+(D57-M0)*cp*(E56+273.15)</f>
+        <v>299546207.66890764</v>
+      </c>
+      <c r="C57" s="4">
+        <f>(gamma-1)*qfire*A57/(Volume/(1-0.0001))</f>
+        <v>18399.999999999996</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.9082831908286</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="7"/>
+        <v>73.358166820366534</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="2">
+        <v>73.329499999999996</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.8666820366538559E-2</v>
+      </c>
+      <c r="I57" s="9">
         <f t="shared" si="6"/>
-        <v>460</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="11"/>
-        <v>299224675</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="12"/>
-        <v>18401.840184018398</v>
-      </c>
-      <c r="D57" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.9082831908286</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="shared" si="8"/>
-        <v>72.986225220627773</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="10">
-        <v>72.984999999999999</v>
-      </c>
-      <c r="H57" s="4">
+        <v>-8.2730576394754174E-3</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>18519.099999999999</v>
+      </c>
+      <c r="L57" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2252206277736377E-3</v>
-      </c>
-      <c r="I57" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.5397064464797931E-4</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="10">
-        <v>18400</v>
-      </c>
-      <c r="L57" s="4">
+        <v>119.10000000000218</v>
+      </c>
+      <c r="M57" s="9">
         <f t="shared" si="10"/>
-        <v>-1.8401840183978493</v>
-      </c>
-      <c r="M57" s="9">
-        <f>L57/(C57+P0)*100</f>
-        <v>-1.5373063735435667E-3</v>
+        <v>9.9498746867169752E-2</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="5"/>
+        <v>470</v>
+      </c>
+      <c r="B58">
+        <f>E0+qconv*A58+(D58-M0)*cp*(E57+273.15)</f>
+        <v>300554301.28893292</v>
+      </c>
+      <c r="C58" s="4">
+        <f>(gamma-1)*qfire*A58/(Volume/(1-0.0001))</f>
+        <v>18799.999999999996</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.9282831908286</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="7"/>
+        <v>74.518492044879338</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="2">
+        <v>74.488500000000002</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="8"/>
+        <v>-2.9992044879335822E-2</v>
+      </c>
+      <c r="I58" s="9">
         <f t="shared" si="6"/>
-        <v>470</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="11"/>
-        <v>300224675</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="12"/>
-        <v>18801.8801880188</v>
-      </c>
-      <c r="D58" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.9282831908286</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="8"/>
-        <v>74.137194308263417</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="10">
-        <v>74.135999999999996</v>
-      </c>
-      <c r="H58" s="4">
+        <v>-8.6266214988110716E-3</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
+        <v>18921.900000000001</v>
+      </c>
+      <c r="L58" s="4">
         <f t="shared" si="9"/>
-        <v>-1.1943082634218172E-3</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.4389643010035963E-4</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="10">
-        <v>18800</v>
-      </c>
-      <c r="L58" s="4">
+        <v>121.90000000000509</v>
+      </c>
+      <c r="M58" s="9">
         <f t="shared" si="10"/>
-        <v>-1.8801880188002542</v>
-      </c>
-      <c r="M58" s="9">
-        <f>L58/(C58+P0)*100</f>
-        <v>-1.5654942419359554E-3</v>
+        <v>0.10149875104080357</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="B59">
+        <f>E0+qconv*A59+(D59-M0)*cp*(E58+273.15)</f>
+        <v>301562441.89339143</v>
+      </c>
+      <c r="C59" s="4">
+        <f>(gamma-1)*qfire*A59/(Volume/(1-0.0001))</f>
+        <v>19199.999999999996</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.9482831908285</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="7"/>
+        <v>75.678832809544758</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="2">
+        <v>75.647599999999997</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.1232809544761153E-2</v>
+      </c>
+      <c r="I59" s="9">
         <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="11"/>
-        <v>301224675</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" si="12"/>
-        <v>19201.920192019199</v>
-      </c>
-      <c r="D59" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.9482831908285</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="8"/>
-        <v>75.28812490028497</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="10">
-        <v>75.286900000000003</v>
-      </c>
-      <c r="H59" s="4">
+        <v>-8.9536204026499713E-3</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <v>19324.7</v>
+      </c>
+      <c r="L59" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2249002849671342E-3</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.5154025849429445E-4</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="10">
-        <v>19200</v>
-      </c>
-      <c r="L59" s="4">
+        <v>124.70000000000437</v>
+      </c>
+      <c r="M59" s="9">
         <f t="shared" si="10"/>
-        <v>-1.9201920191990212</v>
-      </c>
-      <c r="M59" s="9">
-        <f>L59/(C59+P0)*100</f>
-        <v>-1.5934949552166514E-3</v>
+        <v>0.10348547717842686</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
+        <f t="shared" si="5"/>
+        <v>490</v>
+      </c>
+      <c r="B60">
+        <f>E0+qconv*A60+(D60-M0)*cp*(E59+273.15)</f>
+        <v>302570629.48322719</v>
+      </c>
+      <c r="C60" s="4">
+        <f>(gamma-1)*qfire*A60/(Volume/(1-0.0001))</f>
+        <v>19599.999999999996</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.9682831908285</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="7"/>
+        <v>76.839189114675094</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="2">
+        <v>76.806600000000003</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.2589114675090514E-2</v>
+      </c>
+      <c r="I60" s="9">
         <f t="shared" si="6"/>
-        <v>490</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="11"/>
-        <v>302224675</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" si="12"/>
-        <v>19601.960196019598</v>
-      </c>
-      <c r="D60" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.9682831908285</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="shared" si="8"/>
-        <v>76.439016998623799</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="10">
-        <v>76.437799999999996</v>
-      </c>
-      <c r="H60" s="4">
+        <v>-9.3114632362008721E-3</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>19727.599999999999</v>
+      </c>
+      <c r="L60" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2169986238035335E-3</v>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.4812267108732555E-4</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="10">
-        <v>19600</v>
-      </c>
-      <c r="L60" s="4">
+        <v>127.60000000000218</v>
+      </c>
+      <c r="M60" s="9">
         <f t="shared" si="10"/>
-        <v>-1.9601960195977881</v>
-      </c>
-      <c r="M60" s="9">
-        <f>L60/(C60+P0)*100</f>
-        <v>-1.621310371163298E-3</v>
+        <v>0.1055417700579009</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="B61">
+        <f>E0+qconv*A61+(D61-M0)*cp*(E60+273.15)</f>
+        <v>303578864.05938405</v>
+      </c>
+      <c r="C61" s="4">
+        <f>(gamma-1)*qfire*A61/(Volume/(1-0.0001))</f>
+        <v>19999.999999999996</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="11"/>
+        <v>1195.9882831908285</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="7"/>
+        <v>77.999560960582414</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="2">
+        <v>77.965699999999998</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.3860960582416055E-2</v>
+      </c>
+      <c r="I61" s="9">
         <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="11"/>
-        <v>303224675</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="12"/>
-        <v>20002.00020002</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" si="13"/>
-        <v>1195.9882831908285</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="shared" si="8"/>
-        <v>77.58987060521099</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="10">
-        <v>77.5886</v>
-      </c>
-      <c r="H61" s="4">
+        <v>-9.6428884859739439E-3</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>20130.400000000001</v>
+      </c>
+      <c r="L61" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2706052109905386E-3</v>
-      </c>
-      <c r="I61" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.6226426405360635E-4</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="10">
-        <v>20000</v>
-      </c>
-      <c r="L61" s="4">
+        <v>130.40000000000509</v>
+      </c>
+      <c r="M61" s="9">
         <f t="shared" si="10"/>
-        <v>-2.000200020000193</v>
-      </c>
-      <c r="M61" s="9">
-        <f>L61/(C61+P0)*100</f>
-        <v>-1.6489423230465934E-3</v>
+        <v>0.107502061005775</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="B62">
+        <f>E0+qconv*A62+(D62-M0)*cp*(E61+273.15)</f>
+        <v>304587145.62280595</v>
+      </c>
+      <c r="C62" s="4">
+        <f>(gamma-1)*qfire*A62/(Volume/(1-0.0001))</f>
+        <v>20399.999999999996</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.0082831908285</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="7"/>
+        <v>79.159948347579075</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="2">
+        <v>79.124700000000004</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.5248347579070582E-2</v>
+      </c>
+      <c r="I62" s="9">
         <f t="shared" si="6"/>
-        <v>510</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="11"/>
-        <v>304224675</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" si="12"/>
-        <v>20402.040204020399</v>
-      </c>
-      <c r="D62" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.0082831908285</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="shared" si="8"/>
-        <v>78.74068572197757</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="10">
-        <v>78.739400000000003</v>
-      </c>
-      <c r="H62" s="4">
+        <v>-1.0004925419902012E-2</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <v>20533.2</v>
+      </c>
+      <c r="L62" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2857219775668227E-3</v>
-      </c>
-      <c r="I62" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.6537539347735061E-4</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="10">
-        <v>20400</v>
-      </c>
-      <c r="L62" s="4">
+        <v>133.20000000000437</v>
+      </c>
+      <c r="M62" s="9">
         <f t="shared" si="10"/>
-        <v>-2.04020402039896</v>
-      </c>
-      <c r="M62" s="9">
-        <f>L62/(C62+P0)*100</f>
-        <v>-1.6763926200240992E-3</v>
+        <v>0.10944946589975708</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="B63">
+        <f>E0+qconv*A63+(D63-M0)*cp*(E62+273.15)</f>
+        <v>305595474.17443687</v>
+      </c>
+      <c r="C63" s="4">
+        <f>(gamma-1)*qfire*A63/(Volume/(1-0.0001))</f>
+        <v>20799.999999999996</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.0282831908285</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="7"/>
+        <v>80.320351275977146</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="2">
+        <v>80.283699999999996</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.6651275977149567E-2</v>
+      </c>
+      <c r="I63" s="9">
         <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="11"/>
-        <v>305224675</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="12"/>
-        <v>20802.080208020798</v>
-      </c>
-      <c r="D63" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.0282831908285</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="8"/>
-        <v>79.891462350854454</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="10">
-        <v>79.890199999999993</v>
-      </c>
-      <c r="H63" s="4">
+        <v>-1.0368981682577827E-2</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <v>20936.099999999999</v>
+      </c>
+      <c r="L63" s="4">
         <f t="shared" si="9"/>
-        <v>-1.2623508544606921E-3</v>
-      </c>
-      <c r="I63" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.5756447587058805E-4</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="10">
-        <v>20800</v>
-      </c>
-      <c r="L63" s="4">
+        <v>136.10000000000218</v>
+      </c>
+      <c r="M63" s="9">
         <f t="shared" si="10"/>
-        <v>-2.0802080207977269</v>
-      </c>
-      <c r="M63" s="9">
-        <f>L63/(C63+P0)*100</f>
-        <v>-1.703663047553124E-3</v>
+        <v>0.11146601146601325</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
+        <f t="shared" si="5"/>
+        <v>530</v>
+      </c>
+      <c r="B64">
+        <f>E0+qconv*A64+(D64-M0)*cp*(E63+273.15)</f>
+        <v>306603849.71522075</v>
+      </c>
+      <c r="C64" s="4">
+        <f>(gamma-1)*qfire*A64/(Volume/(1-0.0001))</f>
+        <v>21199.999999999996</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.0482831908284</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="7"/>
+        <v>81.480769746088924</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="2">
+        <v>81.442700000000002</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.8069746088922329E-2</v>
+      </c>
+      <c r="I64" s="9">
         <f t="shared" si="6"/>
-        <v>530</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="11"/>
-        <v>306224675</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" si="12"/>
-        <v>21202.1202120212</v>
-      </c>
-      <c r="D64" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.0482831908284</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="8"/>
-        <v>81.042200493772327</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="10">
-        <v>81.040899999999993</v>
-      </c>
-      <c r="H64" s="4">
+        <v>-1.0735037491580265E-2</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2">
+        <v>21339</v>
+      </c>
+      <c r="L64" s="4">
         <f t="shared" si="9"/>
-        <v>-1.3004937723337662E-3</v>
-      </c>
-      <c r="I64" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.6717177016342361E-4</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="10">
-        <v>21200</v>
-      </c>
-      <c r="L64" s="4">
+        <v>139.00000000000364</v>
+      </c>
+      <c r="M64" s="9">
         <f t="shared" si="10"/>
-        <v>-2.1202120212001319</v>
-      </c>
-      <c r="M64" s="9">
-        <f>L64/(C64+P0)*100</f>
-        <v>-1.7307553677687894E-3</v>
+        <v>0.11346938775510501</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="B65">
+        <f>E0+qconv*A65+(D65-M0)*cp*(E64+273.15)</f>
+        <v>307612272.24610168</v>
+      </c>
+      <c r="C65" s="4">
+        <f>(gamma-1)*qfire*A65/(Volume/(1-0.0001))</f>
+        <v>21599.999999999996</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.0682831908284</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="7"/>
+        <v>82.641203758226652</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="2">
+        <v>82.601699999999994</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="8"/>
+        <v>-3.9503758226658192E-2</v>
+      </c>
+      <c r="I65" s="9">
         <f t="shared" si="6"/>
-        <v>540</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="11"/>
-        <v>307224675</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="12"/>
-        <v>21602.160216021599</v>
-      </c>
-      <c r="D65" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.0682831908284</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="8"/>
-        <v>82.192900152661878</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="10">
-        <v>82.191599999999994</v>
-      </c>
-      <c r="H65" s="4">
+        <v>-1.110307332204381E-2</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2">
+        <v>21741.8</v>
+      </c>
+      <c r="L65" s="4">
         <f t="shared" si="9"/>
-        <v>-1.3001526618836579E-3</v>
-      </c>
-      <c r="I65" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.6588677058837767E-4</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="10">
-        <v>21600</v>
-      </c>
-      <c r="L65" s="4">
+        <v>141.80000000000291</v>
+      </c>
+      <c r="M65" s="9">
         <f t="shared" si="10"/>
-        <v>-2.1602160215988988</v>
-      </c>
-      <c r="M65" s="9">
-        <f>L65/(C65+P0)*100</f>
-        <v>-1.7576713198547114E-3</v>
+        <v>0.11537835638730913</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
+        <f t="shared" si="5"/>
+        <v>550</v>
+      </c>
+      <c r="B66">
+        <f>E0+qconv*A66+(D66-M0)*cp*(E65+273.15)</f>
+        <v>308620741.76802361</v>
+      </c>
+      <c r="C66" s="4">
+        <f>(gamma-1)*qfire*A66/(Volume/(1-0.0001))</f>
+        <v>21999.999999999996</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.0882831908284</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="7"/>
+        <v>83.801653312702456</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="2">
+        <v>83.7607</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.0953312702455946E-2</v>
+      </c>
+      <c r="I66" s="9">
         <f t="shared" si="6"/>
-        <v>550</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="11"/>
-        <v>308224675</v>
-      </c>
-      <c r="C66" s="4">
-        <f t="shared" si="12"/>
-        <v>22002.200220021998</v>
-      </c>
-      <c r="D66" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.0882831908284</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="8"/>
-        <v>83.343561329453564</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="10">
-        <v>83.342200000000005</v>
-      </c>
-      <c r="H66" s="4">
+        <v>-1.1473069902432803E-2</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
+        <v>22144.7</v>
+      </c>
+      <c r="L66" s="4">
         <f t="shared" si="9"/>
-        <v>-1.3613294535588238E-3</v>
-      </c>
-      <c r="I66" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.818664910754871E-4</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="10">
-        <v>22000</v>
-      </c>
-      <c r="L66" s="4">
+        <v>144.70000000000437</v>
+      </c>
+      <c r="M66" s="9">
         <f t="shared" si="10"/>
-        <v>-2.2002200219976658</v>
-      </c>
-      <c r="M66" s="9">
-        <f>L66/(C66+P0)*100</f>
-        <v>-1.7844126204330218E-3</v>
+        <v>0.11735604217356396</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="B67">
+        <f>E0+qconv*A67+(D67-M0)*cp*(E66+273.15)</f>
+        <v>309629258.28193069</v>
+      </c>
+      <c r="C67" s="4">
+        <f>(gamma-1)*qfire*A67/(Volume/(1-0.0001))</f>
+        <v>22399.999999999996</v>
+      </c>
+      <c r="D67" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.1082831908284</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="7"/>
+        <v>84.96211840982869</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="2">
+        <v>84.919700000000006</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.2418409828684389E-2</v>
+      </c>
+      <c r="I67" s="9">
         <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="11"/>
-        <v>309224675</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" si="12"/>
-        <v>22402.2402240224</v>
-      </c>
-      <c r="D67" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.1082831908284</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="8"/>
-        <v>84.494184026077789</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="10">
-        <v>84.492800000000003</v>
-      </c>
-      <c r="H67" s="4">
+        <v>-1.1845008210568331E-2</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2">
+        <v>22547.599999999999</v>
+      </c>
+      <c r="L67" s="4">
         <f t="shared" si="9"/>
-        <v>-1.3840260777868707E-3</v>
-      </c>
-      <c r="I67" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.8698408630795849E-4</v>
-      </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="10">
-        <v>22400</v>
-      </c>
-      <c r="L67" s="4">
+        <v>147.60000000000218</v>
+      </c>
+      <c r="M67" s="9">
         <f t="shared" si="10"/>
-        <v>-2.2402240224000707</v>
-      </c>
-      <c r="M67" s="9">
-        <f>L67/(C67+P0)*100</f>
-        <v>-1.8109809639203522E-3</v>
+        <v>0.11932093775262909</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="B68">
+        <f>E0+qconv*A68+(D68-M0)*cp*(E67+273.15)</f>
+        <v>310637821.7887671</v>
+      </c>
+      <c r="C68" s="4">
+        <f>(gamma-1)*qfire*A68/(Volume/(1-0.0001))</f>
+        <v>22799.999999999996</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.1282831908286</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="7"/>
+        <v>86.122599049917653</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="2">
+        <v>86.078599999999994</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.3999049917658795E-2</v>
+      </c>
+      <c r="I68" s="9">
         <f t="shared" si="6"/>
-        <v>570</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="11"/>
-        <v>310224675</v>
-      </c>
-      <c r="C68" s="4">
-        <f t="shared" si="12"/>
-        <v>22802.280228022799</v>
-      </c>
-      <c r="D68" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.1282831908286</v>
-      </c>
-      <c r="E68" s="4">
-        <f t="shared" si="8"/>
-        <v>85.644768244464672</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="10">
-        <v>85.6434</v>
-      </c>
-      <c r="H68" s="4">
+        <v>-1.2246703487550279E-2</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
+        <v>22950.5</v>
+      </c>
+      <c r="L68" s="4">
         <f t="shared" si="9"/>
-        <v>-1.368244464671875E-3</v>
-      </c>
-      <c r="I68" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.8134459746069158E-4</v>
-      </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="10">
-        <v>22800</v>
-      </c>
-      <c r="L68" s="4">
+        <v>150.50000000000364</v>
+      </c>
+      <c r="M68" s="9">
         <f t="shared" si="10"/>
-        <v>-2.2802280227988376</v>
-      </c>
-      <c r="M68" s="9">
-        <f>L68/(C68+P0)*100</f>
-        <v>-1.837378022876934E-3</v>
+        <v>0.12127316680096989</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="B69">
+        <f>E0+qconv*A69+(D69-M0)*cp*(E68+273.15)</f>
+        <v>311646432.28947669</v>
+      </c>
+      <c r="C69" s="4">
+        <f>(gamma-1)*qfire*A69/(Volume/(1-0.0001))</f>
+        <v>23199.999999999996</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.1482831908286</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="7"/>
+        <v>87.283095233281472</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="2">
+        <v>87.2376</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.5495233281471315E-2</v>
+      </c>
+      <c r="I69" s="9">
         <f t="shared" si="6"/>
-        <v>580</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="11"/>
-        <v>311224675</v>
-      </c>
-      <c r="C69" s="4">
-        <f t="shared" si="12"/>
-        <v>23202.320232023198</v>
-      </c>
-      <c r="D69" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.1482831908286</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="8"/>
-        <v>86.7953139865445</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="10">
-        <v>86.793899999999994</v>
-      </c>
-      <c r="H69" s="4">
+        <v>-1.2622379543705787E-2</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
+        <v>23353.4</v>
+      </c>
+      <c r="L69" s="4">
         <f t="shared" si="9"/>
-        <v>-1.4139865445059741E-3</v>
-      </c>
-      <c r="I69" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.9283371377876362E-4</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="10">
-        <v>23200</v>
-      </c>
-      <c r="L69" s="4">
+        <v>153.40000000000509</v>
+      </c>
+      <c r="M69" s="9">
         <f t="shared" si="10"/>
-        <v>-2.3202320231976046</v>
-      </c>
-      <c r="M69" s="9">
-        <f>L69/(C69+P0)*100</f>
-        <v>-1.8636054483752653E-3</v>
+        <v>0.12321285140562657</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="B70">
+        <f>E0+qconv*A70+(D70-M0)*cp*(E69+273.15)</f>
+        <v>312655089.78500378</v>
+      </c>
+      <c r="C70" s="4">
+        <f>(gamma-1)*qfire*A70/(Volume/(1-0.0001))</f>
+        <v>23599.999999999996</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.1682831908286</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="7"/>
+        <v>88.443606960232444</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="2">
+        <v>88.396500000000003</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.7106960232440542E-2</v>
+      </c>
+      <c r="I70" s="9">
         <f t="shared" si="6"/>
-        <v>590</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="11"/>
-        <v>312224675</v>
-      </c>
-      <c r="C70" s="4">
-        <f t="shared" si="12"/>
-        <v>23602.3602360236</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.1682831908286</v>
-      </c>
-      <c r="E70" s="4">
-        <f t="shared" si="8"/>
-        <v>87.945821254247164</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="10">
-        <v>87.944400000000002</v>
-      </c>
-      <c r="H70" s="4">
+        <v>-1.3027597647106991E-2</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
+        <v>23756.400000000001</v>
+      </c>
+      <c r="L70" s="4">
         <f t="shared" si="9"/>
-        <v>-1.4212542471625511E-3</v>
-      </c>
-      <c r="I70" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.9359476446609106E-4</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="K70" s="10">
-        <v>23600</v>
-      </c>
-      <c r="L70" s="4">
+        <v>156.40000000000509</v>
+      </c>
+      <c r="M70" s="9">
         <f t="shared" si="10"/>
-        <v>-2.3602360236000095</v>
-      </c>
-      <c r="M70" s="9">
-        <f>L70/(C70+P0)*100</f>
-        <v>-1.88966487033548E-3</v>
+        <v>0.12522017614091679</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="B71">
+        <f>E0+qconv*A71+(D71-M0)*cp*(E70+273.15)</f>
+        <v>313663794.2762925</v>
+      </c>
+      <c r="C71" s="4">
+        <f>(gamma-1)*qfire*A71/(Volume/(1-0.0001))</f>
+        <v>23999.999999999996</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="11"/>
+        <v>1196.1882831908285</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="7"/>
+        <v>89.604134231082924</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="2">
+        <v>89.555400000000006</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="8"/>
+        <v>-4.8734231082917745E-2</v>
+      </c>
+      <c r="I71" s="9">
         <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="11"/>
-        <v>313224675</v>
-      </c>
-      <c r="C71" s="4">
-        <f t="shared" si="12"/>
-        <v>24002.400240023999</v>
-      </c>
-      <c r="D71" s="4">
-        <f t="shared" si="13"/>
-        <v>1196.1882831908285</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="8"/>
-        <v>89.096290049502443</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="10">
-        <v>89.094800000000006</v>
-      </c>
-      <c r="H71" s="4">
+        <v>-1.3434507420905888E-2</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2">
+        <v>24159.3</v>
+      </c>
+      <c r="L71" s="4">
         <f t="shared" si="9"/>
-        <v>-1.4900495024363636E-3</v>
-      </c>
-      <c r="I71" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.1133602837802491E-4</v>
-      </c>
-      <c r="J71" s="2"/>
-      <c r="K71" s="10">
-        <v>24000</v>
-      </c>
-      <c r="L71" s="4">
+        <v>159.30000000000291</v>
+      </c>
+      <c r="M71" s="9">
         <f t="shared" si="10"/>
-        <v>-2.4002400239987765</v>
-      </c>
-      <c r="M71" s="9">
-        <f>L71/(C71+P0)*100</f>
-        <v>-1.9155578978542931E-3</v>
+        <v>0.1271348762968898</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
+        <f t="shared" si="5"/>
+        <v>610</v>
+      </c>
+      <c r="B72">
+        <f>E0+qconv*A72+(D72-M0)*cp*(E71+273.15)</f>
+        <v>314672545.76428705</v>
+      </c>
+      <c r="C72" s="4">
+        <f>(gamma-1)*qfire*A72/(Volume/(1-0.0001))</f>
+        <v>24399.999999999996</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ref="D72:D101" si="12">M0+mfire*A72</f>
+        <v>1196.2082831908285</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="7"/>
+        <v>90.764677046145152</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="2">
+        <v>90.714299999999994</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="8"/>
+        <v>-5.0377046145158033E-2</v>
+      </c>
+      <c r="I72" s="9">
         <f t="shared" si="6"/>
-        <v>610</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="11"/>
-        <v>314224675</v>
-      </c>
-      <c r="C72" s="4">
-        <f t="shared" ref="C72:C101" si="14">(gamma-1)*qconv*A72/Volume</f>
-        <v>24402.440244024398</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" ref="D72:D101" si="15">M0+mfire*A72</f>
-        <v>1196.2082831908285</v>
-      </c>
-      <c r="E72" s="4">
-        <f t="shared" si="8"/>
-        <v>90.246720374240169</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="10">
-        <v>90.2453</v>
-      </c>
-      <c r="H72" s="4">
+        <v>-1.3843092714496404E-2</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2">
+        <v>24562.2</v>
+      </c>
+      <c r="L72" s="4">
         <f t="shared" si="9"/>
-        <v>-1.4203742401690533E-3</v>
-      </c>
-      <c r="I72" s="9">
-        <f t="shared" si="7"/>
-        <v>-3.9086050053129163E-4</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="10">
-        <v>24400</v>
-      </c>
-      <c r="L72" s="4">
+        <v>162.20000000000437</v>
+      </c>
+      <c r="M72" s="9">
         <f t="shared" si="10"/>
-        <v>-2.4402440243975434</v>
-      </c>
-      <c r="M72" s="9">
-        <f>L72/(C72+P0)*100</f>
-        <v>-1.9412861195537106E-3</v>
+        <v>0.12903739061257308</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
+        <f t="shared" si="5"/>
+        <v>620</v>
+      </c>
+      <c r="B73">
+        <f>E0+qconv*A73+(D73-M0)*cp*(E72+273.15)</f>
+        <v>315681344.24993169</v>
+      </c>
+      <c r="C73" s="4">
+        <f>(gamma-1)*qfire*A73/(Volume/(1-0.0001))</f>
+        <v>24799.999999999996</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.2282831908285</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="7"/>
+        <v>91.925235405731485</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="2">
+        <v>91.873199999999997</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="8"/>
+        <v>-5.2035405731487572E-2</v>
+      </c>
+      <c r="I73" s="9">
         <f t="shared" si="6"/>
-        <v>620</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="11"/>
-        <v>315224675</v>
-      </c>
-      <c r="C73" s="4">
-        <f t="shared" si="14"/>
-        <v>24802.4802480248</v>
-      </c>
-      <c r="D73" s="4">
-        <f t="shared" si="15"/>
-        <v>1196.2282831908285</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="8"/>
-        <v>91.397112230389894</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="10">
-        <v>91.395600000000002</v>
-      </c>
-      <c r="H73" s="4">
+        <v>-1.4253337582226659E-2</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2">
+        <v>24965.200000000001</v>
+      </c>
+      <c r="L73" s="4">
         <f t="shared" si="9"/>
-        <v>-1.5122303898920109E-3</v>
-      </c>
-      <c r="I73" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.1482440517490578E-4</v>
-      </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="10">
-        <v>24800</v>
-      </c>
-      <c r="L73" s="4">
+        <v>165.20000000000437</v>
+      </c>
+      <c r="M73" s="9">
         <f t="shared" si="10"/>
-        <v>-2.4802480247999483</v>
-      </c>
-      <c r="M73" s="9">
-        <f>L73/(C73+P0)*100</f>
-        <v>-1.9668511038971395E-3</v>
+        <v>0.13100713719270768</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="B74">
+        <f>E0+qconv*A74+(D74-M0)*cp*(E73+273.15)</f>
+        <v>316690189.73417056</v>
+      </c>
+      <c r="C74" s="4">
+        <f>(gamma-1)*qfire*A74/(Volume/(1-0.0001))</f>
+        <v>25199.999999999996</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.2482831908285</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="7"/>
+        <v>93.085809310154104</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="2">
+        <v>93.0321</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="8"/>
+        <v>-5.3709310154104628E-2</v>
+      </c>
+      <c r="I74" s="9">
         <f t="shared" si="6"/>
-        <v>630</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="11"/>
-        <v>316224675</v>
-      </c>
-      <c r="C74" s="4">
-        <f t="shared" si="14"/>
-        <v>25202.520252025199</v>
-      </c>
-      <c r="D74" s="4">
-        <f t="shared" si="15"/>
-        <v>1196.2482831908285</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="8"/>
-        <v>92.547465619881052</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="10">
-        <v>92.546000000000006</v>
-      </c>
-      <c r="H74" s="4">
+        <v>-1.4665226280104093E-2</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2">
+        <v>25368.1</v>
+      </c>
+      <c r="L74" s="4">
         <f t="shared" si="9"/>
-        <v>-1.4656198810456544E-3</v>
-      </c>
-      <c r="I74" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.0077386879379466E-4</v>
-      </c>
-      <c r="J74" s="2"/>
-      <c r="K74" s="10">
-        <v>25200</v>
-      </c>
-      <c r="L74" s="4">
+        <v>168.10000000000218</v>
+      </c>
+      <c r="M74" s="9">
         <f t="shared" si="10"/>
-        <v>-2.5202520251987153</v>
-      </c>
-      <c r="M74" s="9">
-        <f>L74/(C74+P0)*100</f>
-        <v>-1.9922543994994979E-3</v>
+        <v>0.13288537549407287</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="B75">
+        <f>E0+qconv*A75+(D75-M0)*cp*(E74+273.15)</f>
+        <v>317699082.21794802</v>
+      </c>
+      <c r="C75" s="4">
+        <f>(gamma-1)*qfire*A75/(Volume/(1-0.0001))</f>
+        <v>25599.999999999996</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.2682831908285</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" ref="E75:E101" si="13">B75/(cv*D75)-273.15</f>
+        <v>94.246398759725423</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="2">
+        <v>94.191000000000003</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" ref="H75:H101" si="14">G75-E75</f>
+        <v>-5.5398759725420632E-2</v>
+      </c>
+      <c r="I75" s="9">
         <f t="shared" si="6"/>
-        <v>640</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="11"/>
-        <v>317224675</v>
-      </c>
-      <c r="C75" s="4">
-        <f t="shared" si="14"/>
-        <v>25602.560256025601</v>
-      </c>
-      <c r="D75" s="4">
-        <f t="shared" si="15"/>
-        <v>1196.2682831908285</v>
-      </c>
-      <c r="E75" s="4">
-        <f t="shared" ref="E75:E106" si="16">B75/(cv*D75)-273.15</f>
-        <v>93.697780544643024</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="10">
-        <v>93.696299999999994</v>
-      </c>
-      <c r="H75" s="4">
-        <f t="shared" ref="H75:H106" si="17">G75-E75</f>
-        <v>-1.4805446430301572E-3</v>
-      </c>
-      <c r="I75" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.0358555279578271E-4</v>
+        <v>-1.5078743262709828E-2</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="10">
-        <v>25600</v>
+      <c r="K75" s="2">
+        <v>25771.1</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" ref="L75:L106" si="18">K75-C75</f>
-        <v>-2.5602560256011202</v>
+        <f t="shared" ref="L75:L101" si="15">K75-C75</f>
+        <v>171.10000000000218</v>
       </c>
       <c r="M75" s="9">
-        <f>L75/(C75+P0)*100</f>
-        <v>-2.0174975354601277E-3</v>
+        <f t="shared" ref="M75:M101" si="16">L75/(C75+P0)*100</f>
+        <v>0.13483057525610889</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
+        <f t="shared" si="5"/>
+        <v>650</v>
+      </c>
+      <c r="B76">
+        <f>E0+qconv*A76+(D76-M0)*cp*(E75+273.15)</f>
+        <v>318708021.70220828</v>
+      </c>
+      <c r="C76" s="4">
+        <f>(gamma-1)*qfire*A76/(Volume/(1-0.0001))</f>
+        <v>25999.999999999996</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.2882831908285</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="13"/>
+        <v>95.407003754757682</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="2">
+        <v>95.349900000000005</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="14"/>
+        <v>-5.7103754757676484E-2</v>
+      </c>
+      <c r="I76" s="9">
         <f t="shared" si="6"/>
-        <v>650</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="11"/>
-        <v>318224675</v>
-      </c>
-      <c r="C76" s="4">
-        <f t="shared" si="14"/>
-        <v>26002.600260026</v>
-      </c>
-      <c r="D76" s="4">
+        <v>-1.5493873179974629E-2</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2">
+        <v>26174.1</v>
+      </c>
+      <c r="L76" s="4">
         <f t="shared" si="15"/>
-        <v>1196.2882831908285</v>
-      </c>
-      <c r="E76" s="4">
+        <v>174.10000000000218</v>
+      </c>
+      <c r="M76" s="9">
         <f t="shared" si="16"/>
-        <v>94.848057006604961</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="10">
-        <v>94.846500000000006</v>
-      </c>
-      <c r="H76" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5570066049548359E-3</v>
-      </c>
-      <c r="I76" s="9">
-        <f t="shared" si="7"/>
-        <v>-4.2310185483585049E-4</v>
-      </c>
-      <c r="J76" s="2"/>
-      <c r="K76" s="10">
-        <v>26000</v>
-      </c>
-      <c r="L76" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.6002600259998871</v>
-      </c>
-      <c r="M76" s="9">
-        <f>L76/(C76+P0)*100</f>
-        <v>-2.0425820216465672E-3</v>
+        <v>0.13676355066771578</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" ref="A77:A101" si="19">A76+10</f>
+        <f t="shared" ref="A77:A101" si="17">A76+10</f>
         <v>660</v>
       </c>
       <c r="B77">
-        <f t="shared" si="11"/>
-        <v>319224675</v>
+        <f>E0+qconv*A77+(D77-M0)*cp*(E76+273.15)</f>
+        <v>319717008.18789572</v>
       </c>
       <c r="C77" s="4">
+        <f>(gamma-1)*qfire*A77/(Volume/(1-0.0001))</f>
+        <v>26399.999999999996</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.3082831908284</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="13"/>
+        <v>96.567624295563235</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="2">
+        <v>96.508700000000005</v>
+      </c>
+      <c r="H77" s="4">
         <f t="shared" si="14"/>
-        <v>26402.640264026399</v>
-      </c>
-      <c r="D77" s="4">
+        <v>-5.8924295563230089E-2</v>
+      </c>
+      <c r="I77" s="9">
+        <f t="shared" ref="I77:I101" si="18">H77/(E77+273.15)*100</f>
+        <v>-1.5937648543398696E-2</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2">
+        <v>26577.1</v>
+      </c>
+      <c r="L77" s="4">
         <f t="shared" si="15"/>
-        <v>1196.3082831908284</v>
-      </c>
-      <c r="E77" s="4">
+        <v>177.10000000000218</v>
+      </c>
+      <c r="M77" s="9">
         <f t="shared" si="16"/>
-        <v>95.998295007695958</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="10">
-        <v>95.996799999999993</v>
-      </c>
-      <c r="H77" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.4950076959650005E-3</v>
-      </c>
-      <c r="I77" s="9">
-        <f t="shared" ref="I77:I101" si="20">H77/(E77+273.15)*100</f>
-        <v>-4.0498837897485964E-4</v>
-      </c>
-      <c r="J77" s="2"/>
-      <c r="K77" s="10">
-        <v>26400</v>
-      </c>
-      <c r="L77" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.6402640263986541</v>
-      </c>
-      <c r="M77" s="9">
-        <f>L77/(C77+P0)*100</f>
-        <v>-2.0675093490157164E-3</v>
+        <v>0.13868441660141126</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>670</v>
       </c>
       <c r="B78">
-        <f t="shared" si="11"/>
-        <v>320224675</v>
+        <f>E0+qconv*A78+(D78-M0)*cp*(E77+273.15)</f>
+        <v>320726041.6759547</v>
       </c>
       <c r="C78" s="4">
+        <f>(gamma-1)*qfire*A78/(Volume/(1-0.0001))</f>
+        <v>26799.999999999996</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.3282831908284</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="13"/>
+        <v>97.728260382454494</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="2">
+        <v>97.667500000000004</v>
+      </c>
+      <c r="H78" s="4">
         <f t="shared" si="14"/>
-        <v>26802.680268026801</v>
-      </c>
-      <c r="D78" s="4">
+        <v>-6.0760382454489559E-2</v>
+      </c>
+      <c r="I78" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.638283742806404E-2</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2">
+        <v>26980.1</v>
+      </c>
+      <c r="L78" s="4">
         <f t="shared" si="15"/>
-        <v>1196.3282831908284</v>
-      </c>
-      <c r="E78" s="4">
+        <v>180.10000000000218</v>
+      </c>
+      <c r="M78" s="9">
         <f t="shared" si="16"/>
-        <v>97.148494549844997</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="10">
-        <v>97.147000000000006</v>
-      </c>
-      <c r="H78" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.4945498449918659E-3</v>
-      </c>
-      <c r="I78" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.036067839834786E-4</v>
-      </c>
-      <c r="J78" s="2"/>
-      <c r="K78" s="10">
-        <v>26800</v>
-      </c>
-      <c r="L78" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.680268026801059</v>
-      </c>
-      <c r="M78" s="9">
-        <f>L78/(C78+P0)*100</f>
-        <v>-2.0922809899005901E-3</v>
+        <v>0.14059328649492753</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>680</v>
       </c>
       <c r="B79">
-        <f t="shared" si="11"/>
-        <v>321224675</v>
+        <f>E0+qconv*A79+(D79-M0)*cp*(E78+273.15)</f>
+        <v>321735122.16732955</v>
       </c>
       <c r="C79" s="4">
+        <f>(gamma-1)*qfire*A79/(Volume/(1-0.0001))</f>
+        <v>27199.999999999996</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.3482831908284</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="13"/>
+        <v>98.888912015743756</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="2">
+        <v>98.826400000000007</v>
+      </c>
+      <c r="H79" s="4">
         <f t="shared" si="14"/>
-        <v>27202.7202720272</v>
-      </c>
-      <c r="D79" s="4">
+        <v>-6.2512015743749316E-2</v>
+      </c>
+      <c r="I79" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.6802547724121923E-2</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2">
+        <v>27383.1</v>
+      </c>
+      <c r="L79" s="4">
         <f t="shared" si="15"/>
-        <v>1196.3482831908284</v>
-      </c>
-      <c r="E79" s="4">
+        <v>183.10000000000218</v>
+      </c>
+      <c r="M79" s="9">
         <f t="shared" si="16"/>
-        <v>98.298655634980832</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="10">
-        <v>98.2971</v>
-      </c>
-      <c r="H79" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5556349808321102E-3</v>
-      </c>
-      <c r="I79" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.1880215669990698E-4</v>
-      </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="10">
-        <v>27200</v>
-      </c>
-      <c r="L79" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.720272027199826</v>
-      </c>
-      <c r="M79" s="9">
-        <f>L79/(C79+P0)*100</f>
-        <v>-2.1168983982917146E-3</v>
+        <v>0.14249027237354256</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>690</v>
       </c>
       <c r="B80">
-        <f t="shared" si="11"/>
-        <v>322224675</v>
+        <f>E0+qconv*A80+(D80-M0)*cp*(E79+273.15)</f>
+        <v>322744249.66296476</v>
       </c>
       <c r="C80" s="4">
+        <f>(gamma-1)*qfire*A80/(Volume/(1-0.0001))</f>
+        <v>27599.999999999996</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.3682831908286</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="13"/>
+        <v>100.04957919574343</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="2">
+        <v>99.985200000000006</v>
+      </c>
+      <c r="H80" s="4">
         <f t="shared" si="14"/>
-        <v>27602.760276027599</v>
-      </c>
-      <c r="D80" s="4">
+        <v>-6.4379195743427431E-2</v>
+      </c>
+      <c r="I80" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.7250607806730808E-2</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2">
+        <v>27786.1</v>
+      </c>
+      <c r="L80" s="4">
         <f t="shared" si="15"/>
-        <v>1196.3682831908286</v>
-      </c>
-      <c r="E80" s="4">
+        <v>186.10000000000218</v>
+      </c>
+      <c r="M80" s="9">
         <f t="shared" si="16"/>
-        <v>99.448778265032161</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="10">
-        <v>99.447199999999995</v>
-      </c>
-      <c r="H80" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5782650321654046E-3</v>
-      </c>
-      <c r="I80" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.2358298637328685E-4</v>
-      </c>
-      <c r="J80" s="2"/>
-      <c r="K80" s="10">
-        <v>27600</v>
-      </c>
-      <c r="L80" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.7602760275985929</v>
-      </c>
-      <c r="M80" s="9">
-        <f>L80/(C80+P0)*100</f>
-        <v>-2.141363010138681E-3</v>
+        <v>0.14437548487199547</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>700</v>
       </c>
       <c r="B81">
-        <f t="shared" si="11"/>
-        <v>323224675</v>
+        <f>E0+qconv*A81+(D81-M0)*cp*(E80+273.15)</f>
+        <v>323753424.16380459</v>
       </c>
       <c r="C81" s="4">
+        <f>(gamma-1)*qfire*A81/(Volume/(1-0.0001))</f>
+        <v>27999.999999999996</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.3882831908286</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="13"/>
+        <v>101.21026192276577</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="2">
+        <v>101.14400000000001</v>
+      </c>
+      <c r="H81" s="4">
         <f t="shared" si="14"/>
-        <v>28002.800280028001</v>
-      </c>
-      <c r="D81" s="4">
+        <v>-6.6261922765761483E-2</v>
+      </c>
+      <c r="I81" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.7700041779389497E-2</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2">
+        <v>28189.1</v>
+      </c>
+      <c r="L81" s="4">
         <f t="shared" si="15"/>
-        <v>1196.3882831908286</v>
-      </c>
-      <c r="E81" s="4">
+        <v>189.10000000000218</v>
+      </c>
+      <c r="M81" s="9">
         <f t="shared" si="16"/>
-        <v>100.59886244192762</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="10">
-        <v>100.59699999999999</v>
-      </c>
-      <c r="H81" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.8624419276278559E-3</v>
-      </c>
-      <c r="I81" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.9831373812334707E-4</v>
-      </c>
-      <c r="J81" s="2"/>
-      <c r="K81" s="10">
-        <v>28000</v>
-      </c>
-      <c r="L81" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.8002800280009978</v>
-      </c>
-      <c r="M81" s="9">
-        <f>L81/(C81+P0)*100</f>
-        <v>-2.1656762436207864E-3</v>
+        <v>0.1462490332559955</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>710</v>
       </c>
       <c r="B82">
-        <f t="shared" si="11"/>
-        <v>324224675</v>
+        <f>E0+qconv*A82+(D82-M0)*cp*(E81+273.15)</f>
+        <v>324762645.67079353</v>
       </c>
       <c r="C82" s="4">
+        <f>(gamma-1)*qfire*A82/(Volume/(1-0.0001))</f>
+        <v>28399.999999999996</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.4082831908286</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="13"/>
+        <v>102.37096019712317</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="2">
+        <v>102.303</v>
+      </c>
+      <c r="H82" s="4">
         <f t="shared" si="14"/>
-        <v>28402.8402840284</v>
-      </c>
-      <c r="D82" s="4">
+        <v>-6.7960197123170474E-2</v>
+      </c>
+      <c r="I82" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.809757758594779E-2</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2">
+        <v>28592.2</v>
+      </c>
+      <c r="L82" s="4">
         <f t="shared" si="15"/>
-        <v>1196.4082831908286</v>
-      </c>
-      <c r="E82" s="4">
+        <v>192.20000000000437</v>
+      </c>
+      <c r="M82" s="9">
         <f t="shared" si="16"/>
-        <v>101.74890816759557</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="10">
-        <v>101.747</v>
-      </c>
-      <c r="H82" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.908167595573218E-3</v>
-      </c>
-      <c r="I82" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.0898190258804037E-4</v>
-      </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="10">
-        <v>28400</v>
-      </c>
-      <c r="L82" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.8402840283997648</v>
-      </c>
-      <c r="M82" s="9">
-        <f>L82/(C82+P0)*100</f>
-        <v>-2.1898394994126565E-3</v>
+        <v>0.14818812644564716</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>720</v>
       </c>
       <c r="B83">
-        <f t="shared" si="11"/>
-        <v>325224675</v>
+        <f>E0+qconv*A83+(D83-M0)*cp*(E82+273.15)</f>
+        <v>325771914.18487608</v>
       </c>
       <c r="C83" s="4">
+        <f>(gamma-1)*qfire*A83/(Volume/(1-0.0001))</f>
+        <v>28799.999999999996</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.4282831908286</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="13"/>
+        <v>103.53167401912805</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="2">
+        <v>103.462</v>
+      </c>
+      <c r="H83" s="4">
         <f t="shared" si="14"/>
-        <v>28802.880288028799</v>
-      </c>
-      <c r="D83" s="4">
+        <v>-6.9674019128044051E-2</v>
+      </c>
+      <c r="I83" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.8496790243240233E-2</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2">
+        <v>28995.200000000001</v>
+      </c>
+      <c r="L83" s="4">
         <f t="shared" si="15"/>
-        <v>1196.4282831908286</v>
-      </c>
-      <c r="E83" s="4">
+        <v>195.20000000000437</v>
+      </c>
+      <c r="M83" s="9">
         <f t="shared" si="16"/>
-        <v>102.89891544396431</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="10">
-        <v>102.89700000000001</v>
-      </c>
-      <c r="H83" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.9154439643074284E-3</v>
-      </c>
-      <c r="I83" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.0936032139490433E-4</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="10">
-        <v>28800</v>
-      </c>
-      <c r="L83" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.8802880287985317</v>
-      </c>
-      <c r="M83" s="9">
-        <f>L83/(C83+P0)*100</f>
-        <v>-2.2138541609701447E-3</v>
+        <v>0.15003843197540689</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>730</v>
       </c>
       <c r="B84">
-        <f t="shared" si="11"/>
-        <v>326224675</v>
+        <f>E0+qconv*A84+(D84-M0)*cp*(E83+273.15)</f>
+        <v>326781229.70699674</v>
       </c>
       <c r="C84" s="4">
+        <f>(gamma-1)*qfire*A84/(Volume/(1-0.0001))</f>
+        <v>29199.999999999996</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.4482831908285</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="13"/>
+        <v>104.69240338909276</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="2">
+        <v>104.62</v>
+      </c>
+      <c r="H84" s="4">
         <f t="shared" si="14"/>
-        <v>29202.920292029201</v>
-      </c>
-      <c r="D84" s="4">
+        <v>-7.2403389092755788E-2</v>
+      </c>
+      <c r="I84" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.9162324938473509E-2</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2">
+        <v>29398.3</v>
+      </c>
+      <c r="L84" s="4">
         <f t="shared" si="15"/>
-        <v>1196.4482831908285</v>
-      </c>
-      <c r="E84" s="4">
+        <v>198.30000000000291</v>
+      </c>
+      <c r="M84" s="9">
         <f t="shared" si="16"/>
-        <v>104.04888427296203</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="10">
-        <v>104.047</v>
-      </c>
-      <c r="H84" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.8842729620303089E-3</v>
-      </c>
-      <c r="I84" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.9954362024749374E-4</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="10">
-        <v>29200</v>
-      </c>
-      <c r="L84" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.9202920292009367</v>
-      </c>
-      <c r="M84" s="9">
-        <f>L84/(C84+P0)*100</f>
-        <v>-2.2377215947858762E-3</v>
+        <v>0.15195402298850796</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>740</v>
       </c>
       <c r="B85">
-        <f t="shared" si="11"/>
-        <v>327224675</v>
+        <f>E0+qconv*A85+(D85-M0)*cp*(E84+273.15)</f>
+        <v>327790592.23810005</v>
       </c>
       <c r="C85" s="4">
+        <f>(gamma-1)*qfire*A85/(Volume/(1-0.0001))</f>
+        <v>29599.999999999996</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.4682831908285</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="13"/>
+        <v>105.85314830732972</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="2">
+        <v>105.779</v>
+      </c>
+      <c r="H85" s="4">
         <f t="shared" si="14"/>
-        <v>29602.9602960296</v>
-      </c>
-      <c r="D85" s="4">
+        <v>-7.4148307329721774E-2</v>
+      </c>
+      <c r="I85" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.9564034668544675E-2</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2">
+        <v>29801.3</v>
+      </c>
+      <c r="L85" s="4">
         <f t="shared" si="15"/>
-        <v>1196.4682831908285</v>
-      </c>
-      <c r="E85" s="4">
+        <v>201.30000000000291</v>
+      </c>
+      <c r="M85" s="9">
         <f t="shared" si="16"/>
-        <v>105.19881465651673</v>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="10">
-        <v>105.197</v>
-      </c>
-      <c r="H85" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.8146565167285189E-3</v>
-      </c>
-      <c r="I85" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.7962526812088776E-4</v>
-      </c>
-      <c r="J85" s="2"/>
-      <c r="K85" s="10">
-        <v>29600</v>
-      </c>
-      <c r="L85" s="4">
-        <f t="shared" si="18"/>
-        <v>-2.9602960295997036</v>
-      </c>
-      <c r="M85" s="9">
-        <f>L85/(C85+P0)*100</f>
-        <v>-2.2614431506401099E-3</v>
+        <v>0.15378151260504425</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>750</v>
       </c>
       <c r="B86">
-        <f t="shared" si="11"/>
-        <v>328224675</v>
+        <f>E0+qconv*A86+(D86-M0)*cp*(E85+273.15)</f>
+        <v>328800001.77913052</v>
       </c>
       <c r="C86" s="4">
+        <f>(gamma-1)*qfire*A86/(Volume/(1-0.0001))</f>
+        <v>29999.999999999996</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.4882831908285</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="13"/>
+        <v>107.01390877415139</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="2">
+        <v>106.938</v>
+      </c>
+      <c r="H86" s="4">
         <f t="shared" si="14"/>
-        <v>30003.000300029998</v>
-      </c>
-      <c r="D86" s="4">
+        <v>-7.5908774151386638E-2</v>
+      </c>
+      <c r="I86" s="9">
+        <f t="shared" si="18"/>
+        <v>-1.996738049020921E-2</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2">
+        <v>30204.400000000001</v>
+      </c>
+      <c r="L86" s="4">
         <f t="shared" si="15"/>
-        <v>1196.4882831908285</v>
-      </c>
-      <c r="E86" s="4">
+        <v>204.40000000000509</v>
+      </c>
+      <c r="M86" s="9">
         <f t="shared" si="16"/>
-        <v>106.34870659655644</v>
-      </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="10">
-        <v>106.34699999999999</v>
-      </c>
-      <c r="H86" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.706596556445561E-3</v>
-      </c>
-      <c r="I86" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.4969759495381813E-4</v>
-      </c>
-      <c r="J86" s="2"/>
-      <c r="K86" s="10">
-        <v>30000</v>
-      </c>
-      <c r="L86" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.0003000299984706</v>
-      </c>
-      <c r="M86" s="9">
-        <f>L86/(C86+P0)*100</f>
-        <v>-2.285020161871949E-3</v>
+        <v>0.15567402894135957</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>760</v>
       </c>
       <c r="B87">
-        <f t="shared" si="11"/>
-        <v>329224675</v>
+        <f>E0+qconv*A87+(D87-M0)*cp*(E86+273.15)</f>
+        <v>329809458.33103275</v>
       </c>
       <c r="C87" s="4">
+        <f>(gamma-1)*qfire*A87/(Volume/(1-0.0001))</f>
+        <v>30399.999999999996</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.5082831908285</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="13"/>
+        <v>108.17468478987007</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="2">
+        <v>108.09699999999999</v>
+      </c>
+      <c r="H87" s="4">
         <f t="shared" si="14"/>
-        <v>30403.040304030401</v>
-      </c>
-      <c r="D87" s="4">
+        <v>-7.7684789870076543E-2</v>
+      </c>
+      <c r="I87" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.0372347495123466E-2</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2">
+        <v>30607.5</v>
+      </c>
+      <c r="L87" s="4">
         <f t="shared" si="15"/>
-        <v>1196.5082831908285</v>
-      </c>
-      <c r="E87" s="4">
+        <v>207.50000000000364</v>
+      </c>
+      <c r="M87" s="9">
         <f t="shared" si="16"/>
-        <v>107.49856009500883</v>
-      </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="10">
-        <v>107.497</v>
-      </c>
-      <c r="H87" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5600950088270338E-3</v>
-      </c>
-      <c r="I87" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.0985180882797462E-4</v>
-      </c>
-      <c r="J87" s="2"/>
-      <c r="K87" s="10">
-        <v>30400</v>
-      </c>
-      <c r="L87" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.0403040304008755</v>
-      </c>
-      <c r="M87" s="9">
-        <f>L87/(C87+P0)*100</f>
-        <v>-2.308453945620749E-3</v>
+        <v>0.15755504935459655</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>770</v>
       </c>
       <c r="B88">
-        <f t="shared" si="11"/>
-        <v>330224675</v>
+        <f>E0+qconv*A88+(D88-M0)*cp*(E87+273.15)</f>
+        <v>330818961.89475131</v>
       </c>
       <c r="C88" s="4">
+        <f>(gamma-1)*qfire*A88/(Volume/(1-0.0001))</f>
+        <v>30799.999999999993</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.5282831908285</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="13"/>
+        <v>109.33547635479835</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="2">
+        <v>109.255</v>
+      </c>
+      <c r="H88" s="4">
         <f t="shared" si="14"/>
-        <v>30803.080308030796</v>
-      </c>
-      <c r="D88" s="4">
+        <v>-8.0476354798349803E-2</v>
+      </c>
+      <c r="I88" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.1040368791336517E-2</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2">
+        <v>31010.6</v>
+      </c>
+      <c r="L88" s="4">
         <f t="shared" si="15"/>
-        <v>1196.5282831908285</v>
-      </c>
-      <c r="E88" s="4">
+        <v>210.60000000000582</v>
+      </c>
+      <c r="M88" s="9">
         <f t="shared" si="16"/>
-        <v>108.64837515380162</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="10">
-        <v>108.64700000000001</v>
-      </c>
-      <c r="H88" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.375153801618012E-3</v>
-      </c>
-      <c r="I88" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.6017801308453775E-4</v>
-      </c>
-      <c r="J88" s="2"/>
-      <c r="K88" s="10">
-        <v>30800</v>
-      </c>
-      <c r="L88" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.0803080307960045</v>
-      </c>
-      <c r="M88" s="9">
-        <f>L88/(C88+P0)*100</f>
-        <v>-2.33174580306039E-3</v>
+        <v>0.15942467827403925</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>780</v>
       </c>
       <c r="B89">
-        <f t="shared" si="11"/>
-        <v>331224675</v>
+        <f>E0+qconv*A89+(D89-M0)*cp*(E88+273.15)</f>
+        <v>331828512.4712308</v>
       </c>
       <c r="C89" s="4">
+        <f>(gamma-1)*qfire*A89/(Volume/(1-0.0001))</f>
+        <v>31199.999999999993</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.5482831908284</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="13"/>
+        <v>110.4962834692484</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="2">
+        <v>110.414</v>
+      </c>
+      <c r="H89" s="4">
         <f t="shared" si="14"/>
-        <v>31203.120312031195</v>
-      </c>
-      <c r="D89" s="4">
+        <v>-8.2283469248395136E-2</v>
+      </c>
+      <c r="I89" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.1447743088847272E-2</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2">
+        <v>31413.7</v>
+      </c>
+      <c r="L89" s="4">
         <f t="shared" si="15"/>
-        <v>1196.5482831908284</v>
-      </c>
-      <c r="E89" s="4">
+        <v>213.700000000008</v>
+      </c>
+      <c r="M89" s="9">
         <f t="shared" si="16"/>
-        <v>109.79815177486228</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="10">
-        <v>109.79600000000001</v>
-      </c>
-      <c r="H89" s="4">
-        <f t="shared" si="17"/>
-        <v>-2.1517748622699173E-3</v>
-      </c>
-      <c r="I89" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.6189717910819421E-4</v>
-      </c>
-      <c r="J89" s="2"/>
-      <c r="K89" s="10">
-        <v>31200</v>
-      </c>
-      <c r="L89" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.1203120311947714</v>
-      </c>
-      <c r="M89" s="9">
-        <f>L89/(C89+P0)*100</f>
-        <v>-2.3548970196677317E-3</v>
+        <v>0.16128301886793056</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>790</v>
       </c>
       <c r="B90">
-        <f t="shared" si="11"/>
-        <v>332224675</v>
+        <f>E0+qconv*A90+(D90-M0)*cp*(E89+273.15)</f>
+        <v>332838110.06141597</v>
       </c>
       <c r="C90" s="4">
+        <f>(gamma-1)*qfire*A90/(Volume/(1-0.0001))</f>
+        <v>31599.999999999993</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.5682831908284</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="13"/>
+        <v>111.65710613353292</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="2">
+        <v>111.57299999999999</v>
+      </c>
+      <c r="H90" s="4">
         <f t="shared" si="14"/>
-        <v>31603.160316031597</v>
-      </c>
-      <c r="D90" s="4">
+        <v>-8.4106133532927174E-2</v>
+      </c>
+      <c r="I90" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.1856699679485985E-2</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2">
+        <v>31816.799999999999</v>
+      </c>
+      <c r="L90" s="4">
         <f t="shared" si="15"/>
-        <v>1196.5682831908284</v>
-      </c>
-      <c r="E90" s="4">
+        <v>216.80000000000655</v>
+      </c>
+      <c r="M90" s="9">
         <f t="shared" si="16"/>
-        <v>110.94788996011829</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="10">
-        <v>110.946</v>
-      </c>
-      <c r="H90" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.8899601182909009E-3</v>
-      </c>
-      <c r="I90" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.9205167945263638E-4</v>
-      </c>
-      <c r="J90" s="2"/>
-      <c r="K90" s="10">
-        <v>31600</v>
-      </c>
-      <c r="L90" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.1603160315971763</v>
-      </c>
-      <c r="M90" s="9">
-        <f>L90/(C90+P0)*100</f>
-        <v>-2.3779088654342249E-3</v>
+        <v>0.16313017306245789</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>800</v>
       </c>
       <c r="B91">
-        <f t="shared" si="11"/>
-        <v>333224675</v>
+        <f>E0+qconv*A91+(D91-M0)*cp*(E90+273.15)</f>
+        <v>333847754.66625136</v>
       </c>
       <c r="C91" s="4">
+        <f>(gamma-1)*qfire*A91/(Volume/(1-0.0001))</f>
+        <v>31999.999999999993</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.5882831908284</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="13"/>
+        <v>112.81794434796416</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="2">
+        <v>112.73099999999999</v>
+      </c>
+      <c r="H91" s="4">
         <f t="shared" si="14"/>
-        <v>32003.200320031996</v>
-      </c>
-      <c r="D91" s="4">
+        <v>-8.6944347964163171E-2</v>
+      </c>
+      <c r="I91" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.252631319190064E-2</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2">
+        <v>32219.9</v>
+      </c>
+      <c r="L91" s="4">
         <f t="shared" si="15"/>
-        <v>1196.5882831908284</v>
-      </c>
-      <c r="E91" s="4">
+        <v>219.90000000000873</v>
+      </c>
+      <c r="M91" s="9">
         <f t="shared" si="16"/>
-        <v>112.09758971149682</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="10">
-        <v>112.096</v>
-      </c>
-      <c r="H91" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5897114968197457E-3</v>
-      </c>
-      <c r="I91" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.1264670805863952E-4</v>
-      </c>
-      <c r="J91" s="2"/>
-      <c r="K91" s="10">
-        <v>32000</v>
-      </c>
-      <c r="L91" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.2003200319959433</v>
-      </c>
-      <c r="M91" s="9">
-        <f>L91/(C91+P0)*100</f>
-        <v>-2.400782595100996E-3</v>
+        <v>0.16496624156039666</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>810</v>
       </c>
       <c r="B92">
-        <f t="shared" si="11"/>
-        <v>334224675</v>
+        <f>E0+qconv*A92+(D92-M0)*cp*(E91+273.15)</f>
+        <v>334857446.28668177</v>
       </c>
       <c r="C92" s="4">
+        <f>(gamma-1)*qfire*A92/(Volume/(1-0.0001))</f>
+        <v>32399.999999999993</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.6082831908284</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="13"/>
+        <v>113.97879811285469</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="2">
+        <v>113.89</v>
+      </c>
+      <c r="H92" s="4">
         <f t="shared" si="14"/>
-        <v>32403.240324032395</v>
-      </c>
-      <c r="D92" s="4">
+        <v>-8.8798112854689748E-2</v>
+      </c>
+      <c r="I92" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.2937614893946377E-2</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2">
+        <v>32623</v>
+      </c>
+      <c r="L92" s="4">
         <f t="shared" si="15"/>
-        <v>1196.6082831908284</v>
-      </c>
-      <c r="E92" s="4">
+        <v>223.00000000000728</v>
+      </c>
+      <c r="M92" s="9">
         <f t="shared" si="16"/>
-        <v>113.24725103092504</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="10">
-        <v>113.246</v>
-      </c>
-      <c r="H92" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.2510309250473028E-3</v>
-      </c>
-      <c r="I92" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.2376807073795086E-4</v>
-      </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="10">
-        <v>32400</v>
-      </c>
-      <c r="L92" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.2403240323947102</v>
-      </c>
-      <c r="M92" s="9">
-        <f>L92/(C92+P0)*100</f>
-        <v>-2.4235194484005938E-3</v>
+        <v>0.16679132385939213</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>820</v>
       </c>
       <c r="B93">
-        <f t="shared" si="11"/>
-        <v>335224675</v>
+        <f>E0+qconv*A93+(D93-M0)*cp*(E92+273.15)</f>
+        <v>335867184.92365199</v>
       </c>
       <c r="C93" s="4">
+        <f>(gamma-1)*qfire*A93/(Volume/(1-0.0001))</f>
+        <v>32799.999999999993</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.6282831908286</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="13"/>
+        <v>115.13966742851699</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="2">
+        <v>115.04900000000001</v>
+      </c>
+      <c r="H93" s="4">
         <f t="shared" si="14"/>
-        <v>32803.280328032793</v>
-      </c>
-      <c r="D93" s="4">
+        <v>-9.0667428516979953E-2</v>
+      </c>
+      <c r="I93" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.3350461297987429E-2</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2">
+        <v>33026.199999999997</v>
+      </c>
+      <c r="L93" s="4">
         <f t="shared" si="15"/>
-        <v>1196.6282831908286</v>
-      </c>
-      <c r="E93" s="4">
+        <v>226.20000000000437</v>
+      </c>
+      <c r="M93" s="9">
         <f t="shared" si="16"/>
-        <v>114.39687392032994</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="10">
-        <v>114.395</v>
-      </c>
-      <c r="H93" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.873920329941825E-3</v>
-      </c>
-      <c r="I93" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.8353385255974401E-4</v>
-      </c>
-      <c r="J93" s="2"/>
-      <c r="K93" s="10">
-        <v>32800</v>
-      </c>
-      <c r="L93" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.2803280327934772</v>
-      </c>
-      <c r="M93" s="9">
-        <f>L93/(C93+P0)*100</f>
-        <v>-2.4461206502700002E-3</v>
+        <v>0.16868008948546187</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>830</v>
       </c>
       <c r="B94">
-        <f t="shared" si="11"/>
-        <v>336224675</v>
+        <f>E0+qconv*A94+(D94-M0)*cp*(E93+273.15)</f>
+        <v>336876970.57810652</v>
       </c>
       <c r="C94" s="4">
+        <f>(gamma-1)*qfire*A94/(Volume/(1-0.0001))</f>
+        <v>33199.999999999993</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.6482831908286</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="13"/>
+        <v>116.3005522952634</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="2">
+        <v>116.20699999999999</v>
+      </c>
+      <c r="H94" s="4">
         <f t="shared" si="14"/>
-        <v>33203.320332033196</v>
-      </c>
-      <c r="D94" s="4">
+        <v>-9.3552295263407359E-2</v>
+      </c>
+      <c r="I94" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.4021610628627468E-2</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2">
+        <v>33429.300000000003</v>
+      </c>
+      <c r="L94" s="4">
         <f t="shared" si="15"/>
-        <v>1196.6482831908286</v>
-      </c>
-      <c r="E94" s="4">
+        <v>229.30000000001019</v>
+      </c>
+      <c r="M94" s="9">
         <f t="shared" si="16"/>
-        <v>115.5464583816385</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="10">
-        <v>115.545</v>
-      </c>
-      <c r="H94" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.4583816384998727E-3</v>
-      </c>
-      <c r="I94" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.7519807733055606E-4</v>
-      </c>
-      <c r="J94" s="2"/>
-      <c r="K94" s="10">
-        <v>33200</v>
-      </c>
-      <c r="L94" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.3203320331958821</v>
-      </c>
-      <c r="M94" s="9">
-        <f>L94/(C94+P0)*100</f>
-        <v>-2.4685874110760625E-3</v>
+        <v>0.17048327137547226</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>840</v>
       </c>
       <c r="B95">
-        <f t="shared" si="11"/>
-        <v>337224675</v>
+        <f>E0+qconv*A95+(D95-M0)*cp*(E94+273.15)</f>
+        <v>337886803.25099033</v>
       </c>
       <c r="C95" s="4">
+        <f>(gamma-1)*qfire*A95/(Volume/(1-0.0001))</f>
+        <v>33599.999999999993</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.6682831908286</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="13"/>
+        <v>117.46145271340657</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="2">
+        <v>117.366</v>
+      </c>
+      <c r="H95" s="4">
         <f t="shared" si="14"/>
-        <v>33603.360336033598</v>
-      </c>
-      <c r="D95" s="4">
+        <v>-9.5452713406572798E-2</v>
+      </c>
+      <c r="I95" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.4436742124047985E-2</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2">
+        <v>33832.5</v>
+      </c>
+      <c r="L95" s="4">
         <f t="shared" si="15"/>
-        <v>1196.6682831908286</v>
-      </c>
-      <c r="E95" s="4">
+        <v>232.50000000000728</v>
+      </c>
+      <c r="M95" s="9">
         <f t="shared" si="16"/>
-        <v>116.6960044167775</v>
-      </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="10">
-        <v>116.694</v>
-      </c>
-      <c r="H95" s="4">
-        <f t="shared" si="17"/>
-        <v>-2.0044167774955213E-3</v>
-      </c>
-      <c r="I95" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.1415603976605968E-4</v>
-      </c>
-      <c r="J95" s="2"/>
-      <c r="K95" s="10">
-        <v>33600</v>
-      </c>
-      <c r="L95" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.360336033598287</v>
-      </c>
-      <c r="M95" s="9">
-        <f>L95/(C95+P0)*100</f>
-        <v>-2.4909209268234355E-3</v>
+        <v>0.17234988880652874</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>850</v>
       </c>
       <c r="B96">
-        <f t="shared" si="11"/>
-        <v>338224675</v>
+        <f>E0+qconv*A96+(D96-M0)*cp*(E95+273.15)</f>
+        <v>338896682.94324815</v>
       </c>
       <c r="C96" s="4">
+        <f>(gamma-1)*qfire*A96/(Volume/(1-0.0001))</f>
+        <v>33999.999999999993</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.6882831908285</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="13"/>
+        <v>118.62236868325886</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="2">
+        <v>118.52500000000001</v>
+      </c>
+      <c r="H96" s="4">
         <f t="shared" si="14"/>
-        <v>34003.400340033993</v>
-      </c>
-      <c r="D96" s="4">
+        <v>-9.7368683258849842E-2</v>
+      </c>
+      <c r="I96" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.4853381974360406E-2</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2">
+        <v>34235.599999999999</v>
+      </c>
+      <c r="L96" s="4">
         <f t="shared" si="15"/>
-        <v>1196.6882831908285</v>
-      </c>
-      <c r="E96" s="4">
+        <v>235.60000000000582</v>
+      </c>
+      <c r="M96" s="9">
         <f t="shared" si="16"/>
-        <v>117.84551202767341</v>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="10">
-        <v>117.84399999999999</v>
-      </c>
-      <c r="H96" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.5120276734137406E-3</v>
-      </c>
-      <c r="I96" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.8671228361995222E-4</v>
-      </c>
-      <c r="J96" s="2"/>
-      <c r="K96" s="10">
-        <v>34000</v>
-      </c>
-      <c r="L96" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.400340033993416</v>
-      </c>
-      <c r="M96" s="9">
-        <f>L96/(C96+P0)*100</f>
-        <v>-2.5131223793695844E-3</v>
+        <v>0.17413155949741746</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>860</v>
       </c>
       <c r="B97">
-        <f t="shared" si="11"/>
-        <v>339224675</v>
+        <f>E0+qconv*A97+(D97-M0)*cp*(E96+273.15)</f>
+        <v>339906609.65582484</v>
       </c>
       <c r="C97" s="4">
+        <f>(gamma-1)*qfire*A97/(Volume/(1-0.0001))</f>
+        <v>34399.999999999993</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.7082831908285</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="13"/>
+        <v>119.78330020513283</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="2">
+        <v>119.68300000000001</v>
+      </c>
+      <c r="H97" s="4">
         <f t="shared" si="14"/>
-        <v>34403.440344034396</v>
-      </c>
-      <c r="D97" s="4">
+        <v>-0.10030020513282523</v>
+      </c>
+      <c r="I97" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.552601295956922E-2</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2">
+        <v>34638.800000000003</v>
+      </c>
+      <c r="L97" s="4">
         <f t="shared" si="15"/>
-        <v>1196.7082831908285</v>
-      </c>
-      <c r="E97" s="4">
+        <v>238.80000000001019</v>
+      </c>
+      <c r="M97" s="9">
         <f t="shared" si="16"/>
-        <v>118.99498121625282</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="10">
-        <v>118.99299999999999</v>
-      </c>
-      <c r="H97" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.981216252829654E-3</v>
-      </c>
-      <c r="I97" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.0522545174104625E-4</v>
-      </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="10">
-        <v>34400</v>
-      </c>
-      <c r="L97" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.4403440343958209</v>
-      </c>
-      <c r="M97" s="9">
-        <f>L97/(C97+P0)*100</f>
-        <v>-2.535192936652074E-3</v>
+        <v>0.17597641857038335</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>870</v>
       </c>
       <c r="B98">
-        <f t="shared" si="11"/>
-        <v>340224675</v>
+        <f>E0+qconv*A98+(D98-M0)*cp*(E97+273.15)</f>
+        <v>340916583.38966525</v>
       </c>
       <c r="C98" s="4">
+        <f>(gamma-1)*qfire*A98/(Volume/(1-0.0001))</f>
+        <v>34799.999999999993</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.7282831908285</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="13"/>
+        <v>120.94424727934091</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="2">
+        <v>120.842</v>
+      </c>
+      <c r="H98" s="4">
         <f t="shared" si="14"/>
-        <v>34803.480348034798</v>
-      </c>
-      <c r="D98" s="4">
+        <v>-0.10224727934091504</v>
+      </c>
+      <c r="I98" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.5944879948587622E-2</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2">
+        <v>35042</v>
+      </c>
+      <c r="L98" s="4">
         <f t="shared" si="15"/>
-        <v>1196.7282831908285</v>
-      </c>
-      <c r="E98" s="4">
+        <v>242.00000000000728</v>
+      </c>
+      <c r="M98" s="9">
         <f t="shared" si="16"/>
-        <v>120.14441198444206</v>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="10">
-        <v>120.143</v>
-      </c>
-      <c r="H98" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.411984442057701E-3</v>
-      </c>
-      <c r="I98" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.5901462086208245E-4</v>
-      </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="10">
-        <v>34800</v>
-      </c>
-      <c r="L98" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.4803480347982259</v>
-      </c>
-      <c r="M98" s="9">
-        <f>L98/(C98+P0)*100</f>
-        <v>-2.5571337528610661E-3</v>
+        <v>0.17781043350478123</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>880</v>
       </c>
       <c r="B99">
-        <f t="shared" si="11"/>
-        <v>341224675</v>
+        <f>E0+qconv*A99+(D99-M0)*cp*(E98+273.15)</f>
+        <v>341926604.14571416</v>
       </c>
       <c r="C99" s="4">
+        <f>(gamma-1)*qfire*A99/(Volume/(1-0.0001))</f>
+        <v>35199.999999999993</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.7482831908285</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="13"/>
+        <v>122.10520990619568</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="2">
+        <v>122.001</v>
+      </c>
+      <c r="H99" s="4">
         <f t="shared" si="14"/>
-        <v>35203.520352035193</v>
-      </c>
-      <c r="D99" s="4">
+        <v>-0.1042099061956776</v>
+      </c>
+      <c r="I99" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.6365220137239766E-2</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2">
+        <v>35445.199999999997</v>
+      </c>
+      <c r="L99" s="4">
         <f t="shared" si="15"/>
-        <v>1196.7482831908285</v>
-      </c>
-      <c r="E99" s="4">
+        <v>245.20000000000437</v>
+      </c>
+      <c r="M99" s="9">
         <f t="shared" si="16"/>
-        <v>121.29380433416742</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="10">
-        <v>121.292</v>
-      </c>
-      <c r="H99" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.8043341674172098E-3</v>
-      </c>
-      <c r="I99" s="9">
-        <f t="shared" si="20"/>
-        <v>-4.574375735126524E-4</v>
-      </c>
-      <c r="J99" s="2"/>
-      <c r="K99" s="10">
-        <v>35200</v>
-      </c>
-      <c r="L99" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.5203520351933548</v>
-      </c>
-      <c r="M99" s="9">
-        <f>L99/(C99+P0)*100</f>
-        <v>-2.5789459686567482E-3</v>
+        <v>0.17963369963370282</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>890</v>
       </c>
       <c r="B100">
-        <f t="shared" si="11"/>
-        <v>342224675</v>
+        <f>E0+qconv*A100+(D100-M0)*cp*(E99+273.15)</f>
+        <v>342936671.92491663</v>
       </c>
       <c r="C100" s="4">
+        <f>(gamma-1)*qfire*A100/(Volume/(1-0.0001))</f>
+        <v>35599.999999999993</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.7682831908285</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="13"/>
+        <v>123.26618808600966</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="2">
+        <v>123.15900000000001</v>
+      </c>
+      <c r="H100" s="4">
         <f t="shared" si="14"/>
-        <v>35603.560356035596</v>
-      </c>
-      <c r="D100" s="4">
+        <v>-0.10718808600965701</v>
+      </c>
+      <c r="I100" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.7039280743600874E-2</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2">
+        <v>35848.400000000001</v>
+      </c>
+      <c r="L100" s="4">
         <f t="shared" si="15"/>
-        <v>1196.7682831908285</v>
-      </c>
-      <c r="E100" s="4">
+        <v>248.40000000000873</v>
+      </c>
+      <c r="M100" s="9">
         <f t="shared" si="16"/>
-        <v>122.44315826735499</v>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="10">
-        <v>122.441</v>
-      </c>
-      <c r="H100" s="4">
-        <f t="shared" si="17"/>
-        <v>-2.15826735498581E-3</v>
-      </c>
-      <c r="I100" s="9">
-        <f t="shared" si="20"/>
-        <v>-5.4557752324098114E-4</v>
-      </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="10">
-        <v>35600</v>
-      </c>
-      <c r="L100" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.5603560355957597</v>
-      </c>
-      <c r="M100" s="9">
-        <f>L100/(C100+P0)*100</f>
-        <v>-2.6006307113829539E-3</v>
+        <v>0.18144631117604729</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>900</v>
       </c>
       <c r="B101">
-        <f t="shared" si="11"/>
-        <v>343224675</v>
+        <f>E0+qconv*A101+(D101-M0)*cp*(E100+273.15)</f>
+        <v>343946786.72821748</v>
       </c>
       <c r="C101" s="4">
+        <f>(gamma-1)*qfire*A101/(Volume/(1-0.0001))</f>
+        <v>35999.999999999993</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="12"/>
+        <v>1196.7882831908285</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="13"/>
+        <v>124.42718181909538</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="2">
+        <v>124.318</v>
+      </c>
+      <c r="H101" s="4">
         <f t="shared" si="14"/>
-        <v>36003.600360035998</v>
-      </c>
-      <c r="D101" s="4">
+        <v>-0.10918181909538305</v>
+      </c>
+      <c r="I101" s="9">
+        <f t="shared" si="18"/>
+        <v>-2.7461792096776495E-2</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2">
+        <v>36251.599999999999</v>
+      </c>
+      <c r="L101" s="4">
         <f t="shared" si="15"/>
-        <v>1196.7882831908285</v>
-      </c>
-      <c r="E101" s="4">
+        <v>251.60000000000582</v>
+      </c>
+      <c r="M101" s="9">
         <f t="shared" si="16"/>
-        <v>123.59247378593068</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="10">
-        <v>123.59099999999999</v>
-      </c>
-      <c r="H101" s="4">
-        <f t="shared" si="17"/>
-        <v>-1.4737859306848122E-3</v>
-      </c>
-      <c r="I101" s="9">
-        <f t="shared" si="20"/>
-        <v>-3.7147167950563802E-4</v>
-      </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="10">
-        <v>36000</v>
-      </c>
-      <c r="L101" s="4">
-        <f t="shared" si="18"/>
-        <v>-3.6003600359981647</v>
-      </c>
-      <c r="M101" s="9">
-        <f>L101/(C101+P0)*100</f>
-        <v>-2.62218909522936E-3</v>
+        <v>0.18324836125273547</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
+++ b/Verification/Mass_Energy_Balance/sealed_test_hand_calc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="3600" windowWidth="19635" windowHeight="10995"/>
+    <workbookView xWindow="840" yWindow="4800" windowWidth="19635" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>dx</t>
   </si>
@@ -200,6 +200,9 @@
   <si>
     <t>E=E0+qconvec*Time+(M-M0)*cp*T (note actually we use T_i-1 to allow an analytical solution)</t>
   </si>
+  <si>
+    <t>ULT</t>
+  </si>
 </sst>
 </file>
 
@@ -994,11 +997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128312576"/>
-        <c:axId val="127830656"/>
+        <c:axId val="223673504"/>
+        <c:axId val="226429744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128312576"/>
+        <c:axId val="223673504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,12 +1058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127830656"/>
+        <c:crossAx val="226429744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127830656"/>
+        <c:axId val="226429744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1083,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1117,7 +1120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128312576"/>
+        <c:crossAx val="223673504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1882,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="32720432"/>
-        <c:axId val="183920440"/>
+        <c:axId val="226434056"/>
+        <c:axId val="226432880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32720432"/>
+        <c:axId val="226434056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,12 +1946,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183920440"/>
+        <c:crossAx val="226432880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183920440"/>
+        <c:axId val="226432880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +1971,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2005,7 +2008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32720432"/>
+        <c:crossAx val="226434056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3521,7 +3524,7 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3581,13 +3584,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>100000</v>
@@ -3621,11 +3624,11 @@
       </c>
       <c r="M4">
         <f>A6*L4</f>
-        <v>1194.9882831908285</v>
+        <v>149.37353539885356</v>
       </c>
       <c r="N4">
         <f>H4*M4*K4</f>
-        <v>253224675.00000003</v>
+        <v>31653084.375000004</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3648,7 +3651,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>(A4*B4*C4)*(1-0.0001)</f>
-        <v>999.9</v>
+        <v>124.9875</v>
       </c>
       <c r="D6">
         <f>E4*D4</f>
@@ -3746,14 +3749,14 @@
       </c>
       <c r="B11">
         <f>E0</f>
-        <v>253224675.00000003</v>
+        <v>31653084.375000004</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>M0</f>
-        <v>1194.9882831908285</v>
+        <v>149.37353539885356</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ref="E11:E42" si="0">B11/(cv*D11)-273.15</f>
@@ -3796,20 +3799,20 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>E0+qconv*A12+(D12-M0)*cp*(E11+273.15)</f>
-        <v>254230608.35600004</v>
+        <f t="shared" ref="B12:B43" si="4">E0+qconv*A12+(D12-M0)*cp*(E11+273.15)</f>
+        <v>32659017.731000006</v>
       </c>
       <c r="C12" s="4">
-        <f>(gamma-1)*qfire*A12/(Volume/(1-0.0001))</f>
-        <v>399.99999999999994</v>
+        <f t="shared" ref="C12:C43" si="5">(gamma-1)*qfire*A12/(Volume/(1-0.0001))</f>
+        <v>3199.9999999999995</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:D43" si="4">M0+mfire*A12</f>
-        <v>1195.0082831908285</v>
+        <f t="shared" ref="D12:D43" si="6">M0+mfire*A12</f>
+        <v>149.39353539885357</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>21.159610714819507</v>
+        <v>29.27579902160079</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="2">
@@ -3817,11 +3820,11 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0714819506318918E-5</v>
+        <v>-8.1161990216007887</v>
       </c>
       <c r="I12" s="9">
         <f>H12/(E12+273.15)*100</f>
-        <v>-3.6406624575713832E-6</v>
+        <v>-2.6836992901591339</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2">
@@ -3829,11 +3832,11 @@
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>2.3780000000000427</v>
+        <v>-2797.6219999999994</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="3"/>
-        <v>2.3382497541789998E-3</v>
+        <v>-2.6771502392344493</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>31</v>
@@ -3844,24 +3847,24 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ref="A13:A76" si="5">A12+10</f>
+        <f t="shared" ref="A13:A76" si="7">A12+10</f>
         <v>20</v>
       </c>
       <c r="B13">
-        <f>E0+qconv*A13+(D13-M0)*cp*(E12+273.15)</f>
-        <v>255236588.65304175</v>
+        <f t="shared" si="4"/>
+        <v>33665326.571344391</v>
       </c>
       <c r="C13" s="4">
-        <f>(gamma-1)*qfire*A13/(Volume/(1-0.0001))</f>
-        <v>799.99999999999989</v>
+        <f t="shared" si="5"/>
+        <v>6399.9999999999991</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.0282831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.41353539885355</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>22.319236955440147</v>
+        <v>38.552591345340716</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="2">
@@ -3869,11 +3872,11 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="1"/>
-        <v>-3.6955440148034313E-5</v>
+        <v>-16.233391345340717</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:I76" si="6">H13/(E13+273.15)*100</f>
-        <v>-1.2507373196894804E-5</v>
+        <f t="shared" ref="I13:I76" si="8">H13/(E13+273.15)*100</f>
+        <v>-5.2079744590109813</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
@@ -3881,11 +3884,11 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
-        <v>4.7650000000001</v>
+        <v>-5595.2349999999988</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="3"/>
-        <v>4.6669931439765914E-3</v>
+        <v>-5.1952042711234903</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>37</v>
@@ -3896,24 +3899,24 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="4"/>
+        <v>34672010.956346489</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <f>E0+qconv*A14+(D14-M0)*cp*(E13+273.15)</f>
-        <v>256242615.89206794</v>
-      </c>
-      <c r="C14" s="4">
-        <f>(gamma-1)*qfire*A14/(Volume/(1-0.0001))</f>
-        <v>1199.9999999999998</v>
+        <v>9599.9999999999982</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.0482831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.43353539885356</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>23.478878722173647</v>
+        <v>47.830377130750833</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="2">
@@ -3921,11 +3924,11 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" si="1"/>
-        <v>-1.7872217364711673E-4</v>
+        <v>-24.351677130750833</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.0251103809251894E-5</v>
+        <f t="shared" si="8"/>
+        <v>-7.5866560281444295</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
@@ -3933,11 +3936,11 @@
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
-        <v>7.1600000000003092</v>
+        <v>-8392.8399999999983</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="3"/>
-        <v>6.9853658536588393E-3</v>
+        <v>-7.5679350766456253</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>33</v>
@@ -3948,24 +3951,24 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>35679070.946332507</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <f>E0+qconv*A15+(D15-M0)*cp*(E14+273.15)</f>
-        <v>257248690.07402137</v>
-      </c>
-      <c r="C15" s="4">
-        <f>(gamma-1)*qfire*A15/(Volume/(1-0.0001))</f>
-        <v>1599.9999999999998</v>
+        <v>12799.999999999998</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.0682831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.45353539885357</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>24.638536015331908</v>
+        <v>57.109156537395904</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2">
@@ -3973,11 +3976,11 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>-2.360153319074243E-4</v>
+        <v>-32.470856537395903</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="6"/>
-        <v>-7.9256016724321731E-5</v>
+        <f t="shared" si="8"/>
+        <v>-9.8319322552133901</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
@@ -3985,33 +3988,33 @@
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
-        <v>9.5700000000001637</v>
+        <v>-11190.429999999998</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="3"/>
-        <v>9.300291545189663E-3</v>
+        <v>-9.8075635407537227</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>36686506.60164158</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="B16">
-        <f>E0+qconv*A16+(D16-M0)*cp*(E15+273.15)</f>
-        <v>258254811.19984475</v>
-      </c>
-      <c r="C16" s="4">
-        <f>(gamma-1)*qfire*A16/(Volume/(1-0.0001))</f>
-        <v>1999.9999999999995</v>
+        <v>15999.999999999996</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.0882831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.47353539885356</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
-        <v>25.79820883522666</v>
+        <v>66.38892972487514</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="2">
@@ -4019,11 +4022,11 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="1"/>
-        <v>-4.0883522666135264E-4</v>
+        <v>-40.591129724875145</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.3675787797969155E-4</v>
+        <f t="shared" si="8"/>
+        <v>-11.954779311393164</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2">
@@ -4031,33 +4034,33 @@
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
-        <v>11.980000000000473</v>
+        <v>-13988.019999999997</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="3"/>
-        <v>1.1597289448209558E-2</v>
+        <v>-11.924995737425402</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>37694317.98262579</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="B17">
-        <f>E0+qconv*A17+(D17-M0)*cp*(E16+273.15)</f>
-        <v>259260979.27048096</v>
-      </c>
-      <c r="C17" s="4">
-        <f>(gamma-1)*qfire*A17/(Volume/(1-0.0001))</f>
-        <v>2399.9999999999995</v>
+        <v>19199.999999999996</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.1082831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.49353539885357</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>26.957897182169859</v>
+        <v>75.669696852821858</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2">
@@ -4065,11 +4068,11 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="1"/>
-        <v>-4.9718216985894514E-4</v>
+        <v>-48.712296852821858</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.6566780632138725E-4</v>
+        <f t="shared" si="8"/>
+        <v>-13.964892834986648</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2">
@@ -4077,33 +4080,33 @@
       </c>
       <c r="L17" s="4">
         <f t="shared" si="2"/>
-        <v>14.410000000000309</v>
+        <v>-16785.589999999997</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="3"/>
-        <v>1.3895853423336846E-2</v>
+        <v>-13.929950207468877</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>38702505.149650104</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="B18">
-        <f>E0+qconv*A18+(D18-M0)*cp*(E17+273.15)</f>
-        <v>260267194.28687283</v>
-      </c>
-      <c r="C18" s="4">
-        <f>(gamma-1)*qfire*A18/(Volume/(1-0.0001))</f>
-        <v>2799.9999999999995</v>
+        <v>22399.999999999996</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.1282831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.51353539885355</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>28.117601056473234</v>
+        <v>84.951458080903421</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="2">
@@ -4111,11 +4114,11 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="1"/>
-        <v>-7.0105647323259745E-4</v>
+        <v>-56.83455808090342</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.3270224570254503E-4</v>
+        <f t="shared" si="8"/>
+        <v>-15.871076980664842</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
@@ -4123,33 +4126,33 @@
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
-        <v>16.8400000000006</v>
+        <v>-19583.159999999996</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="3"/>
-        <v>1.6176753121998656E-2</v>
+        <v>-15.831172190784152</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>39711068.163092457</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B19">
-        <f>E0+qconv*A19+(D19-M0)*cp*(E18+273.15)</f>
-        <v>261273456.2499631</v>
-      </c>
-      <c r="C19" s="4">
-        <f>(gamma-1)*qfire*A19/(Volume/(1-0.0001))</f>
-        <v>3199.9999999999995</v>
+        <v>25599.999999999996</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.1482831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.53353539885356</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>29.277320458448571</v>
+        <v>94.234213568821588</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="2">
@@ -4157,11 +4160,11 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="1"/>
-        <v>-9.2045844857224779E-4</v>
+        <v>-64.957813568821592</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.043569103402854E-4</v>
+        <f t="shared" si="8"/>
+        <v>-17.681166247676327</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
@@ -4169,33 +4172,33 @@
       </c>
       <c r="L19" s="4">
         <f t="shared" si="2"/>
-        <v>19.290000000000418</v>
+        <v>-22380.709999999995</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="3"/>
-        <v>1.8459330143541067E-2</v>
+        <v>-17.636493301812447</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>40720007.0833437</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <f>E0+qconv*A20+(D20-M0)*cp*(E19+273.15)</f>
-        <v>262279765.16069475</v>
-      </c>
-      <c r="C20" s="4">
-        <f>(gamma-1)*qfire*A20/(Volume/(1-0.0001))</f>
-        <v>3599.9999999999995</v>
+        <v>28799.999999999996</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.1682831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.55353539885357</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>30.437055388407884</v>
+        <v>103.51796347631227</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="2">
@@ -4203,11 +4206,11 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
-        <v>-1.1553884078843168E-3</v>
+        <v>-73.082063476312271</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.8057894346190692E-4</v>
+        <f t="shared" si="8"/>
+        <v>-19.402250937889555</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2">
@@ -4215,33 +4218,33 @@
       </c>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
-        <v>21.740000000000236</v>
+        <v>-25178.259999999995</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="3"/>
-        <v>2.07244995233558E-2</v>
+        <v>-19.353005380476553</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>41729321.970807604</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <f>E0+qconv*A21+(D21-M0)*cp*(E20+273.15)</f>
-        <v>263286121.02001065</v>
-      </c>
-      <c r="C21" s="4">
-        <f>(gamma-1)*qfire*A21/(Volume/(1-0.0001))</f>
-        <v>3999.9999999999991</v>
+        <v>31999.999999999993</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.1882831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.57353539885355</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>31.596805846662903</v>
+        <v>112.80270796314556</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2">
@@ -4249,11 +4252,11 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="1"/>
-        <v>-1.4058466629016664E-3</v>
+        <v>-81.207307963145567</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="6"/>
-        <v>-4.6131629140324298E-4</v>
+        <f t="shared" si="8"/>
+        <v>-21.040740559047979</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
@@ -4261,33 +4264,33 @@
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
-        <v>24.200000000000728</v>
+        <v>-27975.799999999992</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="3"/>
-        <v>2.298195631529034E-2</v>
+        <v>-20.987096774193542</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>42739012.885900915</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="B22">
-        <f>E0+qconv*A22+(D22-M0)*cp*(E21+273.15)</f>
-        <v>264292523.82885373</v>
-      </c>
-      <c r="C22" s="4">
-        <f>(gamma-1)*qfire*A22/(Volume/(1-0.0001))</f>
-        <v>4399.9999999999991</v>
+        <v>35199.999999999993</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.2082831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.59353539885356</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>32.756571833525584</v>
+        <v>122.0884471891257</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="2">
@@ -4295,11 +4298,11 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="1"/>
-        <v>-1.6718335255845318E-3</v>
+        <v>-89.33354718912571</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="6"/>
-        <v>-5.4651768857530262E-4</v>
+        <f t="shared" si="8"/>
+        <v>-22.602443619655929</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
@@ -4307,33 +4310,33 @@
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
-        <v>26.670000000000982</v>
+        <v>-30773.329999999994</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="3"/>
-        <v>2.5231788079471126E-2</v>
+        <v>-22.544564102564099</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>43749079.8890533</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="B23">
-        <f>E0+qconv*A23+(D23-M0)*cp*(E22+273.15)</f>
-        <v>265298973.58816695</v>
-      </c>
-      <c r="C23" s="4">
-        <f>(gamma-1)*qfire*A23/(Volume/(1-0.0001))</f>
-        <v>4799.9999999999991</v>
+        <v>38399.999999999993</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.2282831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.61353539885357</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>33.916353349307769</v>
+        <v>131.37518131409132</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2">
@@ -4341,11 +4344,11 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="1"/>
-        <v>-2.0533493077721232E-3</v>
+        <v>-97.460881314091324</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.6869889370012032E-4</v>
+        <f t="shared" si="8"/>
+        <v>-24.092661178098172</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
@@ -4353,33 +4356,33 @@
       </c>
       <c r="L23" s="4">
         <f t="shared" si="2"/>
-        <v>29.160000000000764</v>
+        <v>-33570.839999999997</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="3"/>
-        <v>2.7483506126296665E-2</v>
+        <v>-24.030665712240513</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>44759523.040707357</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="B24">
-        <f>E0+qconv*A24+(D24-M0)*cp*(E23+273.15)</f>
-        <v>266305470.2988933</v>
-      </c>
-      <c r="C24" s="4">
-        <f>(gamma-1)*qfire*A24/(Volume/(1-0.0001))</f>
-        <v>5199.9999999999991</v>
+        <v>41599.999999999993</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.2482831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.63353539885355</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>35.076150394321303</v>
+        <v>140.66291049791505</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="2">
@@ -4387,11 +4390,11 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="1"/>
-        <v>-2.3503943213043499E-3</v>
+        <v>-105.58911049791504</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="6"/>
-        <v>-7.6255512982835265E-4</v>
+        <f t="shared" si="8"/>
+        <v>-25.516146987986986</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
@@ -4399,33 +4402,33 @@
       </c>
       <c r="L24" s="4">
         <f t="shared" si="2"/>
-        <v>31.650000000000546</v>
+        <v>-36368.349999999991</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="3"/>
-        <v>2.9718309859155443E-2</v>
+        <v>-25.450209937018887</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>45770342.401318692</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="B25">
-        <f>E0+qconv*A25+(D25-M0)*cp*(E24+273.15)</f>
-        <v>267312013.96197575</v>
-      </c>
-      <c r="C25" s="4">
-        <f>(gamma-1)*qfire*A25/(Volume/(1-0.0001))</f>
-        <v>5599.9999999999991</v>
+        <v>44799.999999999993</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.2682831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.65353539885356</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>36.235962968878141</v>
+        <v>149.95163490050419</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2">
@@ -4433,11 +4436,11 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="1"/>
-        <v>-2.7629688781445338E-3</v>
+        <v>-113.71843490050419</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="6"/>
-        <v>-8.9304920353560702E-4</v>
+        <f t="shared" si="8"/>
+        <v>-26.877332895970969</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
@@ -4445,33 +4448,33 @@
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
-        <v>34.150000000000546</v>
+        <v>-39165.849999999991</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="3"/>
-        <v>3.1945743685688067E-2</v>
+        <v>-26.807563312799449</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>46781538.031355798</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="B26">
-        <f>E0+qconv*A26+(D26-M0)*cp*(E25+273.15)</f>
-        <v>268318604.57835737</v>
-      </c>
-      <c r="C26" s="4">
-        <f>(gamma-1)*qfire*A26/(Volume/(1-0.0001))</f>
-        <v>5999.9999999999991</v>
+        <v>47999.999999999993</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.2882831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.67353539885357</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>37.395791073290184</v>
+        <v>159.24135468179986</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2">
@@ -4479,11 +4482,11 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" si="1"/>
-        <v>-3.0910732901858751E-3</v>
+        <v>-121.84865468179987</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="6"/>
-        <v>-9.9536795507763572E-4</v>
+        <f t="shared" si="8"/>
+        <v>-28.180178295070039</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
@@ -4491,33 +4494,33 @@
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
-        <v>36.660000000000764</v>
+        <v>-41963.34</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="3"/>
-        <v>3.4165890027959708E-2</v>
+        <v>-28.106724715338245</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>47793109.991300151</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="B27">
-        <f>E0+qconv*A27+(D27-M0)*cp*(E26+273.15)</f>
-        <v>269325242.14898115</v>
-      </c>
-      <c r="C27" s="4">
-        <f>(gamma-1)*qfire*A27/(Volume/(1-0.0001))</f>
-        <v>6399.9999999999991</v>
+        <v>51199.999999999993</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.3082831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.69353539885356</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="0"/>
-        <v>38.555634707869331</v>
+        <v>168.53207000177764</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2">
@@ -4525,11 +4528,11 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" si="1"/>
-        <v>-3.5347078693277467E-3</v>
+        <v>-129.97997000177764</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.1339890832068138E-3</v>
+        <f t="shared" si="8"/>
+        <v>-29.428400840734721</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -4537,33 +4540,33 @@
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
-        <v>39.180000000001201</v>
+        <v>-44760.819999999992</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="3"/>
-        <v>3.6378830083566578E-2</v>
+        <v>-29.351357377049176</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>48805058.341646217</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="B28">
-        <f>E0+qconv*A28+(D28-M0)*cp*(E27+273.15)</f>
-        <v>270331926.67479026</v>
-      </c>
-      <c r="C28" s="4">
-        <f>(gamma-1)*qfire*A28/(Volume/(1-0.0001))</f>
-        <v>6799.9999999999991</v>
+        <v>54399.999999999993</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.3282831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.71353539885357</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>39.715493872927482</v>
+        <v>177.82378102044743</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="2">
@@ -4571,11 +4574,11 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" si="1"/>
-        <v>-3.9938729274808793E-3</v>
+        <v>-138.11228102044743</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.2765463132546726E-3</v>
+        <f t="shared" si="8"/>
+        <v>-30.625346047375938</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2">
@@ -4583,33 +4586,33 @@
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
-        <v>41.700000000000728</v>
+        <v>-47558.299999999996</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="3"/>
-        <v>3.8575393154487263E-2</v>
+        <v>-30.544829800899166</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>49817383.142901376</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="B29">
-        <f>E0+qconv*A29+(D29-M0)*cp*(E28+273.15)</f>
-        <v>271338658.15672773</v>
-      </c>
-      <c r="C29" s="4">
-        <f>(gamma-1)*qfire*A29/(Volume/(1-0.0001))</f>
-        <v>7199.9999999999991</v>
+        <v>57599.999999999993</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.3482831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.73353539885358</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>40.875368568776537</v>
+        <v>187.11648789785323</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2">
@@ -4617,11 +4620,11 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" si="1"/>
-        <v>-4.4685687765380067E-3</v>
+        <v>-146.24558789785323</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.4229961091692246E-3</v>
+        <f t="shared" si="8"/>
+        <v>-31.774111681645927</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
@@ -4629,33 +4632,33 @@
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
-        <v>44.240000000000691</v>
+        <v>-50355.759999999995</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="3"/>
-        <v>4.0774193548387738E-2</v>
+        <v>-31.690220264317176</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>50830084.455585994</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="B30">
-        <f>E0+qconv*A30+(D30-M0)*cp*(E29+273.15)</f>
-        <v>272345436.59573686</v>
-      </c>
-      <c r="C30" s="4">
-        <f>(gamma-1)*qfire*A30/(Volume/(1-0.0001))</f>
-        <v>7599.9999999999991</v>
+        <v>60799.999999999993</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.3682831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.75353539885356</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>42.035258795728623</v>
+        <v>196.41019079407351</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="2">
@@ -4663,11 +4666,11 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" si="1"/>
-        <v>-4.9587957286263418E-3</v>
+        <v>-154.3798907940735</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.5732955746639581E-3</v>
+        <f t="shared" si="8"/>
+        <v>-32.877550912695895</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
@@ -4675,33 +4678,33 @@
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>46.790000000000873</v>
+        <v>-53153.209999999992</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="3"/>
-        <v>4.2966023875115583E-2</v>
+        <v>-32.790382479950644</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>51843162.340233445</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="B31">
-        <f>E0+qconv*A31+(D31-M0)*cp*(E30+273.15)</f>
-        <v>273352261.99276054</v>
-      </c>
-      <c r="C31" s="4">
-        <f>(gamma-1)*qfire*A31/(Volume/(1-0.0001))</f>
-        <v>7999.9999999999982</v>
+        <v>63999.999999999985</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.3882831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.77353539885357</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>43.195164554095413</v>
+        <v>205.70488986922112</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2">
@@ -4709,11 +4712,11 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="1"/>
-        <v>-5.4645540954112448E-3</v>
+        <v>-162.5151898692211</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.7274024412902952E-3</v>
+        <f t="shared" si="8"/>
+        <v>-33.938295986411504</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2">
@@ -4721,33 +4724,33 @@
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
-        <v>49.340000000001965</v>
+        <v>-55950.659999999989</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="3"/>
-        <v>4.5141811527906646E-2</v>
+        <v>-33.847949183303079</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>52856616.857390009</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="B32">
-        <f>E0+qconv*A32+(D32-M0)*cp*(E31+273.15)</f>
-        <v>274359134.34874207</v>
-      </c>
-      <c r="C32" s="4">
-        <f>(gamma-1)*qfire*A32/(Volume/(1-0.0001))</f>
-        <v>8399.9999999999982</v>
+        <v>67199.999999999985</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.4082831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.79353539885355</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>44.355085844188977</v>
+        <v>215.000585283443</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="2">
@@ -4755,11 +4758,11 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="1"/>
-        <v>-6.0858441889806159E-3</v>
+        <v>-170.65158528344301</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.9167706157523271E-3</v>
+        <f t="shared" si="8"/>
+        <v>-34.958799687673171</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2">
@@ -4767,33 +4770,33 @@
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
-        <v>51.910000000001673</v>
+        <v>-58748.089999999982</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="3"/>
-        <v>4.7319963536920397E-2</v>
+        <v>-34.865335311572686</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
+        <f t="shared" si="7"/>
+        <v>220</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>53870448.06761501</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="B33">
-        <f>E0+qconv*A33+(D33-M0)*cp*(E32+273.15)</f>
-        <v>275366053.66462469</v>
-      </c>
-      <c r="C33" s="4">
-        <f>(gamma-1)*qfire*A33/(Volume/(1-0.0001))</f>
-        <v>8799.9999999999982</v>
+        <v>70399.999999999985</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.4282831908286</v>
+        <f t="shared" si="6"/>
+        <v>149.81353539885356</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>45.515022666321329</v>
+        <v>224.2972771969205</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="2">
@@ -4801,11 +4804,11 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="1"/>
-        <v>-6.6226663213271308E-3</v>
+        <v>-178.78887719692051</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.0782532911564067E-3</v>
+        <f t="shared" si="8"/>
+        <v>-35.941271646792991</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
@@ -4813,33 +4816,33 @@
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
-        <v>54.490000000001601</v>
+        <v>-61545.509999999987</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="3"/>
-        <v>4.9491371480473743E-2</v>
+        <v>-35.844793244030278</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>54884656.031480715</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="B34">
-        <f>E0+qconv*A34+(D34-M0)*cp*(E33+273.15)</f>
-        <v>276373019.94135165</v>
-      </c>
-      <c r="C34" s="4">
-        <f>(gamma-1)*qfire*A34/(Volume/(1-0.0001))</f>
-        <v>9199.9999999999982</v>
+        <v>73599.999999999985</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.4482831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.83353539885357</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>46.674975020804425</v>
+        <v>233.5949657698693</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2">
@@ -4847,11 +4850,11 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="1"/>
-        <v>-7.2750208044212172E-3</v>
+        <v>-186.92726576986931</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.2746881490252543E-3</v>
+        <f t="shared" si="8"/>
+        <v>-36.887838734792595</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
@@ -4859,33 +4862,33 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
-        <v>57.070000000001528</v>
+        <v>-64342.929999999986</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="3"/>
-        <v>5.1647058823530788E-2</v>
+        <v>-36.788410520297305</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>55899240.809572369</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="5"/>
-        <v>240</v>
-      </c>
-      <c r="B35">
-        <f>E0+qconv*A35+(D35-M0)*cp*(E34+273.15)</f>
-        <v>277380033.17986614</v>
-      </c>
-      <c r="C35" s="4">
-        <f>(gamma-1)*qfire*A35/(Volume/(1-0.0001))</f>
-        <v>9599.9999999999982</v>
+        <v>76799.999999999985</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.4682831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.85353539885355</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>47.834942907950165</v>
+        <v>242.89365116253953</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2">
@@ -4893,11 +4896,11 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="1"/>
-        <v>-7.8429079501631804E-3</v>
+        <v>-195.06655116253953</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.4433881163118342E-3</v>
+        <f t="shared" si="8"/>
+        <v>-37.800397451474304</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
@@ -4905,33 +4908,33 @@
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
-        <v>59.660000000001673</v>
+        <v>-67140.339999999982</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="3"/>
-        <v>5.3796212804329731E-2</v>
+        <v>-37.698113419427273</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>56914202.462488241</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="B36">
-        <f>E0+qconv*A36+(D36-M0)*cp*(E35+273.15)</f>
-        <v>278387093.38111144</v>
-      </c>
-      <c r="C36" s="4">
-        <f>(gamma-1)*qfire*A36/(Volume/(1-0.0001))</f>
-        <v>9999.9999999999982</v>
+        <v>79999.999999999985</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.4882831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.87353539885356</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>48.994926328070619</v>
+        <v>252.1933335352154</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="2">
@@ -4939,11 +4942,11 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>-8.5263280706158184E-3</v>
+        <v>-203.2069335352154</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.6467367243067034E-3</v>
+        <f t="shared" si="8"/>
+        <v>-38.680786556815384</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
@@ -4951,33 +4954,33 @@
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
-        <v>62.300000000001091</v>
+        <v>-69937.699999999983</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="3"/>
-        <v>5.5974842767296584E-2</v>
+        <v>-38.575675675675662</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>57929541.050839581</v>
+      </c>
+      <c r="C37" s="4">
         <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-      <c r="B37">
-        <f>E0+qconv*A37+(D37-M0)*cp*(E36+273.15)</f>
-        <v>279394200.54603088</v>
-      </c>
-      <c r="C37" s="4">
-        <f>(gamma-1)*qfire*A37/(Volume/(1-0.0001))</f>
-        <v>10399.999999999998</v>
+        <v>83199.999999999985</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.5082831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.89353539885357</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>50.154925281477688</v>
+        <v>261.49401304821583</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2">
@@ -4985,11 +4988,11 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>-9.2252814776898617E-3</v>
+        <v>-211.34831304821583</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="6"/>
-        <v>-2.8534305407373834E-3</v>
+        <f t="shared" si="8"/>
+        <v>-39.530661129680652</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
@@ -4997,33 +5000,33 @@
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
-        <v>64.900000000001455</v>
+        <v>-72735.099999999991</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="3"/>
-        <v>5.8102059086841053E-2</v>
+        <v>-39.422818428184279</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>58945256.635250583</v>
+      </c>
+      <c r="C38" s="4">
         <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="B38">
-        <f>E0+qconv*A38+(D38-M0)*cp*(E37+273.15)</f>
-        <v>280401354.67556781</v>
-      </c>
-      <c r="C38" s="4">
-        <f>(gamma-1)*qfire*A38/(Volume/(1-0.0001))</f>
-        <v>10799.999999999998</v>
+        <v>86399.999999999985</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.5282831908285</v>
+        <f t="shared" si="6"/>
+        <v>149.91353539885355</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>51.314939768483441</v>
+        <v>270.79568986189383</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="2">
@@ -5031,11 +5034,11 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>-9.939768483441469E-3</v>
+        <v>-219.49068986189383</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.0634337535925533E-3</v>
+        <f t="shared" si="8"/>
+        <v>-40.351581776044931</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
@@ -5043,33 +5046,33 @@
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
-        <v>67.500000000001819</v>
+        <v>-75532.499999999985</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="3"/>
-        <v>6.0214094558431595E-2</v>
+        <v>-40.241076185402228</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>59961349.276358537</v>
+      </c>
+      <c r="C39" s="4">
         <f t="shared" si="5"/>
-        <v>280</v>
-      </c>
-      <c r="B39">
-        <f>E0+qconv*A39+(D39-M0)*cp*(E38+273.15)</f>
-        <v>281408555.77066559</v>
-      </c>
-      <c r="C39" s="4">
-        <f>(gamma-1)*qfire*A39/(Volume/(1-0.0001))</f>
-        <v>11199.999999999998</v>
+        <v>89599.999999999985</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.5482831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.93353539885356</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>52.474969789399893</v>
+        <v>280.09836413663697</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2">
@@ -5077,11 +5080,11 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0669789399891272E-2</v>
+        <v>-227.63406413663697</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.2767110602089358E-3</v>
+        <f t="shared" si="8"/>
+        <v>-41.145004466821646</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2">
@@ -5089,33 +5092,33 @@
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
-        <v>70.100000000002183</v>
+        <v>-78329.89999999998</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="3"/>
-        <v>6.2311111111113045E-2</v>
+        <v>-41.031901519119948</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>60977819.03481365</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-      <c r="B40">
-        <f>E0+qconv*A40+(D40-M0)*cp*(E39+273.15)</f>
-        <v>282415803.83226758</v>
-      </c>
-      <c r="C40" s="4">
-        <f>(gamma-1)*qfire*A40/(Volume/(1-0.0001))</f>
-        <v>11599.999999999998</v>
+        <v>92799.999999999985</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.5682831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.95353539885357</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>53.635015344539113</v>
+        <v>289.40203603286716</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="2">
@@ -5123,11 +5126,11 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" si="1"/>
-        <v>-1.1515344539112959E-2</v>
+        <v>-235.77853603286715</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.5238288166218371E-3</v>
+        <f t="shared" si="8"/>
+        <v>-41.912306938853881</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
@@ -5135,33 +5138,33 @@
       </c>
       <c r="L40" s="4">
         <f t="shared" si="2"/>
-        <v>72.800000000001091</v>
+        <v>-81127.199999999983</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="3"/>
-        <v>6.4481842338353496E-2</v>
+        <v>-41.796599690880981</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>61994665.971279152</v>
+      </c>
+      <c r="C41" s="4">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="B41">
-        <f>E0+qconv*A41+(D41-M0)*cp*(E40+273.15)</f>
-        <v>283423098.86131716</v>
-      </c>
-      <c r="C41" s="4">
-        <f>(gamma-1)*qfire*A41/(Volume/(1-0.0001))</f>
-        <v>11999.999999999998</v>
+        <v>95999.999999999985</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.5882831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.97353539885356</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>54.795076434212945</v>
+        <v>298.7067057110404</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2">
@@ -5169,11 +5172,11 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" si="1"/>
-        <v>-1.2276434212942888E-2</v>
+        <v>-243.92390571104039</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.7434421478212345E-3</v>
+        <f t="shared" si="8"/>
+        <v>-42.654725086723964</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
@@ -5181,33 +5184,33 @@
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
-        <v>75.400000000001455</v>
+        <v>-83924.599999999991</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="3"/>
-        <v>6.6548984995588215E-2</v>
+        <v>-42.536543335022806</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>63011890.146431334</v>
+      </c>
+      <c r="C42" s="4">
         <f t="shared" si="5"/>
-        <v>310</v>
-      </c>
-      <c r="B42">
-        <f>E0+qconv*A42+(D42-M0)*cp*(E41+273.15)</f>
-        <v>284430440.85875785</v>
-      </c>
-      <c r="C42" s="4">
-        <f>(gamma-1)*qfire*A42/(Volume/(1-0.0001))</f>
-        <v>12399.999999999998</v>
+        <v>99199.999999999985</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.6082831908284</v>
+        <f t="shared" si="6"/>
+        <v>149.99353539885357</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>55.955153058733629</v>
+        <v>308.01237333164761</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="2">
@@ -5215,11 +5218,11 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" si="1"/>
-        <v>-1.3053058733625278E-2</v>
+        <v>-252.0702733316476</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="6"/>
-        <v>-3.9662273933753229E-3</v>
+        <f t="shared" si="8"/>
+        <v>-43.373467536550329</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2">
@@ -5227,2725 +5230,2725 @@
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
-        <v>78.100000000002183</v>
+        <v>-86721.89999999998</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="3"/>
-        <v>6.8689533861039737E-2</v>
+        <v>-43.252817955112214</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>64029491.620959431</v>
+      </c>
+      <c r="C43" s="4">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="B43">
-        <f>E0+qconv*A43+(D43-M0)*cp*(E42+273.15)</f>
-        <v>285437829.82553309</v>
-      </c>
-      <c r="C43" s="4">
-        <f>(gamma-1)*qfire*A43/(Volume/(1-0.0001))</f>
-        <v>12799.999999999998</v>
+        <v>102399.99999999999</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="4"/>
-        <v>1195.6282831908286</v>
+        <f t="shared" si="6"/>
+        <v>150.01353539885355</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:E74" si="7">B43/(cv*D43)-273.15</f>
-        <v>57.115245218413065</v>
+        <f t="shared" ref="E43:E74" si="9">B43/(cv*D43)-273.15</f>
+        <v>317.31903905521392</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2">
         <v>57.101300000000002</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" ref="H43:H74" si="8">G43-E43</f>
-        <v>-1.3945218413063287E-2</v>
+        <f t="shared" ref="H43:H74" si="10">G43-E43</f>
+        <v>-260.21773905521394</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="6"/>
-        <v>-4.2224298847554943E-3</v>
+        <f t="shared" si="8"/>
+        <v>-44.069666967056911</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2">
         <v>12880.8</v>
       </c>
       <c r="L43" s="4">
-        <f t="shared" ref="L43:L74" si="9">K43-C43</f>
-        <v>80.800000000001091</v>
+        <f t="shared" ref="L43:L74" si="11">K43-C43</f>
+        <v>-89519.199999999983</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" ref="M43:M74" si="10">L43/(C43+P0)*100</f>
-        <v>7.0815074496057048E-2</v>
+        <f t="shared" ref="M43:M74" si="12">L43/(C43+P0)*100</f>
+        <v>-43.946588119783989</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>330</v>
       </c>
       <c r="B44">
-        <f>E0+qconv*A44+(D44-M0)*cp*(E43+273.15)</f>
-        <v>286445265.7625863</v>
+        <f t="shared" ref="B44:B75" si="13">E0+qconv*A44+(D44-M0)*cp*(E43+273.15)</f>
+        <v>65047470.455565758</v>
       </c>
       <c r="C44" s="4">
-        <f>(gamma-1)*qfire*A44/(Volume/(1-0.0001))</f>
-        <v>13199.999999999998</v>
+        <f t="shared" ref="C44:C75" si="14">(gamma-1)*qfire*A44/(Volume/(1-0.0001))</f>
+        <v>105599.99999999999</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D71" si="11">M0+mfire*A44</f>
-        <v>1195.6482831908286</v>
+        <f t="shared" ref="D44:D71" si="15">M0+mfire*A44</f>
+        <v>150.03353539885356</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="7"/>
-        <v>58.275352913563438</v>
+        <f t="shared" si="9"/>
+        <v>326.6267030422988</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="2">
         <v>58.2605</v>
       </c>
       <c r="H44" s="4">
+        <f t="shared" si="10"/>
+        <v>-268.36620304229882</v>
+      </c>
+      <c r="I44" s="9">
         <f t="shared" si="8"/>
-        <v>-1.4852913563437653E-2</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="6"/>
-        <v>-4.4815260609562752E-3</v>
+        <v>-44.744352636746633</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2">
         <v>13283.4</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="9"/>
-        <v>83.400000000001455</v>
+        <f t="shared" si="11"/>
+        <v>-92316.599999999991</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="10"/>
-        <v>7.2838427947599524E-2</v>
+        <f t="shared" si="12"/>
+        <v>-44.618946350894149</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="B45">
-        <f>E0+qconv*A45+(D45-M0)*cp*(E44+273.15)</f>
-        <v>287452748.67086101</v>
+        <f t="shared" si="13"/>
+        <v>66065826.710965596</v>
       </c>
       <c r="C45" s="4">
-        <f>(gamma-1)*qfire*A45/(Volume/(1-0.0001))</f>
-        <v>13599.999999999998</v>
+        <f t="shared" si="14"/>
+        <v>108799.99999999999</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.6682831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.05353539885357</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="7"/>
-        <v>59.435476144496704</v>
+        <f t="shared" si="9"/>
+        <v>335.93536545349605</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2">
         <v>59.419699999999999</v>
       </c>
       <c r="H45" s="4">
+        <f t="shared" si="10"/>
+        <v>-276.51566545349607</v>
+      </c>
+      <c r="I45" s="9">
         <f t="shared" si="8"/>
-        <v>-1.5776144496705058E-2</v>
-      </c>
-      <c r="I45" s="9">
-        <f t="shared" si="6"/>
-        <v>-4.7434856986511573E-3</v>
+        <v>-45.398507522441562</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2">
         <v>13686.1</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="9"/>
-        <v>86.100000000002183</v>
+        <f t="shared" si="11"/>
+        <v>-95113.89999999998</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="10"/>
-        <v>7.4934725848565864E-2</v>
+        <f t="shared" si="12"/>
+        <v>-45.270775821037589</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="B46">
-        <f>E0+qconv*A46+(D46-M0)*cp*(E45+273.15)</f>
-        <v>288460278.55130076</v>
+        <f t="shared" si="13"/>
+        <v>67084560.447887249</v>
       </c>
       <c r="C46" s="4">
-        <f>(gamma-1)*qfire*A46/(Volume/(1-0.0001))</f>
-        <v>13999.999999999998</v>
+        <f t="shared" si="14"/>
+        <v>111999.99999999999</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.6882831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.07353539885355</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="7"/>
-        <v>60.59561491152499</v>
+        <f t="shared" si="9"/>
+        <v>345.24502644943414</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="2">
         <v>60.579000000000001</v>
       </c>
       <c r="H46" s="4">
+        <f t="shared" si="10"/>
+        <v>-284.66602644943413</v>
+      </c>
+      <c r="I46" s="9">
         <f t="shared" si="8"/>
-        <v>-1.6614911524989395E-2</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="6"/>
-        <v>-4.9783160534989986E-3</v>
+        <v>-46.033039444684334</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2">
         <v>14088.8</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="9"/>
-        <v>88.800000000001091</v>
+        <f t="shared" si="11"/>
+        <v>-97911.199999999983</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="10"/>
-        <v>7.7016478751085068E-2</v>
+        <f t="shared" si="12"/>
+        <v>-45.903047351148608</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="B47">
-        <f>E0+qconv*A47+(D47-M0)*cp*(E46+273.15)</f>
-        <v>289467855.40484917</v>
+        <f t="shared" si="13"/>
+        <v>68103671.72707212</v>
       </c>
       <c r="C47" s="4">
-        <f>(gamma-1)*qfire*A47/(Volume/(1-0.0001))</f>
-        <v>14399.999999999998</v>
+        <f t="shared" si="14"/>
+        <v>115199.99999999999</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.7082831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.09353539885356</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="7"/>
-        <v>61.755769214960424</v>
+        <f t="shared" si="9"/>
+        <v>354.5556861907761</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2">
         <v>61.738100000000003</v>
       </c>
       <c r="H47" s="4">
+        <f t="shared" si="10"/>
+        <v>-292.81758619077607</v>
+      </c>
+      <c r="I47" s="9">
         <f t="shared" si="8"/>
-        <v>-1.7669214960420732E-2</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="6"/>
-        <v>-5.2758765553183665E-3</v>
+        <v>-46.648866281224223</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
         <v>14491.5</v>
       </c>
       <c r="L47" s="4">
-        <f t="shared" si="9"/>
-        <v>91.500000000001819</v>
+        <f t="shared" si="11"/>
+        <v>-100708.49999999999</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="10"/>
-        <v>7.9083837510805374E-2</v>
+        <f t="shared" si="12"/>
+        <v>-46.516628175519628</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
       <c r="B48">
-        <f>E0+qconv*A48+(D48-M0)*cp*(E47+273.15)</f>
-        <v>290475479.23244971</v>
+        <f t="shared" si="13"/>
+        <v>69123160.609274551</v>
       </c>
       <c r="C48" s="4">
-        <f>(gamma-1)*qfire*A48/(Volume/(1-0.0001))</f>
-        <v>14799.999999999998</v>
+        <f t="shared" si="14"/>
+        <v>118399.99999999999</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.7282831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.11353539885357</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="7"/>
-        <v>62.915939055114961</v>
+        <f t="shared" si="9"/>
+        <v>363.86734483821897</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="2">
         <v>62.897300000000001</v>
       </c>
       <c r="H48" s="4">
+        <f t="shared" si="10"/>
+        <v>-300.970044838219</v>
+      </c>
+      <c r="I48" s="9">
         <f t="shared" si="8"/>
-        <v>-1.8639055114960001E-2</v>
-      </c>
-      <c r="I48" s="9">
-        <f t="shared" si="6"/>
-        <v>-5.5462493959863007E-3</v>
+        <v>-47.246758236175708</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2">
         <v>14894.2</v>
       </c>
       <c r="L48" s="4">
-        <f t="shared" si="9"/>
-        <v>94.200000000002547</v>
+        <f t="shared" si="11"/>
+        <v>-103505.79999999999</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="10"/>
-        <v>8.1136950904394961E-2</v>
+        <f t="shared" si="12"/>
+        <v>-47.11233500227582</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="B49">
-        <f>E0+qconv*A49+(D49-M0)*cp*(E48+273.15)</f>
-        <v>291483150.03504604</v>
+        <f t="shared" si="13"/>
+        <v>70143027.155261964</v>
       </c>
       <c r="C49" s="4">
-        <f>(gamma-1)*qfire*A49/(Volume/(1-0.0001))</f>
-        <v>15199.999999999998</v>
+        <f t="shared" si="14"/>
+        <v>121599.99999999999</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.7482831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.13353539885355</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="7"/>
-        <v>64.076124432300674</v>
+        <f t="shared" si="9"/>
+        <v>373.18000255249478</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2">
         <v>64.0565</v>
       </c>
       <c r="H49" s="4">
+        <f t="shared" si="10"/>
+        <v>-309.12350255249476</v>
+      </c>
+      <c r="I49" s="9">
         <f t="shared" si="8"/>
-        <v>-1.9624432300673789E-2</v>
-      </c>
-      <c r="I49" s="9">
-        <f t="shared" si="6"/>
-        <v>-5.8193689275142339E-3</v>
+        <v>-47.827503184395006</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2">
         <v>15297</v>
       </c>
       <c r="L49" s="4">
-        <f t="shared" si="9"/>
-        <v>97.000000000001819</v>
+        <f t="shared" si="11"/>
+        <v>-106302.99999999999</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="10"/>
-        <v>8.3261802575108859E-2</v>
+        <f t="shared" si="12"/>
+        <v>-47.690892777030051</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="B50">
-        <f>E0+qconv*A50+(D50-M0)*cp*(E49+273.15)</f>
-        <v>292490867.81358188</v>
+        <f t="shared" si="13"/>
+        <v>71163271.425814837</v>
       </c>
       <c r="C50" s="4">
-        <f>(gamma-1)*qfire*A50/(Volume/(1-0.0001))</f>
-        <v>15599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>124799.99999999997</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.7682831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.15353539885356</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="7"/>
-        <v>65.236325346829858</v>
+        <f t="shared" si="9"/>
+        <v>382.49365949436958</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="2">
         <v>65.215699999999998</v>
       </c>
       <c r="H50" s="4">
+        <f t="shared" si="10"/>
+        <v>-317.27795949436961</v>
+      </c>
+      <c r="I50" s="9">
         <f t="shared" si="8"/>
-        <v>-2.0625346829859836E-2</v>
-      </c>
-      <c r="I50" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.0952069527986513E-3</v>
+        <v>-48.391829143753704</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2">
         <v>15699.7</v>
       </c>
       <c r="L50" s="4">
-        <f t="shared" si="9"/>
-        <v>99.700000000004366</v>
+        <f t="shared" si="11"/>
+        <v>-109100.29999999997</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="10"/>
-        <v>8.5286569717711175E-2</v>
+        <f t="shared" si="12"/>
+        <v>-48.253118089340994</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B51">
-        <f>E0+qconv*A51+(D51-M0)*cp*(E50+273.15)</f>
-        <v>293498632.56900078</v>
+        <f t="shared" si="13"/>
+        <v>72183893.481726646</v>
       </c>
       <c r="C51" s="4">
-        <f>(gamma-1)*qfire*A51/(Volume/(1-0.0001))</f>
-        <v>15999.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>127999.99999999997</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.7882831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.17353539885357</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="7"/>
-        <v>66.396541799014472</v>
+        <f t="shared" si="9"/>
+        <v>391.80831582464418</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2">
         <v>66.374799999999993</v>
       </c>
       <c r="H51" s="4">
+        <f t="shared" si="10"/>
+        <v>-325.43351582464419</v>
+      </c>
+      <c r="I51" s="9">
         <f t="shared" si="8"/>
-        <v>-2.1741799014478147E-2</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.4031867028549001E-3</v>
+        <v>-48.940438532761213</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
         <v>16102.4</v>
       </c>
       <c r="L51" s="4">
-        <f t="shared" si="9"/>
-        <v>102.40000000000327</v>
+        <f t="shared" si="11"/>
+        <v>-111897.59999999998</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="10"/>
-        <v>8.7297527706737654E-2</v>
+        <f t="shared" si="12"/>
+        <v>-48.799651112080241</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>410</v>
       </c>
       <c r="B52">
-        <f>E0+qconv*A52+(D52-M0)*cp*(E51+273.15)</f>
-        <v>294506444.30224645</v>
+        <f t="shared" si="13"/>
+        <v>73204893.383803919</v>
       </c>
       <c r="C52" s="4">
-        <f>(gamma-1)*qfire*A52/(Volume/(1-0.0001))</f>
-        <v>16399.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>131199.99999999997</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.8082831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.19353539885356</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="7"/>
-        <v>67.556773789166698</v>
+        <f t="shared" si="9"/>
+        <v>401.12397170415375</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="2">
         <v>67.533900000000003</v>
       </c>
       <c r="H52" s="4">
+        <f t="shared" si="10"/>
+        <v>-333.59007170415373</v>
+      </c>
+      <c r="I52" s="9">
         <f t="shared" si="8"/>
-        <v>-2.2873789166695246E-2</v>
-      </c>
-      <c r="I52" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.7136291164113489E-3</v>
+        <v>-49.473965435895636</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
         <v>16505.2</v>
       </c>
       <c r="L52" s="4">
-        <f t="shared" si="9"/>
-        <v>105.20000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-114694.79999999997</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="10"/>
-        <v>8.9379779099408974E-2</v>
+        <f t="shared" si="12"/>
+        <v>-49.331096774193547</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>420</v>
       </c>
       <c r="B53">
-        <f>E0+qconv*A53+(D53-M0)*cp*(E52+273.15)</f>
-        <v>295514303.01426268</v>
+        <f t="shared" si="13"/>
+        <v>74226271.192866266</v>
       </c>
       <c r="C53" s="4">
-        <f>(gamma-1)*qfire*A53/(Volume/(1-0.0001))</f>
-        <v>16799.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>134399.99999999997</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.8282831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.21353539885357</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="7"/>
-        <v>68.717021317598665</v>
+        <f t="shared" si="9"/>
+        <v>410.44062729376822</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2">
         <v>68.693100000000001</v>
       </c>
       <c r="H53" s="4">
+        <f t="shared" si="10"/>
+        <v>-341.7475272937682</v>
+      </c>
+      <c r="I53" s="9">
         <f t="shared" si="8"/>
-        <v>-2.392131759866345E-2</v>
-      </c>
-      <c r="I53" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.9972580292967934E-3</v>
+        <v>-49.993009507268248</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2">
         <v>16908</v>
       </c>
       <c r="L53" s="4">
-        <f t="shared" si="9"/>
-        <v>108.00000000000364</v>
+        <f t="shared" si="11"/>
+        <v>-117491.99999999997</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" si="10"/>
-        <v>9.1447925486878606E-2</v>
+        <f t="shared" si="12"/>
+        <v>-49.848112006788284</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="B54">
-        <f>E0+qconv*A54+(D54-M0)*cp*(E53+273.15)</f>
-        <v>296522208.70599312</v>
+        <f t="shared" si="13"/>
+        <v>75248026.969746321</v>
       </c>
       <c r="C54" s="4">
-        <f>(gamma-1)*qfire*A54/(Volume/(1-0.0001))</f>
-        <v>17199.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>137599.99999999997</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.8482831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.23353539885358</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="7"/>
-        <v>69.877284384622442</v>
+        <f t="shared" si="9"/>
+        <v>419.75828275439176</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="2">
         <v>69.852199999999996</v>
       </c>
       <c r="H54" s="4">
+        <f t="shared" si="10"/>
+        <v>-349.90608275439178</v>
+      </c>
+      <c r="I54" s="9">
         <f t="shared" si="8"/>
-        <v>-2.5084384622445555E-2</v>
-      </c>
-      <c r="I54" s="9">
-        <f t="shared" si="6"/>
-        <v>-7.3126499740234852E-3</v>
+        <v>-50.498181572238401</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
         <v>17310.7</v>
       </c>
       <c r="L54" s="4">
-        <f t="shared" si="9"/>
-        <v>110.70000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-120289.29999999997</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="10"/>
-        <v>9.3417721518991026E-2</v>
+        <f t="shared" si="12"/>
+        <v>-50.351318543323565</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>440</v>
       </c>
       <c r="B55">
-        <f>E0+qconv*A55+(D55-M0)*cp*(E54+273.15)</f>
-        <v>297530161.37838161</v>
+        <f t="shared" si="13"/>
+        <v>76270160.775289744</v>
       </c>
       <c r="C55" s="4">
-        <f>(gamma-1)*qfire*A55/(Volume/(1-0.0001))</f>
-        <v>17599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>140799.99999999997</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.8682831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.25353539885356</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="7"/>
-        <v>71.037562990550271</v>
+        <f t="shared" si="9"/>
+        <v>429.0769382469631</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2">
         <v>71.011300000000006</v>
       </c>
       <c r="H55" s="4">
+        <f t="shared" si="10"/>
+        <v>-358.06563824696309</v>
+      </c>
+      <c r="I55" s="9">
         <f t="shared" si="8"/>
-        <v>-2.6262990550264931E-2</v>
-      </c>
-      <c r="I55" s="9">
-        <f t="shared" si="6"/>
-        <v>-7.6304298511175395E-3</v>
+        <v>-50.990017435223564</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2">
         <v>17713.5</v>
       </c>
       <c r="L55" s="4">
-        <f t="shared" si="9"/>
-        <v>113.50000000000364</v>
+        <f t="shared" si="11"/>
+        <v>-123086.49999999997</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="10"/>
-        <v>9.5458368376790267E-2</v>
+        <f t="shared" si="12"/>
+        <v>-50.841181330028903</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="B56">
-        <f>E0+qconv*A56+(D56-M0)*cp*(E55+273.15)</f>
-        <v>298538161.03237182</v>
+        <f t="shared" si="13"/>
+        <v>77292672.670355335</v>
       </c>
       <c r="C56" s="4">
-        <f>(gamma-1)*qfire*A56/(Volume/(1-0.0001))</f>
-        <v>17999.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>143999.99999999997</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.8882831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.27353539885357</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="7"/>
-        <v>72.197857135694221</v>
+        <f t="shared" si="9"/>
+        <v>438.39659393245563</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="2">
         <v>72.170400000000001</v>
       </c>
       <c r="H56" s="4">
+        <f t="shared" si="10"/>
+        <v>-366.22619393245566</v>
+      </c>
+      <c r="I56" s="9">
         <f t="shared" si="8"/>
-        <v>-2.7457135694220369E-2</v>
-      </c>
-      <c r="I56" s="9">
-        <f t="shared" si="6"/>
-        <v>-7.9505736395613143E-3</v>
+        <v>-51.469038999745408</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
         <v>18116.3</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="9"/>
-        <v>116.30000000000291</v>
+        <f t="shared" si="11"/>
+        <v>-125883.69999999997</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="10"/>
-        <v>9.7485331098074529E-2</v>
+        <f t="shared" si="12"/>
+        <v>-51.31826335099877</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="B57">
-        <f>E0+qconv*A57+(D57-M0)*cp*(E56+273.15)</f>
-        <v>299546207.66890764</v>
+        <f t="shared" si="13"/>
+        <v>78315562.715814859</v>
       </c>
       <c r="C57" s="4">
-        <f>(gamma-1)*qfire*A57/(Volume/(1-0.0001))</f>
-        <v>18399.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>147199.99999999997</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.9082831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.29353539885355</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="7"/>
-        <v>73.358166820366534</v>
+        <f t="shared" si="9"/>
+        <v>447.7172499718771</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="2">
         <v>73.329499999999996</v>
       </c>
       <c r="H57" s="4">
+        <f t="shared" si="10"/>
+        <v>-374.3877499718771</v>
+      </c>
+      <c r="I57" s="9">
         <f t="shared" si="8"/>
-        <v>-2.8666820366538559E-2</v>
-      </c>
-      <c r="I57" s="9">
-        <f t="shared" si="6"/>
-        <v>-8.2730576394754174E-3</v>
+        <v>-51.935741287523186</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
         <v>18519.099999999999</v>
       </c>
       <c r="L57" s="4">
-        <f t="shared" si="9"/>
-        <v>119.10000000000218</v>
+        <f t="shared" si="11"/>
+        <v>-128680.89999999997</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="10"/>
-        <v>9.9498746867169752E-2</v>
+        <f t="shared" si="12"/>
+        <v>-51.783058350100596</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="B58">
-        <f>E0+qconv*A58+(D58-M0)*cp*(E57+273.15)</f>
-        <v>300554301.28893292</v>
+        <f t="shared" si="13"/>
+        <v>79338830.972553238</v>
       </c>
       <c r="C58" s="4">
-        <f>(gamma-1)*qfire*A58/(Volume/(1-0.0001))</f>
-        <v>18799.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>150399.99999999997</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.9282831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.31353539885356</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="7"/>
-        <v>74.518492044879338</v>
+        <f t="shared" si="9"/>
+        <v>457.03890652627024</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="2">
         <v>74.488500000000002</v>
       </c>
       <c r="H58" s="4">
+        <f t="shared" si="10"/>
+        <v>-382.55040652627025</v>
+      </c>
+      <c r="I58" s="9">
         <f t="shared" si="8"/>
-        <v>-2.9992044879335822E-2</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="6"/>
-        <v>-8.6266214988110716E-3</v>
+        <v>-52.390607842315553</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2">
         <v>18921.900000000001</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" si="9"/>
-        <v>121.90000000000509</v>
+        <f t="shared" si="11"/>
+        <v>-131478.09999999998</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="10"/>
-        <v>0.10149875104080357</v>
+        <f t="shared" si="12"/>
+        <v>-52.236034962256653</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="B59">
-        <f>E0+qconv*A59+(D59-M0)*cp*(E58+273.15)</f>
-        <v>301562441.89339143</v>
+        <f t="shared" si="13"/>
+        <v>80362477.501468405</v>
       </c>
       <c r="C59" s="4">
-        <f>(gamma-1)*qfire*A59/(Volume/(1-0.0001))</f>
-        <v>19199.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>153599.99999999997</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.9482831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.33353539885357</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="7"/>
-        <v>75.678832809544758</v>
+        <f t="shared" si="9"/>
+        <v>466.3615637567118</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="2">
         <v>75.647599999999997</v>
       </c>
       <c r="H59" s="4">
+        <f t="shared" si="10"/>
+        <v>-390.71396375671179</v>
+      </c>
+      <c r="I59" s="9">
         <f t="shared" si="8"/>
-        <v>-3.1232809544761153E-2</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="6"/>
-        <v>-8.9536204026499713E-3</v>
+        <v>-52.834057356978782</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2">
         <v>19324.7</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="9"/>
-        <v>124.70000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-134275.29999999996</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="10"/>
-        <v>0.10348547717842686</v>
+        <f t="shared" si="12"/>
+        <v>-52.677638289525298</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="B60">
-        <f>E0+qconv*A60+(D60-M0)*cp*(E59+273.15)</f>
-        <v>302570629.48322719</v>
+        <f t="shared" si="13"/>
+        <v>81386502.363471344</v>
       </c>
       <c r="C60" s="4">
-        <f>(gamma-1)*qfire*A60/(Volume/(1-0.0001))</f>
-        <v>19599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>156799.99999999997</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.9682831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.35353539885355</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="7"/>
-        <v>76.839189114675094</v>
+        <f t="shared" si="9"/>
+        <v>475.68522182431332</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="2">
         <v>76.806600000000003</v>
       </c>
       <c r="H60" s="4">
+        <f t="shared" si="10"/>
+        <v>-398.87862182431331</v>
+      </c>
+      <c r="I60" s="9">
         <f t="shared" si="8"/>
-        <v>-3.2589114675090514E-2</v>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="6"/>
-        <v>-9.3114632362008721E-3</v>
+        <v>-53.266541182793823</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2">
         <v>19727.599999999999</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="9"/>
-        <v>127.60000000000218</v>
+        <f t="shared" si="11"/>
+        <v>-137072.39999999997</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="10"/>
-        <v>0.1055417700579009</v>
+        <f t="shared" si="12"/>
+        <v>-53.108252615265393</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="B61">
-        <f>E0+qconv*A61+(D61-M0)*cp*(E60+273.15)</f>
-        <v>303578864.05938405</v>
+        <f t="shared" si="13"/>
+        <v>82410905.619486198</v>
       </c>
       <c r="C61" s="4">
-        <f>(gamma-1)*qfire*A61/(Volume/(1-0.0001))</f>
-        <v>19999.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>159999.99999999997</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="11"/>
-        <v>1195.9882831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.37353539885356</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="7"/>
-        <v>77.999560960582414</v>
+        <f t="shared" si="9"/>
+        <v>485.00988089022098</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="2">
         <v>77.965699999999998</v>
       </c>
       <c r="H61" s="4">
+        <f t="shared" si="10"/>
+        <v>-407.04418089022101</v>
+      </c>
+      <c r="I61" s="9">
         <f t="shared" si="8"/>
-        <v>-3.3860960582416055E-2</v>
-      </c>
-      <c r="I61" s="9">
-        <f t="shared" si="6"/>
-        <v>-9.6428884859739439E-3</v>
+        <v>-53.688435796981935</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
         <v>20130.400000000001</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="9"/>
-        <v>130.40000000000509</v>
+        <f t="shared" si="11"/>
+        <v>-139869.59999999998</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="10"/>
-        <v>0.107502061005775</v>
+        <f t="shared" si="12"/>
+        <v>-53.528358208955218</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="B62">
-        <f>E0+qconv*A62+(D62-M0)*cp*(E61+273.15)</f>
-        <v>304587145.62280595</v>
+        <f t="shared" si="13"/>
+        <v>83435687.330450132</v>
       </c>
       <c r="C62" s="4">
-        <f>(gamma-1)*qfire*A62/(Volume/(1-0.0001))</f>
-        <v>20399.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>163199.99999999997</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.0082831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.39353539885357</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="7"/>
-        <v>79.159948347579075</v>
+        <f t="shared" si="9"/>
+        <v>494.33554111561568</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="2">
         <v>79.124700000000004</v>
       </c>
       <c r="H62" s="4">
+        <f t="shared" si="10"/>
+        <v>-415.21084111561566</v>
+      </c>
+      <c r="I62" s="9">
         <f t="shared" si="8"/>
-        <v>-3.5248347579070582E-2</v>
-      </c>
-      <c r="I62" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.0004925419902012E-2</v>
+        <v>-54.10015158227813</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2">
         <v>20533.2</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="9"/>
-        <v>133.20000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-142666.79999999996</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="10"/>
-        <v>0.10944946589975708</v>
+        <f t="shared" si="12"/>
+        <v>-53.938298676748566</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>520</v>
       </c>
       <c r="B63">
-        <f>E0+qconv*A63+(D63-M0)*cp*(E62+273.15)</f>
-        <v>305595474.17443687</v>
+        <f t="shared" si="13"/>
+        <v>84460847.557313353</v>
       </c>
       <c r="C63" s="4">
-        <f>(gamma-1)*qfire*A63/(Volume/(1-0.0001))</f>
-        <v>20799.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>166399.99999999997</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.0282831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.41353539885355</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="7"/>
-        <v>80.320351275977146</v>
+        <f t="shared" si="9"/>
+        <v>503.66220266171229</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="2">
         <v>80.283699999999996</v>
       </c>
       <c r="H63" s="4">
+        <f t="shared" si="10"/>
+        <v>-423.37850266171228</v>
+      </c>
+      <c r="I63" s="9">
         <f t="shared" si="8"/>
-        <v>-3.6651275977149567E-2</v>
-      </c>
-      <c r="I63" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.0368981682577827E-2</v>
+        <v>-54.502040674827811</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2">
         <v>20936.099999999999</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="9"/>
-        <v>136.10000000000218</v>
+        <f t="shared" si="11"/>
+        <v>-145463.89999999997</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="10"/>
-        <v>0.11146601146601325</v>
+        <f t="shared" si="12"/>
+        <v>-54.338401195367936</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>530</v>
       </c>
       <c r="B64">
-        <f>E0+qconv*A64+(D64-M0)*cp*(E63+273.15)</f>
-        <v>306603849.71522075</v>
+        <f t="shared" si="13"/>
+        <v>85486386.361039281</v>
       </c>
       <c r="C64" s="4">
-        <f>(gamma-1)*qfire*A64/(Volume/(1-0.0001))</f>
-        <v>21199.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>169599.99999999997</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.0482831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.43353539885356</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="7"/>
-        <v>81.480769746088924</v>
+        <f t="shared" si="9"/>
+        <v>512.98986568976136</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="2">
         <v>81.442700000000002</v>
       </c>
       <c r="H64" s="4">
+        <f t="shared" si="10"/>
+        <v>-431.54716568976136</v>
+      </c>
+      <c r="I64" s="9">
         <f t="shared" si="8"/>
-        <v>-3.8069746088922329E-2</v>
-      </c>
-      <c r="I64" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.0735037491580265E-2</v>
+        <v>-54.8944512960325</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2">
         <v>21339</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="9"/>
-        <v>139.00000000000364</v>
+        <f t="shared" si="11"/>
+        <v>-148260.99999999997</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="10"/>
-        <v>0.11346938775510501</v>
+        <f t="shared" si="12"/>
+        <v>-54.72905131044665</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>540</v>
       </c>
       <c r="B65">
-        <f>E0+qconv*A65+(D65-M0)*cp*(E64+273.15)</f>
-        <v>307612272.24610168</v>
+        <f t="shared" si="13"/>
+        <v>86512303.802604288</v>
       </c>
       <c r="C65" s="4">
-        <f>(gamma-1)*qfire*A65/(Volume/(1-0.0001))</f>
-        <v>21599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>172799.99999999997</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.0682831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.45353539885357</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="7"/>
-        <v>82.641203758226652</v>
+        <f t="shared" si="9"/>
+        <v>522.3185303610469</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="2">
         <v>82.601699999999994</v>
       </c>
       <c r="H65" s="4">
+        <f t="shared" si="10"/>
+        <v>-439.7168303610469</v>
+      </c>
+      <c r="I65" s="9">
         <f t="shared" si="8"/>
-        <v>-3.9503758226658192E-2</v>
-      </c>
-      <c r="I65" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.110307332204381E-2</v>
+        <v>-55.277715406474783</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
         <v>21741.8</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="9"/>
-        <v>141.80000000000291</v>
+        <f t="shared" si="11"/>
+        <v>-151058.19999999998</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="10"/>
-        <v>0.11537835638730913</v>
+        <f t="shared" si="12"/>
+        <v>-55.110616563298066</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>550</v>
       </c>
       <c r="B66">
-        <f>E0+qconv*A66+(D66-M0)*cp*(E65+273.15)</f>
-        <v>308620741.76802361</v>
+        <f t="shared" si="13"/>
+        <v>87538599.942997918</v>
       </c>
       <c r="C66" s="4">
-        <f>(gamma-1)*qfire*A66/(Volume/(1-0.0001))</f>
-        <v>21999.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>175999.99999999997</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.0882831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.47353539885356</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="7"/>
-        <v>83.801653312702456</v>
+        <f t="shared" si="9"/>
+        <v>531.64819683688847</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="2">
         <v>83.7607</v>
       </c>
       <c r="H66" s="4">
+        <f t="shared" si="10"/>
+        <v>-447.88749683688849</v>
+      </c>
+      <c r="I66" s="9">
         <f t="shared" si="8"/>
-        <v>-4.0953312702455946E-2</v>
-      </c>
-      <c r="I66" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.1473069902432803E-2</v>
+        <v>-55.652149644125458</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2">
         <v>22144.7</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="9"/>
-        <v>144.70000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-153855.29999999996</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="10"/>
-        <v>0.11735604217356396</v>
+        <f t="shared" si="12"/>
+        <v>-55.483339343671098</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>560</v>
       </c>
       <c r="B67">
-        <f>E0+qconv*A67+(D67-M0)*cp*(E66+273.15)</f>
-        <v>309629258.28193069</v>
+        <f t="shared" si="13"/>
+        <v>88565274.843222812</v>
       </c>
       <c r="C67" s="4">
-        <f>(gamma-1)*qfire*A67/(Volume/(1-0.0001))</f>
-        <v>22399.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>179199.99999999997</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.1082831908284</v>
+        <f t="shared" si="15"/>
+        <v>150.49353539885357</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="7"/>
-        <v>84.96211840982869</v>
+        <f t="shared" si="9"/>
+        <v>540.97886527863977</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="2">
         <v>84.919700000000006</v>
       </c>
       <c r="H67" s="4">
+        <f t="shared" si="10"/>
+        <v>-456.05916527863974</v>
+      </c>
+      <c r="I67" s="9">
         <f t="shared" si="8"/>
-        <v>-4.2418409828684389E-2</v>
-      </c>
-      <c r="I67" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.1845008210568331E-2</v>
+        <v>-56.018056198333063</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
         <v>22547.599999999999</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="9"/>
-        <v>147.60000000000218</v>
+        <f t="shared" si="11"/>
+        <v>-156652.39999999997</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" si="10"/>
-        <v>0.11932093775262909</v>
+        <f t="shared" si="12"/>
+        <v>-55.847557932263804</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>570</v>
       </c>
       <c r="B68">
-        <f>E0+qconv*A68+(D68-M0)*cp*(E67+273.15)</f>
-        <v>310637821.7887671</v>
+        <f t="shared" si="13"/>
+        <v>89592328.564294651</v>
       </c>
       <c r="C68" s="4">
-        <f>(gamma-1)*qfire*A68/(Volume/(1-0.0001))</f>
-        <v>22799.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>182399.99999999997</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.1282831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.51353539885355</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="7"/>
-        <v>86.122599049917653</v>
+        <f t="shared" si="9"/>
+        <v>550.31053584768904</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="2">
         <v>86.078599999999994</v>
       </c>
       <c r="H68" s="4">
+        <f t="shared" si="10"/>
+        <v>-464.23193584768904</v>
+      </c>
+      <c r="I68" s="9">
         <f t="shared" si="8"/>
-        <v>-4.3999049917658795E-2</v>
-      </c>
-      <c r="I68" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.2246703487550279E-2</v>
+        <v>-56.375735768539059</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
         <v>22950.5</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="9"/>
-        <v>150.50000000000364</v>
+        <f t="shared" si="11"/>
+        <v>-159449.49999999997</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="10"/>
-        <v>0.12127316680096989</v>
+        <f t="shared" si="12"/>
+        <v>-56.203560098695796</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="B69">
-        <f>E0+qconv*A69+(D69-M0)*cp*(E68+273.15)</f>
-        <v>311646432.28947669</v>
+        <f t="shared" si="13"/>
+        <v>90619761.167242318</v>
       </c>
       <c r="C69" s="4">
-        <f>(gamma-1)*qfire*A69/(Volume/(1-0.0001))</f>
-        <v>23199.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>185599.99999999997</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.1482831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.53353539885356</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="7"/>
-        <v>87.283095233281472</v>
+        <f t="shared" si="9"/>
+        <v>559.64320870545987</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="2">
         <v>87.2376</v>
       </c>
       <c r="H69" s="4">
+        <f t="shared" si="10"/>
+        <v>-472.40560870545988</v>
+      </c>
+      <c r="I69" s="9">
         <f t="shared" si="8"/>
-        <v>-4.5495233281471315E-2</v>
-      </c>
-      <c r="I69" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.2622379543705787E-2</v>
+        <v>-56.725439613009513</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
         <v>23353.4</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="9"/>
-        <v>153.40000000000509</v>
+        <f t="shared" si="11"/>
+        <v>-162246.59999999998</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" si="10"/>
-        <v>0.12321285140562657</v>
+        <f t="shared" si="12"/>
+        <v>-56.55162077378877</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>590</v>
       </c>
       <c r="B70">
-        <f>E0+qconv*A70+(D70-M0)*cp*(E69+273.15)</f>
-        <v>312655089.78500378</v>
+        <f t="shared" si="13"/>
+        <v>91647572.71310772</v>
       </c>
       <c r="C70" s="4">
-        <f>(gamma-1)*qfire*A70/(Volume/(1-0.0001))</f>
-        <v>23599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>188799.99999999997</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.1682831908286</v>
+        <f t="shared" si="15"/>
+        <v>150.55353539885357</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="7"/>
-        <v>88.443606960232444</v>
+        <f t="shared" si="9"/>
+        <v>568.97688401340974</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="2">
         <v>88.396500000000003</v>
       </c>
       <c r="H70" s="4">
+        <f t="shared" si="10"/>
+        <v>-480.58038401340974</v>
+      </c>
+      <c r="I70" s="9">
         <f t="shared" si="8"/>
-        <v>-4.7106960232440542E-2</v>
-      </c>
-      <c r="I70" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.3027597647106991E-2</v>
+        <v>-57.067455408032927</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2">
         <v>23756.400000000001</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="9"/>
-        <v>156.40000000000509</v>
+        <f t="shared" si="11"/>
+        <v>-165043.59999999998</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="10"/>
-        <v>0.12522017614091679</v>
+        <f t="shared" si="12"/>
+        <v>-56.891968286797642</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="B71">
-        <f>E0+qconv*A71+(D71-M0)*cp*(E70+273.15)</f>
-        <v>313663794.2762925</v>
+        <f t="shared" si="13"/>
+        <v>92675763.262945876</v>
       </c>
       <c r="C71" s="4">
-        <f>(gamma-1)*qfire*A71/(Volume/(1-0.0001))</f>
-        <v>23999.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>191999.99999999997</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="11"/>
-        <v>1196.1882831908285</v>
+        <f t="shared" si="15"/>
+        <v>150.57353539885355</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="7"/>
-        <v>89.604134231082924</v>
+        <f t="shared" si="9"/>
+        <v>578.31156193303104</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="2">
         <v>89.555400000000006</v>
       </c>
       <c r="H71" s="4">
+        <f t="shared" si="10"/>
+        <v>-488.75616193303102</v>
+      </c>
+      <c r="I71" s="9">
         <f t="shared" si="8"/>
-        <v>-4.8734231082917745E-2</v>
-      </c>
-      <c r="I71" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.3434507420905888E-2</v>
+        <v>-57.402023037121261</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2">
         <v>24159.3</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="9"/>
-        <v>159.30000000000291</v>
+        <f t="shared" si="11"/>
+        <v>-167840.69999999998</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="10"/>
-        <v>0.1271348762968898</v>
+        <f t="shared" si="12"/>
+        <v>-57.22492328673713</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>610</v>
       </c>
       <c r="B72">
-        <f>E0+qconv*A72+(D72-M0)*cp*(E71+273.15)</f>
-        <v>314672545.76428705</v>
+        <f t="shared" si="13"/>
+        <v>93704332.877824992</v>
       </c>
       <c r="C72" s="4">
-        <f>(gamma-1)*qfire*A72/(Volume/(1-0.0001))</f>
-        <v>24399.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>195199.99999999997</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" ref="D72:D101" si="12">M0+mfire*A72</f>
-        <v>1196.2082831908285</v>
+        <f t="shared" ref="D72:D101" si="16">M0+mfire*A72</f>
+        <v>150.59353539885356</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="7"/>
-        <v>90.764677046145152</v>
+        <f t="shared" si="9"/>
+        <v>587.64724262585116</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="2">
         <v>90.714299999999994</v>
       </c>
       <c r="H72" s="4">
+        <f t="shared" si="10"/>
+        <v>-496.93294262585118</v>
+      </c>
+      <c r="I72" s="9">
         <f t="shared" si="8"/>
-        <v>-5.0377046145158033E-2</v>
-      </c>
-      <c r="I72" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.3843092714496404E-2</v>
+        <v>-57.729383647880127</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
         <v>24562.2</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="9"/>
-        <v>162.20000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-170637.79999999996</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" si="10"/>
-        <v>0.12903739061257308</v>
+        <f t="shared" si="12"/>
+        <v>-57.550691399662725</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>620</v>
       </c>
       <c r="B73">
-        <f>E0+qconv*A73+(D73-M0)*cp*(E72+273.15)</f>
-        <v>315681344.24993169</v>
+        <f t="shared" si="13"/>
+        <v>94733281.61882633</v>
       </c>
       <c r="C73" s="4">
-        <f>(gamma-1)*qfire*A73/(Volume/(1-0.0001))</f>
-        <v>24799.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>198399.99999999997</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.2282831908285</v>
+        <f t="shared" si="16"/>
+        <v>150.61353539885357</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="7"/>
-        <v>91.925235405731485</v>
+        <f t="shared" si="9"/>
+        <v>596.98392625343172</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="2">
         <v>91.873199999999997</v>
       </c>
       <c r="H73" s="4">
+        <f t="shared" si="10"/>
+        <v>-505.11072625343172</v>
+      </c>
+      <c r="I73" s="9">
         <f t="shared" si="8"/>
-        <v>-5.2035405731487572E-2</v>
-      </c>
-      <c r="I73" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.4253337582226659E-2</v>
+        <v>-58.049768088954522</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2">
         <v>24965.200000000001</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="9"/>
-        <v>165.20000000000437</v>
+        <f t="shared" si="11"/>
+        <v>-173434.79999999996</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="10"/>
-        <v>0.13100713719270768</v>
+        <f t="shared" si="12"/>
+        <v>-57.869469469469458</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>630</v>
       </c>
       <c r="B74">
-        <f>E0+qconv*A74+(D74-M0)*cp*(E73+273.15)</f>
-        <v>316690189.73417056</v>
+        <f t="shared" si="13"/>
+        <v>95762609.547044262</v>
       </c>
       <c r="C74" s="4">
-        <f>(gamma-1)*qfire*A74/(Volume/(1-0.0001))</f>
-        <v>25199.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>201599.99999999997</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.2482831908285</v>
+        <f t="shared" si="16"/>
+        <v>150.63353539885355</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="7"/>
-        <v>93.085809310154104</v>
+        <f t="shared" si="9"/>
+        <v>606.32161297736934</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="2">
         <v>93.0321</v>
       </c>
       <c r="H74" s="4">
+        <f t="shared" si="10"/>
+        <v>-513.28951297736933</v>
+      </c>
+      <c r="I74" s="9">
         <f t="shared" si="8"/>
-        <v>-5.3709310154104628E-2</v>
-      </c>
-      <c r="I74" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.4665226280104093E-2</v>
+        <v>-58.363397454032139</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
         <v>25368.1</v>
       </c>
       <c r="L74" s="4">
-        <f t="shared" si="9"/>
-        <v>168.10000000000218</v>
+        <f t="shared" si="11"/>
+        <v>-176231.89999999997</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="10"/>
-        <v>0.13288537549407287</v>
+        <f t="shared" si="12"/>
+        <v>-58.181545064377673</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>640</v>
       </c>
       <c r="B75">
-        <f>E0+qconv*A75+(D75-M0)*cp*(E74+273.15)</f>
-        <v>317699082.21794802</v>
+        <f t="shared" si="13"/>
+        <v>96792316.723586366</v>
       </c>
       <c r="C75" s="4">
-        <f>(gamma-1)*qfire*A75/(Volume/(1-0.0001))</f>
-        <v>25599.999999999996</v>
+        <f t="shared" si="14"/>
+        <v>204799.99999999997</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.2682831908285</v>
+        <f t="shared" si="16"/>
+        <v>150.65353539885356</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" ref="E75:E101" si="13">B75/(cv*D75)-273.15</f>
-        <v>94.246398759725423</v>
+        <f t="shared" ref="E75:E101" si="17">B75/(cv*D75)-273.15</f>
+        <v>615.66030295929545</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="2">
         <v>94.191000000000003</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" ref="H75:H101" si="14">G75-E75</f>
-        <v>-5.5398759725420632E-2</v>
+        <f t="shared" ref="H75:H101" si="18">G75-E75</f>
+        <v>-521.46930295929542</v>
       </c>
       <c r="I75" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.5078743262709828E-2</v>
+        <f t="shared" si="8"/>
+        <v>-58.670483591725088</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2">
         <v>25771.1</v>
       </c>
       <c r="L75" s="4">
-        <f t="shared" ref="L75:L101" si="15">K75-C75</f>
-        <v>171.10000000000218</v>
+        <f t="shared" ref="L75:L101" si="19">K75-C75</f>
+        <v>-179028.89999999997</v>
       </c>
       <c r="M75" s="9">
-        <f t="shared" ref="M75:M101" si="16">L75/(C75+P0)*100</f>
-        <v>0.13483057525610889</v>
+        <f t="shared" ref="M75:M101" si="20">L75/(C75+P0)*100</f>
+        <v>-58.487063051290413</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>650</v>
       </c>
       <c r="B76">
-        <f>E0+qconv*A76+(D76-M0)*cp*(E75+273.15)</f>
-        <v>318708021.70220828</v>
+        <f t="shared" ref="B76:B101" si="21">E0+qconv*A76+(D76-M0)*cp*(E75+273.15)</f>
+        <v>97822403.209573254</v>
       </c>
       <c r="C76" s="4">
-        <f>(gamma-1)*qfire*A76/(Volume/(1-0.0001))</f>
-        <v>25999.999999999996</v>
+        <f t="shared" ref="C76:C101" si="22">(gamma-1)*qfire*A76/(Volume/(1-0.0001))</f>
+        <v>207999.99999999997</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.2882831908285</v>
+        <f t="shared" si="16"/>
+        <v>150.67353539885357</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="13"/>
-        <v>95.407003754757682</v>
+        <f t="shared" si="17"/>
+        <v>624.99999636087568</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="2">
         <v>95.349900000000005</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="14"/>
-        <v>-5.7103754757676484E-2</v>
+        <f t="shared" si="18"/>
+        <v>-529.65009636087564</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="6"/>
-        <v>-1.5493873179974629E-2</v>
+        <f t="shared" si="8"/>
+        <v>-58.971229583801367</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
         <v>26174.1</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="15"/>
-        <v>174.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-181825.89999999997</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="16"/>
-        <v>0.13676355066771578</v>
+        <f t="shared" si="20"/>
+        <v>-58.78625929518266</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" ref="A77:A101" si="17">A76+10</f>
+        <f t="shared" ref="A77:A101" si="23">A76+10</f>
         <v>660</v>
       </c>
       <c r="B77">
-        <f>E0+qconv*A77+(D77-M0)*cp*(E76+273.15)</f>
-        <v>319717008.18789572</v>
+        <f t="shared" si="21"/>
+        <v>98852869.0661387</v>
       </c>
       <c r="C77" s="4">
-        <f>(gamma-1)*qfire*A77/(Volume/(1-0.0001))</f>
-        <v>26399.999999999996</v>
+        <f t="shared" si="22"/>
+        <v>211199.99999999997</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.3082831908284</v>
+        <f t="shared" si="16"/>
+        <v>150.69353539885356</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="13"/>
-        <v>96.567624295563235</v>
+        <f t="shared" si="17"/>
+        <v>634.34069334381104</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="2">
         <v>96.508700000000005</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="14"/>
-        <v>-5.8924295563230089E-2</v>
+        <f t="shared" si="18"/>
+        <v>-537.83199334381106</v>
       </c>
       <c r="I77" s="9">
-        <f t="shared" ref="I77:I101" si="18">H77/(E77+273.15)*100</f>
-        <v>-1.5937648543398696E-2</v>
+        <f t="shared" ref="I77:I101" si="24">H77/(E77+273.15)*100</f>
+        <v>-59.265841213431436</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2">
         <v>26577.1</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="15"/>
-        <v>177.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-184622.89999999997</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="16"/>
-        <v>0.13868441660141126</v>
+        <f t="shared" si="20"/>
+        <v>-59.07932799999999</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
+        <f t="shared" si="23"/>
+        <v>670</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="21"/>
+        <v>99883714.354429677</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="22"/>
+        <v>214399.99999999997</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="16"/>
+        <v>150.71353539885357</v>
+      </c>
+      <c r="E78" s="4">
         <f t="shared" si="17"/>
-        <v>670</v>
-      </c>
-      <c r="B78">
-        <f>E0+qconv*A78+(D78-M0)*cp*(E77+273.15)</f>
-        <v>320726041.6759547</v>
-      </c>
-      <c r="C78" s="4">
-        <f>(gamma-1)*qfire*A78/(Volume/(1-0.0001))</f>
-        <v>26799.999999999996</v>
-      </c>
-      <c r="D78" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.3282831908284</v>
-      </c>
-      <c r="E78" s="4">
-        <f t="shared" si="13"/>
-        <v>97.728260382454494</v>
+        <v>643.68239406983696</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="2">
         <v>97.667500000000004</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.0760382454489559E-2</v>
+        <f t="shared" si="18"/>
+        <v>-546.01489406983694</v>
       </c>
       <c r="I78" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.638283742806404E-2</v>
+        <f t="shared" si="24"/>
+        <v>-59.554494103994969</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2">
         <v>26980.1</v>
       </c>
       <c r="L78" s="4">
-        <f t="shared" si="15"/>
-        <v>180.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-187419.89999999997</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="16"/>
-        <v>0.14059328649492753</v>
+        <f t="shared" si="20"/>
+        <v>-59.366455495723777</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
+        <f t="shared" si="23"/>
+        <v>680</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="21"/>
+        <v>100914939.13560621</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="22"/>
+        <v>217599.99999999997</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="16"/>
+        <v>150.73353539885358</v>
+      </c>
+      <c r="E79" s="4">
         <f t="shared" si="17"/>
-        <v>680</v>
-      </c>
-      <c r="B79">
-        <f>E0+qconv*A79+(D79-M0)*cp*(E78+273.15)</f>
-        <v>321735122.16732955</v>
-      </c>
-      <c r="C79" s="4">
-        <f>(gamma-1)*qfire*A79/(Volume/(1-0.0001))</f>
-        <v>27199.999999999996</v>
-      </c>
-      <c r="D79" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.3482831908284</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="13"/>
-        <v>98.888912015743756</v>
+        <v>653.02509870072333</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="2">
         <v>98.826400000000007</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.2512015743749316E-2</v>
+        <f t="shared" si="18"/>
+        <v>-554.1986987007233</v>
       </c>
       <c r="I79" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.6802547724121923E-2</v>
+        <f t="shared" si="24"/>
+        <v>-59.837356832220614</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2">
         <v>27383.1</v>
       </c>
       <c r="L79" s="4">
-        <f t="shared" si="15"/>
-        <v>183.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-190216.89999999997</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="16"/>
-        <v>0.14249027237354256</v>
+        <f t="shared" si="20"/>
+        <v>-59.647820633427393</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
+        <f t="shared" si="23"/>
+        <v>690</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="21"/>
+        <v>101946543.47084148</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="22"/>
+        <v>220799.99999999997</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="16"/>
+        <v>150.75353539885356</v>
+      </c>
+      <c r="E80" s="4">
         <f t="shared" si="17"/>
-        <v>690</v>
-      </c>
-      <c r="B80">
-        <f>E0+qconv*A80+(D80-M0)*cp*(E79+273.15)</f>
-        <v>322744249.66296476</v>
-      </c>
-      <c r="C80" s="4">
-        <f>(gamma-1)*qfire*A80/(Volume/(1-0.0001))</f>
-        <v>27599.999999999996</v>
-      </c>
-      <c r="D80" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.3682831908286</v>
-      </c>
-      <c r="E80" s="4">
-        <f t="shared" si="13"/>
-        <v>100.04957919574343</v>
+        <v>662.36880739827529</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="2">
         <v>99.985200000000006</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.4379195743427431E-2</v>
+        <f t="shared" si="18"/>
+        <v>-562.38360739827533</v>
       </c>
       <c r="I80" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.7250607806730808E-2</v>
+        <f t="shared" si="24"/>
+        <v>-60.114623345979787</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2">
         <v>27786.1</v>
       </c>
       <c r="L80" s="4">
-        <f t="shared" si="15"/>
-        <v>186.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-193013.89999999997</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="16"/>
-        <v>0.14437548487199547</v>
+        <f t="shared" si="20"/>
+        <v>-59.923595156783591</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
+        <f t="shared" si="23"/>
+        <v>700</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="21"/>
+        <v>102978527.42132188</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="22"/>
+        <v>223999.99999999997</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="16"/>
+        <v>150.77353539885357</v>
+      </c>
+      <c r="E81" s="4">
         <f t="shared" si="17"/>
-        <v>700</v>
-      </c>
-      <c r="B81">
-        <f>E0+qconv*A81+(D81-M0)*cp*(E80+273.15)</f>
-        <v>323753424.16380459</v>
-      </c>
-      <c r="C81" s="4">
-        <f>(gamma-1)*qfire*A81/(Volume/(1-0.0001))</f>
-        <v>27999.999999999996</v>
-      </c>
-      <c r="D81" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.3882831908286</v>
-      </c>
-      <c r="E81" s="4">
-        <f t="shared" si="13"/>
-        <v>101.21026192276577</v>
+        <v>671.71352032433253</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="2">
         <v>101.14400000000001</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.6261922765761483E-2</v>
+        <f t="shared" si="18"/>
+        <v>-570.56952032433253</v>
       </c>
       <c r="I81" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.7700041779389497E-2</v>
+        <f t="shared" si="24"/>
+        <v>-60.386448206665833</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2">
         <v>28189.1</v>
       </c>
       <c r="L81" s="4">
-        <f t="shared" si="15"/>
-        <v>189.10000000000218</v>
+        <f t="shared" si="19"/>
+        <v>-195810.89999999997</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" si="16"/>
-        <v>0.1462490332559955</v>
+        <f t="shared" si="20"/>
+        <v>-60.193944051644621</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
+        <f t="shared" si="23"/>
+        <v>710</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="21"/>
+        <v>104010891.04824686</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="22"/>
+        <v>227199.99999999997</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="16"/>
+        <v>150.79353539885355</v>
+      </c>
+      <c r="E82" s="4">
         <f t="shared" si="17"/>
-        <v>710</v>
-      </c>
-      <c r="B82">
-        <f>E0+qconv*A82+(D82-M0)*cp*(E81+273.15)</f>
-        <v>324762645.67079353</v>
-      </c>
-      <c r="C82" s="4">
-        <f>(gamma-1)*qfire*A82/(Volume/(1-0.0001))</f>
-        <v>28399.999999999996</v>
-      </c>
-      <c r="D82" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.4082831908286</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="13"/>
-        <v>102.37096019712317</v>
+        <v>681.05923764076954</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="2">
         <v>102.303</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.7960197123170474E-2</v>
+        <f t="shared" si="18"/>
+        <v>-578.75623764076954</v>
       </c>
       <c r="I82" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.809757758594779E-2</v>
+        <f t="shared" si="24"/>
+        <v>-60.652969475721378</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2">
         <v>28592.2</v>
       </c>
       <c r="L82" s="4">
-        <f t="shared" si="15"/>
-        <v>192.20000000000437</v>
+        <f t="shared" si="19"/>
+        <v>-198607.79999999996</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="16"/>
-        <v>0.14818812644564716</v>
+        <f t="shared" si="20"/>
+        <v>-60.458995433789944</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
+        <f t="shared" si="23"/>
+        <v>720</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="21"/>
+        <v>105043634.41282913</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="22"/>
+        <v>230399.99999999997</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="16"/>
+        <v>150.81353539885356</v>
+      </c>
+      <c r="E83" s="4">
         <f t="shared" si="17"/>
-        <v>720</v>
-      </c>
-      <c r="B83">
-        <f>E0+qconv*A83+(D83-M0)*cp*(E82+273.15)</f>
-        <v>325771914.18487608</v>
-      </c>
-      <c r="C83" s="4">
-        <f>(gamma-1)*qfire*A83/(Volume/(1-0.0001))</f>
-        <v>28799.999999999996</v>
-      </c>
-      <c r="D83" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.4282831908286</v>
-      </c>
-      <c r="E83" s="4">
-        <f t="shared" si="13"/>
-        <v>103.53167401912805</v>
+        <v>690.40595950949569</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="2">
         <v>103.462</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="14"/>
-        <v>-6.9674019128044051E-2</v>
+        <f t="shared" si="18"/>
+        <v>-586.9439595094957</v>
       </c>
       <c r="I83" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.8496790243240233E-2</v>
+        <f t="shared" si="24"/>
+        <v>-60.914361404425676</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2">
         <v>28995.200000000001</v>
       </c>
       <c r="L83" s="4">
-        <f t="shared" si="15"/>
-        <v>195.20000000000437</v>
+        <f t="shared" si="19"/>
+        <v>-201404.79999999996</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15003843197540689</v>
+        <f t="shared" si="20"/>
+        <v>-60.71896291829966</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
+        <f t="shared" si="23"/>
+        <v>730</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="21"/>
+        <v>106076757.57629448</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="22"/>
+        <v>233599.99999999997</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="16"/>
+        <v>150.83353539885357</v>
+      </c>
+      <c r="E84" s="4">
         <f t="shared" si="17"/>
-        <v>730</v>
-      </c>
-      <c r="B84">
-        <f>E0+qconv*A84+(D84-M0)*cp*(E83+273.15)</f>
-        <v>326781229.70699674</v>
-      </c>
-      <c r="C84" s="4">
-        <f>(gamma-1)*qfire*A84/(Volume/(1-0.0001))</f>
-        <v>29199.999999999996</v>
-      </c>
-      <c r="D84" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.4482831908285</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="13"/>
-        <v>104.69240338909276</v>
+        <v>699.75368609245515</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="2">
         <v>104.62</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="14"/>
-        <v>-7.2403389092755788E-2</v>
+        <f t="shared" si="18"/>
+        <v>-595.13368609245515</v>
       </c>
       <c r="I84" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.9162324938473509E-2</v>
+        <f t="shared" si="24"/>
+        <v>-61.170873807944389</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
         <v>29398.3</v>
       </c>
       <c r="L84" s="4">
-        <f t="shared" si="15"/>
-        <v>198.30000000000291</v>
+        <f t="shared" si="19"/>
+        <v>-204201.69999999998</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15195402298850796</v>
+        <f t="shared" si="20"/>
+        <v>-60.973932517169295</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
+        <f t="shared" si="23"/>
+        <v>740</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="21"/>
+        <v>107110260.59988183</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="22"/>
+        <v>236799.99999999997</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="16"/>
+        <v>150.85353539885355</v>
+      </c>
+      <c r="E85" s="4">
         <f t="shared" si="17"/>
-        <v>740</v>
-      </c>
-      <c r="B85">
-        <f>E0+qconv*A85+(D85-M0)*cp*(E84+273.15)</f>
-        <v>327790592.23810005</v>
-      </c>
-      <c r="C85" s="4">
-        <f>(gamma-1)*qfire*A85/(Volume/(1-0.0001))</f>
-        <v>29599.999999999996</v>
-      </c>
-      <c r="D85" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.4682831908285</v>
-      </c>
-      <c r="E85" s="4">
-        <f t="shared" si="13"/>
-        <v>105.85314830732972</v>
+        <v>709.10241755162633</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="2">
         <v>105.779</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="14"/>
-        <v>-7.4148307329721774E-2</v>
+        <f t="shared" si="18"/>
+        <v>-603.32341755162633</v>
       </c>
       <c r="I85" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.9564034668544675E-2</v>
+        <f t="shared" si="24"/>
+        <v>-61.422441601668666</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2">
         <v>29801.3</v>
       </c>
       <c r="L85" s="4">
-        <f t="shared" si="15"/>
-        <v>201.30000000000291</v>
+        <f t="shared" si="19"/>
+        <v>-206998.69999999998</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15378151260504425</v>
+        <f t="shared" si="20"/>
+        <v>-61.224105294291618</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
+        <f t="shared" si="23"/>
+        <v>750</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="21"/>
+        <v>108144143.54484338</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="22"/>
+        <v>239999.99999999997</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" si="16"/>
+        <v>150.87353539885356</v>
+      </c>
+      <c r="E86" s="4">
         <f t="shared" si="17"/>
-        <v>750</v>
-      </c>
-      <c r="B86">
-        <f>E0+qconv*A86+(D86-M0)*cp*(E85+273.15)</f>
-        <v>328800001.77913052</v>
-      </c>
-      <c r="C86" s="4">
-        <f>(gamma-1)*qfire*A86/(Volume/(1-0.0001))</f>
-        <v>29999.999999999996</v>
-      </c>
-      <c r="D86" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.4882831908285</v>
-      </c>
-      <c r="E86" s="4">
-        <f t="shared" si="13"/>
-        <v>107.01390877415139</v>
+        <v>718.45215404902342</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="2">
         <v>106.938</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="14"/>
-        <v>-7.5908774151386638E-2</v>
+        <f t="shared" si="18"/>
+        <v>-611.51415404902343</v>
       </c>
       <c r="I86" s="9">
-        <f t="shared" si="18"/>
-        <v>-1.996738049020921E-2</v>
+        <f t="shared" si="24"/>
+        <v>-61.669304725894236</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
         <v>30204.400000000001</v>
       </c>
       <c r="L86" s="4">
-        <f t="shared" si="15"/>
-        <v>204.40000000000509</v>
+        <f t="shared" si="19"/>
+        <v>-209795.59999999998</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15567402894135957</v>
+        <f t="shared" si="20"/>
+        <v>-61.469557573981824</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
+        <f t="shared" si="23"/>
+        <v>760</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="21"/>
+        <v>109178406.47244439</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="22"/>
+        <v>243199.99999999997</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="16"/>
+        <v>150.89353539885357</v>
+      </c>
+      <c r="E87" s="4">
         <f t="shared" si="17"/>
-        <v>760</v>
-      </c>
-      <c r="B87">
-        <f>E0+qconv*A87+(D87-M0)*cp*(E86+273.15)</f>
-        <v>329809458.33103275</v>
-      </c>
-      <c r="C87" s="4">
-        <f>(gamma-1)*qfire*A87/(Volume/(1-0.0001))</f>
-        <v>30399.999999999996</v>
-      </c>
-      <c r="D87" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.5082831908285</v>
-      </c>
-      <c r="E87" s="4">
-        <f t="shared" si="13"/>
-        <v>108.17468478987007</v>
+        <v>727.80289574669462</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="2">
         <v>108.09699999999999</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="14"/>
-        <v>-7.7684789870076543E-2</v>
+        <f t="shared" si="18"/>
+        <v>-619.70589574669464</v>
       </c>
       <c r="I87" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.0372347495123466E-2</v>
+        <f t="shared" si="24"/>
+        <v>-61.911594279809158</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2">
         <v>30607.5</v>
       </c>
       <c r="L87" s="4">
-        <f t="shared" si="15"/>
-        <v>207.50000000000364</v>
+        <f t="shared" si="19"/>
+        <v>-212592.49999999997</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15755504935459655</v>
+        <f t="shared" si="20"/>
+        <v>-61.710449927431057</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
+        <f t="shared" si="23"/>
+        <v>770</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="21"/>
+        <v>110213049.4439633</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="22"/>
+        <v>246399.99999999994</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" si="16"/>
+        <v>150.91353539885355</v>
+      </c>
+      <c r="E88" s="4">
         <f t="shared" si="17"/>
-        <v>770</v>
-      </c>
-      <c r="B88">
-        <f>E0+qconv*A88+(D88-M0)*cp*(E87+273.15)</f>
-        <v>330818961.89475131</v>
-      </c>
-      <c r="C88" s="4">
-        <f>(gamma-1)*qfire*A88/(Volume/(1-0.0001))</f>
-        <v>30799.999999999993</v>
-      </c>
-      <c r="D88" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.5282831908285</v>
-      </c>
-      <c r="E88" s="4">
-        <f t="shared" si="13"/>
-        <v>109.33547635479835</v>
+        <v>737.15464280672347</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="2">
         <v>109.255</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.0476354798349803E-2</v>
+        <f t="shared" si="18"/>
+        <v>-627.89964280672348</v>
       </c>
       <c r="I88" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.1040368791336517E-2</v>
+        <f t="shared" si="24"/>
+        <v>-62.149535516570317</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2">
         <v>31010.6</v>
       </c>
       <c r="L88" s="4">
-        <f t="shared" si="15"/>
-        <v>210.60000000000582</v>
+        <f t="shared" si="19"/>
+        <v>-215389.39999999994</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="16"/>
-        <v>0.15942467827403925</v>
+        <f t="shared" si="20"/>
+        <v>-61.946908254242153</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
+        <f t="shared" si="23"/>
+        <v>780</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="21"/>
+        <v>111248072.52069183</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="22"/>
+        <v>249599.99999999994</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="16"/>
+        <v>150.93353539885356</v>
+      </c>
+      <c r="E89" s="4">
         <f t="shared" si="17"/>
-        <v>780</v>
-      </c>
-      <c r="B89">
-        <f>E0+qconv*A89+(D89-M0)*cp*(E88+273.15)</f>
-        <v>331828512.4712308</v>
-      </c>
-      <c r="C89" s="4">
-        <f>(gamma-1)*qfire*A89/(Volume/(1-0.0001))</f>
-        <v>31199.999999999993</v>
-      </c>
-      <c r="D89" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.5482831908284</v>
-      </c>
-      <c r="E89" s="4">
-        <f t="shared" si="13"/>
-        <v>110.4962834692484</v>
+        <v>746.50739539122799</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="2">
         <v>110.414</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.2283469248395136E-2</v>
+        <f t="shared" si="18"/>
+        <v>-636.093395391228</v>
       </c>
       <c r="I89" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.1447743088847272E-2</v>
+        <f t="shared" si="24"/>
+        <v>-62.383051235279673</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
         <v>31413.7</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" si="15"/>
-        <v>213.700000000008</v>
+        <f t="shared" si="19"/>
+        <v>-218186.29999999993</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="16"/>
-        <v>0.16128301886793056</v>
+        <f t="shared" si="20"/>
+        <v>-62.179053861498993</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
+        <f t="shared" si="23"/>
+        <v>790</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="21"/>
+        <v>112283475.76393478</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="22"/>
+        <v>252799.99999999994</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" si="16"/>
+        <v>150.95353539885357</v>
+      </c>
+      <c r="E90" s="4">
         <f t="shared" si="17"/>
-        <v>790</v>
-      </c>
-      <c r="B90">
-        <f>E0+qconv*A90+(D90-M0)*cp*(E89+273.15)</f>
-        <v>332838110.06141597</v>
-      </c>
-      <c r="C90" s="4">
-        <f>(gamma-1)*qfire*A90/(Volume/(1-0.0001))</f>
-        <v>31599.999999999993</v>
-      </c>
-      <c r="D90" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.5682831908284</v>
-      </c>
-      <c r="E90" s="4">
-        <f t="shared" si="13"/>
-        <v>111.65710613353292</v>
+        <v>755.86115366236152</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="2">
         <v>111.57299999999999</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.4106133532927174E-2</v>
+        <f t="shared" si="18"/>
+        <v>-644.28815366236154</v>
       </c>
       <c r="I90" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.1856699679485985E-2</v>
+        <f t="shared" si="24"/>
+        <v>-62.61235860945439</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2">
         <v>31816.799999999999</v>
       </c>
       <c r="L90" s="4">
-        <f t="shared" si="15"/>
-        <v>216.80000000000655</v>
+        <f t="shared" si="19"/>
+        <v>-220983.19999999995</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="16"/>
-        <v>0.16313017306245789</v>
+        <f t="shared" si="20"/>
+        <v>-62.407003671279291</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
+        <f t="shared" si="23"/>
+        <v>800</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="21"/>
+        <v>113319259.23501009</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="22"/>
+        <v>255999.99999999994</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="16"/>
+        <v>150.97353539885356</v>
+      </c>
+      <c r="E91" s="4">
         <f t="shared" si="17"/>
-        <v>800</v>
-      </c>
-      <c r="B91">
-        <f>E0+qconv*A91+(D91-M0)*cp*(E90+273.15)</f>
-        <v>333847754.66625136</v>
-      </c>
-      <c r="C91" s="4">
-        <f>(gamma-1)*qfire*A91/(Volume/(1-0.0001))</f>
-        <v>31999.999999999993</v>
-      </c>
-      <c r="D91" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.5882831908284</v>
-      </c>
-      <c r="E91" s="4">
-        <f t="shared" si="13"/>
-        <v>112.81794434796416</v>
+        <v>765.21591778231152</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="2">
         <v>112.73099999999999</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.6944347964163171E-2</v>
+        <f t="shared" si="18"/>
+        <v>-652.48491778231153</v>
       </c>
       <c r="I91" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.252631319190064E-2</v>
+        <f t="shared" si="24"/>
+        <v>-62.837667012015885</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2">
         <v>32219.9</v>
       </c>
       <c r="L91" s="4">
-        <f t="shared" si="15"/>
-        <v>219.90000000000873</v>
+        <f t="shared" si="19"/>
+        <v>-223780.09999999995</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="16"/>
-        <v>0.16496624156039666</v>
+        <f t="shared" si="20"/>
+        <v>-62.630870417016503</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
+        <f t="shared" si="23"/>
+        <v>810</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="21"/>
+        <v>114355422.99524903</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="22"/>
+        <v>259199.99999999994</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="16"/>
+        <v>150.99353539885357</v>
+      </c>
+      <c r="E92" s="4">
         <f t="shared" si="17"/>
-        <v>810</v>
-      </c>
-      <c r="B92">
-        <f>E0+qconv*A92+(D92-M0)*cp*(E91+273.15)</f>
-        <v>334857446.28668177</v>
-      </c>
-      <c r="C92" s="4">
-        <f>(gamma-1)*qfire*A92/(Volume/(1-0.0001))</f>
-        <v>32399.999999999993</v>
-      </c>
-      <c r="D92" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.6082831908284</v>
-      </c>
-      <c r="E92" s="4">
-        <f t="shared" si="13"/>
-        <v>113.97879811285469</v>
+        <v>774.57168791330093</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="2">
         <v>113.89</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="14"/>
-        <v>-8.8798112854689748E-2</v>
+        <f t="shared" si="18"/>
+        <v>-660.68168791330095</v>
       </c>
       <c r="I92" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.2937614893946377E-2</v>
+        <f t="shared" si="24"/>
+        <v>-63.058892025911028</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2">
         <v>32623</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" si="15"/>
-        <v>223.00000000000728</v>
+        <f t="shared" si="19"/>
+        <v>-226576.99999999994</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="16"/>
-        <v>0.16679132385939213</v>
+        <f t="shared" si="20"/>
+        <v>-62.850762829403592</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
+        <f t="shared" si="23"/>
+        <v>820</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="21"/>
+        <v>115391967.10599594</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="22"/>
+        <v>262399.99999999994</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="16"/>
+        <v>151.01353539885355</v>
+      </c>
+      <c r="E93" s="4">
         <f t="shared" si="17"/>
-        <v>820</v>
-      </c>
-      <c r="B93">
-        <f>E0+qconv*A93+(D93-M0)*cp*(E92+273.15)</f>
-        <v>335867184.92365199</v>
-      </c>
-      <c r="C93" s="4">
-        <f>(gamma-1)*qfire*A93/(Volume/(1-0.0001))</f>
-        <v>32799.999999999993</v>
-      </c>
-      <c r="D93" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.6282831908286</v>
-      </c>
-      <c r="E93" s="4">
-        <f t="shared" si="13"/>
-        <v>115.13966742851699</v>
+        <v>783.92846421758793</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="2">
         <v>115.04900000000001</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="14"/>
-        <v>-9.0667428516979953E-2</v>
+        <f t="shared" si="18"/>
+        <v>-668.87946421758795</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.3350461297987429E-2</v>
+        <f t="shared" si="24"/>
+        <v>-63.276236046741232</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2">
         <v>33026.199999999997</v>
       </c>
       <c r="L93" s="4">
-        <f t="shared" si="15"/>
-        <v>226.20000000000437</v>
+        <f t="shared" si="19"/>
+        <v>-229373.79999999993</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="16"/>
-        <v>0.16868008948546187</v>
+        <f t="shared" si="20"/>
+        <v>-63.066758317294472</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
+        <f t="shared" si="23"/>
+        <v>830</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="21"/>
+        <v>116428891.62860841</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="22"/>
+        <v>265599.99999999994</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" si="16"/>
+        <v>151.03353539885356</v>
+      </c>
+      <c r="E94" s="4">
         <f t="shared" si="17"/>
-        <v>830</v>
-      </c>
-      <c r="B94">
-        <f>E0+qconv*A94+(D94-M0)*cp*(E93+273.15)</f>
-        <v>336876970.57810652</v>
-      </c>
-      <c r="C94" s="4">
-        <f>(gamma-1)*qfire*A94/(Volume/(1-0.0001))</f>
-        <v>33199.999999999993</v>
-      </c>
-      <c r="D94" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.6482831908286</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="13"/>
-        <v>116.3005522952634</v>
+        <v>793.28624685746433</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="2">
         <v>116.20699999999999</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="14"/>
-        <v>-9.3552295263407359E-2</v>
+        <f t="shared" si="18"/>
+        <v>-677.07924685746434</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.4021610628627468E-2</v>
+        <f t="shared" si="24"/>
+        <v>-63.489894389154244</v>
       </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2">
         <v>33429.300000000003</v>
       </c>
       <c r="L94" s="4">
-        <f t="shared" si="15"/>
-        <v>229.30000000001019</v>
+        <f t="shared" si="19"/>
+        <v>-232170.69999999995</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17048327137547226</v>
+        <f t="shared" si="20"/>
+        <v>-63.279013355137636</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
+        <f t="shared" si="23"/>
+        <v>840</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="21"/>
+        <v>117466196.6244572</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="22"/>
+        <v>268799.99999999994</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="16"/>
+        <v>151.05353539885357</v>
+      </c>
+      <c r="E95" s="4">
         <f t="shared" si="17"/>
-        <v>840</v>
-      </c>
-      <c r="B95">
-        <f>E0+qconv*A95+(D95-M0)*cp*(E94+273.15)</f>
-        <v>337886803.25099033</v>
-      </c>
-      <c r="C95" s="4">
-        <f>(gamma-1)*qfire*A95/(Volume/(1-0.0001))</f>
-        <v>33599.999999999993</v>
-      </c>
-      <c r="D95" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.6682831908286</v>
-      </c>
-      <c r="E95" s="4">
-        <f t="shared" si="13"/>
-        <v>117.46145271340657</v>
+        <v>802.6450359952579</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="2">
         <v>117.366</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="14"/>
-        <v>-9.5452713406572798E-2</v>
+        <f t="shared" si="18"/>
+        <v>-685.27903599525791</v>
       </c>
       <c r="I95" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.4436742124047985E-2</v>
+        <f t="shared" si="24"/>
+        <v>-63.699776729428848</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2">
         <v>33832.5</v>
       </c>
       <c r="L95" s="4">
-        <f t="shared" si="15"/>
-        <v>232.50000000000728</v>
+        <f t="shared" si="19"/>
+        <v>-234967.49999999994</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17234988880652874</v>
+        <f t="shared" si="20"/>
+        <v>-63.487570926776534</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
+        <f t="shared" si="23"/>
+        <v>850</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="21"/>
+        <v>118503882.15492623</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="22"/>
+        <v>271999.99999999994</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" si="16"/>
+        <v>151.07353539885355</v>
+      </c>
+      <c r="E96" s="4">
         <f t="shared" si="17"/>
-        <v>850</v>
-      </c>
-      <c r="B96">
-        <f>E0+qconv*A96+(D96-M0)*cp*(E95+273.15)</f>
-        <v>338896682.94324815</v>
-      </c>
-      <c r="C96" s="4">
-        <f>(gamma-1)*qfire*A96/(Volume/(1-0.0001))</f>
-        <v>33999.999999999993</v>
-      </c>
-      <c r="D96" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.6882831908285</v>
-      </c>
-      <c r="E96" s="4">
-        <f t="shared" si="13"/>
-        <v>118.62236868325886</v>
+        <v>812.00483179333071</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="2">
         <v>118.52500000000001</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="14"/>
-        <v>-9.7368683258849842E-2</v>
+        <f t="shared" si="18"/>
+        <v>-693.47983179333073</v>
       </c>
       <c r="I96" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.4853381974360406E-2</v>
+        <f t="shared" si="24"/>
+        <v>-63.906072338754051</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2">
         <v>34235.599999999999</v>
       </c>
       <c r="L96" s="4">
-        <f t="shared" si="15"/>
-        <v>235.60000000000582</v>
+        <f t="shared" si="19"/>
+        <v>-237764.39999999994</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17413155949741746</v>
+        <f t="shared" si="20"/>
+        <v>-63.692579694615581</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
+        <f t="shared" si="23"/>
+        <v>860</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="21"/>
+        <v>119541948.28141274</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="22"/>
+        <v>275199.99999999994</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="16"/>
+        <v>151.09353539885356</v>
+      </c>
+      <c r="E97" s="4">
         <f t="shared" si="17"/>
-        <v>860</v>
-      </c>
-      <c r="B97">
-        <f>E0+qconv*A97+(D97-M0)*cp*(E96+273.15)</f>
-        <v>339906609.65582484</v>
-      </c>
-      <c r="C97" s="4">
-        <f>(gamma-1)*qfire*A97/(Volume/(1-0.0001))</f>
-        <v>34399.999999999993</v>
-      </c>
-      <c r="D97" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.7082831908285</v>
-      </c>
-      <c r="E97" s="4">
-        <f t="shared" si="13"/>
-        <v>119.78330020513283</v>
+        <v>821.36563441408032</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="2">
         <v>119.68300000000001</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.10030020513282523</v>
+        <f t="shared" si="18"/>
+        <v>-701.68263441408033</v>
       </c>
       <c r="I97" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.552601295956922E-2</v>
+        <f t="shared" si="24"/>
+        <v>-64.10896403409599</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2">
         <v>34638.800000000003</v>
       </c>
       <c r="L97" s="4">
-        <f t="shared" si="15"/>
-        <v>238.80000000001019</v>
+        <f t="shared" si="19"/>
+        <v>-240561.19999999995</v>
       </c>
       <c r="M97" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17597641857038335</v>
+        <f t="shared" si="20"/>
+        <v>-63.894077025232399</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
+        <f t="shared" si="23"/>
+        <v>870</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="21"/>
+        <v>120580395.06532708</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="22"/>
+        <v>278399.99999999994</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="16"/>
+        <v>151.11353539885357</v>
+      </c>
+      <c r="E98" s="4">
         <f t="shared" si="17"/>
-        <v>870</v>
-      </c>
-      <c r="B98">
-        <f>E0+qconv*A98+(D98-M0)*cp*(E97+273.15)</f>
-        <v>340916583.38966525</v>
-      </c>
-      <c r="C98" s="4">
-        <f>(gamma-1)*qfire*A98/(Volume/(1-0.0001))</f>
-        <v>34799.999999999993</v>
-      </c>
-      <c r="D98" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.7282831908285</v>
-      </c>
-      <c r="E98" s="4">
-        <f t="shared" si="13"/>
-        <v>120.94424727934091</v>
+        <v>830.72744401993907</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="2">
         <v>120.842</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.10224727934091504</v>
+        <f t="shared" si="18"/>
+        <v>-709.88544401993909</v>
       </c>
       <c r="I98" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.5944879948587622E-2</v>
+        <f t="shared" si="24"/>
+        <v>-64.30835668086327</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2">
         <v>35042</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" si="15"/>
-        <v>242.00000000000728</v>
+        <f t="shared" si="19"/>
+        <v>-243357.99999999994</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17781043350478123</v>
+        <f t="shared" si="20"/>
+        <v>-64.092178035291013</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
+        <f t="shared" si="23"/>
+        <v>880</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="21"/>
+        <v>121619222.56809278</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="22"/>
+        <v>281599.99999999994</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="16"/>
+        <v>151.13353539885355</v>
+      </c>
+      <c r="E99" s="4">
         <f t="shared" si="17"/>
-        <v>880</v>
-      </c>
-      <c r="B99">
-        <f>E0+qconv*A99+(D99-M0)*cp*(E98+273.15)</f>
-        <v>341926604.14571416</v>
-      </c>
-      <c r="C99" s="4">
-        <f>(gamma-1)*qfire*A99/(Volume/(1-0.0001))</f>
-        <v>35199.999999999993</v>
-      </c>
-      <c r="D99" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.7482831908285</v>
-      </c>
-      <c r="E99" s="4">
-        <f t="shared" si="13"/>
-        <v>122.10520990619568</v>
+        <v>840.09026077337364</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="2">
         <v>122.001</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.1042099061956776</v>
+        <f t="shared" si="18"/>
+        <v>-718.08926077337367</v>
       </c>
       <c r="I99" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.6365220137239766E-2</v>
+        <f t="shared" si="24"/>
+        <v>-64.504427846915405</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2">
         <v>35445.199999999997</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="15"/>
-        <v>245.20000000000437</v>
+        <f t="shared" si="19"/>
+        <v>-246154.79999999993</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" si="16"/>
-        <v>0.17963369963370282</v>
+        <f t="shared" si="20"/>
+        <v>-64.286967876730202</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
+        <f t="shared" si="23"/>
+        <v>890</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="21"/>
+        <v>122658430.85114673</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="22"/>
+        <v>284799.99999999994</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" si="16"/>
+        <v>151.15353539885356</v>
+      </c>
+      <c r="E100" s="4">
         <f t="shared" si="17"/>
-        <v>890</v>
-      </c>
-      <c r="B100">
-        <f>E0+qconv*A100+(D100-M0)*cp*(E99+273.15)</f>
-        <v>342936671.92491663</v>
-      </c>
-      <c r="C100" s="4">
-        <f>(gamma-1)*qfire*A100/(Volume/(1-0.0001))</f>
-        <v>35599.999999999993</v>
-      </c>
-      <c r="D100" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.7682831908285</v>
-      </c>
-      <c r="E100" s="4">
-        <f t="shared" si="13"/>
-        <v>123.26618808600966</v>
+        <v>849.45408483688664</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="2">
         <v>123.15900000000001</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.10718808600965701</v>
+        <f t="shared" si="18"/>
+        <v>-726.29508483688664</v>
       </c>
       <c r="I100" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.7039280743600874E-2</v>
+        <f t="shared" si="24"/>
+        <v>-64.697349194343673</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
         <v>35848.400000000001</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="15"/>
-        <v>248.40000000000873</v>
+        <f t="shared" si="19"/>
+        <v>-248951.59999999995</v>
       </c>
       <c r="M100" s="9">
-        <f t="shared" si="16"/>
-        <v>0.18144631117604729</v>
+        <f t="shared" si="20"/>
+        <v>-64.478528878528877</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
+        <f t="shared" si="23"/>
+        <v>900</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="21"/>
+        <v>123698019.97593889</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="22"/>
+        <v>287999.99999999994</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" si="16"/>
+        <v>151.17353539885357</v>
+      </c>
+      <c r="E101" s="4">
         <f t="shared" si="17"/>
-        <v>900</v>
-      </c>
-      <c r="B101">
-        <f>E0+qconv*A101+(D101-M0)*cp*(E100+273.15)</f>
-        <v>343946786.72821748</v>
-      </c>
-      <c r="C101" s="4">
-        <f>(gamma-1)*qfire*A101/(Volume/(1-0.0001))</f>
-        <v>35999.999999999993</v>
-      </c>
-      <c r="D101" s="4">
-        <f t="shared" si="12"/>
-        <v>1196.7882831908285</v>
-      </c>
-      <c r="E101" s="4">
-        <f t="shared" si="13"/>
-        <v>124.42718181909538</v>
+        <v>858.81891637301453</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="2">
         <v>124.318</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.10918181909538305</v>
+        <f t="shared" si="18"/>
+        <v>-734.50091637301455</v>
       </c>
       <c r="I101" s="9">
-        <f t="shared" si="18"/>
-        <v>-2.7461792096776495E-2</v>
+        <f t="shared" si="24"/>
+        <v>-64.887021697243895</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2">
         <v>36251.599999999999</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="15"/>
-        <v>251.60000000000582</v>
+        <f t="shared" si="19"/>
+        <v>-251748.39999999994</v>
       </c>
       <c r="M101" s="9">
-        <f t="shared" si="16"/>
-        <v>0.18324836125273547</v>
+        <f t="shared" si="20"/>
+        <v>-64.666940662727967</v>
       </c>
     </row>
   </sheetData>
@@ -7960,12 +7963,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Sheet1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Sheet1!E11</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Sheet1!A12</f>
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <f>Sheet1!E12</f>
+        <v>29.27579902160079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Sheet1!A13</f>
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <f>Sheet1!E13</f>
+        <v>38.552591345340716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Sheet1!A14</f>
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Sheet1!E14</f>
+        <v>47.830377130750833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Sheet1!A15</f>
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Sheet1!E15</f>
+        <v>57.109156537395904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Sheet1!A16</f>
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
+        <f>Sheet1!E16</f>
+        <v>66.38892972487514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Sheet1!A17</f>
+        <v>60</v>
+      </c>
+      <c r="B8" s="4">
+        <f>Sheet1!E17</f>
+        <v>75.669696852821858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Sheet1!A18</f>
+        <v>70</v>
+      </c>
+      <c r="B9" s="4">
+        <f>Sheet1!E18</f>
+        <v>84.951458080903421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Sheet1!A19</f>
+        <v>80</v>
+      </c>
+      <c r="B10" s="4">
+        <f>Sheet1!E19</f>
+        <v>94.234213568821588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Sheet1!A20</f>
+        <v>90</v>
+      </c>
+      <c r="B11" s="4">
+        <f>Sheet1!E20</f>
+        <v>103.51796347631227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Sheet1!A21</f>
+        <v>100</v>
+      </c>
+      <c r="B12" s="4">
+        <f>Sheet1!E21</f>
+        <v>112.80270796314556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Sheet1!A22</f>
+        <v>110</v>
+      </c>
+      <c r="B13" s="4">
+        <f>Sheet1!E22</f>
+        <v>122.0884471891257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Sheet1!A23</f>
+        <v>120</v>
+      </c>
+      <c r="B14" s="4">
+        <f>Sheet1!E23</f>
+        <v>131.37518131409132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Sheet1!A24</f>
+        <v>130</v>
+      </c>
+      <c r="B15" s="4">
+        <f>Sheet1!E24</f>
+        <v>140.66291049791505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Sheet1!A25</f>
+        <v>140</v>
+      </c>
+      <c r="B16" s="4">
+        <f>Sheet1!E25</f>
+        <v>149.95163490050419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Sheet1!A26</f>
+        <v>150</v>
+      </c>
+      <c r="B17" s="4">
+        <f>Sheet1!E26</f>
+        <v>159.24135468179986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Sheet1!A27</f>
+        <v>160</v>
+      </c>
+      <c r="B18" s="4">
+        <f>Sheet1!E27</f>
+        <v>168.53207000177764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Sheet1!A28</f>
+        <v>170</v>
+      </c>
+      <c r="B19" s="4">
+        <f>Sheet1!E28</f>
+        <v>177.82378102044743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Sheet1!A29</f>
+        <v>180</v>
+      </c>
+      <c r="B20" s="4">
+        <f>Sheet1!E29</f>
+        <v>187.11648789785323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Sheet1!A30</f>
+        <v>190</v>
+      </c>
+      <c r="B21" s="4">
+        <f>Sheet1!E30</f>
+        <v>196.41019079407351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Sheet1!A31</f>
+        <v>200</v>
+      </c>
+      <c r="B22" s="4">
+        <f>Sheet1!E31</f>
+        <v>205.70488986922112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Sheet1!A32</f>
+        <v>210</v>
+      </c>
+      <c r="B23" s="4">
+        <f>Sheet1!E32</f>
+        <v>215.000585283443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Sheet1!A33</f>
+        <v>220</v>
+      </c>
+      <c r="B24" s="4">
+        <f>Sheet1!E33</f>
+        <v>224.2972771969205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>Sheet1!A34</f>
+        <v>230</v>
+      </c>
+      <c r="B25" s="4">
+        <f>Sheet1!E34</f>
+        <v>233.5949657698693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Sheet1!A35</f>
+        <v>240</v>
+      </c>
+      <c r="B26" s="4">
+        <f>Sheet1!E35</f>
+        <v>242.89365116253953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>Sheet1!A36</f>
+        <v>250</v>
+      </c>
+      <c r="B27" s="4">
+        <f>Sheet1!E36</f>
+        <v>252.1933335352154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>Sheet1!A37</f>
+        <v>260</v>
+      </c>
+      <c r="B28" s="4">
+        <f>Sheet1!E37</f>
+        <v>261.49401304821583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>Sheet1!A38</f>
+        <v>270</v>
+      </c>
+      <c r="B29" s="4">
+        <f>Sheet1!E38</f>
+        <v>270.79568986189383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>Sheet1!A39</f>
+        <v>280</v>
+      </c>
+      <c r="B30" s="4">
+        <f>Sheet1!E39</f>
+        <v>280.09836413663697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>Sheet1!A40</f>
+        <v>290</v>
+      </c>
+      <c r="B31" s="4">
+        <f>Sheet1!E40</f>
+        <v>289.40203603286716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>Sheet1!A41</f>
+        <v>300</v>
+      </c>
+      <c r="B32" s="4">
+        <f>Sheet1!E41</f>
+        <v>298.7067057110404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>Sheet1!A42</f>
+        <v>310</v>
+      </c>
+      <c r="B33" s="4">
+        <f>Sheet1!E42</f>
+        <v>308.01237333164761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>Sheet1!A43</f>
+        <v>320</v>
+      </c>
+      <c r="B34" s="4">
+        <f>Sheet1!E43</f>
+        <v>317.31903905521392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>Sheet1!A44</f>
+        <v>330</v>
+      </c>
+      <c r="B35" s="4">
+        <f>Sheet1!E44</f>
+        <v>326.6267030422988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>Sheet1!A45</f>
+        <v>340</v>
+      </c>
+      <c r="B36" s="4">
+        <f>Sheet1!E45</f>
+        <v>335.93536545349605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>Sheet1!A46</f>
+        <v>350</v>
+      </c>
+      <c r="B37" s="4">
+        <f>Sheet1!E46</f>
+        <v>345.24502644943414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>Sheet1!A47</f>
+        <v>360</v>
+      </c>
+      <c r="B38" s="4">
+        <f>Sheet1!E47</f>
+        <v>354.5556861907761</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>Sheet1!A48</f>
+        <v>370</v>
+      </c>
+      <c r="B39" s="4">
+        <f>Sheet1!E48</f>
+        <v>363.86734483821897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>Sheet1!A49</f>
+        <v>380</v>
+      </c>
+      <c r="B40" s="4">
+        <f>Sheet1!E49</f>
+        <v>373.18000255249478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>Sheet1!A50</f>
+        <v>390</v>
+      </c>
+      <c r="B41" s="4">
+        <f>Sheet1!E50</f>
+        <v>382.49365949436958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>Sheet1!A51</f>
+        <v>400</v>
+      </c>
+      <c r="B42" s="4">
+        <f>Sheet1!E51</f>
+        <v>391.80831582464418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>Sheet1!A52</f>
+        <v>410</v>
+      </c>
+      <c r="B43" s="4">
+        <f>Sheet1!E52</f>
+        <v>401.12397170415375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>Sheet1!A53</f>
+        <v>420</v>
+      </c>
+      <c r="B44" s="4">
+        <f>Sheet1!E53</f>
+        <v>410.44062729376822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>Sheet1!A54</f>
+        <v>430</v>
+      </c>
+      <c r="B45" s="4">
+        <f>Sheet1!E54</f>
+        <v>419.75828275439176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>Sheet1!A55</f>
+        <v>440</v>
+      </c>
+      <c r="B46" s="4">
+        <f>Sheet1!E55</f>
+        <v>429.0769382469631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>Sheet1!A56</f>
+        <v>450</v>
+      </c>
+      <c r="B47" s="4">
+        <f>Sheet1!E56</f>
+        <v>438.39659393245563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>Sheet1!A57</f>
+        <v>460</v>
+      </c>
+      <c r="B48" s="4">
+        <f>Sheet1!E57</f>
+        <v>447.7172499718771</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>Sheet1!A58</f>
+        <v>470</v>
+      </c>
+      <c r="B49" s="4">
+        <f>Sheet1!E58</f>
+        <v>457.03890652627024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>Sheet1!A59</f>
+        <v>480</v>
+      </c>
+      <c r="B50" s="4">
+        <f>Sheet1!E59</f>
+        <v>466.3615637567118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>Sheet1!A60</f>
+        <v>490</v>
+      </c>
+      <c r="B51" s="4">
+        <f>Sheet1!E60</f>
+        <v>475.68522182431332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>Sheet1!A61</f>
+        <v>500</v>
+      </c>
+      <c r="B52" s="4">
+        <f>Sheet1!E61</f>
+        <v>485.00988089022098</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>Sheet1!A62</f>
+        <v>510</v>
+      </c>
+      <c r="B53" s="4">
+        <f>Sheet1!E62</f>
+        <v>494.33554111561568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>Sheet1!A63</f>
+        <v>520</v>
+      </c>
+      <c r="B54" s="4">
+        <f>Sheet1!E63</f>
+        <v>503.66220266171229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>Sheet1!A64</f>
+        <v>530</v>
+      </c>
+      <c r="B55" s="4">
+        <f>Sheet1!E64</f>
+        <v>512.98986568976136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>Sheet1!A65</f>
+        <v>540</v>
+      </c>
+      <c r="B56" s="4">
+        <f>Sheet1!E65</f>
+        <v>522.3185303610469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>Sheet1!A66</f>
+        <v>550</v>
+      </c>
+      <c r="B57" s="4">
+        <f>Sheet1!E66</f>
+        <v>531.64819683688847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>Sheet1!A67</f>
+        <v>560</v>
+      </c>
+      <c r="B58" s="4">
+        <f>Sheet1!E67</f>
+        <v>540.97886527863977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>Sheet1!A68</f>
+        <v>570</v>
+      </c>
+      <c r="B59" s="4">
+        <f>Sheet1!E68</f>
+        <v>550.31053584768904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>Sheet1!A69</f>
+        <v>580</v>
+      </c>
+      <c r="B60" s="4">
+        <f>Sheet1!E69</f>
+        <v>559.64320870545987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>Sheet1!A70</f>
+        <v>590</v>
+      </c>
+      <c r="B61" s="4">
+        <f>Sheet1!E70</f>
+        <v>568.97688401340974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>Sheet1!A71</f>
+        <v>600</v>
+      </c>
+      <c r="B62" s="4">
+        <f>Sheet1!E71</f>
+        <v>578.31156193303104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>Sheet1!A72</f>
+        <v>610</v>
+      </c>
+      <c r="B63" s="4">
+        <f>Sheet1!E72</f>
+        <v>587.64724262585116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>Sheet1!A73</f>
+        <v>620</v>
+      </c>
+      <c r="B64" s="4">
+        <f>Sheet1!E73</f>
+        <v>596.98392625343172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>Sheet1!A74</f>
+        <v>630</v>
+      </c>
+      <c r="B65" s="4">
+        <f>Sheet1!E74</f>
+        <v>606.32161297736934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>Sheet1!A75</f>
+        <v>640</v>
+      </c>
+      <c r="B66" s="4">
+        <f>Sheet1!E75</f>
+        <v>615.66030295929545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>Sheet1!A76</f>
+        <v>650</v>
+      </c>
+      <c r="B67" s="4">
+        <f>Sheet1!E76</f>
+        <v>624.99999636087568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>Sheet1!A77</f>
+        <v>660</v>
+      </c>
+      <c r="B68" s="4">
+        <f>Sheet1!E77</f>
+        <v>634.34069334381104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>Sheet1!A78</f>
+        <v>670</v>
+      </c>
+      <c r="B69" s="4">
+        <f>Sheet1!E78</f>
+        <v>643.68239406983696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>Sheet1!A79</f>
+        <v>680</v>
+      </c>
+      <c r="B70" s="4">
+        <f>Sheet1!E79</f>
+        <v>653.02509870072333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>Sheet1!A80</f>
+        <v>690</v>
+      </c>
+      <c r="B71" s="4">
+        <f>Sheet1!E80</f>
+        <v>662.36880739827529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>Sheet1!A81</f>
+        <v>700</v>
+      </c>
+      <c r="B72" s="4">
+        <f>Sheet1!E81</f>
+        <v>671.71352032433253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f>Sheet1!A82</f>
+        <v>710</v>
+      </c>
+      <c r="B73" s="4">
+        <f>Sheet1!E82</f>
+        <v>681.05923764076954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f>Sheet1!A83</f>
+        <v>720</v>
+      </c>
+      <c r="B74" s="4">
+        <f>Sheet1!E83</f>
+        <v>690.40595950949569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>Sheet1!A84</f>
+        <v>730</v>
+      </c>
+      <c r="B75" s="4">
+        <f>Sheet1!E84</f>
+        <v>699.75368609245515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f>Sheet1!A85</f>
+        <v>740</v>
+      </c>
+      <c r="B76" s="4">
+        <f>Sheet1!E85</f>
+        <v>709.10241755162633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f>Sheet1!A86</f>
+        <v>750</v>
+      </c>
+      <c r="B77" s="4">
+        <f>Sheet1!E86</f>
+        <v>718.45215404902342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f>Sheet1!A87</f>
+        <v>760</v>
+      </c>
+      <c r="B78" s="4">
+        <f>Sheet1!E87</f>
+        <v>727.80289574669462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f>Sheet1!A88</f>
+        <v>770</v>
+      </c>
+      <c r="B79" s="4">
+        <f>Sheet1!E88</f>
+        <v>737.15464280672347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>Sheet1!A89</f>
+        <v>780</v>
+      </c>
+      <c r="B80" s="4">
+        <f>Sheet1!E89</f>
+        <v>746.50739539122799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>Sheet1!A90</f>
+        <v>790</v>
+      </c>
+      <c r="B81" s="4">
+        <f>Sheet1!E90</f>
+        <v>755.86115366236152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>Sheet1!A91</f>
+        <v>800</v>
+      </c>
+      <c r="B82" s="4">
+        <f>Sheet1!E91</f>
+        <v>765.21591778231152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>Sheet1!A92</f>
+        <v>810</v>
+      </c>
+      <c r="B83" s="4">
+        <f>Sheet1!E92</f>
+        <v>774.57168791330093</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f>Sheet1!A93</f>
+        <v>820</v>
+      </c>
+      <c r="B84" s="4">
+        <f>Sheet1!E93</f>
+        <v>783.92846421758793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f>Sheet1!A94</f>
+        <v>830</v>
+      </c>
+      <c r="B85" s="4">
+        <f>Sheet1!E94</f>
+        <v>793.28624685746433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f>Sheet1!A95</f>
+        <v>840</v>
+      </c>
+      <c r="B86" s="4">
+        <f>Sheet1!E95</f>
+        <v>802.6450359952579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f>Sheet1!A96</f>
+        <v>850</v>
+      </c>
+      <c r="B87" s="4">
+        <f>Sheet1!E96</f>
+        <v>812.00483179333071</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>Sheet1!A97</f>
+        <v>860</v>
+      </c>
+      <c r="B88" s="4">
+        <f>Sheet1!E97</f>
+        <v>821.36563441408032</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>Sheet1!A98</f>
+        <v>870</v>
+      </c>
+      <c r="B89" s="4">
+        <f>Sheet1!E98</f>
+        <v>830.72744401993907</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>Sheet1!A99</f>
+        <v>880</v>
+      </c>
+      <c r="B90" s="4">
+        <f>Sheet1!E99</f>
+        <v>840.09026077337364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>Sheet1!A100</f>
+        <v>890</v>
+      </c>
+      <c r="B91" s="4">
+        <f>Sheet1!E100</f>
+        <v>849.45408483688664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>Sheet1!A101</f>
+        <v>900</v>
+      </c>
+      <c r="B92" s="4">
+        <f>Sheet1!E101</f>
+        <v>858.81891637301453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
